--- a/docs/avr_mcumap_gen.xlsx
+++ b/docs/avr_mcumap_gen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uCNC-master\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E1FDF-73A6-4385-BAC5-A356D454F954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462BDC13-E70B-40D0-8FEF-378960D0E079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
   <si>
     <t>Names</t>
   </si>
@@ -351,9 +351,6 @@
     <t>//ISR on change defaults</t>
   </si>
   <si>
-    <t>//Analog pins</t>
-  </si>
-  <si>
     <t>//PWM pins</t>
   </si>
   <si>
@@ -365,12 +362,114 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>STEP6</t>
+  </si>
+  <si>
+    <t>STEP7</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG0
+#define ANALOG0_ADMUXREG (1&lt;&lt;0)
+#define DIO65_ADMUXREG (1&lt;&lt;0)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG1
+#define ANALOG1_ADMUXREG (1&lt;&lt;1)
+#define DIO66_ADMUXREG (1&lt;&lt;1)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG2
+#define ANALOG2_ADMUXREG (1&lt;&lt;2)
+#define DIO67_ADMUXREG (1&lt;&lt;2)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG3
+#define ANALOG3_ADMUXREG (1&lt;&lt;3)
+#define DIO68_ADMUXREG (1&lt;&lt;3)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG4
+#define ANALOG4_ADMUXREG (1&lt;&lt;4)
+#define DIO69_ADMUXREG (1&lt;&lt;4)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG5
+#define ANALOG5_ADMUXREG (1&lt;&lt;5)
+#define DIO70_ADMUXREG (1&lt;&lt;5)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG6
+#define ANALOG6_ADMUXREG (1&lt;&lt;6)
+#define DIO71_ADMUXREG (1&lt;&lt;6)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG7
+#define ANALOG7_ADMUXREG (1&lt;&lt;7)
+#define DIO72_ADMUXREG (1&lt;&lt;7)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG8
+#define ANALOG8_ADMUXREG (1&lt;&lt;8)
+#define DIO73_ADMUXREG (1&lt;&lt;8)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG9
+#define ANALOG9_ADMUXREG (1&lt;&lt;9)
+#define DIO74_ADMUXREG (1&lt;&lt;9)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG10
+#define ANALOG10_ADMUXREG (1&lt;&lt;10)
+#define DIO75_ADMUXREG (1&lt;&lt;10)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG11
+#define ANALOG11_ADMUXREG (1&lt;&lt;11)
+#define DIO76_ADMUXREG (1&lt;&lt;11)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG12
+#define ANALOG12_ADMUXREG (1&lt;&lt;12)
+#define DIO77_ADMUXREG (1&lt;&lt;12)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG13
+#define ANALOG13_ADMUXREG (1&lt;&lt;13)
+#define DIO78_ADMUXREG (1&lt;&lt;13)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG14
+#define ANALOG14_ADMUXREG (1&lt;&lt;14)
+#define DIO79_ADMUXREG (1&lt;&lt;14)
+#endif</t>
+  </si>
+  <si>
+    <t>#ifdef ANALOG15
+#define ANALOG15_ADMUXREG (1&lt;&lt;15)
+#define DIO80_ADMUXREG (1&lt;&lt;15)
+#endif</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +518,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -523,6 +626,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,9 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -755,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1001"/>
+  <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:F67"/>
+    <sheetView tabSelected="1" topLeftCell="D63" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -770,11 +873,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="9"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -817,18 +920,18 @@
       <c r="E2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -850,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B100" si="0">"DIO"&amp;A3</f>
+        <f t="shared" ref="B3:B102" si="0">"DIO"&amp;A3</f>
         <v>DIO0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -889,7 +992,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I20" si="1">"#ifdef "&amp;C3&amp;"
+        <f t="shared" ref="I3:I22" si="1">"#ifdef "&amp;C3&amp;"
 SETBIT("&amp;C3&amp;"_DIRREG, "&amp;C3&amp;"_BIT);
 #endif"</f>
         <v>#ifdef STEP0
@@ -900,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
@@ -966,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E67" si="2">"#if(defined("&amp;C4&amp;"_PORT) &amp;&amp; defined("&amp;C4&amp;"_BIT))
+        <f t="shared" ref="E4:E69" si="2">"#if(defined("&amp;C4&amp;"_PORT) &amp;&amp; defined("&amp;C4&amp;"_BIT))
 #define "&amp;B4&amp;" "&amp;A4&amp;"
 #define "&amp;C4&amp;" "&amp;A4&amp;"
 #define "&amp;B4&amp;"_PORT ("&amp;C4&amp;"_PORT)
@@ -1004,13 +1107,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M10" si="3">"#if(PCINT"&amp;K4&amp;"_MASK=="&amp;L4&amp;")
+        <f t="shared" ref="M4:M8" si="3">"#if(PCINT"&amp;K4&amp;"_MASK=="&amp;L4&amp;")
 ISR(INT"&amp;J4&amp;"_vect, ISR_BLOCK) // input pin on change service routine
 {
 #if(PCINT"&amp;K4&amp;"_LIMITS_MASK=="&amp;L4&amp;")
@@ -1097,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L5" s="3">
         <v>16</v>
@@ -1177,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="3">
         <v>64</v>
@@ -1257,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1337,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="3">
         <v>4</v>
@@ -1384,46 +1487,54 @@
         <v>DIO6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(STEP0_EN_PORT) &amp;&amp; defined(STEP0_EN_BIT))
+        <v>#if(defined(STEP6_PORT) &amp;&amp; defined(STEP6_BIT))
 #define DIO6 6
-#define STEP0_EN 6
-#define DIO6_PORT (STEP0_EN_PORT)
-#define DIO6_BIT (STEP0_EN_BIT)
-#define STEP0_EN_OUTREG (__outreg__(STEP0_EN_PORT))
-#define STEP0_EN_INREG (__inreg__(STEP0_EN_PORT))
-#define STEP0_EN_DIRREG (__dirreg__(STEP0_EN_PORT))
-#define DIO6_OUTREG (__outreg__(STEP0_EN_PORT))
-#define DIO6_INREG (__inreg__(STEP0_EN_PORT))
-#define DIO6_DIRREG (__dirreg__(STEP0_EN_PORT))
+#define STEP6 6
+#define DIO6_PORT (STEP6_PORT)
+#define DIO6_BIT (STEP6_BIT)
+#define STEP6_OUTREG (__outreg__(STEP6_PORT))
+#define STEP6_INREG (__inreg__(STEP6_PORT))
+#define STEP6_DIRREG (__dirreg__(STEP6_PORT))
+#define DIO6_OUTREG (__outreg__(STEP6_PORT))
+#define DIO6_INREG (__inreg__(STEP6_PORT))
+#define DIO6_DIRREG (__dirreg__(STEP6_PORT))
 #endif</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>#ifdef STEP0_EN
-SETBIT(STEP0_EN_DIRREG, STEP0_EN_BIT);
-#endif</v>
-      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3">
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="3">
         <v>16</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"#if(PCINT"&amp;K9&amp;"_MASK=="&amp;L9&amp;")
+ISR(INT"&amp;J9&amp;"_vect, ISR_BLOCK) // input pin on change service routine
+{
+#if(PCINT"&amp;K9&amp;"_LIMITS_MASK=="&amp;L9&amp;")
+    io_limits_isr();
+#endif
+#if(PCINT"&amp;K9&amp;"_CONTROLS_MASK=="&amp;L9&amp;")
+    io_controls_isr();
+#endif
+#if(PROBE_ISR"&amp;K9&amp;"=="&amp;L9&amp;")
+    io_probe_isr();
+#endif
+}
+#endif"</f>
         <v>#if(PCINTB_MASK==16)
 ISR(INT6_vect, ISR_BLOCK) // input pin on change service routine
 {
@@ -1464,46 +1575,54 @@
         <v>DIO7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(STEP1_EN_PORT) &amp;&amp; defined(STEP1_EN_BIT))
+        <v>#if(defined(STEP7_PORT) &amp;&amp; defined(STEP7_BIT))
 #define DIO7 7
-#define STEP1_EN 7
-#define DIO7_PORT (STEP1_EN_PORT)
-#define DIO7_BIT (STEP1_EN_BIT)
-#define STEP1_EN_OUTREG (__outreg__(STEP1_EN_PORT))
-#define STEP1_EN_INREG (__inreg__(STEP1_EN_PORT))
-#define STEP1_EN_DIRREG (__dirreg__(STEP1_EN_PORT))
-#define DIO7_OUTREG (__outreg__(STEP1_EN_PORT))
-#define DIO7_INREG (__inreg__(STEP1_EN_PORT))
-#define DIO7_DIRREG (__dirreg__(STEP1_EN_PORT))
+#define STEP7 7
+#define DIO7_PORT (STEP7_PORT)
+#define DIO7_BIT (STEP7_BIT)
+#define STEP7_OUTREG (__outreg__(STEP7_PORT))
+#define STEP7_INREG (__inreg__(STEP7_PORT))
+#define STEP7_DIRREG (__dirreg__(STEP7_PORT))
+#define DIO7_OUTREG (__outreg__(STEP7_PORT))
+#define DIO7_INREG (__inreg__(STEP7_PORT))
+#define DIO7_DIRREG (__dirreg__(STEP7_PORT))
 #endif</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>#ifdef STEP1_EN
-SETBIT(STEP1_EN_DIRREG, STEP1_EN_BIT);
-#endif</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3">
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" s="3">
         <v>64</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"#if(PCINT"&amp;K10&amp;"_MASK=="&amp;L10&amp;")
+ISR(INT"&amp;J10&amp;"_vect, ISR_BLOCK) // input pin on change service routine
+{
+#if(PCINT"&amp;K10&amp;"_LIMITS_MASK=="&amp;L10&amp;")
+    io_limits_isr();
+#endif
+#if(PCINT"&amp;K10&amp;"_CONTROLS_MASK=="&amp;L10&amp;")
+    io_controls_isr();
+#endif
+#if(PROBE_ISR"&amp;K10&amp;"=="&amp;L10&amp;")
+    io_probe_isr();
+#endif
+}
+#endif"</f>
         <v>#if(PCINTB_MASK==64)
 ISR(INT7_vect, ISR_BLOCK) // input pin on change service routine
 {
@@ -1544,24 +1663,24 @@
         <v>DIO8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(STEP2_EN_PORT) &amp;&amp; defined(STEP2_EN_BIT))
+        <v>#if(defined(STEP0_EN_PORT) &amp;&amp; defined(STEP0_EN_BIT))
 #define DIO8 8
-#define STEP2_EN 8
-#define DIO8_PORT (STEP2_EN_PORT)
-#define DIO8_BIT (STEP2_EN_BIT)
-#define STEP2_EN_OUTREG (__outreg__(STEP2_EN_PORT))
-#define STEP2_EN_INREG (__inreg__(STEP2_EN_PORT))
-#define STEP2_EN_DIRREG (__dirreg__(STEP2_EN_PORT))
-#define DIO8_OUTREG (__outreg__(STEP2_EN_PORT))
-#define DIO8_INREG (__inreg__(STEP2_EN_PORT))
-#define DIO8_DIRREG (__dirreg__(STEP2_EN_PORT))
+#define STEP0_EN 8
+#define DIO8_PORT (STEP0_EN_PORT)
+#define DIO8_BIT (STEP0_EN_BIT)
+#define STEP0_EN_OUTREG (__outreg__(STEP0_EN_PORT))
+#define STEP0_EN_INREG (__inreg__(STEP0_EN_PORT))
+#define STEP0_EN_DIRREG (__dirreg__(STEP0_EN_PORT))
+#define DIO8_OUTREG (__outreg__(STEP0_EN_PORT))
+#define DIO8_INREG (__inreg__(STEP0_EN_PORT))
+#define DIO8_DIRREG (__dirreg__(STEP0_EN_PORT))
 #endif</v>
       </c>
       <c r="F11" s="6"/>
@@ -1569,14 +1688,10 @@
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef STEP2_EN
-SETBIT(STEP2_EN_DIRREG, STEP2_EN_BIT);
+        <v>#ifdef STEP0_EN
+SETBIT(STEP0_EN_DIRREG, STEP0_EN_BIT);
 #endif</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1602,24 +1717,24 @@
         <v>DIO9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(STEP3_EN_PORT) &amp;&amp; defined(STEP3_EN_BIT))
+        <v>#if(defined(STEP1_EN_PORT) &amp;&amp; defined(STEP1_EN_BIT))
 #define DIO9 9
-#define STEP3_EN 9
-#define DIO9_PORT (STEP3_EN_PORT)
-#define DIO9_BIT (STEP3_EN_BIT)
-#define STEP3_EN_OUTREG (__outreg__(STEP3_EN_PORT))
-#define STEP3_EN_INREG (__inreg__(STEP3_EN_PORT))
-#define STEP3_EN_DIRREG (__dirreg__(STEP3_EN_PORT))
-#define DIO9_OUTREG (__outreg__(STEP3_EN_PORT))
-#define DIO9_INREG (__inreg__(STEP3_EN_PORT))
-#define DIO9_DIRREG (__dirreg__(STEP3_EN_PORT))
+#define STEP1_EN 9
+#define DIO9_PORT (STEP1_EN_PORT)
+#define DIO9_BIT (STEP1_EN_BIT)
+#define STEP1_EN_OUTREG (__outreg__(STEP1_EN_PORT))
+#define STEP1_EN_INREG (__inreg__(STEP1_EN_PORT))
+#define STEP1_EN_DIRREG (__dirreg__(STEP1_EN_PORT))
+#define DIO9_OUTREG (__outreg__(STEP1_EN_PORT))
+#define DIO9_INREG (__inreg__(STEP1_EN_PORT))
+#define DIO9_DIRREG (__dirreg__(STEP1_EN_PORT))
 #endif</v>
       </c>
       <c r="F12" s="6"/>
@@ -1627,14 +1742,10 @@
       <c r="H12" s="6"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef STEP3_EN
-SETBIT(STEP3_EN_DIRREG, STEP3_EN_BIT);
+        <v>#ifdef STEP1_EN
+SETBIT(STEP1_EN_DIRREG, STEP1_EN_BIT);
 #endif</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1660,24 +1771,24 @@
         <v>DIO10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(STEP4_EN_PORT) &amp;&amp; defined(STEP4_EN_BIT))
+        <v>#if(defined(STEP2_EN_PORT) &amp;&amp; defined(STEP2_EN_BIT))
 #define DIO10 10
-#define STEP4_EN 10
-#define DIO10_PORT (STEP4_EN_PORT)
-#define DIO10_BIT (STEP4_EN_BIT)
-#define STEP4_EN_OUTREG (__outreg__(STEP4_EN_PORT))
-#define STEP4_EN_INREG (__inreg__(STEP4_EN_PORT))
-#define STEP4_EN_DIRREG (__dirreg__(STEP4_EN_PORT))
-#define DIO10_OUTREG (__outreg__(STEP4_EN_PORT))
-#define DIO10_INREG (__inreg__(STEP4_EN_PORT))
-#define DIO10_DIRREG (__dirreg__(STEP4_EN_PORT))
+#define STEP2_EN 10
+#define DIO10_PORT (STEP2_EN_PORT)
+#define DIO10_BIT (STEP2_EN_BIT)
+#define STEP2_EN_OUTREG (__outreg__(STEP2_EN_PORT))
+#define STEP2_EN_INREG (__inreg__(STEP2_EN_PORT))
+#define STEP2_EN_DIRREG (__dirreg__(STEP2_EN_PORT))
+#define DIO10_OUTREG (__outreg__(STEP2_EN_PORT))
+#define DIO10_INREG (__inreg__(STEP2_EN_PORT))
+#define DIO10_DIRREG (__dirreg__(STEP2_EN_PORT))
 #endif</v>
       </c>
       <c r="F13" s="6"/>
@@ -1685,8 +1796,8 @@
       <c r="H13" s="6"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef STEP4_EN
-SETBIT(STEP4_EN_DIRREG, STEP4_EN_BIT);
+        <v>#ifdef STEP2_EN
+SETBIT(STEP2_EN_DIRREG, STEP2_EN_BIT);
 #endif</v>
       </c>
       <c r="J13" s="3"/>
@@ -1718,24 +1829,24 @@
         <v>DIO11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(STEP5_EN_PORT) &amp;&amp; defined(STEP5_EN_BIT))
+        <v>#if(defined(STEP3_EN_PORT) &amp;&amp; defined(STEP3_EN_BIT))
 #define DIO11 11
-#define STEP5_EN 11
-#define DIO11_PORT (STEP5_EN_PORT)
-#define DIO11_BIT (STEP5_EN_BIT)
-#define STEP5_EN_OUTREG (__outreg__(STEP5_EN_PORT))
-#define STEP5_EN_INREG (__inreg__(STEP5_EN_PORT))
-#define STEP5_EN_DIRREG (__dirreg__(STEP5_EN_PORT))
-#define DIO11_OUTREG (__outreg__(STEP5_EN_PORT))
-#define DIO11_INREG (__inreg__(STEP5_EN_PORT))
-#define DIO11_DIRREG (__dirreg__(STEP5_EN_PORT))
+#define STEP3_EN 11
+#define DIO11_PORT (STEP3_EN_PORT)
+#define DIO11_BIT (STEP3_EN_BIT)
+#define STEP3_EN_OUTREG (__outreg__(STEP3_EN_PORT))
+#define STEP3_EN_INREG (__inreg__(STEP3_EN_PORT))
+#define STEP3_EN_DIRREG (__dirreg__(STEP3_EN_PORT))
+#define DIO11_OUTREG (__outreg__(STEP3_EN_PORT))
+#define DIO11_INREG (__inreg__(STEP3_EN_PORT))
+#define DIO11_DIRREG (__dirreg__(STEP3_EN_PORT))
 #endif</v>
       </c>
       <c r="F14" s="6"/>
@@ -1743,8 +1854,8 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef STEP5_EN
-SETBIT(STEP5_EN_DIRREG, STEP5_EN_BIT);
+        <v>#ifdef STEP3_EN
+SETBIT(STEP3_EN_DIRREG, STEP3_EN_BIT);
 #endif</v>
       </c>
       <c r="J14" s="3"/>
@@ -1776,24 +1887,24 @@
         <v>DIO12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
+        <v>#if(defined(STEP4_EN_PORT) &amp;&amp; defined(STEP4_EN_BIT))
 #define DIO12 12
-#define DIR0 12
-#define DIO12_PORT (DIR0_PORT)
-#define DIO12_BIT (DIR0_BIT)
-#define DIR0_OUTREG (__outreg__(DIR0_PORT))
-#define DIR0_INREG (__inreg__(DIR0_PORT))
-#define DIR0_DIRREG (__dirreg__(DIR0_PORT))
-#define DIO12_OUTREG (__outreg__(DIR0_PORT))
-#define DIO12_INREG (__inreg__(DIR0_PORT))
-#define DIO12_DIRREG (__dirreg__(DIR0_PORT))
+#define STEP4_EN 12
+#define DIO12_PORT (STEP4_EN_PORT)
+#define DIO12_BIT (STEP4_EN_BIT)
+#define STEP4_EN_OUTREG (__outreg__(STEP4_EN_PORT))
+#define STEP4_EN_INREG (__inreg__(STEP4_EN_PORT))
+#define STEP4_EN_DIRREG (__dirreg__(STEP4_EN_PORT))
+#define DIO12_OUTREG (__outreg__(STEP4_EN_PORT))
+#define DIO12_INREG (__inreg__(STEP4_EN_PORT))
+#define DIO12_DIRREG (__dirreg__(STEP4_EN_PORT))
 #endif</v>
       </c>
       <c r="F15" s="6"/>
@@ -1801,8 +1912,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef DIR0
-SETBIT(DIR0_DIRREG, DIR0_BIT);
+        <v>#ifdef STEP4_EN
+SETBIT(STEP4_EN_DIRREG, STEP4_EN_BIT);
 #endif</v>
       </c>
       <c r="J15" s="3"/>
@@ -1834,24 +1945,24 @@
         <v>DIO13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
+        <v>#if(defined(STEP5_EN_PORT) &amp;&amp; defined(STEP5_EN_BIT))
 #define DIO13 13
-#define DIR1 13
-#define DIO13_PORT (DIR1_PORT)
-#define DIO13_BIT (DIR1_BIT)
-#define DIR1_OUTREG (__outreg__(DIR1_PORT))
-#define DIR1_INREG (__inreg__(DIR1_PORT))
-#define DIR1_DIRREG (__dirreg__(DIR1_PORT))
-#define DIO13_OUTREG (__outreg__(DIR1_PORT))
-#define DIO13_INREG (__inreg__(DIR1_PORT))
-#define DIO13_DIRREG (__dirreg__(DIR1_PORT))
+#define STEP5_EN 13
+#define DIO13_PORT (STEP5_EN_PORT)
+#define DIO13_BIT (STEP5_EN_BIT)
+#define STEP5_EN_OUTREG (__outreg__(STEP5_EN_PORT))
+#define STEP5_EN_INREG (__inreg__(STEP5_EN_PORT))
+#define STEP5_EN_DIRREG (__dirreg__(STEP5_EN_PORT))
+#define DIO13_OUTREG (__outreg__(STEP5_EN_PORT))
+#define DIO13_INREG (__inreg__(STEP5_EN_PORT))
+#define DIO13_DIRREG (__dirreg__(STEP5_EN_PORT))
 #endif</v>
       </c>
       <c r="F16" s="6"/>
@@ -1859,8 +1970,8 @@
       <c r="H16" s="6"/>
       <c r="I16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef DIR1
-SETBIT(DIR1_DIRREG, DIR1_BIT);
+        <v>#ifdef STEP5_EN
+SETBIT(STEP5_EN_DIRREG, STEP5_EN_BIT);
 #endif</v>
       </c>
       <c r="J16" s="3"/>
@@ -1892,24 +2003,24 @@
         <v>DIO14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
+        <v>#if(defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
 #define DIO14 14
-#define DIR2 14
-#define DIO14_PORT (DIR2_PORT)
-#define DIO14_BIT (DIR2_BIT)
-#define DIR2_OUTREG (__outreg__(DIR2_PORT))
-#define DIR2_INREG (__inreg__(DIR2_PORT))
-#define DIR2_DIRREG (__dirreg__(DIR2_PORT))
-#define DIO14_OUTREG (__outreg__(DIR2_PORT))
-#define DIO14_INREG (__inreg__(DIR2_PORT))
-#define DIO14_DIRREG (__dirreg__(DIR2_PORT))
+#define DIR0 14
+#define DIO14_PORT (DIR0_PORT)
+#define DIO14_BIT (DIR0_BIT)
+#define DIR0_OUTREG (__outreg__(DIR0_PORT))
+#define DIR0_INREG (__inreg__(DIR0_PORT))
+#define DIR0_DIRREG (__dirreg__(DIR0_PORT))
+#define DIO14_OUTREG (__outreg__(DIR0_PORT))
+#define DIO14_INREG (__inreg__(DIR0_PORT))
+#define DIO14_DIRREG (__dirreg__(DIR0_PORT))
 #endif</v>
       </c>
       <c r="F17" s="6"/>
@@ -1917,8 +2028,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef DIR2
-SETBIT(DIR2_DIRREG, DIR2_BIT);
+        <v>#ifdef DIR0
+SETBIT(DIR0_DIRREG, DIR0_BIT);
 #endif</v>
       </c>
       <c r="J17" s="3"/>
@@ -1950,24 +2061,24 @@
         <v>DIO15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
+        <v>#if(defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
 #define DIO15 15
-#define DIR3 15
-#define DIO15_PORT (DIR3_PORT)
-#define DIO15_BIT (DIR3_BIT)
-#define DIR3_OUTREG (__outreg__(DIR3_PORT))
-#define DIR3_INREG (__inreg__(DIR3_PORT))
-#define DIR3_DIRREG (__dirreg__(DIR3_PORT))
-#define DIO15_OUTREG (__outreg__(DIR3_PORT))
-#define DIO15_INREG (__inreg__(DIR3_PORT))
-#define DIO15_DIRREG (__dirreg__(DIR3_PORT))
+#define DIR1 15
+#define DIO15_PORT (DIR1_PORT)
+#define DIO15_BIT (DIR1_BIT)
+#define DIR1_OUTREG (__outreg__(DIR1_PORT))
+#define DIR1_INREG (__inreg__(DIR1_PORT))
+#define DIR1_DIRREG (__dirreg__(DIR1_PORT))
+#define DIO15_OUTREG (__outreg__(DIR1_PORT))
+#define DIO15_INREG (__inreg__(DIR1_PORT))
+#define DIO15_DIRREG (__dirreg__(DIR1_PORT))
 #endif</v>
       </c>
       <c r="F18" s="6"/>
@@ -1975,8 +2086,8 @@
       <c r="H18" s="6"/>
       <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef DIR3
-SETBIT(DIR3_DIRREG, DIR3_BIT);
+        <v>#ifdef DIR1
+SETBIT(DIR1_DIRREG, DIR1_BIT);
 #endif</v>
       </c>
       <c r="J18" s="3"/>
@@ -2008,24 +2119,24 @@
         <v>DIO16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
+        <v>#if(defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
 #define DIO16 16
-#define DIR4 16
-#define DIO16_PORT (DIR4_PORT)
-#define DIO16_BIT (DIR4_BIT)
-#define DIR4_OUTREG (__outreg__(DIR4_PORT))
-#define DIR4_INREG (__inreg__(DIR4_PORT))
-#define DIR4_DIRREG (__dirreg__(DIR4_PORT))
-#define DIO16_OUTREG (__outreg__(DIR4_PORT))
-#define DIO16_INREG (__inreg__(DIR4_PORT))
-#define DIO16_DIRREG (__dirreg__(DIR4_PORT))
+#define DIR2 16
+#define DIO16_PORT (DIR2_PORT)
+#define DIO16_BIT (DIR2_BIT)
+#define DIR2_OUTREG (__outreg__(DIR2_PORT))
+#define DIR2_INREG (__inreg__(DIR2_PORT))
+#define DIR2_DIRREG (__dirreg__(DIR2_PORT))
+#define DIO16_OUTREG (__outreg__(DIR2_PORT))
+#define DIO16_INREG (__inreg__(DIR2_PORT))
+#define DIO16_DIRREG (__dirreg__(DIR2_PORT))
 #endif</v>
       </c>
       <c r="F19" s="6"/>
@@ -2033,8 +2144,8 @@
       <c r="H19" s="6"/>
       <c r="I19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef DIR4
-SETBIT(DIR4_DIRREG, DIR4_BIT);
+        <v>#ifdef DIR2
+SETBIT(DIR2_DIRREG, DIR2_BIT);
 #endif</v>
       </c>
       <c r="J19" s="3"/>
@@ -2066,35 +2177,33 @@
         <v>DIO17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
+        <v>#if(defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
 #define DIO17 17
-#define DIR5 17
-#define DIO17_PORT (DIR5_PORT)
-#define DIO17_BIT (DIR5_BIT)
-#define DIR5_OUTREG (__outreg__(DIR5_PORT))
-#define DIR5_INREG (__inreg__(DIR5_PORT))
-#define DIR5_DIRREG (__dirreg__(DIR5_PORT))
-#define DIO17_OUTREG (__outreg__(DIR5_PORT))
-#define DIO17_INREG (__inreg__(DIR5_PORT))
-#define DIO17_DIRREG (__dirreg__(DIR5_PORT))
+#define DIR3 17
+#define DIO17_PORT (DIR3_PORT)
+#define DIO17_BIT (DIR3_BIT)
+#define DIR3_OUTREG (__outreg__(DIR3_PORT))
+#define DIR3_INREG (__inreg__(DIR3_PORT))
+#define DIR3_DIRREG (__dirreg__(DIR3_PORT))
+#define DIO17_OUTREG (__outreg__(DIR3_PORT))
+#define DIO17_INREG (__inreg__(DIR3_PORT))
+#define DIO17_DIRREG (__dirreg__(DIR3_PORT))
 #endif</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#ifdef DIR5
-SETBIT(DIR5_DIRREG, DIR5_BIT);
+        <v>#ifdef DIR3
+SETBIT(DIR3_DIRREG, DIR3_BIT);
 #endif</v>
       </c>
       <c r="J20" s="3"/>
@@ -2117,7 +2226,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" s="4" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2126,104 +2235,33 @@
         <v>DIO18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM0_PORT) &amp;&amp; defined(PWM0_BIT))
+        <v>#if(defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
 #define DIO18 18
-#define PWM0 18
-#define DIO18_PORT (PWM0_PORT)
-#define DIO18_BIT (PWM0_BIT)
-#define PWM0_OUTREG (__outreg__(PWM0_PORT))
-#define PWM0_INREG (__inreg__(PWM0_PORT))
-#define PWM0_DIRREG (__dirreg__(PWM0_PORT))
-#define DIO18_OUTREG (__outreg__(PWM0_PORT))
-#define DIO18_INREG (__inreg__(PWM0_PORT))
-#define DIO18_DIRREG (__dirreg__(PWM0_PORT))
+#define DIR4 18
+#define DIO18_PORT (DIR4_PORT)
+#define DIO18_BIT (DIR4_BIT)
+#define DIR4_OUTREG (__outreg__(DIR4_PORT))
+#define DIR4_INREG (__inreg__(DIR4_PORT))
+#define DIR4_DIRREG (__dirreg__(DIR4_PORT))
+#define DIO18_OUTREG (__outreg__(DIR4_PORT))
+#define DIO18_INREG (__inreg__(DIR4_PORT))
+#define DIO18_DIRREG (__dirreg__(DIR4_PORT))
 #endif</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6" t="str">
-        <f>"#if(defined("&amp;C21&amp;"_OCR) &amp;&amp; defined("&amp;C21&amp;"_TIMER) &amp;&amp; defined("&amp;C21&amp;"))
-#define "&amp;B21&amp;"_OCR ("&amp;C21&amp;"_OCR)
-#define "&amp;B21&amp;"_TIMER ("&amp;C21&amp;"_TIMER)
-#define "&amp;C21&amp;"_OCRREG (__ocrreg__("&amp;C21&amp;"_TIMER, "&amp;C21&amp;"_OCR))
-#define "&amp;C21&amp;"_TMRAREG (__tmrareg__("&amp;C21&amp;"_TIMER))
-#define "&amp;C21&amp;"_TMRBREG (__tmrbreg__("&amp;C21&amp;"_TIMER))
-#define "&amp;B21&amp;"_OCRREG (__ocrreg__("&amp;C21&amp;"_TIMER, "&amp;C21&amp;"_OCR))
-#define "&amp;B21&amp;"_TMRAREG (__tmrareg__("&amp;C21&amp;"_TIMER))
-#define "&amp;B21&amp;"_TMRBREG (__tmrbreg__("&amp;C21&amp;"_TIMER))
-#if("&amp;C21&amp;"_OCR == A)
-#define "&amp;C21&amp;"_ENABLE_MASK 0x80
-#define "&amp;B21&amp;"_ENABLE_MASK 0x80
-#elif("&amp;C21&amp;"_OCR == B)
-#define "&amp;C21&amp;"_ENABLE_MASK 0x20
-#define "&amp;B21&amp;"_ENABLE_MASK 0x20
-#elif("&amp;C21&amp;"_OCR == C)
-#define "&amp;C21&amp;"_ENABLE_MASK 0x08
-#define "&amp;B21&amp;"_ENABLE_MASK 0x08
-#endif
-#if("&amp;C21&amp;"_TIMER==0 || "&amp;C21&amp;"_TIMER==2)
-#define "&amp;C21&amp;"_MODE 0x03
-#define "&amp;C21&amp;"_PRESCALLER 0x04
-#define "&amp;B21&amp;"_MODE 0x03
-#define "&amp;B21&amp;"_PRESCALLER 0x04
-#else
-#define "&amp;C21&amp;"_MODE (0x05)
-#define "&amp;C21&amp;"_PRESCALLER (0x03)
-#define "&amp;B21&amp;"_MODE (0x05)
-#define "&amp;B21&amp;"_PRESCALLER (0x03)
-#endif
-#endif"</f>
-        <v>#if(defined(PWM0_OCR) &amp;&amp; defined(PWM0_TIMER) &amp;&amp; defined(PWM0))
-#define DIO18_OCR (PWM0_OCR)
-#define DIO18_TIMER (PWM0_TIMER)
-#define PWM0_OCRREG (__ocrreg__(PWM0_TIMER, PWM0_OCR))
-#define PWM0_TMRAREG (__tmrareg__(PWM0_TIMER))
-#define PWM0_TMRBREG (__tmrbreg__(PWM0_TIMER))
-#define DIO18_OCRREG (__ocrreg__(PWM0_TIMER, PWM0_OCR))
-#define DIO18_TMRAREG (__tmrareg__(PWM0_TIMER))
-#define DIO18_TMRBREG (__tmrbreg__(PWM0_TIMER))
-#if(PWM0_OCR == A)
-#define PWM0_ENABLE_MASK 0x80
-#define DIO18_ENABLE_MASK 0x80
-#elif(PWM0_OCR == B)
-#define PWM0_ENABLE_MASK 0x20
-#define DIO18_ENABLE_MASK 0x20
-#elif(PWM0_OCR == C)
-#define PWM0_ENABLE_MASK 0x08
-#define DIO18_ENABLE_MASK 0x08
-#endif
-#if(PWM0_TIMER==0 || PWM0_TIMER==2)
-#define PWM0_MODE 0x03
-#define PWM0_PRESCALLER 0x04
-#define DIO18_MODE 0x03
-#define DIO18_PRESCALLER 0x04
-#else
-#define PWM0_MODE (0x05)
-#define PWM0_PRESCALLER (0x03)
-#define DIO18_MODE (0x05)
-#define DIO18_PRESCALLER (0x03)
-#endif
-#endif</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="3" t="str">
-        <f>"#ifdef "&amp;C21&amp;"
-SETBIT("&amp;C21&amp;"_DIRREG, "&amp;C21&amp;"_BIT);
-"&amp;C21&amp;"_TMRAREG = "&amp;C21&amp;"_MODE;
-"&amp;C21&amp;"_TMRBREG = "&amp;C21&amp;"_PRESCALLER;
-"&amp;C21&amp;"_OCRREG = 0;
-#endif"</f>
-        <v>#ifdef PWM0
-SETBIT(PWM0_DIRREG, PWM0_BIT);
-PWM0_TMRAREG = PWM0_MODE;
-PWM0_TMRBREG = PWM0_PRESCALLER;
-PWM0_OCRREG = 0;
+        <f t="shared" si="1"/>
+        <v>#ifdef DIR4
+SETBIT(DIR4_DIRREG, DIR4_BIT);
 #endif</v>
       </c>
       <c r="J21" s="3"/>
@@ -2255,104 +2293,35 @@
         <v>DIO19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM1_PORT) &amp;&amp; defined(PWM1_BIT))
+        <v>#if(defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
 #define DIO19 19
-#define PWM1 19
-#define DIO19_PORT (PWM1_PORT)
-#define DIO19_BIT (PWM1_BIT)
-#define PWM1_OUTREG (__outreg__(PWM1_PORT))
-#define PWM1_INREG (__inreg__(PWM1_PORT))
-#define PWM1_DIRREG (__dirreg__(PWM1_PORT))
-#define DIO19_OUTREG (__outreg__(PWM1_PORT))
-#define DIO19_INREG (__inreg__(PWM1_PORT))
-#define DIO19_DIRREG (__dirreg__(PWM1_PORT))
+#define DIR5 19
+#define DIO19_PORT (DIR5_PORT)
+#define DIO19_BIT (DIR5_BIT)
+#define DIR5_OUTREG (__outreg__(DIR5_PORT))
+#define DIR5_INREG (__inreg__(DIR5_PORT))
+#define DIR5_DIRREG (__dirreg__(DIR5_PORT))
+#define DIO19_OUTREG (__outreg__(DIR5_PORT))
+#define DIO19_INREG (__inreg__(DIR5_PORT))
+#define DIO19_DIRREG (__dirreg__(DIR5_PORT))
 #endif</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6" t="str">
-        <f t="shared" ref="H22:H36" si="4">"#if(defined("&amp;C22&amp;"_OCR) &amp;&amp; defined("&amp;C22&amp;"_TIMER) &amp;&amp; defined("&amp;C22&amp;"))
-#define "&amp;B22&amp;"_OCR ("&amp;C22&amp;"_OCR)
-#define "&amp;B22&amp;"_TIMER ("&amp;C22&amp;"_TIMER)
-#define "&amp;C22&amp;"_OCRREG (__ocrreg__("&amp;C22&amp;"_TIMER, "&amp;C22&amp;"_OCR))
-#define "&amp;C22&amp;"_TMRAREG (__tmrareg__("&amp;C22&amp;"_TIMER))
-#define "&amp;C22&amp;"_TMRBREG (__tmrbreg__("&amp;C22&amp;"_TIMER))
-#define "&amp;B22&amp;"_OCRREG (__ocrreg__("&amp;C22&amp;"_TIMER, "&amp;C22&amp;"_OCR))
-#define "&amp;B22&amp;"_TMRAREG (__tmrareg__("&amp;C22&amp;"_TIMER))
-#define "&amp;B22&amp;"_TMRBREG (__tmrbreg__("&amp;C22&amp;"_TIMER))
-#if("&amp;C22&amp;"_OCR == A)
-#define "&amp;C22&amp;"_ENABLE_MASK 0x80
-#define "&amp;B22&amp;"_ENABLE_MASK 0x80
-#elif("&amp;C22&amp;"_OCR == B)
-#define "&amp;C22&amp;"_ENABLE_MASK 0x20
-#define "&amp;B22&amp;"_ENABLE_MASK 0x20
-#elif("&amp;C22&amp;"_OCR == C)
-#define "&amp;C22&amp;"_ENABLE_MASK 0x08
-#define "&amp;B22&amp;"_ENABLE_MASK 0x08
-#endif
-#if("&amp;C22&amp;"_TIMER==0 || "&amp;C22&amp;"_TIMER==2)
-#define "&amp;C22&amp;"_MODE 0x03
-#define "&amp;C22&amp;"_PRESCALLER 0x04
-#define "&amp;B22&amp;"_MODE 0x03
-#define "&amp;B22&amp;"_PRESCALLER 0x04
-#else
-#define "&amp;C22&amp;"_MODE (0x05)
-#define "&amp;C22&amp;"_PRESCALLER (0x03)
-#define "&amp;B22&amp;"_MODE (0x05)
-#define "&amp;B22&amp;"_PRESCALLER (0x03)
-#endif
-#endif"</f>
-        <v>#if(defined(PWM1_OCR) &amp;&amp; defined(PWM1_TIMER) &amp;&amp; defined(PWM1))
-#define DIO19_OCR (PWM1_OCR)
-#define DIO19_TIMER (PWM1_TIMER)
-#define PWM1_OCRREG (__ocrreg__(PWM1_TIMER, PWM1_OCR))
-#define PWM1_TMRAREG (__tmrareg__(PWM1_TIMER))
-#define PWM1_TMRBREG (__tmrbreg__(PWM1_TIMER))
-#define DIO19_OCRREG (__ocrreg__(PWM1_TIMER, PWM1_OCR))
-#define DIO19_TMRAREG (__tmrareg__(PWM1_TIMER))
-#define DIO19_TMRBREG (__tmrbreg__(PWM1_TIMER))
-#if(PWM1_OCR == A)
-#define PWM1_ENABLE_MASK 0x80
-#define DIO19_ENABLE_MASK 0x80
-#elif(PWM1_OCR == B)
-#define PWM1_ENABLE_MASK 0x20
-#define DIO19_ENABLE_MASK 0x20
-#elif(PWM1_OCR == C)
-#define PWM1_ENABLE_MASK 0x08
-#define DIO19_ENABLE_MASK 0x08
-#endif
-#if(PWM1_TIMER==0 || PWM1_TIMER==2)
-#define PWM1_MODE 0x03
-#define PWM1_PRESCALLER 0x04
-#define DIO19_MODE 0x03
-#define DIO19_PRESCALLER 0x04
-#else
-#define PWM1_MODE (0x05)
-#define PWM1_PRESCALLER (0x03)
-#define DIO19_MODE (0x05)
-#define DIO19_PRESCALLER (0x03)
-#endif
-#endif</v>
+      <c r="H22" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" ref="I22:I36" si="5">"#ifdef "&amp;C22&amp;"
-SETBIT("&amp;C22&amp;"_DIRREG, "&amp;C22&amp;"_BIT);
-"&amp;C22&amp;"_TMRAREG = "&amp;C22&amp;"_MODE;
-"&amp;C22&amp;"_TMRBREG = "&amp;C22&amp;"_PRESCALLER;
-"&amp;C22&amp;"_OCRREG = 0;
-#endif"</f>
-        <v>#ifdef PWM1
-SETBIT(PWM1_DIRREG, PWM1_BIT);
-PWM1_TMRAREG = PWM1_MODE;
-PWM1_TMRBREG = PWM1_PRESCALLER;
-PWM1_OCRREG = 0;
+        <f t="shared" si="1"/>
+        <v>#ifdef DIR5
+SETBIT(DIR5_DIRREG, DIR5_BIT);
 #endif</v>
       </c>
       <c r="J22" s="3"/>
@@ -2375,7 +2344,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="4" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2384,69 +2353,104 @@
         <v>DIO20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM2_PORT) &amp;&amp; defined(PWM2_BIT))
+        <v>#if(defined(PWM0_PORT) &amp;&amp; defined(PWM0_BIT))
 #define DIO20 20
-#define PWM2 20
-#define DIO20_PORT (PWM2_PORT)
-#define DIO20_BIT (PWM2_BIT)
-#define PWM2_OUTREG (__outreg__(PWM2_PORT))
-#define PWM2_INREG (__inreg__(PWM2_PORT))
-#define PWM2_DIRREG (__dirreg__(PWM2_PORT))
-#define DIO20_OUTREG (__outreg__(PWM2_PORT))
-#define DIO20_INREG (__inreg__(PWM2_PORT))
-#define DIO20_DIRREG (__dirreg__(PWM2_PORT))
+#define PWM0 20
+#define DIO20_PORT (PWM0_PORT)
+#define DIO20_BIT (PWM0_BIT)
+#define PWM0_OUTREG (__outreg__(PWM0_PORT))
+#define PWM0_INREG (__inreg__(PWM0_PORT))
+#define PWM0_DIRREG (__dirreg__(PWM0_PORT))
+#define DIO20_OUTREG (__outreg__(PWM0_PORT))
+#define DIO20_INREG (__inreg__(PWM0_PORT))
+#define DIO20_DIRREG (__dirreg__(PWM0_PORT))
 #endif</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if(defined(PWM2_OCR) &amp;&amp; defined(PWM2_TIMER) &amp;&amp; defined(PWM2))
-#define DIO20_OCR (PWM2_OCR)
-#define DIO20_TIMER (PWM2_TIMER)
-#define PWM2_OCRREG (__ocrreg__(PWM2_TIMER, PWM2_OCR))
-#define PWM2_TMRAREG (__tmrareg__(PWM2_TIMER))
-#define PWM2_TMRBREG (__tmrbreg__(PWM2_TIMER))
-#define DIO20_OCRREG (__ocrreg__(PWM2_TIMER, PWM2_OCR))
-#define DIO20_TMRAREG (__tmrareg__(PWM2_TIMER))
-#define DIO20_TMRBREG (__tmrbreg__(PWM2_TIMER))
-#if(PWM2_OCR == A)
-#define PWM2_ENABLE_MASK 0x80
+        <f>"#if(defined("&amp;C23&amp;"_OCR) &amp;&amp; defined("&amp;C23&amp;"_TIMER) &amp;&amp; defined("&amp;C23&amp;"))
+#define "&amp;B23&amp;"_OCR ("&amp;C23&amp;"_OCR)
+#define "&amp;B23&amp;"_TIMER ("&amp;C23&amp;"_TIMER)
+#define "&amp;C23&amp;"_OCRREG (__ocrreg__("&amp;C23&amp;"_TIMER, "&amp;C23&amp;"_OCR))
+#define "&amp;C23&amp;"_TMRAREG (__tmrareg__("&amp;C23&amp;"_TIMER))
+#define "&amp;C23&amp;"_TMRBREG (__tmrbreg__("&amp;C23&amp;"_TIMER))
+#define "&amp;B23&amp;"_OCRREG (__ocrreg__("&amp;C23&amp;"_TIMER, "&amp;C23&amp;"_OCR))
+#define "&amp;B23&amp;"_TMRAREG (__tmrareg__("&amp;C23&amp;"_TIMER))
+#define "&amp;B23&amp;"_TMRBREG (__tmrbreg__("&amp;C23&amp;"_TIMER))
+#if("&amp;C23&amp;"_OCR == A)
+#define "&amp;C23&amp;"_ENABLE_MASK 0x80
+#define "&amp;B23&amp;"_ENABLE_MASK 0x80
+#elif("&amp;C23&amp;"_OCR == B)
+#define "&amp;C23&amp;"_ENABLE_MASK 0x20
+#define "&amp;B23&amp;"_ENABLE_MASK 0x20
+#elif("&amp;C23&amp;"_OCR == C)
+#define "&amp;C23&amp;"_ENABLE_MASK 0x08
+#define "&amp;B23&amp;"_ENABLE_MASK 0x08
+#endif
+#if("&amp;C23&amp;"_TIMER==0 || "&amp;C23&amp;"_TIMER==2)
+#define "&amp;C23&amp;"_MODE 0x03
+#define "&amp;C23&amp;"_PRESCALLER 0x04
+#define "&amp;B23&amp;"_MODE 0x03
+#define "&amp;B23&amp;"_PRESCALLER 0x04
+#else
+#define "&amp;C23&amp;"_MODE (0x05)
+#define "&amp;C23&amp;"_PRESCALLER (0x03)
+#define "&amp;B23&amp;"_MODE (0x05)
+#define "&amp;B23&amp;"_PRESCALLER (0x03)
+#endif
+#endif"</f>
+        <v>#if(defined(PWM0_OCR) &amp;&amp; defined(PWM0_TIMER) &amp;&amp; defined(PWM0))
+#define DIO20_OCR (PWM0_OCR)
+#define DIO20_TIMER (PWM0_TIMER)
+#define PWM0_OCRREG (__ocrreg__(PWM0_TIMER, PWM0_OCR))
+#define PWM0_TMRAREG (__tmrareg__(PWM0_TIMER))
+#define PWM0_TMRBREG (__tmrbreg__(PWM0_TIMER))
+#define DIO20_OCRREG (__ocrreg__(PWM0_TIMER, PWM0_OCR))
+#define DIO20_TMRAREG (__tmrareg__(PWM0_TIMER))
+#define DIO20_TMRBREG (__tmrbreg__(PWM0_TIMER))
+#if(PWM0_OCR == A)
+#define PWM0_ENABLE_MASK 0x80
 #define DIO20_ENABLE_MASK 0x80
-#elif(PWM2_OCR == B)
-#define PWM2_ENABLE_MASK 0x20
+#elif(PWM0_OCR == B)
+#define PWM0_ENABLE_MASK 0x20
 #define DIO20_ENABLE_MASK 0x20
-#elif(PWM2_OCR == C)
-#define PWM2_ENABLE_MASK 0x08
+#elif(PWM0_OCR == C)
+#define PWM0_ENABLE_MASK 0x08
 #define DIO20_ENABLE_MASK 0x08
 #endif
-#if(PWM2_TIMER==0 || PWM2_TIMER==2)
-#define PWM2_MODE 0x03
-#define PWM2_PRESCALLER 0x04
+#if(PWM0_TIMER==0 || PWM0_TIMER==2)
+#define PWM0_MODE 0x03
+#define PWM0_PRESCALLER 0x04
 #define DIO20_MODE 0x03
 #define DIO20_PRESCALLER 0x04
 #else
-#define PWM2_MODE (0x05)
-#define PWM2_PRESCALLER (0x03)
+#define PWM0_MODE (0x05)
+#define PWM0_PRESCALLER (0x03)
 #define DIO20_MODE (0x05)
 #define DIO20_PRESCALLER (0x03)
 #endif
 #endif</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM2
-SETBIT(PWM2_DIRREG, PWM2_BIT);
-PWM2_TMRAREG = PWM2_MODE;
-PWM2_TMRBREG = PWM2_PRESCALLER;
-PWM2_OCRREG = 0;
+        <f>"#ifdef "&amp;C23&amp;"
+SETBIT("&amp;C23&amp;"_DIRREG, "&amp;C23&amp;"_BIT);
+"&amp;C23&amp;"_TMRAREG = "&amp;C23&amp;"_MODE;
+"&amp;C23&amp;"_TMRBREG = "&amp;C23&amp;"_PRESCALLER;
+"&amp;C23&amp;"_OCRREG = 0;
+#endif"</f>
+        <v>#ifdef PWM0
+SETBIT(PWM0_DIRREG, PWM0_BIT);
+PWM0_TMRAREG = PWM0_MODE;
+PWM0_TMRBREG = PWM0_PRESCALLER;
+PWM0_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J23" s="3"/>
@@ -2478,69 +2482,104 @@
         <v>DIO21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM3_PORT) &amp;&amp; defined(PWM3_BIT))
+        <v>#if(defined(PWM1_PORT) &amp;&amp; defined(PWM1_BIT))
 #define DIO21 21
-#define PWM3 21
-#define DIO21_PORT (PWM3_PORT)
-#define DIO21_BIT (PWM3_BIT)
-#define PWM3_OUTREG (__outreg__(PWM3_PORT))
-#define PWM3_INREG (__inreg__(PWM3_PORT))
-#define PWM3_DIRREG (__dirreg__(PWM3_PORT))
-#define DIO21_OUTREG (__outreg__(PWM3_PORT))
-#define DIO21_INREG (__inreg__(PWM3_PORT))
-#define DIO21_DIRREG (__dirreg__(PWM3_PORT))
+#define PWM1 21
+#define DIO21_PORT (PWM1_PORT)
+#define DIO21_BIT (PWM1_BIT)
+#define PWM1_OUTREG (__outreg__(PWM1_PORT))
+#define PWM1_INREG (__inreg__(PWM1_PORT))
+#define PWM1_DIRREG (__dirreg__(PWM1_PORT))
+#define DIO21_OUTREG (__outreg__(PWM1_PORT))
+#define DIO21_INREG (__inreg__(PWM1_PORT))
+#define DIO21_DIRREG (__dirreg__(PWM1_PORT))
 #endif</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if(defined(PWM3_OCR) &amp;&amp; defined(PWM3_TIMER) &amp;&amp; defined(PWM3))
-#define DIO21_OCR (PWM3_OCR)
-#define DIO21_TIMER (PWM3_TIMER)
-#define PWM3_OCRREG (__ocrreg__(PWM3_TIMER, PWM3_OCR))
-#define PWM3_TMRAREG (__tmrareg__(PWM3_TIMER))
-#define PWM3_TMRBREG (__tmrbreg__(PWM3_TIMER))
-#define DIO21_OCRREG (__ocrreg__(PWM3_TIMER, PWM3_OCR))
-#define DIO21_TMRAREG (__tmrareg__(PWM3_TIMER))
-#define DIO21_TMRBREG (__tmrbreg__(PWM3_TIMER))
-#if(PWM3_OCR == A)
-#define PWM3_ENABLE_MASK 0x80
+        <f t="shared" ref="H24:H38" si="4">"#if(defined("&amp;C24&amp;"_OCR) &amp;&amp; defined("&amp;C24&amp;"_TIMER) &amp;&amp; defined("&amp;C24&amp;"))
+#define "&amp;B24&amp;"_OCR ("&amp;C24&amp;"_OCR)
+#define "&amp;B24&amp;"_TIMER ("&amp;C24&amp;"_TIMER)
+#define "&amp;C24&amp;"_OCRREG (__ocrreg__("&amp;C24&amp;"_TIMER, "&amp;C24&amp;"_OCR))
+#define "&amp;C24&amp;"_TMRAREG (__tmrareg__("&amp;C24&amp;"_TIMER))
+#define "&amp;C24&amp;"_TMRBREG (__tmrbreg__("&amp;C24&amp;"_TIMER))
+#define "&amp;B24&amp;"_OCRREG (__ocrreg__("&amp;C24&amp;"_TIMER, "&amp;C24&amp;"_OCR))
+#define "&amp;B24&amp;"_TMRAREG (__tmrareg__("&amp;C24&amp;"_TIMER))
+#define "&amp;B24&amp;"_TMRBREG (__tmrbreg__("&amp;C24&amp;"_TIMER))
+#if("&amp;C24&amp;"_OCR == A)
+#define "&amp;C24&amp;"_ENABLE_MASK 0x80
+#define "&amp;B24&amp;"_ENABLE_MASK 0x80
+#elif("&amp;C24&amp;"_OCR == B)
+#define "&amp;C24&amp;"_ENABLE_MASK 0x20
+#define "&amp;B24&amp;"_ENABLE_MASK 0x20
+#elif("&amp;C24&amp;"_OCR == C)
+#define "&amp;C24&amp;"_ENABLE_MASK 0x08
+#define "&amp;B24&amp;"_ENABLE_MASK 0x08
+#endif
+#if("&amp;C24&amp;"_TIMER==0 || "&amp;C24&amp;"_TIMER==2)
+#define "&amp;C24&amp;"_MODE 0x03
+#define "&amp;C24&amp;"_PRESCALLER 0x04
+#define "&amp;B24&amp;"_MODE 0x03
+#define "&amp;B24&amp;"_PRESCALLER 0x04
+#else
+#define "&amp;C24&amp;"_MODE (0x05)
+#define "&amp;C24&amp;"_PRESCALLER (0x03)
+#define "&amp;B24&amp;"_MODE (0x05)
+#define "&amp;B24&amp;"_PRESCALLER (0x03)
+#endif
+#endif"</f>
+        <v>#if(defined(PWM1_OCR) &amp;&amp; defined(PWM1_TIMER) &amp;&amp; defined(PWM1))
+#define DIO21_OCR (PWM1_OCR)
+#define DIO21_TIMER (PWM1_TIMER)
+#define PWM1_OCRREG (__ocrreg__(PWM1_TIMER, PWM1_OCR))
+#define PWM1_TMRAREG (__tmrareg__(PWM1_TIMER))
+#define PWM1_TMRBREG (__tmrbreg__(PWM1_TIMER))
+#define DIO21_OCRREG (__ocrreg__(PWM1_TIMER, PWM1_OCR))
+#define DIO21_TMRAREG (__tmrareg__(PWM1_TIMER))
+#define DIO21_TMRBREG (__tmrbreg__(PWM1_TIMER))
+#if(PWM1_OCR == A)
+#define PWM1_ENABLE_MASK 0x80
 #define DIO21_ENABLE_MASK 0x80
-#elif(PWM3_OCR == B)
-#define PWM3_ENABLE_MASK 0x20
+#elif(PWM1_OCR == B)
+#define PWM1_ENABLE_MASK 0x20
 #define DIO21_ENABLE_MASK 0x20
-#elif(PWM3_OCR == C)
-#define PWM3_ENABLE_MASK 0x08
+#elif(PWM1_OCR == C)
+#define PWM1_ENABLE_MASK 0x08
 #define DIO21_ENABLE_MASK 0x08
 #endif
-#if(PWM3_TIMER==0 || PWM3_TIMER==2)
-#define PWM3_MODE 0x03
-#define PWM3_PRESCALLER 0x04
+#if(PWM1_TIMER==0 || PWM1_TIMER==2)
+#define PWM1_MODE 0x03
+#define PWM1_PRESCALLER 0x04
 #define DIO21_MODE 0x03
 #define DIO21_PRESCALLER 0x04
 #else
-#define PWM3_MODE (0x05)
-#define PWM3_PRESCALLER (0x03)
+#define PWM1_MODE (0x05)
+#define PWM1_PRESCALLER (0x03)
 #define DIO21_MODE (0x05)
 #define DIO21_PRESCALLER (0x03)
 #endif
 #endif</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM3
-SETBIT(PWM3_DIRREG, PWM3_BIT);
-PWM3_TMRAREG = PWM3_MODE;
-PWM3_TMRBREG = PWM3_PRESCALLER;
-PWM3_OCRREG = 0;
+        <f t="shared" ref="I24:I38" si="5">"#ifdef "&amp;C24&amp;"
+SETBIT("&amp;C24&amp;"_DIRREG, "&amp;C24&amp;"_BIT);
+"&amp;C24&amp;"_TMRAREG = "&amp;C24&amp;"_MODE;
+"&amp;C24&amp;"_TMRBREG = "&amp;C24&amp;"_PRESCALLER;
+"&amp;C24&amp;"_OCRREG = 0;
+#endif"</f>
+        <v>#ifdef PWM1
+SETBIT(PWM1_DIRREG, PWM1_BIT);
+PWM1_TMRAREG = PWM1_MODE;
+PWM1_TMRBREG = PWM1_PRESCALLER;
+PWM1_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J24" s="3"/>
@@ -2572,57 +2611,57 @@
         <v>DIO22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM4_PORT) &amp;&amp; defined(PWM4_BIT))
+        <v>#if(defined(PWM2_PORT) &amp;&amp; defined(PWM2_BIT))
 #define DIO22 22
-#define PWM4 22
-#define DIO22_PORT (PWM4_PORT)
-#define DIO22_BIT (PWM4_BIT)
-#define PWM4_OUTREG (__outreg__(PWM4_PORT))
-#define PWM4_INREG (__inreg__(PWM4_PORT))
-#define PWM4_DIRREG (__dirreg__(PWM4_PORT))
-#define DIO22_OUTREG (__outreg__(PWM4_PORT))
-#define DIO22_INREG (__inreg__(PWM4_PORT))
-#define DIO22_DIRREG (__dirreg__(PWM4_PORT))
+#define PWM2 22
+#define DIO22_PORT (PWM2_PORT)
+#define DIO22_BIT (PWM2_BIT)
+#define PWM2_OUTREG (__outreg__(PWM2_PORT))
+#define PWM2_INREG (__inreg__(PWM2_PORT))
+#define PWM2_DIRREG (__dirreg__(PWM2_PORT))
+#define DIO22_OUTREG (__outreg__(PWM2_PORT))
+#define DIO22_INREG (__inreg__(PWM2_PORT))
+#define DIO22_DIRREG (__dirreg__(PWM2_PORT))
 #endif</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM4_OCR) &amp;&amp; defined(PWM4_TIMER) &amp;&amp; defined(PWM4))
-#define DIO22_OCR (PWM4_OCR)
-#define DIO22_TIMER (PWM4_TIMER)
-#define PWM4_OCRREG (__ocrreg__(PWM4_TIMER, PWM4_OCR))
-#define PWM4_TMRAREG (__tmrareg__(PWM4_TIMER))
-#define PWM4_TMRBREG (__tmrbreg__(PWM4_TIMER))
-#define DIO22_OCRREG (__ocrreg__(PWM4_TIMER, PWM4_OCR))
-#define DIO22_TMRAREG (__tmrareg__(PWM4_TIMER))
-#define DIO22_TMRBREG (__tmrbreg__(PWM4_TIMER))
-#if(PWM4_OCR == A)
-#define PWM4_ENABLE_MASK 0x80
+        <v>#if(defined(PWM2_OCR) &amp;&amp; defined(PWM2_TIMER) &amp;&amp; defined(PWM2))
+#define DIO22_OCR (PWM2_OCR)
+#define DIO22_TIMER (PWM2_TIMER)
+#define PWM2_OCRREG (__ocrreg__(PWM2_TIMER, PWM2_OCR))
+#define PWM2_TMRAREG (__tmrareg__(PWM2_TIMER))
+#define PWM2_TMRBREG (__tmrbreg__(PWM2_TIMER))
+#define DIO22_OCRREG (__ocrreg__(PWM2_TIMER, PWM2_OCR))
+#define DIO22_TMRAREG (__tmrareg__(PWM2_TIMER))
+#define DIO22_TMRBREG (__tmrbreg__(PWM2_TIMER))
+#if(PWM2_OCR == A)
+#define PWM2_ENABLE_MASK 0x80
 #define DIO22_ENABLE_MASK 0x80
-#elif(PWM4_OCR == B)
-#define PWM4_ENABLE_MASK 0x20
+#elif(PWM2_OCR == B)
+#define PWM2_ENABLE_MASK 0x20
 #define DIO22_ENABLE_MASK 0x20
-#elif(PWM4_OCR == C)
-#define PWM4_ENABLE_MASK 0x08
+#elif(PWM2_OCR == C)
+#define PWM2_ENABLE_MASK 0x08
 #define DIO22_ENABLE_MASK 0x08
 #endif
-#if(PWM4_TIMER==0 || PWM4_TIMER==2)
-#define PWM4_MODE 0x03
-#define PWM4_PRESCALLER 0x04
+#if(PWM2_TIMER==0 || PWM2_TIMER==2)
+#define PWM2_MODE 0x03
+#define PWM2_PRESCALLER 0x04
 #define DIO22_MODE 0x03
 #define DIO22_PRESCALLER 0x04
 #else
-#define PWM4_MODE (0x05)
-#define PWM4_PRESCALLER (0x03)
+#define PWM2_MODE (0x05)
+#define PWM2_PRESCALLER (0x03)
 #define DIO22_MODE (0x05)
 #define DIO22_PRESCALLER (0x03)
 #endif
@@ -2630,11 +2669,11 @@
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM4
-SETBIT(PWM4_DIRREG, PWM4_BIT);
-PWM4_TMRAREG = PWM4_MODE;
-PWM4_TMRBREG = PWM4_PRESCALLER;
-PWM4_OCRREG = 0;
+        <v>#ifdef PWM2
+SETBIT(PWM2_DIRREG, PWM2_BIT);
+PWM2_TMRAREG = PWM2_MODE;
+PWM2_TMRBREG = PWM2_PRESCALLER;
+PWM2_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J25" s="3"/>
@@ -2666,57 +2705,57 @@
         <v>DIO23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM5_PORT) &amp;&amp; defined(PWM5_BIT))
+        <v>#if(defined(PWM3_PORT) &amp;&amp; defined(PWM3_BIT))
 #define DIO23 23
-#define PWM5 23
-#define DIO23_PORT (PWM5_PORT)
-#define DIO23_BIT (PWM5_BIT)
-#define PWM5_OUTREG (__outreg__(PWM5_PORT))
-#define PWM5_INREG (__inreg__(PWM5_PORT))
-#define PWM5_DIRREG (__dirreg__(PWM5_PORT))
-#define DIO23_OUTREG (__outreg__(PWM5_PORT))
-#define DIO23_INREG (__inreg__(PWM5_PORT))
-#define DIO23_DIRREG (__dirreg__(PWM5_PORT))
+#define PWM3 23
+#define DIO23_PORT (PWM3_PORT)
+#define DIO23_BIT (PWM3_BIT)
+#define PWM3_OUTREG (__outreg__(PWM3_PORT))
+#define PWM3_INREG (__inreg__(PWM3_PORT))
+#define PWM3_DIRREG (__dirreg__(PWM3_PORT))
+#define DIO23_OUTREG (__outreg__(PWM3_PORT))
+#define DIO23_INREG (__inreg__(PWM3_PORT))
+#define DIO23_DIRREG (__dirreg__(PWM3_PORT))
 #endif</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM5_OCR) &amp;&amp; defined(PWM5_TIMER) &amp;&amp; defined(PWM5))
-#define DIO23_OCR (PWM5_OCR)
-#define DIO23_TIMER (PWM5_TIMER)
-#define PWM5_OCRREG (__ocrreg__(PWM5_TIMER, PWM5_OCR))
-#define PWM5_TMRAREG (__tmrareg__(PWM5_TIMER))
-#define PWM5_TMRBREG (__tmrbreg__(PWM5_TIMER))
-#define DIO23_OCRREG (__ocrreg__(PWM5_TIMER, PWM5_OCR))
-#define DIO23_TMRAREG (__tmrareg__(PWM5_TIMER))
-#define DIO23_TMRBREG (__tmrbreg__(PWM5_TIMER))
-#if(PWM5_OCR == A)
-#define PWM5_ENABLE_MASK 0x80
+        <v>#if(defined(PWM3_OCR) &amp;&amp; defined(PWM3_TIMER) &amp;&amp; defined(PWM3))
+#define DIO23_OCR (PWM3_OCR)
+#define DIO23_TIMER (PWM3_TIMER)
+#define PWM3_OCRREG (__ocrreg__(PWM3_TIMER, PWM3_OCR))
+#define PWM3_TMRAREG (__tmrareg__(PWM3_TIMER))
+#define PWM3_TMRBREG (__tmrbreg__(PWM3_TIMER))
+#define DIO23_OCRREG (__ocrreg__(PWM3_TIMER, PWM3_OCR))
+#define DIO23_TMRAREG (__tmrareg__(PWM3_TIMER))
+#define DIO23_TMRBREG (__tmrbreg__(PWM3_TIMER))
+#if(PWM3_OCR == A)
+#define PWM3_ENABLE_MASK 0x80
 #define DIO23_ENABLE_MASK 0x80
-#elif(PWM5_OCR == B)
-#define PWM5_ENABLE_MASK 0x20
+#elif(PWM3_OCR == B)
+#define PWM3_ENABLE_MASK 0x20
 #define DIO23_ENABLE_MASK 0x20
-#elif(PWM5_OCR == C)
-#define PWM5_ENABLE_MASK 0x08
+#elif(PWM3_OCR == C)
+#define PWM3_ENABLE_MASK 0x08
 #define DIO23_ENABLE_MASK 0x08
 #endif
-#if(PWM5_TIMER==0 || PWM5_TIMER==2)
-#define PWM5_MODE 0x03
-#define PWM5_PRESCALLER 0x04
+#if(PWM3_TIMER==0 || PWM3_TIMER==2)
+#define PWM3_MODE 0x03
+#define PWM3_PRESCALLER 0x04
 #define DIO23_MODE 0x03
 #define DIO23_PRESCALLER 0x04
 #else
-#define PWM5_MODE (0x05)
-#define PWM5_PRESCALLER (0x03)
+#define PWM3_MODE (0x05)
+#define PWM3_PRESCALLER (0x03)
 #define DIO23_MODE (0x05)
 #define DIO23_PRESCALLER (0x03)
 #endif
@@ -2724,11 +2763,11 @@
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM5
-SETBIT(PWM5_DIRREG, PWM5_BIT);
-PWM5_TMRAREG = PWM5_MODE;
-PWM5_TMRBREG = PWM5_PRESCALLER;
-PWM5_OCRREG = 0;
+        <v>#ifdef PWM3
+SETBIT(PWM3_DIRREG, PWM3_BIT);
+PWM3_TMRAREG = PWM3_MODE;
+PWM3_TMRBREG = PWM3_PRESCALLER;
+PWM3_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J26" s="3"/>
@@ -2760,57 +2799,57 @@
         <v>DIO24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM6_PORT) &amp;&amp; defined(PWM6_BIT))
+        <v>#if(defined(PWM4_PORT) &amp;&amp; defined(PWM4_BIT))
 #define DIO24 24
-#define PWM6 24
-#define DIO24_PORT (PWM6_PORT)
-#define DIO24_BIT (PWM6_BIT)
-#define PWM6_OUTREG (__outreg__(PWM6_PORT))
-#define PWM6_INREG (__inreg__(PWM6_PORT))
-#define PWM6_DIRREG (__dirreg__(PWM6_PORT))
-#define DIO24_OUTREG (__outreg__(PWM6_PORT))
-#define DIO24_INREG (__inreg__(PWM6_PORT))
-#define DIO24_DIRREG (__dirreg__(PWM6_PORT))
+#define PWM4 24
+#define DIO24_PORT (PWM4_PORT)
+#define DIO24_BIT (PWM4_BIT)
+#define PWM4_OUTREG (__outreg__(PWM4_PORT))
+#define PWM4_INREG (__inreg__(PWM4_PORT))
+#define PWM4_DIRREG (__dirreg__(PWM4_PORT))
+#define DIO24_OUTREG (__outreg__(PWM4_PORT))
+#define DIO24_INREG (__inreg__(PWM4_PORT))
+#define DIO24_DIRREG (__dirreg__(PWM4_PORT))
 #endif</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM6_OCR) &amp;&amp; defined(PWM6_TIMER) &amp;&amp; defined(PWM6))
-#define DIO24_OCR (PWM6_OCR)
-#define DIO24_TIMER (PWM6_TIMER)
-#define PWM6_OCRREG (__ocrreg__(PWM6_TIMER, PWM6_OCR))
-#define PWM6_TMRAREG (__tmrareg__(PWM6_TIMER))
-#define PWM6_TMRBREG (__tmrbreg__(PWM6_TIMER))
-#define DIO24_OCRREG (__ocrreg__(PWM6_TIMER, PWM6_OCR))
-#define DIO24_TMRAREG (__tmrareg__(PWM6_TIMER))
-#define DIO24_TMRBREG (__tmrbreg__(PWM6_TIMER))
-#if(PWM6_OCR == A)
-#define PWM6_ENABLE_MASK 0x80
+        <v>#if(defined(PWM4_OCR) &amp;&amp; defined(PWM4_TIMER) &amp;&amp; defined(PWM4))
+#define DIO24_OCR (PWM4_OCR)
+#define DIO24_TIMER (PWM4_TIMER)
+#define PWM4_OCRREG (__ocrreg__(PWM4_TIMER, PWM4_OCR))
+#define PWM4_TMRAREG (__tmrareg__(PWM4_TIMER))
+#define PWM4_TMRBREG (__tmrbreg__(PWM4_TIMER))
+#define DIO24_OCRREG (__ocrreg__(PWM4_TIMER, PWM4_OCR))
+#define DIO24_TMRAREG (__tmrareg__(PWM4_TIMER))
+#define DIO24_TMRBREG (__tmrbreg__(PWM4_TIMER))
+#if(PWM4_OCR == A)
+#define PWM4_ENABLE_MASK 0x80
 #define DIO24_ENABLE_MASK 0x80
-#elif(PWM6_OCR == B)
-#define PWM6_ENABLE_MASK 0x20
+#elif(PWM4_OCR == B)
+#define PWM4_ENABLE_MASK 0x20
 #define DIO24_ENABLE_MASK 0x20
-#elif(PWM6_OCR == C)
-#define PWM6_ENABLE_MASK 0x08
+#elif(PWM4_OCR == C)
+#define PWM4_ENABLE_MASK 0x08
 #define DIO24_ENABLE_MASK 0x08
 #endif
-#if(PWM6_TIMER==0 || PWM6_TIMER==2)
-#define PWM6_MODE 0x03
-#define PWM6_PRESCALLER 0x04
+#if(PWM4_TIMER==0 || PWM4_TIMER==2)
+#define PWM4_MODE 0x03
+#define PWM4_PRESCALLER 0x04
 #define DIO24_MODE 0x03
 #define DIO24_PRESCALLER 0x04
 #else
-#define PWM6_MODE (0x05)
-#define PWM6_PRESCALLER (0x03)
+#define PWM4_MODE (0x05)
+#define PWM4_PRESCALLER (0x03)
 #define DIO24_MODE (0x05)
 #define DIO24_PRESCALLER (0x03)
 #endif
@@ -2818,11 +2857,11 @@
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM6
-SETBIT(PWM6_DIRREG, PWM6_BIT);
-PWM6_TMRAREG = PWM6_MODE;
-PWM6_TMRBREG = PWM6_PRESCALLER;
-PWM6_OCRREG = 0;
+        <v>#ifdef PWM4
+SETBIT(PWM4_DIRREG, PWM4_BIT);
+PWM4_TMRAREG = PWM4_MODE;
+PWM4_TMRBREG = PWM4_PRESCALLER;
+PWM4_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J27" s="3"/>
@@ -2854,57 +2893,57 @@
         <v>DIO25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM7_PORT) &amp;&amp; defined(PWM7_BIT))
+        <v>#if(defined(PWM5_PORT) &amp;&amp; defined(PWM5_BIT))
 #define DIO25 25
-#define PWM7 25
-#define DIO25_PORT (PWM7_PORT)
-#define DIO25_BIT (PWM7_BIT)
-#define PWM7_OUTREG (__outreg__(PWM7_PORT))
-#define PWM7_INREG (__inreg__(PWM7_PORT))
-#define PWM7_DIRREG (__dirreg__(PWM7_PORT))
-#define DIO25_OUTREG (__outreg__(PWM7_PORT))
-#define DIO25_INREG (__inreg__(PWM7_PORT))
-#define DIO25_DIRREG (__dirreg__(PWM7_PORT))
+#define PWM5 25
+#define DIO25_PORT (PWM5_PORT)
+#define DIO25_BIT (PWM5_BIT)
+#define PWM5_OUTREG (__outreg__(PWM5_PORT))
+#define PWM5_INREG (__inreg__(PWM5_PORT))
+#define PWM5_DIRREG (__dirreg__(PWM5_PORT))
+#define DIO25_OUTREG (__outreg__(PWM5_PORT))
+#define DIO25_INREG (__inreg__(PWM5_PORT))
+#define DIO25_DIRREG (__dirreg__(PWM5_PORT))
 #endif</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM7_OCR) &amp;&amp; defined(PWM7_TIMER) &amp;&amp; defined(PWM7))
-#define DIO25_OCR (PWM7_OCR)
-#define DIO25_TIMER (PWM7_TIMER)
-#define PWM7_OCRREG (__ocrreg__(PWM7_TIMER, PWM7_OCR))
-#define PWM7_TMRAREG (__tmrareg__(PWM7_TIMER))
-#define PWM7_TMRBREG (__tmrbreg__(PWM7_TIMER))
-#define DIO25_OCRREG (__ocrreg__(PWM7_TIMER, PWM7_OCR))
-#define DIO25_TMRAREG (__tmrareg__(PWM7_TIMER))
-#define DIO25_TMRBREG (__tmrbreg__(PWM7_TIMER))
-#if(PWM7_OCR == A)
-#define PWM7_ENABLE_MASK 0x80
+        <v>#if(defined(PWM5_OCR) &amp;&amp; defined(PWM5_TIMER) &amp;&amp; defined(PWM5))
+#define DIO25_OCR (PWM5_OCR)
+#define DIO25_TIMER (PWM5_TIMER)
+#define PWM5_OCRREG (__ocrreg__(PWM5_TIMER, PWM5_OCR))
+#define PWM5_TMRAREG (__tmrareg__(PWM5_TIMER))
+#define PWM5_TMRBREG (__tmrbreg__(PWM5_TIMER))
+#define DIO25_OCRREG (__ocrreg__(PWM5_TIMER, PWM5_OCR))
+#define DIO25_TMRAREG (__tmrareg__(PWM5_TIMER))
+#define DIO25_TMRBREG (__tmrbreg__(PWM5_TIMER))
+#if(PWM5_OCR == A)
+#define PWM5_ENABLE_MASK 0x80
 #define DIO25_ENABLE_MASK 0x80
-#elif(PWM7_OCR == B)
-#define PWM7_ENABLE_MASK 0x20
+#elif(PWM5_OCR == B)
+#define PWM5_ENABLE_MASK 0x20
 #define DIO25_ENABLE_MASK 0x20
-#elif(PWM7_OCR == C)
-#define PWM7_ENABLE_MASK 0x08
+#elif(PWM5_OCR == C)
+#define PWM5_ENABLE_MASK 0x08
 #define DIO25_ENABLE_MASK 0x08
 #endif
-#if(PWM7_TIMER==0 || PWM7_TIMER==2)
-#define PWM7_MODE 0x03
-#define PWM7_PRESCALLER 0x04
+#if(PWM5_TIMER==0 || PWM5_TIMER==2)
+#define PWM5_MODE 0x03
+#define PWM5_PRESCALLER 0x04
 #define DIO25_MODE 0x03
 #define DIO25_PRESCALLER 0x04
 #else
-#define PWM7_MODE (0x05)
-#define PWM7_PRESCALLER (0x03)
+#define PWM5_MODE (0x05)
+#define PWM5_PRESCALLER (0x03)
 #define DIO25_MODE (0x05)
 #define DIO25_PRESCALLER (0x03)
 #endif
@@ -2912,11 +2951,11 @@
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM7
-SETBIT(PWM7_DIRREG, PWM7_BIT);
-PWM7_TMRAREG = PWM7_MODE;
-PWM7_TMRBREG = PWM7_PRESCALLER;
-PWM7_OCRREG = 0;
+        <v>#ifdef PWM5
+SETBIT(PWM5_DIRREG, PWM5_BIT);
+PWM5_TMRAREG = PWM5_MODE;
+PWM5_TMRBREG = PWM5_PRESCALLER;
+PWM5_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J28" s="3"/>
@@ -2948,57 +2987,57 @@
         <v>DIO26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM8_PORT) &amp;&amp; defined(PWM8_BIT))
+        <v>#if(defined(PWM6_PORT) &amp;&amp; defined(PWM6_BIT))
 #define DIO26 26
-#define PWM8 26
-#define DIO26_PORT (PWM8_PORT)
-#define DIO26_BIT (PWM8_BIT)
-#define PWM8_OUTREG (__outreg__(PWM8_PORT))
-#define PWM8_INREG (__inreg__(PWM8_PORT))
-#define PWM8_DIRREG (__dirreg__(PWM8_PORT))
-#define DIO26_OUTREG (__outreg__(PWM8_PORT))
-#define DIO26_INREG (__inreg__(PWM8_PORT))
-#define DIO26_DIRREG (__dirreg__(PWM8_PORT))
+#define PWM6 26
+#define DIO26_PORT (PWM6_PORT)
+#define DIO26_BIT (PWM6_BIT)
+#define PWM6_OUTREG (__outreg__(PWM6_PORT))
+#define PWM6_INREG (__inreg__(PWM6_PORT))
+#define PWM6_DIRREG (__dirreg__(PWM6_PORT))
+#define DIO26_OUTREG (__outreg__(PWM6_PORT))
+#define DIO26_INREG (__inreg__(PWM6_PORT))
+#define DIO26_DIRREG (__dirreg__(PWM6_PORT))
 #endif</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM8_OCR) &amp;&amp; defined(PWM8_TIMER) &amp;&amp; defined(PWM8))
-#define DIO26_OCR (PWM8_OCR)
-#define DIO26_TIMER (PWM8_TIMER)
-#define PWM8_OCRREG (__ocrreg__(PWM8_TIMER, PWM8_OCR))
-#define PWM8_TMRAREG (__tmrareg__(PWM8_TIMER))
-#define PWM8_TMRBREG (__tmrbreg__(PWM8_TIMER))
-#define DIO26_OCRREG (__ocrreg__(PWM8_TIMER, PWM8_OCR))
-#define DIO26_TMRAREG (__tmrareg__(PWM8_TIMER))
-#define DIO26_TMRBREG (__tmrbreg__(PWM8_TIMER))
-#if(PWM8_OCR == A)
-#define PWM8_ENABLE_MASK 0x80
+        <v>#if(defined(PWM6_OCR) &amp;&amp; defined(PWM6_TIMER) &amp;&amp; defined(PWM6))
+#define DIO26_OCR (PWM6_OCR)
+#define DIO26_TIMER (PWM6_TIMER)
+#define PWM6_OCRREG (__ocrreg__(PWM6_TIMER, PWM6_OCR))
+#define PWM6_TMRAREG (__tmrareg__(PWM6_TIMER))
+#define PWM6_TMRBREG (__tmrbreg__(PWM6_TIMER))
+#define DIO26_OCRREG (__ocrreg__(PWM6_TIMER, PWM6_OCR))
+#define DIO26_TMRAREG (__tmrareg__(PWM6_TIMER))
+#define DIO26_TMRBREG (__tmrbreg__(PWM6_TIMER))
+#if(PWM6_OCR == A)
+#define PWM6_ENABLE_MASK 0x80
 #define DIO26_ENABLE_MASK 0x80
-#elif(PWM8_OCR == B)
-#define PWM8_ENABLE_MASK 0x20
+#elif(PWM6_OCR == B)
+#define PWM6_ENABLE_MASK 0x20
 #define DIO26_ENABLE_MASK 0x20
-#elif(PWM8_OCR == C)
-#define PWM8_ENABLE_MASK 0x08
+#elif(PWM6_OCR == C)
+#define PWM6_ENABLE_MASK 0x08
 #define DIO26_ENABLE_MASK 0x08
 #endif
-#if(PWM8_TIMER==0 || PWM8_TIMER==2)
-#define PWM8_MODE 0x03
-#define PWM8_PRESCALLER 0x04
+#if(PWM6_TIMER==0 || PWM6_TIMER==2)
+#define PWM6_MODE 0x03
+#define PWM6_PRESCALLER 0x04
 #define DIO26_MODE 0x03
 #define DIO26_PRESCALLER 0x04
 #else
-#define PWM8_MODE (0x05)
-#define PWM8_PRESCALLER (0x03)
+#define PWM6_MODE (0x05)
+#define PWM6_PRESCALLER (0x03)
 #define DIO26_MODE (0x05)
 #define DIO26_PRESCALLER (0x03)
 #endif
@@ -3006,11 +3045,11 @@
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM8
-SETBIT(PWM8_DIRREG, PWM8_BIT);
-PWM8_TMRAREG = PWM8_MODE;
-PWM8_TMRBREG = PWM8_PRESCALLER;
-PWM8_OCRREG = 0;
+        <v>#ifdef PWM6
+SETBIT(PWM6_DIRREG, PWM6_BIT);
+PWM6_TMRAREG = PWM6_MODE;
+PWM6_TMRBREG = PWM6_PRESCALLER;
+PWM6_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J29" s="3"/>
@@ -3042,57 +3081,57 @@
         <v>DIO27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM9_PORT) &amp;&amp; defined(PWM9_BIT))
+        <v>#if(defined(PWM7_PORT) &amp;&amp; defined(PWM7_BIT))
 #define DIO27 27
-#define PWM9 27
-#define DIO27_PORT (PWM9_PORT)
-#define DIO27_BIT (PWM9_BIT)
-#define PWM9_OUTREG (__outreg__(PWM9_PORT))
-#define PWM9_INREG (__inreg__(PWM9_PORT))
-#define PWM9_DIRREG (__dirreg__(PWM9_PORT))
-#define DIO27_OUTREG (__outreg__(PWM9_PORT))
-#define DIO27_INREG (__inreg__(PWM9_PORT))
-#define DIO27_DIRREG (__dirreg__(PWM9_PORT))
+#define PWM7 27
+#define DIO27_PORT (PWM7_PORT)
+#define DIO27_BIT (PWM7_BIT)
+#define PWM7_OUTREG (__outreg__(PWM7_PORT))
+#define PWM7_INREG (__inreg__(PWM7_PORT))
+#define PWM7_DIRREG (__dirreg__(PWM7_PORT))
+#define DIO27_OUTREG (__outreg__(PWM7_PORT))
+#define DIO27_INREG (__inreg__(PWM7_PORT))
+#define DIO27_DIRREG (__dirreg__(PWM7_PORT))
 #endif</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM9_OCR) &amp;&amp; defined(PWM9_TIMER) &amp;&amp; defined(PWM9))
-#define DIO27_OCR (PWM9_OCR)
-#define DIO27_TIMER (PWM9_TIMER)
-#define PWM9_OCRREG (__ocrreg__(PWM9_TIMER, PWM9_OCR))
-#define PWM9_TMRAREG (__tmrareg__(PWM9_TIMER))
-#define PWM9_TMRBREG (__tmrbreg__(PWM9_TIMER))
-#define DIO27_OCRREG (__ocrreg__(PWM9_TIMER, PWM9_OCR))
-#define DIO27_TMRAREG (__tmrareg__(PWM9_TIMER))
-#define DIO27_TMRBREG (__tmrbreg__(PWM9_TIMER))
-#if(PWM9_OCR == A)
-#define PWM9_ENABLE_MASK 0x80
+        <v>#if(defined(PWM7_OCR) &amp;&amp; defined(PWM7_TIMER) &amp;&amp; defined(PWM7))
+#define DIO27_OCR (PWM7_OCR)
+#define DIO27_TIMER (PWM7_TIMER)
+#define PWM7_OCRREG (__ocrreg__(PWM7_TIMER, PWM7_OCR))
+#define PWM7_TMRAREG (__tmrareg__(PWM7_TIMER))
+#define PWM7_TMRBREG (__tmrbreg__(PWM7_TIMER))
+#define DIO27_OCRREG (__ocrreg__(PWM7_TIMER, PWM7_OCR))
+#define DIO27_TMRAREG (__tmrareg__(PWM7_TIMER))
+#define DIO27_TMRBREG (__tmrbreg__(PWM7_TIMER))
+#if(PWM7_OCR == A)
+#define PWM7_ENABLE_MASK 0x80
 #define DIO27_ENABLE_MASK 0x80
-#elif(PWM9_OCR == B)
-#define PWM9_ENABLE_MASK 0x20
+#elif(PWM7_OCR == B)
+#define PWM7_ENABLE_MASK 0x20
 #define DIO27_ENABLE_MASK 0x20
-#elif(PWM9_OCR == C)
-#define PWM9_ENABLE_MASK 0x08
+#elif(PWM7_OCR == C)
+#define PWM7_ENABLE_MASK 0x08
 #define DIO27_ENABLE_MASK 0x08
 #endif
-#if(PWM9_TIMER==0 || PWM9_TIMER==2)
-#define PWM9_MODE 0x03
-#define PWM9_PRESCALLER 0x04
+#if(PWM7_TIMER==0 || PWM7_TIMER==2)
+#define PWM7_MODE 0x03
+#define PWM7_PRESCALLER 0x04
 #define DIO27_MODE 0x03
 #define DIO27_PRESCALLER 0x04
 #else
-#define PWM9_MODE (0x05)
-#define PWM9_PRESCALLER (0x03)
+#define PWM7_MODE (0x05)
+#define PWM7_PRESCALLER (0x03)
 #define DIO27_MODE (0x05)
 #define DIO27_PRESCALLER (0x03)
 #endif
@@ -3100,11 +3139,11 @@
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM9
-SETBIT(PWM9_DIRREG, PWM9_BIT);
-PWM9_TMRAREG = PWM9_MODE;
-PWM9_TMRBREG = PWM9_PRESCALLER;
-PWM9_OCRREG = 0;
+        <v>#ifdef PWM7
+SETBIT(PWM7_DIRREG, PWM7_BIT);
+PWM7_TMRAREG = PWM7_MODE;
+PWM7_TMRBREG = PWM7_PRESCALLER;
+PWM7_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J30" s="3"/>
@@ -3136,57 +3175,57 @@
         <v>DIO28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM10_PORT) &amp;&amp; defined(PWM10_BIT))
+        <v>#if(defined(PWM8_PORT) &amp;&amp; defined(PWM8_BIT))
 #define DIO28 28
-#define PWM10 28
-#define DIO28_PORT (PWM10_PORT)
-#define DIO28_BIT (PWM10_BIT)
-#define PWM10_OUTREG (__outreg__(PWM10_PORT))
-#define PWM10_INREG (__inreg__(PWM10_PORT))
-#define PWM10_DIRREG (__dirreg__(PWM10_PORT))
-#define DIO28_OUTREG (__outreg__(PWM10_PORT))
-#define DIO28_INREG (__inreg__(PWM10_PORT))
-#define DIO28_DIRREG (__dirreg__(PWM10_PORT))
+#define PWM8 28
+#define DIO28_PORT (PWM8_PORT)
+#define DIO28_BIT (PWM8_BIT)
+#define PWM8_OUTREG (__outreg__(PWM8_PORT))
+#define PWM8_INREG (__inreg__(PWM8_PORT))
+#define PWM8_DIRREG (__dirreg__(PWM8_PORT))
+#define DIO28_OUTREG (__outreg__(PWM8_PORT))
+#define DIO28_INREG (__inreg__(PWM8_PORT))
+#define DIO28_DIRREG (__dirreg__(PWM8_PORT))
 #endif</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM10_OCR) &amp;&amp; defined(PWM10_TIMER) &amp;&amp; defined(PWM10))
-#define DIO28_OCR (PWM10_OCR)
-#define DIO28_TIMER (PWM10_TIMER)
-#define PWM10_OCRREG (__ocrreg__(PWM10_TIMER, PWM10_OCR))
-#define PWM10_TMRAREG (__tmrareg__(PWM10_TIMER))
-#define PWM10_TMRBREG (__tmrbreg__(PWM10_TIMER))
-#define DIO28_OCRREG (__ocrreg__(PWM10_TIMER, PWM10_OCR))
-#define DIO28_TMRAREG (__tmrareg__(PWM10_TIMER))
-#define DIO28_TMRBREG (__tmrbreg__(PWM10_TIMER))
-#if(PWM10_OCR == A)
-#define PWM10_ENABLE_MASK 0x80
+        <v>#if(defined(PWM8_OCR) &amp;&amp; defined(PWM8_TIMER) &amp;&amp; defined(PWM8))
+#define DIO28_OCR (PWM8_OCR)
+#define DIO28_TIMER (PWM8_TIMER)
+#define PWM8_OCRREG (__ocrreg__(PWM8_TIMER, PWM8_OCR))
+#define PWM8_TMRAREG (__tmrareg__(PWM8_TIMER))
+#define PWM8_TMRBREG (__tmrbreg__(PWM8_TIMER))
+#define DIO28_OCRREG (__ocrreg__(PWM8_TIMER, PWM8_OCR))
+#define DIO28_TMRAREG (__tmrareg__(PWM8_TIMER))
+#define DIO28_TMRBREG (__tmrbreg__(PWM8_TIMER))
+#if(PWM8_OCR == A)
+#define PWM8_ENABLE_MASK 0x80
 #define DIO28_ENABLE_MASK 0x80
-#elif(PWM10_OCR == B)
-#define PWM10_ENABLE_MASK 0x20
+#elif(PWM8_OCR == B)
+#define PWM8_ENABLE_MASK 0x20
 #define DIO28_ENABLE_MASK 0x20
-#elif(PWM10_OCR == C)
-#define PWM10_ENABLE_MASK 0x08
+#elif(PWM8_OCR == C)
+#define PWM8_ENABLE_MASK 0x08
 #define DIO28_ENABLE_MASK 0x08
 #endif
-#if(PWM10_TIMER==0 || PWM10_TIMER==2)
-#define PWM10_MODE 0x03
-#define PWM10_PRESCALLER 0x04
+#if(PWM8_TIMER==0 || PWM8_TIMER==2)
+#define PWM8_MODE 0x03
+#define PWM8_PRESCALLER 0x04
 #define DIO28_MODE 0x03
 #define DIO28_PRESCALLER 0x04
 #else
-#define PWM10_MODE (0x05)
-#define PWM10_PRESCALLER (0x03)
+#define PWM8_MODE (0x05)
+#define PWM8_PRESCALLER (0x03)
 #define DIO28_MODE (0x05)
 #define DIO28_PRESCALLER (0x03)
 #endif
@@ -3194,11 +3233,11 @@
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM10
-SETBIT(PWM10_DIRREG, PWM10_BIT);
-PWM10_TMRAREG = PWM10_MODE;
-PWM10_TMRBREG = PWM10_PRESCALLER;
-PWM10_OCRREG = 0;
+        <v>#ifdef PWM8
+SETBIT(PWM8_DIRREG, PWM8_BIT);
+PWM8_TMRAREG = PWM8_MODE;
+PWM8_TMRBREG = PWM8_PRESCALLER;
+PWM8_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J31" s="3"/>
@@ -3230,57 +3269,57 @@
         <v>DIO29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM11_PORT) &amp;&amp; defined(PWM11_BIT))
+        <v>#if(defined(PWM9_PORT) &amp;&amp; defined(PWM9_BIT))
 #define DIO29 29
-#define PWM11 29
-#define DIO29_PORT (PWM11_PORT)
-#define DIO29_BIT (PWM11_BIT)
-#define PWM11_OUTREG (__outreg__(PWM11_PORT))
-#define PWM11_INREG (__inreg__(PWM11_PORT))
-#define PWM11_DIRREG (__dirreg__(PWM11_PORT))
-#define DIO29_OUTREG (__outreg__(PWM11_PORT))
-#define DIO29_INREG (__inreg__(PWM11_PORT))
-#define DIO29_DIRREG (__dirreg__(PWM11_PORT))
+#define PWM9 29
+#define DIO29_PORT (PWM9_PORT)
+#define DIO29_BIT (PWM9_BIT)
+#define PWM9_OUTREG (__outreg__(PWM9_PORT))
+#define PWM9_INREG (__inreg__(PWM9_PORT))
+#define PWM9_DIRREG (__dirreg__(PWM9_PORT))
+#define DIO29_OUTREG (__outreg__(PWM9_PORT))
+#define DIO29_INREG (__inreg__(PWM9_PORT))
+#define DIO29_DIRREG (__dirreg__(PWM9_PORT))
 #endif</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM11_OCR) &amp;&amp; defined(PWM11_TIMER) &amp;&amp; defined(PWM11))
-#define DIO29_OCR (PWM11_OCR)
-#define DIO29_TIMER (PWM11_TIMER)
-#define PWM11_OCRREG (__ocrreg__(PWM11_TIMER, PWM11_OCR))
-#define PWM11_TMRAREG (__tmrareg__(PWM11_TIMER))
-#define PWM11_TMRBREG (__tmrbreg__(PWM11_TIMER))
-#define DIO29_OCRREG (__ocrreg__(PWM11_TIMER, PWM11_OCR))
-#define DIO29_TMRAREG (__tmrareg__(PWM11_TIMER))
-#define DIO29_TMRBREG (__tmrbreg__(PWM11_TIMER))
-#if(PWM11_OCR == A)
-#define PWM11_ENABLE_MASK 0x80
+        <v>#if(defined(PWM9_OCR) &amp;&amp; defined(PWM9_TIMER) &amp;&amp; defined(PWM9))
+#define DIO29_OCR (PWM9_OCR)
+#define DIO29_TIMER (PWM9_TIMER)
+#define PWM9_OCRREG (__ocrreg__(PWM9_TIMER, PWM9_OCR))
+#define PWM9_TMRAREG (__tmrareg__(PWM9_TIMER))
+#define PWM9_TMRBREG (__tmrbreg__(PWM9_TIMER))
+#define DIO29_OCRREG (__ocrreg__(PWM9_TIMER, PWM9_OCR))
+#define DIO29_TMRAREG (__tmrareg__(PWM9_TIMER))
+#define DIO29_TMRBREG (__tmrbreg__(PWM9_TIMER))
+#if(PWM9_OCR == A)
+#define PWM9_ENABLE_MASK 0x80
 #define DIO29_ENABLE_MASK 0x80
-#elif(PWM11_OCR == B)
-#define PWM11_ENABLE_MASK 0x20
+#elif(PWM9_OCR == B)
+#define PWM9_ENABLE_MASK 0x20
 #define DIO29_ENABLE_MASK 0x20
-#elif(PWM11_OCR == C)
-#define PWM11_ENABLE_MASK 0x08
+#elif(PWM9_OCR == C)
+#define PWM9_ENABLE_MASK 0x08
 #define DIO29_ENABLE_MASK 0x08
 #endif
-#if(PWM11_TIMER==0 || PWM11_TIMER==2)
-#define PWM11_MODE 0x03
-#define PWM11_PRESCALLER 0x04
+#if(PWM9_TIMER==0 || PWM9_TIMER==2)
+#define PWM9_MODE 0x03
+#define PWM9_PRESCALLER 0x04
 #define DIO29_MODE 0x03
 #define DIO29_PRESCALLER 0x04
 #else
-#define PWM11_MODE (0x05)
-#define PWM11_PRESCALLER (0x03)
+#define PWM9_MODE (0x05)
+#define PWM9_PRESCALLER (0x03)
 #define DIO29_MODE (0x05)
 #define DIO29_PRESCALLER (0x03)
 #endif
@@ -3288,11 +3327,11 @@
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM11
-SETBIT(PWM11_DIRREG, PWM11_BIT);
-PWM11_TMRAREG = PWM11_MODE;
-PWM11_TMRBREG = PWM11_PRESCALLER;
-PWM11_OCRREG = 0;
+        <v>#ifdef PWM9
+SETBIT(PWM9_DIRREG, PWM9_BIT);
+PWM9_TMRAREG = PWM9_MODE;
+PWM9_TMRBREG = PWM9_PRESCALLER;
+PWM9_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J32" s="3"/>
@@ -3324,57 +3363,57 @@
         <v>DIO30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM12_PORT) &amp;&amp; defined(PWM12_BIT))
+        <v>#if(defined(PWM10_PORT) &amp;&amp; defined(PWM10_BIT))
 #define DIO30 30
-#define PWM12 30
-#define DIO30_PORT (PWM12_PORT)
-#define DIO30_BIT (PWM12_BIT)
-#define PWM12_OUTREG (__outreg__(PWM12_PORT))
-#define PWM12_INREG (__inreg__(PWM12_PORT))
-#define PWM12_DIRREG (__dirreg__(PWM12_PORT))
-#define DIO30_OUTREG (__outreg__(PWM12_PORT))
-#define DIO30_INREG (__inreg__(PWM12_PORT))
-#define DIO30_DIRREG (__dirreg__(PWM12_PORT))
+#define PWM10 30
+#define DIO30_PORT (PWM10_PORT)
+#define DIO30_BIT (PWM10_BIT)
+#define PWM10_OUTREG (__outreg__(PWM10_PORT))
+#define PWM10_INREG (__inreg__(PWM10_PORT))
+#define PWM10_DIRREG (__dirreg__(PWM10_PORT))
+#define DIO30_OUTREG (__outreg__(PWM10_PORT))
+#define DIO30_INREG (__inreg__(PWM10_PORT))
+#define DIO30_DIRREG (__dirreg__(PWM10_PORT))
 #endif</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM12_OCR) &amp;&amp; defined(PWM12_TIMER) &amp;&amp; defined(PWM12))
-#define DIO30_OCR (PWM12_OCR)
-#define DIO30_TIMER (PWM12_TIMER)
-#define PWM12_OCRREG (__ocrreg__(PWM12_TIMER, PWM12_OCR))
-#define PWM12_TMRAREG (__tmrareg__(PWM12_TIMER))
-#define PWM12_TMRBREG (__tmrbreg__(PWM12_TIMER))
-#define DIO30_OCRREG (__ocrreg__(PWM12_TIMER, PWM12_OCR))
-#define DIO30_TMRAREG (__tmrareg__(PWM12_TIMER))
-#define DIO30_TMRBREG (__tmrbreg__(PWM12_TIMER))
-#if(PWM12_OCR == A)
-#define PWM12_ENABLE_MASK 0x80
+        <v>#if(defined(PWM10_OCR) &amp;&amp; defined(PWM10_TIMER) &amp;&amp; defined(PWM10))
+#define DIO30_OCR (PWM10_OCR)
+#define DIO30_TIMER (PWM10_TIMER)
+#define PWM10_OCRREG (__ocrreg__(PWM10_TIMER, PWM10_OCR))
+#define PWM10_TMRAREG (__tmrareg__(PWM10_TIMER))
+#define PWM10_TMRBREG (__tmrbreg__(PWM10_TIMER))
+#define DIO30_OCRREG (__ocrreg__(PWM10_TIMER, PWM10_OCR))
+#define DIO30_TMRAREG (__tmrareg__(PWM10_TIMER))
+#define DIO30_TMRBREG (__tmrbreg__(PWM10_TIMER))
+#if(PWM10_OCR == A)
+#define PWM10_ENABLE_MASK 0x80
 #define DIO30_ENABLE_MASK 0x80
-#elif(PWM12_OCR == B)
-#define PWM12_ENABLE_MASK 0x20
+#elif(PWM10_OCR == B)
+#define PWM10_ENABLE_MASK 0x20
 #define DIO30_ENABLE_MASK 0x20
-#elif(PWM12_OCR == C)
-#define PWM12_ENABLE_MASK 0x08
+#elif(PWM10_OCR == C)
+#define PWM10_ENABLE_MASK 0x08
 #define DIO30_ENABLE_MASK 0x08
 #endif
-#if(PWM12_TIMER==0 || PWM12_TIMER==2)
-#define PWM12_MODE 0x03
-#define PWM12_PRESCALLER 0x04
+#if(PWM10_TIMER==0 || PWM10_TIMER==2)
+#define PWM10_MODE 0x03
+#define PWM10_PRESCALLER 0x04
 #define DIO30_MODE 0x03
 #define DIO30_PRESCALLER 0x04
 #else
-#define PWM12_MODE (0x05)
-#define PWM12_PRESCALLER (0x03)
+#define PWM10_MODE (0x05)
+#define PWM10_PRESCALLER (0x03)
 #define DIO30_MODE (0x05)
 #define DIO30_PRESCALLER (0x03)
 #endif
@@ -3382,11 +3421,11 @@
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM12
-SETBIT(PWM12_DIRREG, PWM12_BIT);
-PWM12_TMRAREG = PWM12_MODE;
-PWM12_TMRBREG = PWM12_PRESCALLER;
-PWM12_OCRREG = 0;
+        <v>#ifdef PWM10
+SETBIT(PWM10_DIRREG, PWM10_BIT);
+PWM10_TMRAREG = PWM10_MODE;
+PWM10_TMRBREG = PWM10_PRESCALLER;
+PWM10_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J33" s="3"/>
@@ -3418,57 +3457,57 @@
         <v>DIO31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM13_PORT) &amp;&amp; defined(PWM13_BIT))
+        <v>#if(defined(PWM11_PORT) &amp;&amp; defined(PWM11_BIT))
 #define DIO31 31
-#define PWM13 31
-#define DIO31_PORT (PWM13_PORT)
-#define DIO31_BIT (PWM13_BIT)
-#define PWM13_OUTREG (__outreg__(PWM13_PORT))
-#define PWM13_INREG (__inreg__(PWM13_PORT))
-#define PWM13_DIRREG (__dirreg__(PWM13_PORT))
-#define DIO31_OUTREG (__outreg__(PWM13_PORT))
-#define DIO31_INREG (__inreg__(PWM13_PORT))
-#define DIO31_DIRREG (__dirreg__(PWM13_PORT))
+#define PWM11 31
+#define DIO31_PORT (PWM11_PORT)
+#define DIO31_BIT (PWM11_BIT)
+#define PWM11_OUTREG (__outreg__(PWM11_PORT))
+#define PWM11_INREG (__inreg__(PWM11_PORT))
+#define PWM11_DIRREG (__dirreg__(PWM11_PORT))
+#define DIO31_OUTREG (__outreg__(PWM11_PORT))
+#define DIO31_INREG (__inreg__(PWM11_PORT))
+#define DIO31_DIRREG (__dirreg__(PWM11_PORT))
 #endif</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM13_OCR) &amp;&amp; defined(PWM13_TIMER) &amp;&amp; defined(PWM13))
-#define DIO31_OCR (PWM13_OCR)
-#define DIO31_TIMER (PWM13_TIMER)
-#define PWM13_OCRREG (__ocrreg__(PWM13_TIMER, PWM13_OCR))
-#define PWM13_TMRAREG (__tmrareg__(PWM13_TIMER))
-#define PWM13_TMRBREG (__tmrbreg__(PWM13_TIMER))
-#define DIO31_OCRREG (__ocrreg__(PWM13_TIMER, PWM13_OCR))
-#define DIO31_TMRAREG (__tmrareg__(PWM13_TIMER))
-#define DIO31_TMRBREG (__tmrbreg__(PWM13_TIMER))
-#if(PWM13_OCR == A)
-#define PWM13_ENABLE_MASK 0x80
+        <v>#if(defined(PWM11_OCR) &amp;&amp; defined(PWM11_TIMER) &amp;&amp; defined(PWM11))
+#define DIO31_OCR (PWM11_OCR)
+#define DIO31_TIMER (PWM11_TIMER)
+#define PWM11_OCRREG (__ocrreg__(PWM11_TIMER, PWM11_OCR))
+#define PWM11_TMRAREG (__tmrareg__(PWM11_TIMER))
+#define PWM11_TMRBREG (__tmrbreg__(PWM11_TIMER))
+#define DIO31_OCRREG (__ocrreg__(PWM11_TIMER, PWM11_OCR))
+#define DIO31_TMRAREG (__tmrareg__(PWM11_TIMER))
+#define DIO31_TMRBREG (__tmrbreg__(PWM11_TIMER))
+#if(PWM11_OCR == A)
+#define PWM11_ENABLE_MASK 0x80
 #define DIO31_ENABLE_MASK 0x80
-#elif(PWM13_OCR == B)
-#define PWM13_ENABLE_MASK 0x20
+#elif(PWM11_OCR == B)
+#define PWM11_ENABLE_MASK 0x20
 #define DIO31_ENABLE_MASK 0x20
-#elif(PWM13_OCR == C)
-#define PWM13_ENABLE_MASK 0x08
+#elif(PWM11_OCR == C)
+#define PWM11_ENABLE_MASK 0x08
 #define DIO31_ENABLE_MASK 0x08
 #endif
-#if(PWM13_TIMER==0 || PWM13_TIMER==2)
-#define PWM13_MODE 0x03
-#define PWM13_PRESCALLER 0x04
+#if(PWM11_TIMER==0 || PWM11_TIMER==2)
+#define PWM11_MODE 0x03
+#define PWM11_PRESCALLER 0x04
 #define DIO31_MODE 0x03
 #define DIO31_PRESCALLER 0x04
 #else
-#define PWM13_MODE (0x05)
-#define PWM13_PRESCALLER (0x03)
+#define PWM11_MODE (0x05)
+#define PWM11_PRESCALLER (0x03)
 #define DIO31_MODE (0x05)
 #define DIO31_PRESCALLER (0x03)
 #endif
@@ -3476,11 +3515,11 @@
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM13
-SETBIT(PWM13_DIRREG, PWM13_BIT);
-PWM13_TMRAREG = PWM13_MODE;
-PWM13_TMRBREG = PWM13_PRESCALLER;
-PWM13_OCRREG = 0;
+        <v>#ifdef PWM11
+SETBIT(PWM11_DIRREG, PWM11_BIT);
+PWM11_TMRAREG = PWM11_MODE;
+PWM11_TMRBREG = PWM11_PRESCALLER;
+PWM11_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J34" s="3"/>
@@ -3512,57 +3551,57 @@
         <v>DIO32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM14_PORT) &amp;&amp; defined(PWM14_BIT))
+        <v>#if(defined(PWM12_PORT) &amp;&amp; defined(PWM12_BIT))
 #define DIO32 32
-#define PWM14 32
-#define DIO32_PORT (PWM14_PORT)
-#define DIO32_BIT (PWM14_BIT)
-#define PWM14_OUTREG (__outreg__(PWM14_PORT))
-#define PWM14_INREG (__inreg__(PWM14_PORT))
-#define PWM14_DIRREG (__dirreg__(PWM14_PORT))
-#define DIO32_OUTREG (__outreg__(PWM14_PORT))
-#define DIO32_INREG (__inreg__(PWM14_PORT))
-#define DIO32_DIRREG (__dirreg__(PWM14_PORT))
+#define PWM12 32
+#define DIO32_PORT (PWM12_PORT)
+#define DIO32_BIT (PWM12_BIT)
+#define PWM12_OUTREG (__outreg__(PWM12_PORT))
+#define PWM12_INREG (__inreg__(PWM12_PORT))
+#define PWM12_DIRREG (__dirreg__(PWM12_PORT))
+#define DIO32_OUTREG (__outreg__(PWM12_PORT))
+#define DIO32_INREG (__inreg__(PWM12_PORT))
+#define DIO32_DIRREG (__dirreg__(PWM12_PORT))
 #endif</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM14_OCR) &amp;&amp; defined(PWM14_TIMER) &amp;&amp; defined(PWM14))
-#define DIO32_OCR (PWM14_OCR)
-#define DIO32_TIMER (PWM14_TIMER)
-#define PWM14_OCRREG (__ocrreg__(PWM14_TIMER, PWM14_OCR))
-#define PWM14_TMRAREG (__tmrareg__(PWM14_TIMER))
-#define PWM14_TMRBREG (__tmrbreg__(PWM14_TIMER))
-#define DIO32_OCRREG (__ocrreg__(PWM14_TIMER, PWM14_OCR))
-#define DIO32_TMRAREG (__tmrareg__(PWM14_TIMER))
-#define DIO32_TMRBREG (__tmrbreg__(PWM14_TIMER))
-#if(PWM14_OCR == A)
-#define PWM14_ENABLE_MASK 0x80
+        <v>#if(defined(PWM12_OCR) &amp;&amp; defined(PWM12_TIMER) &amp;&amp; defined(PWM12))
+#define DIO32_OCR (PWM12_OCR)
+#define DIO32_TIMER (PWM12_TIMER)
+#define PWM12_OCRREG (__ocrreg__(PWM12_TIMER, PWM12_OCR))
+#define PWM12_TMRAREG (__tmrareg__(PWM12_TIMER))
+#define PWM12_TMRBREG (__tmrbreg__(PWM12_TIMER))
+#define DIO32_OCRREG (__ocrreg__(PWM12_TIMER, PWM12_OCR))
+#define DIO32_TMRAREG (__tmrareg__(PWM12_TIMER))
+#define DIO32_TMRBREG (__tmrbreg__(PWM12_TIMER))
+#if(PWM12_OCR == A)
+#define PWM12_ENABLE_MASK 0x80
 #define DIO32_ENABLE_MASK 0x80
-#elif(PWM14_OCR == B)
-#define PWM14_ENABLE_MASK 0x20
+#elif(PWM12_OCR == B)
+#define PWM12_ENABLE_MASK 0x20
 #define DIO32_ENABLE_MASK 0x20
-#elif(PWM14_OCR == C)
-#define PWM14_ENABLE_MASK 0x08
+#elif(PWM12_OCR == C)
+#define PWM12_ENABLE_MASK 0x08
 #define DIO32_ENABLE_MASK 0x08
 #endif
-#if(PWM14_TIMER==0 || PWM14_TIMER==2)
-#define PWM14_MODE 0x03
-#define PWM14_PRESCALLER 0x04
+#if(PWM12_TIMER==0 || PWM12_TIMER==2)
+#define PWM12_MODE 0x03
+#define PWM12_PRESCALLER 0x04
 #define DIO32_MODE 0x03
 #define DIO32_PRESCALLER 0x04
 #else
-#define PWM14_MODE (0x05)
-#define PWM14_PRESCALLER (0x03)
+#define PWM12_MODE (0x05)
+#define PWM12_PRESCALLER (0x03)
 #define DIO32_MODE (0x05)
 #define DIO32_PRESCALLER (0x03)
 #endif
@@ -3570,11 +3609,11 @@
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM14
-SETBIT(PWM14_DIRREG, PWM14_BIT);
-PWM14_TMRAREG = PWM14_MODE;
-PWM14_TMRBREG = PWM14_PRESCALLER;
-PWM14_OCRREG = 0;
+        <v>#ifdef PWM12
+SETBIT(PWM12_DIRREG, PWM12_BIT);
+PWM12_TMRAREG = PWM12_MODE;
+PWM12_TMRBREG = PWM12_PRESCALLER;
+PWM12_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J35" s="3"/>
@@ -3606,57 +3645,57 @@
         <v>DIO33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PWM15_PORT) &amp;&amp; defined(PWM15_BIT))
+        <v>#if(defined(PWM13_PORT) &amp;&amp; defined(PWM13_BIT))
 #define DIO33 33
-#define PWM15 33
-#define DIO33_PORT (PWM15_PORT)
-#define DIO33_BIT (PWM15_BIT)
-#define PWM15_OUTREG (__outreg__(PWM15_PORT))
-#define PWM15_INREG (__inreg__(PWM15_PORT))
-#define PWM15_DIRREG (__dirreg__(PWM15_PORT))
-#define DIO33_OUTREG (__outreg__(PWM15_PORT))
-#define DIO33_INREG (__inreg__(PWM15_PORT))
-#define DIO33_DIRREG (__dirreg__(PWM15_PORT))
+#define PWM13 33
+#define DIO33_PORT (PWM13_PORT)
+#define DIO33_BIT (PWM13_BIT)
+#define PWM13_OUTREG (__outreg__(PWM13_PORT))
+#define PWM13_INREG (__inreg__(PWM13_PORT))
+#define PWM13_DIRREG (__dirreg__(PWM13_PORT))
+#define DIO33_OUTREG (__outreg__(PWM13_PORT))
+#define DIO33_INREG (__inreg__(PWM13_PORT))
+#define DIO33_DIRREG (__dirreg__(PWM13_PORT))
 #endif</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if(defined(PWM15_OCR) &amp;&amp; defined(PWM15_TIMER) &amp;&amp; defined(PWM15))
-#define DIO33_OCR (PWM15_OCR)
-#define DIO33_TIMER (PWM15_TIMER)
-#define PWM15_OCRREG (__ocrreg__(PWM15_TIMER, PWM15_OCR))
-#define PWM15_TMRAREG (__tmrareg__(PWM15_TIMER))
-#define PWM15_TMRBREG (__tmrbreg__(PWM15_TIMER))
-#define DIO33_OCRREG (__ocrreg__(PWM15_TIMER, PWM15_OCR))
-#define DIO33_TMRAREG (__tmrareg__(PWM15_TIMER))
-#define DIO33_TMRBREG (__tmrbreg__(PWM15_TIMER))
-#if(PWM15_OCR == A)
-#define PWM15_ENABLE_MASK 0x80
+        <v>#if(defined(PWM13_OCR) &amp;&amp; defined(PWM13_TIMER) &amp;&amp; defined(PWM13))
+#define DIO33_OCR (PWM13_OCR)
+#define DIO33_TIMER (PWM13_TIMER)
+#define PWM13_OCRREG (__ocrreg__(PWM13_TIMER, PWM13_OCR))
+#define PWM13_TMRAREG (__tmrareg__(PWM13_TIMER))
+#define PWM13_TMRBREG (__tmrbreg__(PWM13_TIMER))
+#define DIO33_OCRREG (__ocrreg__(PWM13_TIMER, PWM13_OCR))
+#define DIO33_TMRAREG (__tmrareg__(PWM13_TIMER))
+#define DIO33_TMRBREG (__tmrbreg__(PWM13_TIMER))
+#if(PWM13_OCR == A)
+#define PWM13_ENABLE_MASK 0x80
 #define DIO33_ENABLE_MASK 0x80
-#elif(PWM15_OCR == B)
-#define PWM15_ENABLE_MASK 0x20
+#elif(PWM13_OCR == B)
+#define PWM13_ENABLE_MASK 0x20
 #define DIO33_ENABLE_MASK 0x20
-#elif(PWM15_OCR == C)
-#define PWM15_ENABLE_MASK 0x08
+#elif(PWM13_OCR == C)
+#define PWM13_ENABLE_MASK 0x08
 #define DIO33_ENABLE_MASK 0x08
 #endif
-#if(PWM15_TIMER==0 || PWM15_TIMER==2)
-#define PWM15_MODE 0x03
-#define PWM15_PRESCALLER 0x04
+#if(PWM13_TIMER==0 || PWM13_TIMER==2)
+#define PWM13_MODE 0x03
+#define PWM13_PRESCALLER 0x04
 #define DIO33_MODE 0x03
 #define DIO33_PRESCALLER 0x04
 #else
-#define PWM15_MODE (0x05)
-#define PWM15_PRESCALLER (0x03)
+#define PWM13_MODE (0x05)
+#define PWM13_PRESCALLER (0x03)
 #define DIO33_MODE (0x05)
 #define DIO33_PRESCALLER (0x03)
 #endif
@@ -3664,11 +3703,11 @@
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM15
-SETBIT(PWM15_DIRREG, PWM15_BIT);
-PWM15_TMRAREG = PWM15_MODE;
-PWM15_TMRBREG = PWM15_PRESCALLER;
-PWM15_OCRREG = 0;
+        <v>#ifdef PWM13
+SETBIT(PWM13_DIRREG, PWM13_BIT);
+PWM13_TMRAREG = PWM13_MODE;
+PWM13_TMRBREG = PWM13_PRESCALLER;
+PWM13_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J36" s="3"/>
@@ -3700,33 +3739,69 @@
         <v>DIO34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D37" s="3">
+        <v>14</v>
+      </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(TX_PORT) &amp;&amp; defined(TX_BIT))
+        <v>#if(defined(PWM14_PORT) &amp;&amp; defined(PWM14_BIT))
 #define DIO34 34
-#define TX 34
-#define DIO34_PORT (TX_PORT)
-#define DIO34_BIT (TX_BIT)
-#define TX_OUTREG (__outreg__(TX_PORT))
-#define TX_INREG (__inreg__(TX_PORT))
-#define TX_DIRREG (__dirreg__(TX_PORT))
-#define DIO34_OUTREG (__outreg__(TX_PORT))
-#define DIO34_INREG (__inreg__(TX_PORT))
-#define DIO34_DIRREG (__dirreg__(TX_PORT))
+#define PWM14 34
+#define DIO34_PORT (PWM14_PORT)
+#define DIO34_BIT (PWM14_BIT)
+#define PWM14_OUTREG (__outreg__(PWM14_PORT))
+#define PWM14_INREG (__inreg__(PWM14_PORT))
+#define PWM14_DIRREG (__dirreg__(PWM14_PORT))
+#define DIO34_OUTREG (__outreg__(PWM14_PORT))
+#define DIO34_INREG (__inreg__(PWM14_PORT))
+#define DIO34_DIRREG (__dirreg__(PWM14_PORT))
 #endif</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>#if(defined(PWM14_OCR) &amp;&amp; defined(PWM14_TIMER) &amp;&amp; defined(PWM14))
+#define DIO34_OCR (PWM14_OCR)
+#define DIO34_TIMER (PWM14_TIMER)
+#define PWM14_OCRREG (__ocrreg__(PWM14_TIMER, PWM14_OCR))
+#define PWM14_TMRAREG (__tmrareg__(PWM14_TIMER))
+#define PWM14_TMRBREG (__tmrbreg__(PWM14_TIMER))
+#define DIO34_OCRREG (__ocrreg__(PWM14_TIMER, PWM14_OCR))
+#define DIO34_TMRAREG (__tmrareg__(PWM14_TIMER))
+#define DIO34_TMRBREG (__tmrbreg__(PWM14_TIMER))
+#if(PWM14_OCR == A)
+#define PWM14_ENABLE_MASK 0x80
+#define DIO34_ENABLE_MASK 0x80
+#elif(PWM14_OCR == B)
+#define PWM14_ENABLE_MASK 0x20
+#define DIO34_ENABLE_MASK 0x20
+#elif(PWM14_OCR == C)
+#define PWM14_ENABLE_MASK 0x08
+#define DIO34_ENABLE_MASK 0x08
+#endif
+#if(PWM14_TIMER==0 || PWM14_TIMER==2)
+#define PWM14_MODE 0x03
+#define PWM14_PRESCALLER 0x04
+#define DIO34_MODE 0x03
+#define DIO34_PRESCALLER 0x04
+#else
+#define PWM14_MODE (0x05)
+#define PWM14_PRESCALLER (0x03)
+#define DIO34_MODE (0x05)
+#define DIO34_PRESCALLER (0x03)
+#endif
+#endif</v>
+      </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" ref="I37:I53" si="6">"#ifdef "&amp;C37&amp;"
-SETBIT("&amp;C37&amp;"_DIRREG, "&amp;C37&amp;"_BIT);
-#endif"</f>
-        <v>#ifdef TX
-SETBIT(TX_DIRREG, TX_BIT);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM14
+SETBIT(PWM14_DIRREG, PWM14_BIT);
+PWM14_TMRAREG = PWM14_MODE;
+PWM14_TMRBREG = PWM14_PRESCALLER;
+PWM14_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J37" s="3"/>
@@ -3758,33 +3833,69 @@
         <v>DIO35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
+        <v>#if(defined(PWM15_PORT) &amp;&amp; defined(PWM15_BIT))
 #define DIO35 35
-#define DOUT0 35
-#define DIO35_PORT (DOUT0_PORT)
-#define DIO35_BIT (DOUT0_BIT)
-#define DOUT0_OUTREG (__outreg__(DOUT0_PORT))
-#define DOUT0_INREG (__inreg__(DOUT0_PORT))
-#define DOUT0_DIRREG (__dirreg__(DOUT0_PORT))
-#define DIO35_OUTREG (__outreg__(DOUT0_PORT))
-#define DIO35_INREG (__inreg__(DOUT0_PORT))
-#define DIO35_DIRREG (__dirreg__(DOUT0_PORT))
+#define PWM15 35
+#define DIO35_PORT (PWM15_PORT)
+#define DIO35_BIT (PWM15_BIT)
+#define PWM15_OUTREG (__outreg__(PWM15_PORT))
+#define PWM15_INREG (__inreg__(PWM15_PORT))
+#define PWM15_DIRREG (__dirreg__(PWM15_PORT))
+#define DIO35_OUTREG (__outreg__(PWM15_PORT))
+#define DIO35_INREG (__inreg__(PWM15_PORT))
+#define DIO35_DIRREG (__dirreg__(PWM15_PORT))
 #endif</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>#if(defined(PWM15_OCR) &amp;&amp; defined(PWM15_TIMER) &amp;&amp; defined(PWM15))
+#define DIO35_OCR (PWM15_OCR)
+#define DIO35_TIMER (PWM15_TIMER)
+#define PWM15_OCRREG (__ocrreg__(PWM15_TIMER, PWM15_OCR))
+#define PWM15_TMRAREG (__tmrareg__(PWM15_TIMER))
+#define PWM15_TMRBREG (__tmrbreg__(PWM15_TIMER))
+#define DIO35_OCRREG (__ocrreg__(PWM15_TIMER, PWM15_OCR))
+#define DIO35_TMRAREG (__tmrareg__(PWM15_TIMER))
+#define DIO35_TMRBREG (__tmrbreg__(PWM15_TIMER))
+#if(PWM15_OCR == A)
+#define PWM15_ENABLE_MASK 0x80
+#define DIO35_ENABLE_MASK 0x80
+#elif(PWM15_OCR == B)
+#define PWM15_ENABLE_MASK 0x20
+#define DIO35_ENABLE_MASK 0x20
+#elif(PWM15_OCR == C)
+#define PWM15_ENABLE_MASK 0x08
+#define DIO35_ENABLE_MASK 0x08
+#endif
+#if(PWM15_TIMER==0 || PWM15_TIMER==2)
+#define PWM15_MODE 0x03
+#define PWM15_PRESCALLER 0x04
+#define DIO35_MODE 0x03
+#define DIO35_PRESCALLER 0x04
+#else
+#define PWM15_MODE (0x05)
+#define PWM15_PRESCALLER (0x03)
+#define DIO35_MODE (0x05)
+#define DIO35_PRESCALLER (0x03)
+#endif
+#endif</v>
+      </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>#ifdef DOUT0
-SETBIT(DOUT0_DIRREG, DOUT0_BIT);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM15
+SETBIT(PWM15_DIRREG, PWM15_BIT);
+PWM15_TMRAREG = PWM15_MODE;
+PWM15_TMRBREG = PWM15_PRESCALLER;
+PWM15_OCRREG = 0;
 #endif</v>
       </c>
       <c r="J38" s="3"/>
@@ -3816,33 +3927,33 @@
         <v>DIO36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
+        <v>#if(defined(TX_PORT) &amp;&amp; defined(TX_BIT))
 #define DIO36 36
-#define DOUT1 36
-#define DIO36_PORT (DOUT1_PORT)
-#define DIO36_BIT (DOUT1_BIT)
-#define DOUT1_OUTREG (__outreg__(DOUT1_PORT))
-#define DOUT1_INREG (__inreg__(DOUT1_PORT))
-#define DOUT1_DIRREG (__dirreg__(DOUT1_PORT))
-#define DIO36_OUTREG (__outreg__(DOUT1_PORT))
-#define DIO36_INREG (__inreg__(DOUT1_PORT))
-#define DIO36_DIRREG (__dirreg__(DOUT1_PORT))
+#define TX 36
+#define DIO36_PORT (TX_PORT)
+#define DIO36_BIT (TX_BIT)
+#define TX_OUTREG (__outreg__(TX_PORT))
+#define TX_INREG (__inreg__(TX_PORT))
+#define TX_DIRREG (__dirreg__(TX_PORT))
+#define DIO36_OUTREG (__outreg__(TX_PORT))
+#define DIO36_INREG (__inreg__(TX_PORT))
+#define DIO36_DIRREG (__dirreg__(TX_PORT))
 #endif</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>#ifdef DOUT1
-SETBIT(DOUT1_DIRREG, DOUT1_BIT);
+        <f t="shared" ref="I39:I55" si="6">"#ifdef "&amp;C39&amp;"
+SETBIT("&amp;C39&amp;"_DIRREG, "&amp;C39&amp;"_BIT);
+#endif"</f>
+        <v>#ifdef TX
+SETBIT(TX_DIRREG, TX_BIT);
 #endif</v>
       </c>
       <c r="J39" s="3"/>
@@ -3874,24 +3985,24 @@
         <v>DIO37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
+        <v>#if(defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
 #define DIO37 37
-#define DOUT2 37
-#define DIO37_PORT (DOUT2_PORT)
-#define DIO37_BIT (DOUT2_BIT)
-#define DOUT2_OUTREG (__outreg__(DOUT2_PORT))
-#define DOUT2_INREG (__inreg__(DOUT2_PORT))
-#define DOUT2_DIRREG (__dirreg__(DOUT2_PORT))
-#define DIO37_OUTREG (__outreg__(DOUT2_PORT))
-#define DIO37_INREG (__inreg__(DOUT2_PORT))
-#define DIO37_DIRREG (__dirreg__(DOUT2_PORT))
+#define DOUT0 37
+#define DIO37_PORT (DOUT0_PORT)
+#define DIO37_BIT (DOUT0_BIT)
+#define DOUT0_OUTREG (__outreg__(DOUT0_PORT))
+#define DOUT0_INREG (__inreg__(DOUT0_PORT))
+#define DOUT0_DIRREG (__dirreg__(DOUT0_PORT))
+#define DIO37_OUTREG (__outreg__(DOUT0_PORT))
+#define DIO37_INREG (__inreg__(DOUT0_PORT))
+#define DIO37_DIRREG (__dirreg__(DOUT0_PORT))
 #endif</v>
       </c>
       <c r="F40" s="6"/>
@@ -3899,8 +4010,8 @@
       <c r="H40" s="6"/>
       <c r="I40" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT2
-SETBIT(DOUT2_DIRREG, DOUT2_BIT);
+        <v>#ifdef DOUT0
+SETBIT(DOUT0_DIRREG, DOUT0_BIT);
 #endif</v>
       </c>
       <c r="J40" s="3"/>
@@ -3932,24 +4043,24 @@
         <v>DIO38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
+        <v>#if(defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
 #define DIO38 38
-#define DOUT3 38
-#define DIO38_PORT (DOUT3_PORT)
-#define DIO38_BIT (DOUT3_BIT)
-#define DOUT3_OUTREG (__outreg__(DOUT3_PORT))
-#define DOUT3_INREG (__inreg__(DOUT3_PORT))
-#define DOUT3_DIRREG (__dirreg__(DOUT3_PORT))
-#define DIO38_OUTREG (__outreg__(DOUT3_PORT))
-#define DIO38_INREG (__inreg__(DOUT3_PORT))
-#define DIO38_DIRREG (__dirreg__(DOUT3_PORT))
+#define DOUT1 38
+#define DIO38_PORT (DOUT1_PORT)
+#define DIO38_BIT (DOUT1_BIT)
+#define DOUT1_OUTREG (__outreg__(DOUT1_PORT))
+#define DOUT1_INREG (__inreg__(DOUT1_PORT))
+#define DOUT1_DIRREG (__dirreg__(DOUT1_PORT))
+#define DIO38_OUTREG (__outreg__(DOUT1_PORT))
+#define DIO38_INREG (__inreg__(DOUT1_PORT))
+#define DIO38_DIRREG (__dirreg__(DOUT1_PORT))
 #endif</v>
       </c>
       <c r="F41" s="6"/>
@@ -3957,8 +4068,8 @@
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT3
-SETBIT(DOUT3_DIRREG, DOUT3_BIT);
+        <v>#ifdef DOUT1
+SETBIT(DOUT1_DIRREG, DOUT1_BIT);
 #endif</v>
       </c>
       <c r="J41" s="3"/>
@@ -3990,24 +4101,24 @@
         <v>DIO39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
+        <v>#if(defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
 #define DIO39 39
-#define DOUT4 39
-#define DIO39_PORT (DOUT4_PORT)
-#define DIO39_BIT (DOUT4_BIT)
-#define DOUT4_OUTREG (__outreg__(DOUT4_PORT))
-#define DOUT4_INREG (__inreg__(DOUT4_PORT))
-#define DOUT4_DIRREG (__dirreg__(DOUT4_PORT))
-#define DIO39_OUTREG (__outreg__(DOUT4_PORT))
-#define DIO39_INREG (__inreg__(DOUT4_PORT))
-#define DIO39_DIRREG (__dirreg__(DOUT4_PORT))
+#define DOUT2 39
+#define DIO39_PORT (DOUT2_PORT)
+#define DIO39_BIT (DOUT2_BIT)
+#define DOUT2_OUTREG (__outreg__(DOUT2_PORT))
+#define DOUT2_INREG (__inreg__(DOUT2_PORT))
+#define DOUT2_DIRREG (__dirreg__(DOUT2_PORT))
+#define DIO39_OUTREG (__outreg__(DOUT2_PORT))
+#define DIO39_INREG (__inreg__(DOUT2_PORT))
+#define DIO39_DIRREG (__dirreg__(DOUT2_PORT))
 #endif</v>
       </c>
       <c r="F42" s="6"/>
@@ -4015,8 +4126,8 @@
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT4
-SETBIT(DOUT4_DIRREG, DOUT4_BIT);
+        <v>#ifdef DOUT2
+SETBIT(DOUT2_DIRREG, DOUT2_BIT);
 #endif</v>
       </c>
       <c r="J42" s="3"/>
@@ -4048,24 +4159,24 @@
         <v>DIO40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
+        <v>#if(defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
 #define DIO40 40
-#define DOUT5 40
-#define DIO40_PORT (DOUT5_PORT)
-#define DIO40_BIT (DOUT5_BIT)
-#define DOUT5_OUTREG (__outreg__(DOUT5_PORT))
-#define DOUT5_INREG (__inreg__(DOUT5_PORT))
-#define DOUT5_DIRREG (__dirreg__(DOUT5_PORT))
-#define DIO40_OUTREG (__outreg__(DOUT5_PORT))
-#define DIO40_INREG (__inreg__(DOUT5_PORT))
-#define DIO40_DIRREG (__dirreg__(DOUT5_PORT))
+#define DOUT3 40
+#define DIO40_PORT (DOUT3_PORT)
+#define DIO40_BIT (DOUT3_BIT)
+#define DOUT3_OUTREG (__outreg__(DOUT3_PORT))
+#define DOUT3_INREG (__inreg__(DOUT3_PORT))
+#define DOUT3_DIRREG (__dirreg__(DOUT3_PORT))
+#define DIO40_OUTREG (__outreg__(DOUT3_PORT))
+#define DIO40_INREG (__inreg__(DOUT3_PORT))
+#define DIO40_DIRREG (__dirreg__(DOUT3_PORT))
 #endif</v>
       </c>
       <c r="F43" s="6"/>
@@ -4073,8 +4184,8 @@
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT5
-SETBIT(DOUT5_DIRREG, DOUT5_BIT);
+        <v>#ifdef DOUT3
+SETBIT(DOUT3_DIRREG, DOUT3_BIT);
 #endif</v>
       </c>
       <c r="J43" s="3"/>
@@ -4106,24 +4217,24 @@
         <v>DIO41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
+        <v>#if(defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
 #define DIO41 41
-#define DOUT6 41
-#define DIO41_PORT (DOUT6_PORT)
-#define DIO41_BIT (DOUT6_BIT)
-#define DOUT6_OUTREG (__outreg__(DOUT6_PORT))
-#define DOUT6_INREG (__inreg__(DOUT6_PORT))
-#define DOUT6_DIRREG (__dirreg__(DOUT6_PORT))
-#define DIO41_OUTREG (__outreg__(DOUT6_PORT))
-#define DIO41_INREG (__inreg__(DOUT6_PORT))
-#define DIO41_DIRREG (__dirreg__(DOUT6_PORT))
+#define DOUT4 41
+#define DIO41_PORT (DOUT4_PORT)
+#define DIO41_BIT (DOUT4_BIT)
+#define DOUT4_OUTREG (__outreg__(DOUT4_PORT))
+#define DOUT4_INREG (__inreg__(DOUT4_PORT))
+#define DOUT4_DIRREG (__dirreg__(DOUT4_PORT))
+#define DIO41_OUTREG (__outreg__(DOUT4_PORT))
+#define DIO41_INREG (__inreg__(DOUT4_PORT))
+#define DIO41_DIRREG (__dirreg__(DOUT4_PORT))
 #endif</v>
       </c>
       <c r="F44" s="6"/>
@@ -4131,8 +4242,8 @@
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT6
-SETBIT(DOUT6_DIRREG, DOUT6_BIT);
+        <v>#ifdef DOUT4
+SETBIT(DOUT4_DIRREG, DOUT4_BIT);
 #endif</v>
       </c>
       <c r="J44" s="3"/>
@@ -4164,24 +4275,24 @@
         <v>DIO42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
+        <v>#if(defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
 #define DIO42 42
-#define DOUT7 42
-#define DIO42_PORT (DOUT7_PORT)
-#define DIO42_BIT (DOUT7_BIT)
-#define DOUT7_OUTREG (__outreg__(DOUT7_PORT))
-#define DOUT7_INREG (__inreg__(DOUT7_PORT))
-#define DOUT7_DIRREG (__dirreg__(DOUT7_PORT))
-#define DIO42_OUTREG (__outreg__(DOUT7_PORT))
-#define DIO42_INREG (__inreg__(DOUT7_PORT))
-#define DIO42_DIRREG (__dirreg__(DOUT7_PORT))
+#define DOUT5 42
+#define DIO42_PORT (DOUT5_PORT)
+#define DIO42_BIT (DOUT5_BIT)
+#define DOUT5_OUTREG (__outreg__(DOUT5_PORT))
+#define DOUT5_INREG (__inreg__(DOUT5_PORT))
+#define DOUT5_DIRREG (__dirreg__(DOUT5_PORT))
+#define DIO42_OUTREG (__outreg__(DOUT5_PORT))
+#define DIO42_INREG (__inreg__(DOUT5_PORT))
+#define DIO42_DIRREG (__dirreg__(DOUT5_PORT))
 #endif</v>
       </c>
       <c r="F45" s="6"/>
@@ -4189,8 +4300,8 @@
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT7
-SETBIT(DOUT7_DIRREG, DOUT7_BIT);
+        <v>#ifdef DOUT5
+SETBIT(DOUT5_DIRREG, DOUT5_BIT);
 #endif</v>
       </c>
       <c r="J45" s="3"/>
@@ -4222,24 +4333,24 @@
         <v>DIO43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
+        <v>#if(defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
 #define DIO43 43
-#define DOUT8 43
-#define DIO43_PORT (DOUT8_PORT)
-#define DIO43_BIT (DOUT8_BIT)
-#define DOUT8_OUTREG (__outreg__(DOUT8_PORT))
-#define DOUT8_INREG (__inreg__(DOUT8_PORT))
-#define DOUT8_DIRREG (__dirreg__(DOUT8_PORT))
-#define DIO43_OUTREG (__outreg__(DOUT8_PORT))
-#define DIO43_INREG (__inreg__(DOUT8_PORT))
-#define DIO43_DIRREG (__dirreg__(DOUT8_PORT))
+#define DOUT6 43
+#define DIO43_PORT (DOUT6_PORT)
+#define DIO43_BIT (DOUT6_BIT)
+#define DOUT6_OUTREG (__outreg__(DOUT6_PORT))
+#define DOUT6_INREG (__inreg__(DOUT6_PORT))
+#define DOUT6_DIRREG (__dirreg__(DOUT6_PORT))
+#define DIO43_OUTREG (__outreg__(DOUT6_PORT))
+#define DIO43_INREG (__inreg__(DOUT6_PORT))
+#define DIO43_DIRREG (__dirreg__(DOUT6_PORT))
 #endif</v>
       </c>
       <c r="F46" s="6"/>
@@ -4247,8 +4358,8 @@
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT8
-SETBIT(DOUT8_DIRREG, DOUT8_BIT);
+        <v>#ifdef DOUT6
+SETBIT(DOUT6_DIRREG, DOUT6_BIT);
 #endif</v>
       </c>
       <c r="J46" s="3"/>
@@ -4280,24 +4391,24 @@
         <v>DIO44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
+        <v>#if(defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
 #define DIO44 44
-#define DOUT9 44
-#define DIO44_PORT (DOUT9_PORT)
-#define DIO44_BIT (DOUT9_BIT)
-#define DOUT9_OUTREG (__outreg__(DOUT9_PORT))
-#define DOUT9_INREG (__inreg__(DOUT9_PORT))
-#define DOUT9_DIRREG (__dirreg__(DOUT9_PORT))
-#define DIO44_OUTREG (__outreg__(DOUT9_PORT))
-#define DIO44_INREG (__inreg__(DOUT9_PORT))
-#define DIO44_DIRREG (__dirreg__(DOUT9_PORT))
+#define DOUT7 44
+#define DIO44_PORT (DOUT7_PORT)
+#define DIO44_BIT (DOUT7_BIT)
+#define DOUT7_OUTREG (__outreg__(DOUT7_PORT))
+#define DOUT7_INREG (__inreg__(DOUT7_PORT))
+#define DOUT7_DIRREG (__dirreg__(DOUT7_PORT))
+#define DIO44_OUTREG (__outreg__(DOUT7_PORT))
+#define DIO44_INREG (__inreg__(DOUT7_PORT))
+#define DIO44_DIRREG (__dirreg__(DOUT7_PORT))
 #endif</v>
       </c>
       <c r="F47" s="6"/>
@@ -4305,8 +4416,8 @@
       <c r="H47" s="6"/>
       <c r="I47" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT9
-SETBIT(DOUT9_DIRREG, DOUT9_BIT);
+        <v>#ifdef DOUT7
+SETBIT(DOUT7_DIRREG, DOUT7_BIT);
 #endif</v>
       </c>
       <c r="J47" s="3"/>
@@ -4338,24 +4449,24 @@
         <v>DIO45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
+        <v>#if(defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
 #define DIO45 45
-#define DOUT10 45
-#define DIO45_PORT (DOUT10_PORT)
-#define DIO45_BIT (DOUT10_BIT)
-#define DOUT10_OUTREG (__outreg__(DOUT10_PORT))
-#define DOUT10_INREG (__inreg__(DOUT10_PORT))
-#define DOUT10_DIRREG (__dirreg__(DOUT10_PORT))
-#define DIO45_OUTREG (__outreg__(DOUT10_PORT))
-#define DIO45_INREG (__inreg__(DOUT10_PORT))
-#define DIO45_DIRREG (__dirreg__(DOUT10_PORT))
+#define DOUT8 45
+#define DIO45_PORT (DOUT8_PORT)
+#define DIO45_BIT (DOUT8_BIT)
+#define DOUT8_OUTREG (__outreg__(DOUT8_PORT))
+#define DOUT8_INREG (__inreg__(DOUT8_PORT))
+#define DOUT8_DIRREG (__dirreg__(DOUT8_PORT))
+#define DIO45_OUTREG (__outreg__(DOUT8_PORT))
+#define DIO45_INREG (__inreg__(DOUT8_PORT))
+#define DIO45_DIRREG (__dirreg__(DOUT8_PORT))
 #endif</v>
       </c>
       <c r="F48" s="6"/>
@@ -4363,8 +4474,8 @@
       <c r="H48" s="6"/>
       <c r="I48" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT10
-SETBIT(DOUT10_DIRREG, DOUT10_BIT);
+        <v>#ifdef DOUT8
+SETBIT(DOUT8_DIRREG, DOUT8_BIT);
 #endif</v>
       </c>
       <c r="J48" s="3"/>
@@ -4396,24 +4507,24 @@
         <v>DIO46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
+        <v>#if(defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
 #define DIO46 46
-#define DOUT11 46
-#define DIO46_PORT (DOUT11_PORT)
-#define DIO46_BIT (DOUT11_BIT)
-#define DOUT11_OUTREG (__outreg__(DOUT11_PORT))
-#define DOUT11_INREG (__inreg__(DOUT11_PORT))
-#define DOUT11_DIRREG (__dirreg__(DOUT11_PORT))
-#define DIO46_OUTREG (__outreg__(DOUT11_PORT))
-#define DIO46_INREG (__inreg__(DOUT11_PORT))
-#define DIO46_DIRREG (__dirreg__(DOUT11_PORT))
+#define DOUT9 46
+#define DIO46_PORT (DOUT9_PORT)
+#define DIO46_BIT (DOUT9_BIT)
+#define DOUT9_OUTREG (__outreg__(DOUT9_PORT))
+#define DOUT9_INREG (__inreg__(DOUT9_PORT))
+#define DOUT9_DIRREG (__dirreg__(DOUT9_PORT))
+#define DIO46_OUTREG (__outreg__(DOUT9_PORT))
+#define DIO46_INREG (__inreg__(DOUT9_PORT))
+#define DIO46_DIRREG (__dirreg__(DOUT9_PORT))
 #endif</v>
       </c>
       <c r="F49" s="6"/>
@@ -4421,8 +4532,8 @@
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT11
-SETBIT(DOUT11_DIRREG, DOUT11_BIT);
+        <v>#ifdef DOUT9
+SETBIT(DOUT9_DIRREG, DOUT9_BIT);
 #endif</v>
       </c>
       <c r="J49" s="3"/>
@@ -4454,24 +4565,24 @@
         <v>DIO47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
+        <v>#if(defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
 #define DIO47 47
-#define DOUT12 47
-#define DIO47_PORT (DOUT12_PORT)
-#define DIO47_BIT (DOUT12_BIT)
-#define DOUT12_OUTREG (__outreg__(DOUT12_PORT))
-#define DOUT12_INREG (__inreg__(DOUT12_PORT))
-#define DOUT12_DIRREG (__dirreg__(DOUT12_PORT))
-#define DIO47_OUTREG (__outreg__(DOUT12_PORT))
-#define DIO47_INREG (__inreg__(DOUT12_PORT))
-#define DIO47_DIRREG (__dirreg__(DOUT12_PORT))
+#define DOUT10 47
+#define DIO47_PORT (DOUT10_PORT)
+#define DIO47_BIT (DOUT10_BIT)
+#define DOUT10_OUTREG (__outreg__(DOUT10_PORT))
+#define DOUT10_INREG (__inreg__(DOUT10_PORT))
+#define DOUT10_DIRREG (__dirreg__(DOUT10_PORT))
+#define DIO47_OUTREG (__outreg__(DOUT10_PORT))
+#define DIO47_INREG (__inreg__(DOUT10_PORT))
+#define DIO47_DIRREG (__dirreg__(DOUT10_PORT))
 #endif</v>
       </c>
       <c r="F50" s="6"/>
@@ -4479,8 +4590,8 @@
       <c r="H50" s="6"/>
       <c r="I50" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT12
-SETBIT(DOUT12_DIRREG, DOUT12_BIT);
+        <v>#ifdef DOUT10
+SETBIT(DOUT10_DIRREG, DOUT10_BIT);
 #endif</v>
       </c>
       <c r="J50" s="3"/>
@@ -4512,24 +4623,24 @@
         <v>DIO48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E51" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
+        <v>#if(defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
 #define DIO48 48
-#define DOUT13 48
-#define DIO48_PORT (DOUT13_PORT)
-#define DIO48_BIT (DOUT13_BIT)
-#define DOUT13_OUTREG (__outreg__(DOUT13_PORT))
-#define DOUT13_INREG (__inreg__(DOUT13_PORT))
-#define DOUT13_DIRREG (__dirreg__(DOUT13_PORT))
-#define DIO48_OUTREG (__outreg__(DOUT13_PORT))
-#define DIO48_INREG (__inreg__(DOUT13_PORT))
-#define DIO48_DIRREG (__dirreg__(DOUT13_PORT))
+#define DOUT11 48
+#define DIO48_PORT (DOUT11_PORT)
+#define DIO48_BIT (DOUT11_BIT)
+#define DOUT11_OUTREG (__outreg__(DOUT11_PORT))
+#define DOUT11_INREG (__inreg__(DOUT11_PORT))
+#define DOUT11_DIRREG (__dirreg__(DOUT11_PORT))
+#define DIO48_OUTREG (__outreg__(DOUT11_PORT))
+#define DIO48_INREG (__inreg__(DOUT11_PORT))
+#define DIO48_DIRREG (__dirreg__(DOUT11_PORT))
 #endif</v>
       </c>
       <c r="F51" s="6"/>
@@ -4537,8 +4648,8 @@
       <c r="H51" s="6"/>
       <c r="I51" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT13
-SETBIT(DOUT13_DIRREG, DOUT13_BIT);
+        <v>#ifdef DOUT11
+SETBIT(DOUT11_DIRREG, DOUT11_BIT);
 #endif</v>
       </c>
       <c r="J51" s="3"/>
@@ -4570,24 +4681,24 @@
         <v>DIO49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E52" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
+        <v>#if(defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
 #define DIO49 49
-#define DOUT14 49
-#define DIO49_PORT (DOUT14_PORT)
-#define DIO49_BIT (DOUT14_BIT)
-#define DOUT14_OUTREG (__outreg__(DOUT14_PORT))
-#define DOUT14_INREG (__inreg__(DOUT14_PORT))
-#define DOUT14_DIRREG (__dirreg__(DOUT14_PORT))
-#define DIO49_OUTREG (__outreg__(DOUT14_PORT))
-#define DIO49_INREG (__inreg__(DOUT14_PORT))
-#define DIO49_DIRREG (__dirreg__(DOUT14_PORT))
+#define DOUT12 49
+#define DIO49_PORT (DOUT12_PORT)
+#define DIO49_BIT (DOUT12_BIT)
+#define DOUT12_OUTREG (__outreg__(DOUT12_PORT))
+#define DOUT12_INREG (__inreg__(DOUT12_PORT))
+#define DOUT12_DIRREG (__dirreg__(DOUT12_PORT))
+#define DIO49_OUTREG (__outreg__(DOUT12_PORT))
+#define DIO49_INREG (__inreg__(DOUT12_PORT))
+#define DIO49_DIRREG (__dirreg__(DOUT12_PORT))
 #endif</v>
       </c>
       <c r="F52" s="6"/>
@@ -4595,8 +4706,8 @@
       <c r="H52" s="6"/>
       <c r="I52" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT14
-SETBIT(DOUT14_DIRREG, DOUT14_BIT);
+        <v>#ifdef DOUT12
+SETBIT(DOUT12_DIRREG, DOUT12_BIT);
 #endif</v>
       </c>
       <c r="J52" s="3"/>
@@ -4628,37 +4739,33 @@
         <v>DIO50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E53" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
+        <v>#if(defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
 #define DIO50 50
-#define DOUT15 50
-#define DIO50_PORT (DOUT15_PORT)
-#define DIO50_BIT (DOUT15_BIT)
-#define DOUT15_OUTREG (__outreg__(DOUT15_PORT))
-#define DOUT15_INREG (__inreg__(DOUT15_PORT))
-#define DOUT15_DIRREG (__dirreg__(DOUT15_PORT))
-#define DIO50_OUTREG (__outreg__(DOUT15_PORT))
-#define DIO50_INREG (__inreg__(DOUT15_PORT))
-#define DIO50_DIRREG (__dirreg__(DOUT15_PORT))
+#define DOUT13 50
+#define DIO50_PORT (DOUT13_PORT)
+#define DIO50_BIT (DOUT13_BIT)
+#define DOUT13_OUTREG (__outreg__(DOUT13_PORT))
+#define DOUT13_INREG (__inreg__(DOUT13_PORT))
+#define DOUT13_DIRREG (__dirreg__(DOUT13_PORT))
+#define DIO50_OUTREG (__outreg__(DOUT13_PORT))
+#define DIO50_INREG (__inreg__(DOUT13_PORT))
+#define DIO50_DIRREG (__dirreg__(DOUT13_PORT))
 #endif</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>#ifdef DOUT15
-SETBIT(DOUT15_DIRREG, DOUT15_BIT);
+        <v>#ifdef DOUT13
+SETBIT(DOUT13_DIRREG, DOUT13_BIT);
 #endif</v>
       </c>
       <c r="J53" s="3"/>
@@ -4681,7 +4788,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -4690,199 +4797,33 @@
         <v>DIO51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E54" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
+        <v>#if(defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
 #define DIO51 51
-#define LIMIT_X 51
-#define DIO51_PORT (LIMIT_X_PORT)
-#define DIO51_BIT (LIMIT_X_BIT)
-#define LIMIT_X_OUTREG (__outreg__(LIMIT_X_PORT))
-#define LIMIT_X_INREG (__inreg__(LIMIT_X_PORT))
-#define LIMIT_X_DIRREG (__dirreg__(LIMIT_X_PORT))
-#define DIO51_OUTREG (__outreg__(LIMIT_X_PORT))
-#define DIO51_INREG (__inreg__(LIMIT_X_PORT))
-#define DIO51_DIRREG (__dirreg__(LIMIT_X_PORT))
+#define DOUT14 51
+#define DIO51_PORT (DOUT14_PORT)
+#define DIO51_BIT (DOUT14_BIT)
+#define DOUT14_OUTREG (__outreg__(DOUT14_PORT))
+#define DOUT14_INREG (__inreg__(DOUT14_PORT))
+#define DOUT14_DIRREG (__dirreg__(DOUT14_PORT))
+#define DIO51_OUTREG (__outreg__(DOUT14_PORT))
+#define DIO51_INREG (__inreg__(DOUT14_PORT))
+#define DIO51_DIRREG (__dirreg__(DOUT14_PORT))
 #endif</v>
       </c>
-      <c r="F54" s="14" t="str">
-        <f>"#if(defined("&amp;C54&amp;"_ISR) &amp;&amp; defined("&amp;C54&amp;"))
-#define "&amp;B54&amp;"_ISR ("&amp;C54&amp;"_ISR)
-#define "&amp;C54&amp;"_ISRREG (__pcmskreg__("&amp;C54&amp;"_ISR))
-#if("&amp;C54&amp;"_ISR==0)
-#define "&amp;C54&amp;"_ISR0 (1 &lt;&lt; "&amp;C54&amp;"_BIT)
-#endif
-#if("&amp;C54&amp;"_ISR==1)
-#define "&amp;C54&amp;"_ISR1 (1 &lt;&lt; "&amp;C54&amp;"_BIT)
-#endif
-#if("&amp;C54&amp;"_ISR==2)
-#define "&amp;C54&amp;"_ISR2 (1 &lt;&lt; "&amp;C54&amp;"_BIT)
-#endif
-#if("&amp;C54&amp;"_ISR==-1)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRA
-#define "&amp;C54&amp;"_ISRA 1
-#endif
-#if("&amp;C54&amp;"_ISR==-2)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRA
-#define "&amp;C54&amp;"_ISRA 4
-#endif
-#if("&amp;C54&amp;"_ISR==-3)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRA
-#define "&amp;C54&amp;"_ISRA 16
-#endif
-#if("&amp;C54&amp;"_ISR==-4)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRA
-#define "&amp;C54&amp;"_ISRA 64
-#endif
-#if("&amp;C54&amp;"_ISR==-5)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRA
-#define "&amp;C54&amp;"_ISRB 1
-#endif
-#if("&amp;C54&amp;"_ISR==-6)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRB
-#define "&amp;C54&amp;"_ISRB 4
-#endif
-#if("&amp;C54&amp;"_ISR==-7)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRB
-#define "&amp;C54&amp;"_ISRB 16
-#endif
-#if("&amp;C54&amp;"_ISR==-8)
-#undef "&amp;C54&amp;"_ISRREG
-#define "&amp;C54&amp;"_ISRREG EICRB
-#define "&amp;C54&amp;"_ISRB 64
-#endif
-#define "&amp;B54&amp;"_ISRREG "&amp;C54&amp;"_ISRREG
-#endif"</f>
-        <v>#if(defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
-#define DIO51_ISR (LIMIT_X_ISR)
-#define LIMIT_X_ISRREG (__pcmskreg__(LIMIT_X_ISR))
-#if(LIMIT_X_ISR==0)
-#define LIMIT_X_ISR0 (1 &lt;&lt; LIMIT_X_BIT)
-#endif
-#if(LIMIT_X_ISR==1)
-#define LIMIT_X_ISR1 (1 &lt;&lt; LIMIT_X_BIT)
-#endif
-#if(LIMIT_X_ISR==2)
-#define LIMIT_X_ISR2 (1 &lt;&lt; LIMIT_X_BIT)
-#endif
-#if(LIMIT_X_ISR==-1)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 1
-#endif
-#if(LIMIT_X_ISR==-2)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 4
-#endif
-#if(LIMIT_X_ISR==-3)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 16
-#endif
-#if(LIMIT_X_ISR==-4)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 64
-#endif
-#if(LIMIT_X_ISR==-5)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRB 1
-#endif
-#if(LIMIT_X_ISR==-6)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRB
-#define LIMIT_X_ISRB 4
-#endif
-#if(LIMIT_X_ISR==-7)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRB
-#define LIMIT_X_ISRB 16
-#endif
-#if(LIMIT_X_ISR==-8)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRB
-#define LIMIT_X_ISRB 64
-#endif
-#define DIO51_ISRREG LIMIT_X_ISRREG
-#endif</v>
-      </c>
-      <c r="G54" s="6" t="str">
-        <f>"#ifndef "&amp;C54&amp;"_ISR0
-#define "&amp;C54&amp;"_ISR0 0
-#endif
-#ifndef "&amp;C54&amp;"_ISR1
-#define "&amp;C54&amp;"_ISR1 0
-#endif
-#ifndef "&amp;C54&amp;"_ISR2
-#define "&amp;C54&amp;"_ISR2 0
-#endif
-#ifndef "&amp;C54&amp;"_ISRA
-#define "&amp;C54&amp;"_ISRA 0
-#endif
-#ifndef "&amp;C54&amp;"_ISRB
-#define "&amp;C54&amp;"_ISRB 0
-#endif"</f>
-        <v>#ifndef LIMIT_X_ISR0
-#define LIMIT_X_ISR0 0
-#endif
-#ifndef LIMIT_X_ISR1
-#define LIMIT_X_ISR1 0
-#endif
-#ifndef LIMIT_X_ISR2
-#define LIMIT_X_ISR2 0
-#endif
-#ifndef LIMIT_X_ISRA
-#define LIMIT_X_ISRA 0
-#endif
-#ifndef LIMIT_X_ISRB
-#define LIMIT_X_ISRB 0
-#endif</v>
-      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="3" t="str">
-        <f>"#ifdef "&amp;C54&amp;"
-CLEARBIT("&amp;C54&amp;"_DIRREG, "&amp;C54&amp;"_BIT);
-#ifdef "&amp;C54&amp;"_PULLUP
-SETBIT("&amp;C54&amp;"_PORTREG, "&amp;C54&amp;"_BIT);
-#endif
-#ifdef "&amp;C54&amp;"_ISR
-#if("&amp;C54&amp;"_ISR&gt;=0)
-SETBIT("&amp;C54&amp;"_ISRREG, "&amp;C54&amp;"_BIT);
-#elif("&amp;C54&amp;"_ISR&lt;=-1 &amp;&amp; "&amp;C54&amp;"_ISR&gt;=-4)
-SETFLAG("&amp;C54&amp;"_ISRREG,"&amp;C54&amp;"_ISRA);
-#elif("&amp;C54&amp;"_ISR&lt;=-5 &amp;&amp; "&amp;C54&amp;"_ISR&gt;=-8)
-SETFLAG("&amp;C54&amp;"_ISRREG, "&amp;C54&amp;"_ISRB);
-#endif
-#endif
-#endif"</f>
-        <v>#ifdef LIMIT_X
-CLEARBIT(LIMIT_X_DIRREG, LIMIT_X_BIT);
-#ifdef LIMIT_X_PULLUP
-SETBIT(LIMIT_X_PORTREG, LIMIT_X_BIT);
-#endif
-#ifdef LIMIT_X_ISR
-#if(LIMIT_X_ISR&gt;=0)
-SETBIT(LIMIT_X_ISRREG, LIMIT_X_BIT);
-#elif(LIMIT_X_ISR&lt;=-1 &amp;&amp; LIMIT_X_ISR&gt;=-4)
-SETFLAG(LIMIT_X_ISRREG,LIMIT_X_ISRA);
-#elif(LIMIT_X_ISR&lt;=-5 &amp;&amp; LIMIT_X_ISR&gt;=-8)
-SETFLAG(LIMIT_X_ISRREG, LIMIT_X_ISRB);
-#endif
-#endif
+        <f t="shared" si="6"/>
+        <v>#ifdef DOUT14
+SETBIT(DOUT14_DIRREG, DOUT14_BIT);
 #endif</v>
       </c>
       <c r="J54" s="3"/>
@@ -4914,199 +4855,37 @@
         <v>DIO52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E55" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
+        <v>#if(defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
 #define DIO52 52
-#define LIMIT_Y 52
-#define DIO52_PORT (LIMIT_Y_PORT)
-#define DIO52_BIT (LIMIT_Y_BIT)
-#define LIMIT_Y_OUTREG (__outreg__(LIMIT_Y_PORT))
-#define LIMIT_Y_INREG (__inreg__(LIMIT_Y_PORT))
-#define LIMIT_Y_DIRREG (__dirreg__(LIMIT_Y_PORT))
-#define DIO52_OUTREG (__outreg__(LIMIT_Y_PORT))
-#define DIO52_INREG (__inreg__(LIMIT_Y_PORT))
-#define DIO52_DIRREG (__dirreg__(LIMIT_Y_PORT))
+#define DOUT15 52
+#define DIO52_PORT (DOUT15_PORT)
+#define DIO52_BIT (DOUT15_BIT)
+#define DOUT15_OUTREG (__outreg__(DOUT15_PORT))
+#define DOUT15_INREG (__inreg__(DOUT15_PORT))
+#define DOUT15_DIRREG (__dirreg__(DOUT15_PORT))
+#define DIO52_OUTREG (__outreg__(DOUT15_PORT))
+#define DIO52_INREG (__inreg__(DOUT15_PORT))
+#define DIO52_DIRREG (__dirreg__(DOUT15_PORT))
 #endif</v>
       </c>
-      <c r="F55" s="14" t="str">
-        <f t="shared" ref="F55:F67" si="7">"#if(defined("&amp;C55&amp;"_ISR) &amp;&amp; defined("&amp;C55&amp;"))
-#define "&amp;B55&amp;"_ISR ("&amp;C55&amp;"_ISR)
-#define "&amp;C55&amp;"_ISRREG (__pcmskreg__("&amp;C55&amp;"_ISR))
-#if("&amp;C55&amp;"_ISR==0)
-#define "&amp;C55&amp;"_ISR0 (1 &lt;&lt; "&amp;C55&amp;"_BIT)
-#endif
-#if("&amp;C55&amp;"_ISR==1)
-#define "&amp;C55&amp;"_ISR1 (1 &lt;&lt; "&amp;C55&amp;"_BIT)
-#endif
-#if("&amp;C55&amp;"_ISR==2)
-#define "&amp;C55&amp;"_ISR2 (1 &lt;&lt; "&amp;C55&amp;"_BIT)
-#endif
-#if("&amp;C55&amp;"_ISR==-1)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRA
-#define "&amp;C55&amp;"_ISRA 1
-#endif
-#if("&amp;C55&amp;"_ISR==-2)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRA
-#define "&amp;C55&amp;"_ISRA 4
-#endif
-#if("&amp;C55&amp;"_ISR==-3)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRA
-#define "&amp;C55&amp;"_ISRA 16
-#endif
-#if("&amp;C55&amp;"_ISR==-4)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRA
-#define "&amp;C55&amp;"_ISRA 64
-#endif
-#if("&amp;C55&amp;"_ISR==-5)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRA
-#define "&amp;C55&amp;"_ISRB 1
-#endif
-#if("&amp;C55&amp;"_ISR==-6)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRB
-#define "&amp;C55&amp;"_ISRB 4
-#endif
-#if("&amp;C55&amp;"_ISR==-7)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRB
-#define "&amp;C55&amp;"_ISRB 16
-#endif
-#if("&amp;C55&amp;"_ISR==-8)
-#undef "&amp;C55&amp;"_ISRREG
-#define "&amp;C55&amp;"_ISRREG EICRB
-#define "&amp;C55&amp;"_ISRB 64
-#endif
-#define "&amp;B55&amp;"_ISRREG "&amp;C55&amp;"_ISRREG
-#endif"</f>
-        <v>#if(defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
-#define DIO52_ISR (LIMIT_Y_ISR)
-#define LIMIT_Y_ISRREG (__pcmskreg__(LIMIT_Y_ISR))
-#if(LIMIT_Y_ISR==0)
-#define LIMIT_Y_ISR0 (1 &lt;&lt; LIMIT_Y_BIT)
-#endif
-#if(LIMIT_Y_ISR==1)
-#define LIMIT_Y_ISR1 (1 &lt;&lt; LIMIT_Y_BIT)
-#endif
-#if(LIMIT_Y_ISR==2)
-#define LIMIT_Y_ISR2 (1 &lt;&lt; LIMIT_Y_BIT)
-#endif
-#if(LIMIT_Y_ISR==-1)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 1
-#endif
-#if(LIMIT_Y_ISR==-2)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 4
-#endif
-#if(LIMIT_Y_ISR==-3)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 16
-#endif
-#if(LIMIT_Y_ISR==-4)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 64
-#endif
-#if(LIMIT_Y_ISR==-5)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRB 1
-#endif
-#if(LIMIT_Y_ISR==-6)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRB
-#define LIMIT_Y_ISRB 4
-#endif
-#if(LIMIT_Y_ISR==-7)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRB
-#define LIMIT_Y_ISRB 16
-#endif
-#if(LIMIT_Y_ISR==-8)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRB
-#define LIMIT_Y_ISRB 64
-#endif
-#define DIO52_ISRREG LIMIT_Y_ISRREG
-#endif</v>
-      </c>
-      <c r="G55" s="6" t="str">
-        <f t="shared" ref="G55:G67" si="8">"#ifndef "&amp;C55&amp;"_ISR0
-#define "&amp;C55&amp;"_ISR0 0
-#endif
-#ifndef "&amp;C55&amp;"_ISR1
-#define "&amp;C55&amp;"_ISR1 0
-#endif
-#ifndef "&amp;C55&amp;"_ISR2
-#define "&amp;C55&amp;"_ISR2 0
-#endif
-#ifndef "&amp;C55&amp;"_ISRA
-#define "&amp;C55&amp;"_ISRA 0
-#endif
-#ifndef "&amp;C55&amp;"_ISRB
-#define "&amp;C55&amp;"_ISRB 0
-#endif"</f>
-        <v>#ifndef LIMIT_Y_ISR0
-#define LIMIT_Y_ISR0 0
-#endif
-#ifndef LIMIT_Y_ISR1
-#define LIMIT_Y_ISR1 0
-#endif
-#ifndef LIMIT_Y_ISR2
-#define LIMIT_Y_ISR2 0
-#endif
-#ifndef LIMIT_Y_ISRA
-#define LIMIT_Y_ISRA 0
-#endif
-#ifndef LIMIT_Y_ISRB
-#define LIMIT_Y_ISRB 0
-#endif</v>
+      <c r="F55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="3" t="str">
-        <f t="shared" ref="I55:I67" si="9">"#ifdef "&amp;C55&amp;"
-CLEARBIT("&amp;C55&amp;"_DIRREG, "&amp;C55&amp;"_BIT);
-#ifdef "&amp;C55&amp;"_PULLUP
-SETBIT("&amp;C55&amp;"_PORTREG, "&amp;C55&amp;"_BIT);
-#endif
-#ifdef "&amp;C55&amp;"_ISR
-#if("&amp;C55&amp;"_ISR&gt;=0)
-SETBIT("&amp;C55&amp;"_ISRREG, "&amp;C55&amp;"_BIT);
-#elif("&amp;C55&amp;"_ISR&lt;=-1 &amp;&amp; "&amp;C55&amp;"_ISR&gt;=-4)
-SETFLAG("&amp;C55&amp;"_ISRREG,"&amp;C55&amp;"_ISRA);
-#elif("&amp;C55&amp;"_ISR&lt;=-5 &amp;&amp; "&amp;C55&amp;"_ISR&gt;=-8)
-SETFLAG("&amp;C55&amp;"_ISRREG, "&amp;C55&amp;"_ISRB);
-#endif
-#endif
-#endif"</f>
-        <v>#ifdef LIMIT_Y
-CLEARBIT(LIMIT_Y_DIRREG, LIMIT_Y_BIT);
-#ifdef LIMIT_Y_PULLUP
-SETBIT(LIMIT_Y_PORTREG, LIMIT_Y_BIT);
-#endif
-#ifdef LIMIT_Y_ISR
-#if(LIMIT_Y_ISR&gt;=0)
-SETBIT(LIMIT_Y_ISRREG, LIMIT_Y_BIT);
-#elif(LIMIT_Y_ISR&lt;=-1 &amp;&amp; LIMIT_Y_ISR&gt;=-4)
-SETFLAG(LIMIT_Y_ISRREG,LIMIT_Y_ISRA);
-#elif(LIMIT_Y_ISR&lt;=-5 &amp;&amp; LIMIT_Y_ISR&gt;=-8)
-SETFLAG(LIMIT_Y_ISRREG, LIMIT_Y_ISRB);
-#endif
-#endif
+        <f t="shared" si="6"/>
+        <v>#ifdef DOUT15
+SETBIT(DOUT15_DIRREG, DOUT15_BIT);
 #endif</v>
       </c>
       <c r="J55" s="3"/>
@@ -5129,7 +4908,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -5138,116 +4917,220 @@
         <v>DIO53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
+        <v>#if(defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
 #define DIO53 53
-#define LIMIT_Z 53
-#define DIO53_PORT (LIMIT_Z_PORT)
-#define DIO53_BIT (LIMIT_Z_BIT)
-#define LIMIT_Z_OUTREG (__outreg__(LIMIT_Z_PORT))
-#define LIMIT_Z_INREG (__inreg__(LIMIT_Z_PORT))
-#define LIMIT_Z_DIRREG (__dirreg__(LIMIT_Z_PORT))
-#define DIO53_OUTREG (__outreg__(LIMIT_Z_PORT))
-#define DIO53_INREG (__inreg__(LIMIT_Z_PORT))
-#define DIO53_DIRREG (__dirreg__(LIMIT_Z_PORT))
+#define LIMIT_X 53
+#define DIO53_PORT (LIMIT_X_PORT)
+#define DIO53_BIT (LIMIT_X_BIT)
+#define LIMIT_X_OUTREG (__outreg__(LIMIT_X_PORT))
+#define LIMIT_X_INREG (__inreg__(LIMIT_X_PORT))
+#define LIMIT_X_DIRREG (__dirreg__(LIMIT_X_PORT))
+#define DIO53_OUTREG (__outreg__(LIMIT_X_PORT))
+#define DIO53_INREG (__inreg__(LIMIT_X_PORT))
+#define DIO53_DIRREG (__dirreg__(LIMIT_X_PORT))
 #endif</v>
       </c>
-      <c r="F56" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
-#define DIO53_ISR (LIMIT_Z_ISR)
-#define LIMIT_Z_ISRREG (__pcmskreg__(LIMIT_Z_ISR))
-#if(LIMIT_Z_ISR==0)
-#define LIMIT_Z_ISR0 (1 &lt;&lt; LIMIT_Z_BIT)
-#endif
-#if(LIMIT_Z_ISR==1)
-#define LIMIT_Z_ISR1 (1 &lt;&lt; LIMIT_Z_BIT)
-#endif
-#if(LIMIT_Z_ISR==2)
-#define LIMIT_Z_ISR2 (1 &lt;&lt; LIMIT_Z_BIT)
-#endif
-#if(LIMIT_Z_ISR==-1)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 1
-#endif
-#if(LIMIT_Z_ISR==-2)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 4
-#endif
-#if(LIMIT_Z_ISR==-3)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 16
-#endif
-#if(LIMIT_Z_ISR==-4)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 64
-#endif
-#if(LIMIT_Z_ISR==-5)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRB 1
-#endif
-#if(LIMIT_Z_ISR==-6)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRB
-#define LIMIT_Z_ISRB 4
-#endif
-#if(LIMIT_Z_ISR==-7)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRB
-#define LIMIT_Z_ISRB 16
-#endif
-#if(LIMIT_Z_ISR==-8)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRB
-#define LIMIT_Z_ISRB 64
-#endif
-#define DIO53_ISRREG LIMIT_Z_ISRREG
+      <c r="F56" s="10" t="str">
+        <f>"#if(defined("&amp;C56&amp;"_ISR) &amp;&amp; defined("&amp;C56&amp;"))
+#define "&amp;B56&amp;"_ISR ("&amp;C56&amp;"_ISR)
+#define "&amp;C56&amp;"_ISRREG (__pcmskreg__("&amp;C56&amp;"_ISR))
+#if("&amp;C56&amp;"_ISR==0)
+#define "&amp;C56&amp;"_ISR0 (1 &lt;&lt; "&amp;C56&amp;"_BIT)
+#endif
+#if("&amp;C56&amp;"_ISR==1)
+#define "&amp;C56&amp;"_ISR1 (1 &lt;&lt; "&amp;C56&amp;"_BIT)
+#endif
+#if("&amp;C56&amp;"_ISR==2)
+#define "&amp;C56&amp;"_ISR2 (1 &lt;&lt; "&amp;C56&amp;"_BIT)
+#endif
+#if("&amp;C56&amp;"_ISR==-1)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRA
+#define "&amp;C56&amp;"_ISRA 1
+#endif
+#if("&amp;C56&amp;"_ISR==-2)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRA
+#define "&amp;C56&amp;"_ISRA 4
+#endif
+#if("&amp;C56&amp;"_ISR==-3)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRA
+#define "&amp;C56&amp;"_ISRA 16
+#endif
+#if("&amp;C56&amp;"_ISR==-4)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRA
+#define "&amp;C56&amp;"_ISRA 64
+#endif
+#if("&amp;C56&amp;"_ISR==-5)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRA
+#define "&amp;C56&amp;"_ISRB 1
+#endif
+#if("&amp;C56&amp;"_ISR==-6)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRB
+#define "&amp;C56&amp;"_ISRB 4
+#endif
+#if("&amp;C56&amp;"_ISR==-7)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRB
+#define "&amp;C56&amp;"_ISRB 16
+#endif
+#if("&amp;C56&amp;"_ISR==-8)
+#undef "&amp;C56&amp;"_ISRREG
+#define "&amp;C56&amp;"_ISRREG EICRB
+#define "&amp;C56&amp;"_ISRB 64
+#endif
+#define "&amp;B56&amp;"_ISRREG "&amp;C56&amp;"_ISRREG
+#endif"</f>
+        <v>#if(defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
+#define DIO53_ISR (LIMIT_X_ISR)
+#define LIMIT_X_ISRREG (__pcmskreg__(LIMIT_X_ISR))
+#if(LIMIT_X_ISR==0)
+#define LIMIT_X_ISR0 (1 &lt;&lt; LIMIT_X_BIT)
+#endif
+#if(LIMIT_X_ISR==1)
+#define LIMIT_X_ISR1 (1 &lt;&lt; LIMIT_X_BIT)
+#endif
+#if(LIMIT_X_ISR==2)
+#define LIMIT_X_ISR2 (1 &lt;&lt; LIMIT_X_BIT)
+#endif
+#if(LIMIT_X_ISR==-1)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 1
+#endif
+#if(LIMIT_X_ISR==-2)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 4
+#endif
+#if(LIMIT_X_ISR==-3)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 16
+#endif
+#if(LIMIT_X_ISR==-4)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 64
+#endif
+#if(LIMIT_X_ISR==-5)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRB 1
+#endif
+#if(LIMIT_X_ISR==-6)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRB
+#define LIMIT_X_ISRB 4
+#endif
+#if(LIMIT_X_ISR==-7)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRB
+#define LIMIT_X_ISRB 16
+#endif
+#if(LIMIT_X_ISR==-8)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRB
+#define LIMIT_X_ISRB 64
+#endif
+#define DIO53_ISRREG LIMIT_X_ISRREG
 #endif</v>
       </c>
       <c r="G56" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_Z_ISR0
-#define LIMIT_Z_ISR0 0
-#endif
-#ifndef LIMIT_Z_ISR1
-#define LIMIT_Z_ISR1 0
-#endif
-#ifndef LIMIT_Z_ISR2
-#define LIMIT_Z_ISR2 0
-#endif
-#ifndef LIMIT_Z_ISRA
-#define LIMIT_Z_ISRA 0
-#endif
-#ifndef LIMIT_Z_ISRB
-#define LIMIT_Z_ISRB 0
+        <f>"#ifndef "&amp;C56&amp;"_ISR0
+#define "&amp;C56&amp;"_ISR0 0
+#endif
+#ifndef "&amp;C56&amp;"_ISR1
+#define "&amp;C56&amp;"_ISR1 0
+#endif
+#ifndef "&amp;C56&amp;"_ISR2
+#define "&amp;C56&amp;"_ISR2 0
+#endif
+#ifndef "&amp;C56&amp;"_ISRA
+#define "&amp;C56&amp;"_ISRA 0
+#endif
+#ifndef "&amp;C56&amp;"_ISRB
+#define "&amp;C56&amp;"_ISRB 0
+#endif"</f>
+        <v>#ifndef LIMIT_X_ISR0
+#define LIMIT_X_ISR0 0
+#endif
+#ifndef LIMIT_X_ISR1
+#define LIMIT_X_ISR1 0
+#endif
+#ifndef LIMIT_X_ISR2
+#define LIMIT_X_ISR2 0
+#endif
+#ifndef LIMIT_X_ISRA
+#define LIMIT_X_ISRA 0
+#endif
+#ifndef LIMIT_X_ISRB
+#define LIMIT_X_ISRB 0
 #endif</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56" s="6" t="str">
+        <f>"#ifdef "&amp;C56&amp;"
+#define LIMITEN_"&amp;C56&amp;" (1&lt;&lt;("&amp;C56&amp;" - LIMIT_X))
+#ifdef "&amp;C56&amp;"_ISR
+#define LIMITISR_"&amp;C56&amp;" (1&lt;&lt;("&amp;C56&amp;" - LIMIT_X))
+#else
+#define LIMITISR_"&amp;C56&amp;" 0
+#endif
+#else
+#define LIMITEN_"&amp;C56&amp;" 0
+#define LIMITISR_"&amp;C56&amp;" 0
+#endif"</f>
+        <v>#ifdef LIMIT_X
+#define LIMITEN_LIMIT_X (1&lt;&lt;(LIMIT_X - LIMIT_X))
+#ifdef LIMIT_X_ISR
+#define LIMITISR_LIMIT_X (1&lt;&lt;(LIMIT_X - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_X 0
+#endif
+#else
+#define LIMITEN_LIMIT_X 0
+#define LIMITISR_LIMIT_X 0
+#endif</v>
+      </c>
       <c r="I56" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_Z
-CLEARBIT(LIMIT_Z_DIRREG, LIMIT_Z_BIT);
-#ifdef LIMIT_Z_PULLUP
-SETBIT(LIMIT_Z_PORTREG, LIMIT_Z_BIT);
-#endif
-#ifdef LIMIT_Z_ISR
-#if(LIMIT_Z_ISR&gt;=0)
-SETBIT(LIMIT_Z_ISRREG, LIMIT_Z_BIT);
-#elif(LIMIT_Z_ISR&lt;=-1 &amp;&amp; LIMIT_Z_ISR&gt;=-4)
-SETFLAG(LIMIT_Z_ISRREG,LIMIT_Z_ISRA);
-#elif(LIMIT_Z_ISR&lt;=-5 &amp;&amp; LIMIT_Z_ISR&gt;=-8)
-SETFLAG(LIMIT_Z_ISRREG, LIMIT_Z_ISRB);
+        <f>"#ifdef "&amp;C56&amp;"
+CLEARBIT("&amp;C56&amp;"_DIRREG, "&amp;C56&amp;"_BIT);
+#ifdef "&amp;C56&amp;"_PULLUP
+SETBIT("&amp;C56&amp;"_PORTREG, "&amp;C56&amp;"_BIT);
+#endif
+#ifdef "&amp;C56&amp;"_ISR
+#if("&amp;C56&amp;"_ISR&gt;=0)
+SETBIT("&amp;C56&amp;"_ISRREG, "&amp;C56&amp;"_BIT);
+#elif("&amp;C56&amp;"_ISR&lt;=-1 &amp;&amp; "&amp;C56&amp;"_ISR&gt;=-4)
+SETFLAG("&amp;C56&amp;"_ISRREG,"&amp;C56&amp;"_ISRA);
+#elif("&amp;C56&amp;"_ISR&lt;=-5 &amp;&amp; "&amp;C56&amp;"_ISR&gt;=-8)
+SETFLAG("&amp;C56&amp;"_ISRREG, "&amp;C56&amp;"_ISRB);
+#endif
+#endif
+#endif"</f>
+        <v>#ifdef LIMIT_X
+CLEARBIT(LIMIT_X_DIRREG, LIMIT_X_BIT);
+#ifdef LIMIT_X_PULLUP
+SETBIT(LIMIT_X_PORTREG, LIMIT_X_BIT);
+#endif
+#ifdef LIMIT_X_ISR
+#if(LIMIT_X_ISR&gt;=0)
+SETBIT(LIMIT_X_ISRREG, LIMIT_X_BIT);
+#elif(LIMIT_X_ISR&lt;=-1 &amp;&amp; LIMIT_X_ISR&gt;=-4)
+SETFLAG(LIMIT_X_ISRREG,LIMIT_X_ISRA);
+#elif(LIMIT_X_ISR&lt;=-5 &amp;&amp; LIMIT_X_ISR&gt;=-8)
+SETFLAG(LIMIT_X_ISRREG, LIMIT_X_ISRB);
 #endif
 #endif
 #endif</v>
@@ -5281,116 +5164,220 @@
         <v>DIO54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
+        <v>#if(defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
 #define DIO54 54
-#define LIMIT_X2 54
-#define DIO54_PORT (LIMIT_X2_PORT)
-#define DIO54_BIT (LIMIT_X2_BIT)
-#define LIMIT_X2_OUTREG (__outreg__(LIMIT_X2_PORT))
-#define LIMIT_X2_INREG (__inreg__(LIMIT_X2_PORT))
-#define LIMIT_X2_DIRREG (__dirreg__(LIMIT_X2_PORT))
-#define DIO54_OUTREG (__outreg__(LIMIT_X2_PORT))
-#define DIO54_INREG (__inreg__(LIMIT_X2_PORT))
-#define DIO54_DIRREG (__dirreg__(LIMIT_X2_PORT))
+#define LIMIT_Y 54
+#define DIO54_PORT (LIMIT_Y_PORT)
+#define DIO54_BIT (LIMIT_Y_BIT)
+#define LIMIT_Y_OUTREG (__outreg__(LIMIT_Y_PORT))
+#define LIMIT_Y_INREG (__inreg__(LIMIT_Y_PORT))
+#define LIMIT_Y_DIRREG (__dirreg__(LIMIT_Y_PORT))
+#define DIO54_OUTREG (__outreg__(LIMIT_Y_PORT))
+#define DIO54_INREG (__inreg__(LIMIT_Y_PORT))
+#define DIO54_DIRREG (__dirreg__(LIMIT_Y_PORT))
 #endif</v>
       </c>
-      <c r="F57" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
-#define DIO54_ISR (LIMIT_X2_ISR)
-#define LIMIT_X2_ISRREG (__pcmskreg__(LIMIT_X2_ISR))
-#if(LIMIT_X2_ISR==0)
-#define LIMIT_X2_ISR0 (1 &lt;&lt; LIMIT_X2_BIT)
-#endif
-#if(LIMIT_X2_ISR==1)
-#define LIMIT_X2_ISR1 (1 &lt;&lt; LIMIT_X2_BIT)
-#endif
-#if(LIMIT_X2_ISR==2)
-#define LIMIT_X2_ISR2 (1 &lt;&lt; LIMIT_X2_BIT)
-#endif
-#if(LIMIT_X2_ISR==-1)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 1
-#endif
-#if(LIMIT_X2_ISR==-2)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 4
-#endif
-#if(LIMIT_X2_ISR==-3)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 16
-#endif
-#if(LIMIT_X2_ISR==-4)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 64
-#endif
-#if(LIMIT_X2_ISR==-5)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRB 1
-#endif
-#if(LIMIT_X2_ISR==-6)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRB
-#define LIMIT_X2_ISRB 4
-#endif
-#if(LIMIT_X2_ISR==-7)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRB
-#define LIMIT_X2_ISRB 16
-#endif
-#if(LIMIT_X2_ISR==-8)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRB
-#define LIMIT_X2_ISRB 64
-#endif
-#define DIO54_ISRREG LIMIT_X2_ISRREG
+      <c r="F57" s="10" t="str">
+        <f t="shared" ref="F57:F69" si="7">"#if(defined("&amp;C57&amp;"_ISR) &amp;&amp; defined("&amp;C57&amp;"))
+#define "&amp;B57&amp;"_ISR ("&amp;C57&amp;"_ISR)
+#define "&amp;C57&amp;"_ISRREG (__pcmskreg__("&amp;C57&amp;"_ISR))
+#if("&amp;C57&amp;"_ISR==0)
+#define "&amp;C57&amp;"_ISR0 (1 &lt;&lt; "&amp;C57&amp;"_BIT)
+#endif
+#if("&amp;C57&amp;"_ISR==1)
+#define "&amp;C57&amp;"_ISR1 (1 &lt;&lt; "&amp;C57&amp;"_BIT)
+#endif
+#if("&amp;C57&amp;"_ISR==2)
+#define "&amp;C57&amp;"_ISR2 (1 &lt;&lt; "&amp;C57&amp;"_BIT)
+#endif
+#if("&amp;C57&amp;"_ISR==-1)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRA
+#define "&amp;C57&amp;"_ISRA 1
+#endif
+#if("&amp;C57&amp;"_ISR==-2)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRA
+#define "&amp;C57&amp;"_ISRA 4
+#endif
+#if("&amp;C57&amp;"_ISR==-3)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRA
+#define "&amp;C57&amp;"_ISRA 16
+#endif
+#if("&amp;C57&amp;"_ISR==-4)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRA
+#define "&amp;C57&amp;"_ISRA 64
+#endif
+#if("&amp;C57&amp;"_ISR==-5)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRA
+#define "&amp;C57&amp;"_ISRB 1
+#endif
+#if("&amp;C57&amp;"_ISR==-6)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRB
+#define "&amp;C57&amp;"_ISRB 4
+#endif
+#if("&amp;C57&amp;"_ISR==-7)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRB
+#define "&amp;C57&amp;"_ISRB 16
+#endif
+#if("&amp;C57&amp;"_ISR==-8)
+#undef "&amp;C57&amp;"_ISRREG
+#define "&amp;C57&amp;"_ISRREG EICRB
+#define "&amp;C57&amp;"_ISRB 64
+#endif
+#define "&amp;B57&amp;"_ISRREG "&amp;C57&amp;"_ISRREG
+#endif"</f>
+        <v>#if(defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
+#define DIO54_ISR (LIMIT_Y_ISR)
+#define LIMIT_Y_ISRREG (__pcmskreg__(LIMIT_Y_ISR))
+#if(LIMIT_Y_ISR==0)
+#define LIMIT_Y_ISR0 (1 &lt;&lt; LIMIT_Y_BIT)
+#endif
+#if(LIMIT_Y_ISR==1)
+#define LIMIT_Y_ISR1 (1 &lt;&lt; LIMIT_Y_BIT)
+#endif
+#if(LIMIT_Y_ISR==2)
+#define LIMIT_Y_ISR2 (1 &lt;&lt; LIMIT_Y_BIT)
+#endif
+#if(LIMIT_Y_ISR==-1)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 1
+#endif
+#if(LIMIT_Y_ISR==-2)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 4
+#endif
+#if(LIMIT_Y_ISR==-3)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 16
+#endif
+#if(LIMIT_Y_ISR==-4)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 64
+#endif
+#if(LIMIT_Y_ISR==-5)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRB 1
+#endif
+#if(LIMIT_Y_ISR==-6)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRB
+#define LIMIT_Y_ISRB 4
+#endif
+#if(LIMIT_Y_ISR==-7)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRB
+#define LIMIT_Y_ISRB 16
+#endif
+#if(LIMIT_Y_ISR==-8)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRB
+#define LIMIT_Y_ISRB 64
+#endif
+#define DIO54_ISRREG LIMIT_Y_ISRREG
 #endif</v>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_X2_ISR0
-#define LIMIT_X2_ISR0 0
-#endif
-#ifndef LIMIT_X2_ISR1
-#define LIMIT_X2_ISR1 0
-#endif
-#ifndef LIMIT_X2_ISR2
-#define LIMIT_X2_ISR2 0
-#endif
-#ifndef LIMIT_X2_ISRA
-#define LIMIT_X2_ISRA 0
-#endif
-#ifndef LIMIT_X2_ISRB
-#define LIMIT_X2_ISRB 0
+        <f t="shared" ref="G57:G69" si="8">"#ifndef "&amp;C57&amp;"_ISR0
+#define "&amp;C57&amp;"_ISR0 0
+#endif
+#ifndef "&amp;C57&amp;"_ISR1
+#define "&amp;C57&amp;"_ISR1 0
+#endif
+#ifndef "&amp;C57&amp;"_ISR2
+#define "&amp;C57&amp;"_ISR2 0
+#endif
+#ifndef "&amp;C57&amp;"_ISRA
+#define "&amp;C57&amp;"_ISRA 0
+#endif
+#ifndef "&amp;C57&amp;"_ISRB
+#define "&amp;C57&amp;"_ISRB 0
+#endif"</f>
+        <v>#ifndef LIMIT_Y_ISR0
+#define LIMIT_Y_ISR0 0
+#endif
+#ifndef LIMIT_Y_ISR1
+#define LIMIT_Y_ISR1 0
+#endif
+#ifndef LIMIT_Y_ISR2
+#define LIMIT_Y_ISR2 0
+#endif
+#ifndef LIMIT_Y_ISRA
+#define LIMIT_Y_ISRA 0
+#endif
+#ifndef LIMIT_Y_ISRB
+#define LIMIT_Y_ISRB 0
 #endif</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="6" t="str">
+        <f t="shared" ref="H57:H65" si="9">"#ifdef "&amp;C57&amp;"
+#define LIMITEN_"&amp;C57&amp;" (1&lt;&lt;("&amp;C57&amp;" - LIMIT_X))
+#ifdef "&amp;C57&amp;"_ISR
+#define LIMITISR_"&amp;C57&amp;" (1&lt;&lt;("&amp;C57&amp;" - LIMIT_X))
+#else
+#define LIMITISR_"&amp;C57&amp;" 0
+#endif
+#else
+#define LIMITEN_"&amp;C57&amp;" 0
+#define LIMITISR_"&amp;C57&amp;" 0
+#endif"</f>
+        <v>#ifdef LIMIT_Y
+#define LIMITEN_LIMIT_Y (1&lt;&lt;(LIMIT_Y - LIMIT_X))
+#ifdef LIMIT_Y_ISR
+#define LIMITISR_LIMIT_Y (1&lt;&lt;(LIMIT_Y - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Y 0
+#endif
+#else
+#define LIMITEN_LIMIT_Y 0
+#define LIMITISR_LIMIT_Y 0
+#endif</v>
+      </c>
       <c r="I57" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_X2
-CLEARBIT(LIMIT_X2_DIRREG, LIMIT_X2_BIT);
-#ifdef LIMIT_X2_PULLUP
-SETBIT(LIMIT_X2_PORTREG, LIMIT_X2_BIT);
-#endif
-#ifdef LIMIT_X2_ISR
-#if(LIMIT_X2_ISR&gt;=0)
-SETBIT(LIMIT_X2_ISRREG, LIMIT_X2_BIT);
-#elif(LIMIT_X2_ISR&lt;=-1 &amp;&amp; LIMIT_X2_ISR&gt;=-4)
-SETFLAG(LIMIT_X2_ISRREG,LIMIT_X2_ISRA);
-#elif(LIMIT_X2_ISR&lt;=-5 &amp;&amp; LIMIT_X2_ISR&gt;=-8)
-SETFLAG(LIMIT_X2_ISRREG, LIMIT_X2_ISRB);
+        <f t="shared" ref="I57:I69" si="10">"#ifdef "&amp;C57&amp;"
+CLEARBIT("&amp;C57&amp;"_DIRREG, "&amp;C57&amp;"_BIT);
+#ifdef "&amp;C57&amp;"_PULLUP
+SETBIT("&amp;C57&amp;"_PORTREG, "&amp;C57&amp;"_BIT);
+#endif
+#ifdef "&amp;C57&amp;"_ISR
+#if("&amp;C57&amp;"_ISR&gt;=0)
+SETBIT("&amp;C57&amp;"_ISRREG, "&amp;C57&amp;"_BIT);
+#elif("&amp;C57&amp;"_ISR&lt;=-1 &amp;&amp; "&amp;C57&amp;"_ISR&gt;=-4)
+SETFLAG("&amp;C57&amp;"_ISRREG,"&amp;C57&amp;"_ISRA);
+#elif("&amp;C57&amp;"_ISR&lt;=-5 &amp;&amp; "&amp;C57&amp;"_ISR&gt;=-8)
+SETFLAG("&amp;C57&amp;"_ISRREG, "&amp;C57&amp;"_ISRB);
+#endif
+#endif
+#endif"</f>
+        <v>#ifdef LIMIT_Y
+CLEARBIT(LIMIT_Y_DIRREG, LIMIT_Y_BIT);
+#ifdef LIMIT_Y_PULLUP
+SETBIT(LIMIT_Y_PORTREG, LIMIT_Y_BIT);
+#endif
+#ifdef LIMIT_Y_ISR
+#if(LIMIT_Y_ISR&gt;=0)
+SETBIT(LIMIT_Y_ISRREG, LIMIT_Y_BIT);
+#elif(LIMIT_Y_ISR&lt;=-1 &amp;&amp; LIMIT_Y_ISR&gt;=-4)
+SETFLAG(LIMIT_Y_ISRREG,LIMIT_Y_ISRA);
+#elif(LIMIT_Y_ISR&lt;=-5 &amp;&amp; LIMIT_Y_ISR&gt;=-8)
+SETFLAG(LIMIT_Y_ISRREG, LIMIT_Y_ISRB);
 #endif
 #endif
 #endif</v>
@@ -5424,116 +5411,129 @@
         <v>DIO55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
+        <v>#if(defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
 #define DIO55 55
-#define LIMIT_Y2 55
-#define DIO55_PORT (LIMIT_Y2_PORT)
-#define DIO55_BIT (LIMIT_Y2_BIT)
-#define LIMIT_Y2_OUTREG (__outreg__(LIMIT_Y2_PORT))
-#define LIMIT_Y2_INREG (__inreg__(LIMIT_Y2_PORT))
-#define LIMIT_Y2_DIRREG (__dirreg__(LIMIT_Y2_PORT))
-#define DIO55_OUTREG (__outreg__(LIMIT_Y2_PORT))
-#define DIO55_INREG (__inreg__(LIMIT_Y2_PORT))
-#define DIO55_DIRREG (__dirreg__(LIMIT_Y2_PORT))
+#define LIMIT_Z 55
+#define DIO55_PORT (LIMIT_Z_PORT)
+#define DIO55_BIT (LIMIT_Z_BIT)
+#define LIMIT_Z_OUTREG (__outreg__(LIMIT_Z_PORT))
+#define LIMIT_Z_INREG (__inreg__(LIMIT_Z_PORT))
+#define LIMIT_Z_DIRREG (__dirreg__(LIMIT_Z_PORT))
+#define DIO55_OUTREG (__outreg__(LIMIT_Z_PORT))
+#define DIO55_INREG (__inreg__(LIMIT_Z_PORT))
+#define DIO55_DIRREG (__dirreg__(LIMIT_Z_PORT))
 #endif</v>
       </c>
-      <c r="F58" s="14" t="str">
+      <c r="F58" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
-#define DIO55_ISR (LIMIT_Y2_ISR)
-#define LIMIT_Y2_ISRREG (__pcmskreg__(LIMIT_Y2_ISR))
-#if(LIMIT_Y2_ISR==0)
-#define LIMIT_Y2_ISR0 (1 &lt;&lt; LIMIT_Y2_BIT)
-#endif
-#if(LIMIT_Y2_ISR==1)
-#define LIMIT_Y2_ISR1 (1 &lt;&lt; LIMIT_Y2_BIT)
-#endif
-#if(LIMIT_Y2_ISR==2)
-#define LIMIT_Y2_ISR2 (1 &lt;&lt; LIMIT_Y2_BIT)
-#endif
-#if(LIMIT_Y2_ISR==-1)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 1
-#endif
-#if(LIMIT_Y2_ISR==-2)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 4
-#endif
-#if(LIMIT_Y2_ISR==-3)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 16
-#endif
-#if(LIMIT_Y2_ISR==-4)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 64
-#endif
-#if(LIMIT_Y2_ISR==-5)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRB 1
-#endif
-#if(LIMIT_Y2_ISR==-6)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRB
-#define LIMIT_Y2_ISRB 4
-#endif
-#if(LIMIT_Y2_ISR==-7)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRB
-#define LIMIT_Y2_ISRB 16
-#endif
-#if(LIMIT_Y2_ISR==-8)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRB
-#define LIMIT_Y2_ISRB 64
-#endif
-#define DIO55_ISRREG LIMIT_Y2_ISRREG
+        <v>#if(defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
+#define DIO55_ISR (LIMIT_Z_ISR)
+#define LIMIT_Z_ISRREG (__pcmskreg__(LIMIT_Z_ISR))
+#if(LIMIT_Z_ISR==0)
+#define LIMIT_Z_ISR0 (1 &lt;&lt; LIMIT_Z_BIT)
+#endif
+#if(LIMIT_Z_ISR==1)
+#define LIMIT_Z_ISR1 (1 &lt;&lt; LIMIT_Z_BIT)
+#endif
+#if(LIMIT_Z_ISR==2)
+#define LIMIT_Z_ISR2 (1 &lt;&lt; LIMIT_Z_BIT)
+#endif
+#if(LIMIT_Z_ISR==-1)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 1
+#endif
+#if(LIMIT_Z_ISR==-2)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 4
+#endif
+#if(LIMIT_Z_ISR==-3)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 16
+#endif
+#if(LIMIT_Z_ISR==-4)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 64
+#endif
+#if(LIMIT_Z_ISR==-5)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRB 1
+#endif
+#if(LIMIT_Z_ISR==-6)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRB
+#define LIMIT_Z_ISRB 4
+#endif
+#if(LIMIT_Z_ISR==-7)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRB
+#define LIMIT_Z_ISRB 16
+#endif
+#if(LIMIT_Z_ISR==-8)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRB
+#define LIMIT_Z_ISRB 64
+#endif
+#define DIO55_ISRREG LIMIT_Z_ISRREG
 #endif</v>
       </c>
       <c r="G58" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_Y2_ISR0
-#define LIMIT_Y2_ISR0 0
-#endif
-#ifndef LIMIT_Y2_ISR1
-#define LIMIT_Y2_ISR1 0
-#endif
-#ifndef LIMIT_Y2_ISR2
-#define LIMIT_Y2_ISR2 0
-#endif
-#ifndef LIMIT_Y2_ISRA
-#define LIMIT_Y2_ISRA 0
-#endif
-#ifndef LIMIT_Y2_ISRB
-#define LIMIT_Y2_ISRB 0
+        <v>#ifndef LIMIT_Z_ISR0
+#define LIMIT_Z_ISR0 0
+#endif
+#ifndef LIMIT_Z_ISR1
+#define LIMIT_Z_ISR1 0
+#endif
+#ifndef LIMIT_Z_ISR2
+#define LIMIT_Z_ISR2 0
+#endif
+#ifndef LIMIT_Z_ISRA
+#define LIMIT_Z_ISRA 0
+#endif
+#ifndef LIMIT_Z_ISRB
+#define LIMIT_Z_ISRB 0
 #endif</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_Z
+#define LIMITEN_LIMIT_Z (1&lt;&lt;(LIMIT_Z - LIMIT_X))
+#ifdef LIMIT_Z_ISR
+#define LIMITISR_LIMIT_Z (1&lt;&lt;(LIMIT_Z - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Z 0
+#endif
+#else
+#define LIMITEN_LIMIT_Z 0
+#define LIMITISR_LIMIT_Z 0
+#endif</v>
+      </c>
       <c r="I58" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_Y2
-CLEARBIT(LIMIT_Y2_DIRREG, LIMIT_Y2_BIT);
-#ifdef LIMIT_Y2_PULLUP
-SETBIT(LIMIT_Y2_PORTREG, LIMIT_Y2_BIT);
-#endif
-#ifdef LIMIT_Y2_ISR
-#if(LIMIT_Y2_ISR&gt;=0)
-SETBIT(LIMIT_Y2_ISRREG, LIMIT_Y2_BIT);
-#elif(LIMIT_Y2_ISR&lt;=-1 &amp;&amp; LIMIT_Y2_ISR&gt;=-4)
-SETFLAG(LIMIT_Y2_ISRREG,LIMIT_Y2_ISRA);
-#elif(LIMIT_Y2_ISR&lt;=-5 &amp;&amp; LIMIT_Y2_ISR&gt;=-8)
-SETFLAG(LIMIT_Y2_ISRREG, LIMIT_Y2_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_Z
+CLEARBIT(LIMIT_Z_DIRREG, LIMIT_Z_BIT);
+#ifdef LIMIT_Z_PULLUP
+SETBIT(LIMIT_Z_PORTREG, LIMIT_Z_BIT);
+#endif
+#ifdef LIMIT_Z_ISR
+#if(LIMIT_Z_ISR&gt;=0)
+SETBIT(LIMIT_Z_ISRREG, LIMIT_Z_BIT);
+#elif(LIMIT_Z_ISR&lt;=-1 &amp;&amp; LIMIT_Z_ISR&gt;=-4)
+SETFLAG(LIMIT_Z_ISRREG,LIMIT_Z_ISRA);
+#elif(LIMIT_Z_ISR&lt;=-5 &amp;&amp; LIMIT_Z_ISR&gt;=-8)
+SETFLAG(LIMIT_Z_ISRREG, LIMIT_Z_ISRB);
 #endif
 #endif
 #endif</v>
@@ -5567,116 +5567,129 @@
         <v>DIO56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
+        <v>#if(defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
 #define DIO56 56
-#define LIMIT_Z2 56
-#define DIO56_PORT (LIMIT_Z2_PORT)
-#define DIO56_BIT (LIMIT_Z2_BIT)
-#define LIMIT_Z2_OUTREG (__outreg__(LIMIT_Z2_PORT))
-#define LIMIT_Z2_INREG (__inreg__(LIMIT_Z2_PORT))
-#define LIMIT_Z2_DIRREG (__dirreg__(LIMIT_Z2_PORT))
-#define DIO56_OUTREG (__outreg__(LIMIT_Z2_PORT))
-#define DIO56_INREG (__inreg__(LIMIT_Z2_PORT))
-#define DIO56_DIRREG (__dirreg__(LIMIT_Z2_PORT))
+#define LIMIT_X2 56
+#define DIO56_PORT (LIMIT_X2_PORT)
+#define DIO56_BIT (LIMIT_X2_BIT)
+#define LIMIT_X2_OUTREG (__outreg__(LIMIT_X2_PORT))
+#define LIMIT_X2_INREG (__inreg__(LIMIT_X2_PORT))
+#define LIMIT_X2_DIRREG (__dirreg__(LIMIT_X2_PORT))
+#define DIO56_OUTREG (__outreg__(LIMIT_X2_PORT))
+#define DIO56_INREG (__inreg__(LIMIT_X2_PORT))
+#define DIO56_DIRREG (__dirreg__(LIMIT_X2_PORT))
 #endif</v>
       </c>
-      <c r="F59" s="14" t="str">
+      <c r="F59" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
-#define DIO56_ISR (LIMIT_Z2_ISR)
-#define LIMIT_Z2_ISRREG (__pcmskreg__(LIMIT_Z2_ISR))
-#if(LIMIT_Z2_ISR==0)
-#define LIMIT_Z2_ISR0 (1 &lt;&lt; LIMIT_Z2_BIT)
-#endif
-#if(LIMIT_Z2_ISR==1)
-#define LIMIT_Z2_ISR1 (1 &lt;&lt; LIMIT_Z2_BIT)
-#endif
-#if(LIMIT_Z2_ISR==2)
-#define LIMIT_Z2_ISR2 (1 &lt;&lt; LIMIT_Z2_BIT)
-#endif
-#if(LIMIT_Z2_ISR==-1)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 1
-#endif
-#if(LIMIT_Z2_ISR==-2)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 4
-#endif
-#if(LIMIT_Z2_ISR==-3)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 16
-#endif
-#if(LIMIT_Z2_ISR==-4)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 64
-#endif
-#if(LIMIT_Z2_ISR==-5)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRB 1
-#endif
-#if(LIMIT_Z2_ISR==-6)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRB
-#define LIMIT_Z2_ISRB 4
-#endif
-#if(LIMIT_Z2_ISR==-7)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRB
-#define LIMIT_Z2_ISRB 16
-#endif
-#if(LIMIT_Z2_ISR==-8)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRB
-#define LIMIT_Z2_ISRB 64
-#endif
-#define DIO56_ISRREG LIMIT_Z2_ISRREG
+        <v>#if(defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
+#define DIO56_ISR (LIMIT_X2_ISR)
+#define LIMIT_X2_ISRREG (__pcmskreg__(LIMIT_X2_ISR))
+#if(LIMIT_X2_ISR==0)
+#define LIMIT_X2_ISR0 (1 &lt;&lt; LIMIT_X2_BIT)
+#endif
+#if(LIMIT_X2_ISR==1)
+#define LIMIT_X2_ISR1 (1 &lt;&lt; LIMIT_X2_BIT)
+#endif
+#if(LIMIT_X2_ISR==2)
+#define LIMIT_X2_ISR2 (1 &lt;&lt; LIMIT_X2_BIT)
+#endif
+#if(LIMIT_X2_ISR==-1)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 1
+#endif
+#if(LIMIT_X2_ISR==-2)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 4
+#endif
+#if(LIMIT_X2_ISR==-3)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 16
+#endif
+#if(LIMIT_X2_ISR==-4)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 64
+#endif
+#if(LIMIT_X2_ISR==-5)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRB 1
+#endif
+#if(LIMIT_X2_ISR==-6)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRB
+#define LIMIT_X2_ISRB 4
+#endif
+#if(LIMIT_X2_ISR==-7)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRB
+#define LIMIT_X2_ISRB 16
+#endif
+#if(LIMIT_X2_ISR==-8)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRB
+#define LIMIT_X2_ISRB 64
+#endif
+#define DIO56_ISRREG LIMIT_X2_ISRREG
 #endif</v>
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_Z2_ISR0
-#define LIMIT_Z2_ISR0 0
-#endif
-#ifndef LIMIT_Z2_ISR1
-#define LIMIT_Z2_ISR1 0
-#endif
-#ifndef LIMIT_Z2_ISR2
-#define LIMIT_Z2_ISR2 0
-#endif
-#ifndef LIMIT_Z2_ISRA
-#define LIMIT_Z2_ISRA 0
-#endif
-#ifndef LIMIT_Z2_ISRB
-#define LIMIT_Z2_ISRB 0
+        <v>#ifndef LIMIT_X2_ISR0
+#define LIMIT_X2_ISR0 0
+#endif
+#ifndef LIMIT_X2_ISR1
+#define LIMIT_X2_ISR1 0
+#endif
+#ifndef LIMIT_X2_ISR2
+#define LIMIT_X2_ISR2 0
+#endif
+#ifndef LIMIT_X2_ISRA
+#define LIMIT_X2_ISRA 0
+#endif
+#ifndef LIMIT_X2_ISRB
+#define LIMIT_X2_ISRB 0
 #endif</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_X2
+#define LIMITEN_LIMIT_X2 (1&lt;&lt;(LIMIT_X2 - LIMIT_X))
+#ifdef LIMIT_X2_ISR
+#define LIMITISR_LIMIT_X2 (1&lt;&lt;(LIMIT_X2 - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_X2 0
+#endif
+#else
+#define LIMITEN_LIMIT_X2 0
+#define LIMITISR_LIMIT_X2 0
+#endif</v>
+      </c>
       <c r="I59" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_Z2
-CLEARBIT(LIMIT_Z2_DIRREG, LIMIT_Z2_BIT);
-#ifdef LIMIT_Z2_PULLUP
-SETBIT(LIMIT_Z2_PORTREG, LIMIT_Z2_BIT);
-#endif
-#ifdef LIMIT_Z2_ISR
-#if(LIMIT_Z2_ISR&gt;=0)
-SETBIT(LIMIT_Z2_ISRREG, LIMIT_Z2_BIT);
-#elif(LIMIT_Z2_ISR&lt;=-1 &amp;&amp; LIMIT_Z2_ISR&gt;=-4)
-SETFLAG(LIMIT_Z2_ISRREG,LIMIT_Z2_ISRA);
-#elif(LIMIT_Z2_ISR&lt;=-5 &amp;&amp; LIMIT_Z2_ISR&gt;=-8)
-SETFLAG(LIMIT_Z2_ISRREG, LIMIT_Z2_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_X2
+CLEARBIT(LIMIT_X2_DIRREG, LIMIT_X2_BIT);
+#ifdef LIMIT_X2_PULLUP
+SETBIT(LIMIT_X2_PORTREG, LIMIT_X2_BIT);
+#endif
+#ifdef LIMIT_X2_ISR
+#if(LIMIT_X2_ISR&gt;=0)
+SETBIT(LIMIT_X2_ISRREG, LIMIT_X2_BIT);
+#elif(LIMIT_X2_ISR&lt;=-1 &amp;&amp; LIMIT_X2_ISR&gt;=-4)
+SETFLAG(LIMIT_X2_ISRREG,LIMIT_X2_ISRA);
+#elif(LIMIT_X2_ISR&lt;=-5 &amp;&amp; LIMIT_X2_ISR&gt;=-8)
+SETFLAG(LIMIT_X2_ISRREG, LIMIT_X2_ISRB);
 #endif
 #endif
 #endif</v>
@@ -5710,116 +5723,129 @@
         <v>DIO57</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
+        <v>#if(defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
 #define DIO57 57
-#define LIMIT_A 57
-#define DIO57_PORT (LIMIT_A_PORT)
-#define DIO57_BIT (LIMIT_A_BIT)
-#define LIMIT_A_OUTREG (__outreg__(LIMIT_A_PORT))
-#define LIMIT_A_INREG (__inreg__(LIMIT_A_PORT))
-#define LIMIT_A_DIRREG (__dirreg__(LIMIT_A_PORT))
-#define DIO57_OUTREG (__outreg__(LIMIT_A_PORT))
-#define DIO57_INREG (__inreg__(LIMIT_A_PORT))
-#define DIO57_DIRREG (__dirreg__(LIMIT_A_PORT))
+#define LIMIT_Y2 57
+#define DIO57_PORT (LIMIT_Y2_PORT)
+#define DIO57_BIT (LIMIT_Y2_BIT)
+#define LIMIT_Y2_OUTREG (__outreg__(LIMIT_Y2_PORT))
+#define LIMIT_Y2_INREG (__inreg__(LIMIT_Y2_PORT))
+#define LIMIT_Y2_DIRREG (__dirreg__(LIMIT_Y2_PORT))
+#define DIO57_OUTREG (__outreg__(LIMIT_Y2_PORT))
+#define DIO57_INREG (__inreg__(LIMIT_Y2_PORT))
+#define DIO57_DIRREG (__dirreg__(LIMIT_Y2_PORT))
 #endif</v>
       </c>
-      <c r="F60" s="14" t="str">
+      <c r="F60" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
-#define DIO57_ISR (LIMIT_A_ISR)
-#define LIMIT_A_ISRREG (__pcmskreg__(LIMIT_A_ISR))
-#if(LIMIT_A_ISR==0)
-#define LIMIT_A_ISR0 (1 &lt;&lt; LIMIT_A_BIT)
-#endif
-#if(LIMIT_A_ISR==1)
-#define LIMIT_A_ISR1 (1 &lt;&lt; LIMIT_A_BIT)
-#endif
-#if(LIMIT_A_ISR==2)
-#define LIMIT_A_ISR2 (1 &lt;&lt; LIMIT_A_BIT)
-#endif
-#if(LIMIT_A_ISR==-1)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 1
-#endif
-#if(LIMIT_A_ISR==-2)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 4
-#endif
-#if(LIMIT_A_ISR==-3)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 16
-#endif
-#if(LIMIT_A_ISR==-4)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 64
-#endif
-#if(LIMIT_A_ISR==-5)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRB 1
-#endif
-#if(LIMIT_A_ISR==-6)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRB
-#define LIMIT_A_ISRB 4
-#endif
-#if(LIMIT_A_ISR==-7)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRB
-#define LIMIT_A_ISRB 16
-#endif
-#if(LIMIT_A_ISR==-8)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRB
-#define LIMIT_A_ISRB 64
-#endif
-#define DIO57_ISRREG LIMIT_A_ISRREG
+        <v>#if(defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
+#define DIO57_ISR (LIMIT_Y2_ISR)
+#define LIMIT_Y2_ISRREG (__pcmskreg__(LIMIT_Y2_ISR))
+#if(LIMIT_Y2_ISR==0)
+#define LIMIT_Y2_ISR0 (1 &lt;&lt; LIMIT_Y2_BIT)
+#endif
+#if(LIMIT_Y2_ISR==1)
+#define LIMIT_Y2_ISR1 (1 &lt;&lt; LIMIT_Y2_BIT)
+#endif
+#if(LIMIT_Y2_ISR==2)
+#define LIMIT_Y2_ISR2 (1 &lt;&lt; LIMIT_Y2_BIT)
+#endif
+#if(LIMIT_Y2_ISR==-1)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 1
+#endif
+#if(LIMIT_Y2_ISR==-2)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 4
+#endif
+#if(LIMIT_Y2_ISR==-3)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 16
+#endif
+#if(LIMIT_Y2_ISR==-4)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 64
+#endif
+#if(LIMIT_Y2_ISR==-5)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRB 1
+#endif
+#if(LIMIT_Y2_ISR==-6)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRB
+#define LIMIT_Y2_ISRB 4
+#endif
+#if(LIMIT_Y2_ISR==-7)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRB
+#define LIMIT_Y2_ISRB 16
+#endif
+#if(LIMIT_Y2_ISR==-8)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRB
+#define LIMIT_Y2_ISRB 64
+#endif
+#define DIO57_ISRREG LIMIT_Y2_ISRREG
 #endif</v>
       </c>
       <c r="G60" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_A_ISR0
-#define LIMIT_A_ISR0 0
-#endif
-#ifndef LIMIT_A_ISR1
-#define LIMIT_A_ISR1 0
-#endif
-#ifndef LIMIT_A_ISR2
-#define LIMIT_A_ISR2 0
-#endif
-#ifndef LIMIT_A_ISRA
-#define LIMIT_A_ISRA 0
-#endif
-#ifndef LIMIT_A_ISRB
-#define LIMIT_A_ISRB 0
+        <v>#ifndef LIMIT_Y2_ISR0
+#define LIMIT_Y2_ISR0 0
+#endif
+#ifndef LIMIT_Y2_ISR1
+#define LIMIT_Y2_ISR1 0
+#endif
+#ifndef LIMIT_Y2_ISR2
+#define LIMIT_Y2_ISR2 0
+#endif
+#ifndef LIMIT_Y2_ISRA
+#define LIMIT_Y2_ISRA 0
+#endif
+#ifndef LIMIT_Y2_ISRB
+#define LIMIT_Y2_ISRB 0
 #endif</v>
       </c>
-      <c r="H60" s="6"/>
+      <c r="H60" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_Y2
+#define LIMITEN_LIMIT_Y2 (1&lt;&lt;(LIMIT_Y2 - LIMIT_X))
+#ifdef LIMIT_Y2_ISR
+#define LIMITISR_LIMIT_Y2 (1&lt;&lt;(LIMIT_Y2 - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Y2 0
+#endif
+#else
+#define LIMITEN_LIMIT_Y2 0
+#define LIMITISR_LIMIT_Y2 0
+#endif</v>
+      </c>
       <c r="I60" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_A
-CLEARBIT(LIMIT_A_DIRREG, LIMIT_A_BIT);
-#ifdef LIMIT_A_PULLUP
-SETBIT(LIMIT_A_PORTREG, LIMIT_A_BIT);
-#endif
-#ifdef LIMIT_A_ISR
-#if(LIMIT_A_ISR&gt;=0)
-SETBIT(LIMIT_A_ISRREG, LIMIT_A_BIT);
-#elif(LIMIT_A_ISR&lt;=-1 &amp;&amp; LIMIT_A_ISR&gt;=-4)
-SETFLAG(LIMIT_A_ISRREG,LIMIT_A_ISRA);
-#elif(LIMIT_A_ISR&lt;=-5 &amp;&amp; LIMIT_A_ISR&gt;=-8)
-SETFLAG(LIMIT_A_ISRREG, LIMIT_A_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_Y2
+CLEARBIT(LIMIT_Y2_DIRREG, LIMIT_Y2_BIT);
+#ifdef LIMIT_Y2_PULLUP
+SETBIT(LIMIT_Y2_PORTREG, LIMIT_Y2_BIT);
+#endif
+#ifdef LIMIT_Y2_ISR
+#if(LIMIT_Y2_ISR&gt;=0)
+SETBIT(LIMIT_Y2_ISRREG, LIMIT_Y2_BIT);
+#elif(LIMIT_Y2_ISR&lt;=-1 &amp;&amp; LIMIT_Y2_ISR&gt;=-4)
+SETFLAG(LIMIT_Y2_ISRREG,LIMIT_Y2_ISRA);
+#elif(LIMIT_Y2_ISR&lt;=-5 &amp;&amp; LIMIT_Y2_ISR&gt;=-8)
+SETFLAG(LIMIT_Y2_ISRREG, LIMIT_Y2_ISRB);
 #endif
 #endif
 #endif</v>
@@ -5853,116 +5879,129 @@
         <v>DIO58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
+        <v>#if(defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
 #define DIO58 58
-#define LIMIT_B 58
-#define DIO58_PORT (LIMIT_B_PORT)
-#define DIO58_BIT (LIMIT_B_BIT)
-#define LIMIT_B_OUTREG (__outreg__(LIMIT_B_PORT))
-#define LIMIT_B_INREG (__inreg__(LIMIT_B_PORT))
-#define LIMIT_B_DIRREG (__dirreg__(LIMIT_B_PORT))
-#define DIO58_OUTREG (__outreg__(LIMIT_B_PORT))
-#define DIO58_INREG (__inreg__(LIMIT_B_PORT))
-#define DIO58_DIRREG (__dirreg__(LIMIT_B_PORT))
+#define LIMIT_Z2 58
+#define DIO58_PORT (LIMIT_Z2_PORT)
+#define DIO58_BIT (LIMIT_Z2_BIT)
+#define LIMIT_Z2_OUTREG (__outreg__(LIMIT_Z2_PORT))
+#define LIMIT_Z2_INREG (__inreg__(LIMIT_Z2_PORT))
+#define LIMIT_Z2_DIRREG (__dirreg__(LIMIT_Z2_PORT))
+#define DIO58_OUTREG (__outreg__(LIMIT_Z2_PORT))
+#define DIO58_INREG (__inreg__(LIMIT_Z2_PORT))
+#define DIO58_DIRREG (__dirreg__(LIMIT_Z2_PORT))
 #endif</v>
       </c>
-      <c r="F61" s="14" t="str">
+      <c r="F61" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
-#define DIO58_ISR (LIMIT_B_ISR)
-#define LIMIT_B_ISRREG (__pcmskreg__(LIMIT_B_ISR))
-#if(LIMIT_B_ISR==0)
-#define LIMIT_B_ISR0 (1 &lt;&lt; LIMIT_B_BIT)
-#endif
-#if(LIMIT_B_ISR==1)
-#define LIMIT_B_ISR1 (1 &lt;&lt; LIMIT_B_BIT)
-#endif
-#if(LIMIT_B_ISR==2)
-#define LIMIT_B_ISR2 (1 &lt;&lt; LIMIT_B_BIT)
-#endif
-#if(LIMIT_B_ISR==-1)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 1
-#endif
-#if(LIMIT_B_ISR==-2)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 4
-#endif
-#if(LIMIT_B_ISR==-3)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 16
-#endif
-#if(LIMIT_B_ISR==-4)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 64
-#endif
-#if(LIMIT_B_ISR==-5)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRB 1
-#endif
-#if(LIMIT_B_ISR==-6)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRB
-#define LIMIT_B_ISRB 4
-#endif
-#if(LIMIT_B_ISR==-7)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRB
-#define LIMIT_B_ISRB 16
-#endif
-#if(LIMIT_B_ISR==-8)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRB
-#define LIMIT_B_ISRB 64
-#endif
-#define DIO58_ISRREG LIMIT_B_ISRREG
+        <v>#if(defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
+#define DIO58_ISR (LIMIT_Z2_ISR)
+#define LIMIT_Z2_ISRREG (__pcmskreg__(LIMIT_Z2_ISR))
+#if(LIMIT_Z2_ISR==0)
+#define LIMIT_Z2_ISR0 (1 &lt;&lt; LIMIT_Z2_BIT)
+#endif
+#if(LIMIT_Z2_ISR==1)
+#define LIMIT_Z2_ISR1 (1 &lt;&lt; LIMIT_Z2_BIT)
+#endif
+#if(LIMIT_Z2_ISR==2)
+#define LIMIT_Z2_ISR2 (1 &lt;&lt; LIMIT_Z2_BIT)
+#endif
+#if(LIMIT_Z2_ISR==-1)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 1
+#endif
+#if(LIMIT_Z2_ISR==-2)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 4
+#endif
+#if(LIMIT_Z2_ISR==-3)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 16
+#endif
+#if(LIMIT_Z2_ISR==-4)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 64
+#endif
+#if(LIMIT_Z2_ISR==-5)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRB 1
+#endif
+#if(LIMIT_Z2_ISR==-6)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRB
+#define LIMIT_Z2_ISRB 4
+#endif
+#if(LIMIT_Z2_ISR==-7)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRB
+#define LIMIT_Z2_ISRB 16
+#endif
+#if(LIMIT_Z2_ISR==-8)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRB
+#define LIMIT_Z2_ISRB 64
+#endif
+#define DIO58_ISRREG LIMIT_Z2_ISRREG
 #endif</v>
       </c>
       <c r="G61" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_B_ISR0
-#define LIMIT_B_ISR0 0
-#endif
-#ifndef LIMIT_B_ISR1
-#define LIMIT_B_ISR1 0
-#endif
-#ifndef LIMIT_B_ISR2
-#define LIMIT_B_ISR2 0
-#endif
-#ifndef LIMIT_B_ISRA
-#define LIMIT_B_ISRA 0
-#endif
-#ifndef LIMIT_B_ISRB
-#define LIMIT_B_ISRB 0
+        <v>#ifndef LIMIT_Z2_ISR0
+#define LIMIT_Z2_ISR0 0
+#endif
+#ifndef LIMIT_Z2_ISR1
+#define LIMIT_Z2_ISR1 0
+#endif
+#ifndef LIMIT_Z2_ISR2
+#define LIMIT_Z2_ISR2 0
+#endif
+#ifndef LIMIT_Z2_ISRA
+#define LIMIT_Z2_ISRA 0
+#endif
+#ifndef LIMIT_Z2_ISRB
+#define LIMIT_Z2_ISRB 0
 #endif</v>
       </c>
-      <c r="H61" s="6"/>
+      <c r="H61" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_Z2
+#define LIMITEN_LIMIT_Z2 (1&lt;&lt;(LIMIT_Z2 - LIMIT_X))
+#ifdef LIMIT_Z2_ISR
+#define LIMITISR_LIMIT_Z2 (1&lt;&lt;(LIMIT_Z2 - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Z2 0
+#endif
+#else
+#define LIMITEN_LIMIT_Z2 0
+#define LIMITISR_LIMIT_Z2 0
+#endif</v>
+      </c>
       <c r="I61" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_B
-CLEARBIT(LIMIT_B_DIRREG, LIMIT_B_BIT);
-#ifdef LIMIT_B_PULLUP
-SETBIT(LIMIT_B_PORTREG, LIMIT_B_BIT);
-#endif
-#ifdef LIMIT_B_ISR
-#if(LIMIT_B_ISR&gt;=0)
-SETBIT(LIMIT_B_ISRREG, LIMIT_B_BIT);
-#elif(LIMIT_B_ISR&lt;=-1 &amp;&amp; LIMIT_B_ISR&gt;=-4)
-SETFLAG(LIMIT_B_ISRREG,LIMIT_B_ISRA);
-#elif(LIMIT_B_ISR&lt;=-5 &amp;&amp; LIMIT_B_ISR&gt;=-8)
-SETFLAG(LIMIT_B_ISRREG, LIMIT_B_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_Z2
+CLEARBIT(LIMIT_Z2_DIRREG, LIMIT_Z2_BIT);
+#ifdef LIMIT_Z2_PULLUP
+SETBIT(LIMIT_Z2_PORTREG, LIMIT_Z2_BIT);
+#endif
+#ifdef LIMIT_Z2_ISR
+#if(LIMIT_Z2_ISR&gt;=0)
+SETBIT(LIMIT_Z2_ISRREG, LIMIT_Z2_BIT);
+#elif(LIMIT_Z2_ISR&lt;=-1 &amp;&amp; LIMIT_Z2_ISR&gt;=-4)
+SETFLAG(LIMIT_Z2_ISRREG,LIMIT_Z2_ISRA);
+#elif(LIMIT_Z2_ISR&lt;=-5 &amp;&amp; LIMIT_Z2_ISR&gt;=-8)
+SETFLAG(LIMIT_Z2_ISRREG, LIMIT_Z2_ISRB);
 #endif
 #endif
 #endif</v>
@@ -5996,116 +6035,129 @@
         <v>DIO59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
+        <v>#if(defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
 #define DIO59 59
-#define LIMIT_C 59
-#define DIO59_PORT (LIMIT_C_PORT)
-#define DIO59_BIT (LIMIT_C_BIT)
-#define LIMIT_C_OUTREG (__outreg__(LIMIT_C_PORT))
-#define LIMIT_C_INREG (__inreg__(LIMIT_C_PORT))
-#define LIMIT_C_DIRREG (__dirreg__(LIMIT_C_PORT))
-#define DIO59_OUTREG (__outreg__(LIMIT_C_PORT))
-#define DIO59_INREG (__inreg__(LIMIT_C_PORT))
-#define DIO59_DIRREG (__dirreg__(LIMIT_C_PORT))
+#define LIMIT_A 59
+#define DIO59_PORT (LIMIT_A_PORT)
+#define DIO59_BIT (LIMIT_A_BIT)
+#define LIMIT_A_OUTREG (__outreg__(LIMIT_A_PORT))
+#define LIMIT_A_INREG (__inreg__(LIMIT_A_PORT))
+#define LIMIT_A_DIRREG (__dirreg__(LIMIT_A_PORT))
+#define DIO59_OUTREG (__outreg__(LIMIT_A_PORT))
+#define DIO59_INREG (__inreg__(LIMIT_A_PORT))
+#define DIO59_DIRREG (__dirreg__(LIMIT_A_PORT))
 #endif</v>
       </c>
-      <c r="F62" s="14" t="str">
+      <c r="F62" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
-#define DIO59_ISR (LIMIT_C_ISR)
-#define LIMIT_C_ISRREG (__pcmskreg__(LIMIT_C_ISR))
-#if(LIMIT_C_ISR==0)
-#define LIMIT_C_ISR0 (1 &lt;&lt; LIMIT_C_BIT)
-#endif
-#if(LIMIT_C_ISR==1)
-#define LIMIT_C_ISR1 (1 &lt;&lt; LIMIT_C_BIT)
-#endif
-#if(LIMIT_C_ISR==2)
-#define LIMIT_C_ISR2 (1 &lt;&lt; LIMIT_C_BIT)
-#endif
-#if(LIMIT_C_ISR==-1)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 1
-#endif
-#if(LIMIT_C_ISR==-2)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 4
-#endif
-#if(LIMIT_C_ISR==-3)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 16
-#endif
-#if(LIMIT_C_ISR==-4)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 64
-#endif
-#if(LIMIT_C_ISR==-5)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRB 1
-#endif
-#if(LIMIT_C_ISR==-6)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRB
-#define LIMIT_C_ISRB 4
-#endif
-#if(LIMIT_C_ISR==-7)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRB
-#define LIMIT_C_ISRB 16
-#endif
-#if(LIMIT_C_ISR==-8)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRB
-#define LIMIT_C_ISRB 64
-#endif
-#define DIO59_ISRREG LIMIT_C_ISRREG
+        <v>#if(defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
+#define DIO59_ISR (LIMIT_A_ISR)
+#define LIMIT_A_ISRREG (__pcmskreg__(LIMIT_A_ISR))
+#if(LIMIT_A_ISR==0)
+#define LIMIT_A_ISR0 (1 &lt;&lt; LIMIT_A_BIT)
+#endif
+#if(LIMIT_A_ISR==1)
+#define LIMIT_A_ISR1 (1 &lt;&lt; LIMIT_A_BIT)
+#endif
+#if(LIMIT_A_ISR==2)
+#define LIMIT_A_ISR2 (1 &lt;&lt; LIMIT_A_BIT)
+#endif
+#if(LIMIT_A_ISR==-1)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 1
+#endif
+#if(LIMIT_A_ISR==-2)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 4
+#endif
+#if(LIMIT_A_ISR==-3)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 16
+#endif
+#if(LIMIT_A_ISR==-4)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 64
+#endif
+#if(LIMIT_A_ISR==-5)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRB 1
+#endif
+#if(LIMIT_A_ISR==-6)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRB
+#define LIMIT_A_ISRB 4
+#endif
+#if(LIMIT_A_ISR==-7)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRB
+#define LIMIT_A_ISRB 16
+#endif
+#if(LIMIT_A_ISR==-8)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRB
+#define LIMIT_A_ISRB 64
+#endif
+#define DIO59_ISRREG LIMIT_A_ISRREG
 #endif</v>
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef LIMIT_C_ISR0
-#define LIMIT_C_ISR0 0
-#endif
-#ifndef LIMIT_C_ISR1
-#define LIMIT_C_ISR1 0
-#endif
-#ifndef LIMIT_C_ISR2
-#define LIMIT_C_ISR2 0
-#endif
-#ifndef LIMIT_C_ISRA
-#define LIMIT_C_ISRA 0
-#endif
-#ifndef LIMIT_C_ISRB
-#define LIMIT_C_ISRB 0
+        <v>#ifndef LIMIT_A_ISR0
+#define LIMIT_A_ISR0 0
+#endif
+#ifndef LIMIT_A_ISR1
+#define LIMIT_A_ISR1 0
+#endif
+#ifndef LIMIT_A_ISR2
+#define LIMIT_A_ISR2 0
+#endif
+#ifndef LIMIT_A_ISRA
+#define LIMIT_A_ISRA 0
+#endif
+#ifndef LIMIT_A_ISRB
+#define LIMIT_A_ISRB 0
 #endif</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_A
+#define LIMITEN_LIMIT_A (1&lt;&lt;(LIMIT_A - LIMIT_X))
+#ifdef LIMIT_A_ISR
+#define LIMITISR_LIMIT_A (1&lt;&lt;(LIMIT_A - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_A 0
+#endif
+#else
+#define LIMITEN_LIMIT_A 0
+#define LIMITISR_LIMIT_A 0
+#endif</v>
+      </c>
       <c r="I62" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_C
-CLEARBIT(LIMIT_C_DIRREG, LIMIT_C_BIT);
-#ifdef LIMIT_C_PULLUP
-SETBIT(LIMIT_C_PORTREG, LIMIT_C_BIT);
-#endif
-#ifdef LIMIT_C_ISR
-#if(LIMIT_C_ISR&gt;=0)
-SETBIT(LIMIT_C_ISRREG, LIMIT_C_BIT);
-#elif(LIMIT_C_ISR&lt;=-1 &amp;&amp; LIMIT_C_ISR&gt;=-4)
-SETFLAG(LIMIT_C_ISRREG,LIMIT_C_ISRA);
-#elif(LIMIT_C_ISR&lt;=-5 &amp;&amp; LIMIT_C_ISR&gt;=-8)
-SETFLAG(LIMIT_C_ISRREG, LIMIT_C_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_A
+CLEARBIT(LIMIT_A_DIRREG, LIMIT_A_BIT);
+#ifdef LIMIT_A_PULLUP
+SETBIT(LIMIT_A_PORTREG, LIMIT_A_BIT);
+#endif
+#ifdef LIMIT_A_ISR
+#if(LIMIT_A_ISR&gt;=0)
+SETBIT(LIMIT_A_ISRREG, LIMIT_A_BIT);
+#elif(LIMIT_A_ISR&lt;=-1 &amp;&amp; LIMIT_A_ISR&gt;=-4)
+SETFLAG(LIMIT_A_ISRREG,LIMIT_A_ISRA);
+#elif(LIMIT_A_ISR&lt;=-5 &amp;&amp; LIMIT_A_ISR&gt;=-8)
+SETFLAG(LIMIT_A_ISRREG, LIMIT_A_ISRB);
 #endif
 #endif
 #endif</v>
@@ -6130,7 +6182,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -6138,117 +6190,130 @@
         <f t="shared" si="0"/>
         <v>DIO60</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0</v>
+      <c r="C63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4</v>
       </c>
       <c r="E63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
+        <v>#if(defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
 #define DIO60 60
-#define PROBE 60
-#define DIO60_PORT (PROBE_PORT)
-#define DIO60_BIT (PROBE_BIT)
-#define PROBE_OUTREG (__outreg__(PROBE_PORT))
-#define PROBE_INREG (__inreg__(PROBE_PORT))
-#define PROBE_DIRREG (__dirreg__(PROBE_PORT))
-#define DIO60_OUTREG (__outreg__(PROBE_PORT))
-#define DIO60_INREG (__inreg__(PROBE_PORT))
-#define DIO60_DIRREG (__dirreg__(PROBE_PORT))
+#define LIMIT_B 60
+#define DIO60_PORT (LIMIT_B_PORT)
+#define DIO60_BIT (LIMIT_B_BIT)
+#define LIMIT_B_OUTREG (__outreg__(LIMIT_B_PORT))
+#define LIMIT_B_INREG (__inreg__(LIMIT_B_PORT))
+#define LIMIT_B_DIRREG (__dirreg__(LIMIT_B_PORT))
+#define DIO60_OUTREG (__outreg__(LIMIT_B_PORT))
+#define DIO60_INREG (__inreg__(LIMIT_B_PORT))
+#define DIO60_DIRREG (__dirreg__(LIMIT_B_PORT))
 #endif</v>
       </c>
-      <c r="F63" s="14" t="str">
+      <c r="F63" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(PROBE_ISR) &amp;&amp; defined(PROBE))
-#define DIO60_ISR (PROBE_ISR)
-#define PROBE_ISRREG (__pcmskreg__(PROBE_ISR))
-#if(PROBE_ISR==0)
-#define PROBE_ISR0 (1 &lt;&lt; PROBE_BIT)
-#endif
-#if(PROBE_ISR==1)
-#define PROBE_ISR1 (1 &lt;&lt; PROBE_BIT)
-#endif
-#if(PROBE_ISR==2)
-#define PROBE_ISR2 (1 &lt;&lt; PROBE_BIT)
-#endif
-#if(PROBE_ISR==-1)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 1
-#endif
-#if(PROBE_ISR==-2)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 4
-#endif
-#if(PROBE_ISR==-3)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 16
-#endif
-#if(PROBE_ISR==-4)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 64
-#endif
-#if(PROBE_ISR==-5)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRB 1
-#endif
-#if(PROBE_ISR==-6)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRB
-#define PROBE_ISRB 4
-#endif
-#if(PROBE_ISR==-7)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRB
-#define PROBE_ISRB 16
-#endif
-#if(PROBE_ISR==-8)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRB
-#define PROBE_ISRB 64
-#endif
-#define DIO60_ISRREG PROBE_ISRREG
+        <v>#if(defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
+#define DIO60_ISR (LIMIT_B_ISR)
+#define LIMIT_B_ISRREG (__pcmskreg__(LIMIT_B_ISR))
+#if(LIMIT_B_ISR==0)
+#define LIMIT_B_ISR0 (1 &lt;&lt; LIMIT_B_BIT)
+#endif
+#if(LIMIT_B_ISR==1)
+#define LIMIT_B_ISR1 (1 &lt;&lt; LIMIT_B_BIT)
+#endif
+#if(LIMIT_B_ISR==2)
+#define LIMIT_B_ISR2 (1 &lt;&lt; LIMIT_B_BIT)
+#endif
+#if(LIMIT_B_ISR==-1)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 1
+#endif
+#if(LIMIT_B_ISR==-2)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 4
+#endif
+#if(LIMIT_B_ISR==-3)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 16
+#endif
+#if(LIMIT_B_ISR==-4)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 64
+#endif
+#if(LIMIT_B_ISR==-5)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRB 1
+#endif
+#if(LIMIT_B_ISR==-6)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRB
+#define LIMIT_B_ISRB 4
+#endif
+#if(LIMIT_B_ISR==-7)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRB
+#define LIMIT_B_ISRB 16
+#endif
+#if(LIMIT_B_ISR==-8)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRB
+#define LIMIT_B_ISRB 64
+#endif
+#define DIO60_ISRREG LIMIT_B_ISRREG
 #endif</v>
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef PROBE_ISR0
-#define PROBE_ISR0 0
-#endif
-#ifndef PROBE_ISR1
-#define PROBE_ISR1 0
-#endif
-#ifndef PROBE_ISR2
-#define PROBE_ISR2 0
-#endif
-#ifndef PROBE_ISRA
-#define PROBE_ISRA 0
-#endif
-#ifndef PROBE_ISRB
-#define PROBE_ISRB 0
+        <v>#ifndef LIMIT_B_ISR0
+#define LIMIT_B_ISR0 0
+#endif
+#ifndef LIMIT_B_ISR1
+#define LIMIT_B_ISR1 0
+#endif
+#ifndef LIMIT_B_ISR2
+#define LIMIT_B_ISR2 0
+#endif
+#ifndef LIMIT_B_ISRA
+#define LIMIT_B_ISRA 0
+#endif
+#ifndef LIMIT_B_ISRB
+#define LIMIT_B_ISRB 0
 #endif</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_B
+#define LIMITEN_LIMIT_B (1&lt;&lt;(LIMIT_B - LIMIT_X))
+#ifdef LIMIT_B_ISR
+#define LIMITISR_LIMIT_B (1&lt;&lt;(LIMIT_B - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_B 0
+#endif
+#else
+#define LIMITEN_LIMIT_B 0
+#define LIMITISR_LIMIT_B 0
+#endif</v>
+      </c>
       <c r="I63" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef PROBE
-CLEARBIT(PROBE_DIRREG, PROBE_BIT);
-#ifdef PROBE_PULLUP
-SETBIT(PROBE_PORTREG, PROBE_BIT);
-#endif
-#ifdef PROBE_ISR
-#if(PROBE_ISR&gt;=0)
-SETBIT(PROBE_ISRREG, PROBE_BIT);
-#elif(PROBE_ISR&lt;=-1 &amp;&amp; PROBE_ISR&gt;=-4)
-SETFLAG(PROBE_ISRREG,PROBE_ISRA);
-#elif(PROBE_ISR&lt;=-5 &amp;&amp; PROBE_ISR&gt;=-8)
-SETFLAG(PROBE_ISRREG, PROBE_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_B
+CLEARBIT(LIMIT_B_DIRREG, LIMIT_B_BIT);
+#ifdef LIMIT_B_PULLUP
+SETBIT(LIMIT_B_PORTREG, LIMIT_B_BIT);
+#endif
+#ifdef LIMIT_B_ISR
+#if(LIMIT_B_ISR&gt;=0)
+SETBIT(LIMIT_B_ISRREG, LIMIT_B_BIT);
+#elif(LIMIT_B_ISR&lt;=-1 &amp;&amp; LIMIT_B_ISR&gt;=-4)
+SETFLAG(LIMIT_B_ISRREG,LIMIT_B_ISRA);
+#elif(LIMIT_B_ISR&lt;=-5 &amp;&amp; LIMIT_B_ISR&gt;=-8)
+SETFLAG(LIMIT_B_ISRREG, LIMIT_B_ISRB);
 #endif
 #endif
 #endif</v>
@@ -6282,116 +6347,129 @@
         <v>DIO61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
+        <v>#if(defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
 #define DIO61 61
-#define ESTOP 61
-#define DIO61_PORT (ESTOP_PORT)
-#define DIO61_BIT (ESTOP_BIT)
-#define ESTOP_OUTREG (__outreg__(ESTOP_PORT))
-#define ESTOP_INREG (__inreg__(ESTOP_PORT))
-#define ESTOP_DIRREG (__dirreg__(ESTOP_PORT))
-#define DIO61_OUTREG (__outreg__(ESTOP_PORT))
-#define DIO61_INREG (__inreg__(ESTOP_PORT))
-#define DIO61_DIRREG (__dirreg__(ESTOP_PORT))
+#define LIMIT_C 61
+#define DIO61_PORT (LIMIT_C_PORT)
+#define DIO61_BIT (LIMIT_C_BIT)
+#define LIMIT_C_OUTREG (__outreg__(LIMIT_C_PORT))
+#define LIMIT_C_INREG (__inreg__(LIMIT_C_PORT))
+#define LIMIT_C_DIRREG (__dirreg__(LIMIT_C_PORT))
+#define DIO61_OUTREG (__outreg__(LIMIT_C_PORT))
+#define DIO61_INREG (__inreg__(LIMIT_C_PORT))
+#define DIO61_DIRREG (__dirreg__(LIMIT_C_PORT))
 #endif</v>
       </c>
-      <c r="F64" s="14" t="str">
+      <c r="F64" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
-#define DIO61_ISR (ESTOP_ISR)
-#define ESTOP_ISRREG (__pcmskreg__(ESTOP_ISR))
-#if(ESTOP_ISR==0)
-#define ESTOP_ISR0 (1 &lt;&lt; ESTOP_BIT)
-#endif
-#if(ESTOP_ISR==1)
-#define ESTOP_ISR1 (1 &lt;&lt; ESTOP_BIT)
-#endif
-#if(ESTOP_ISR==2)
-#define ESTOP_ISR2 (1 &lt;&lt; ESTOP_BIT)
-#endif
-#if(ESTOP_ISR==-1)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 1
-#endif
-#if(ESTOP_ISR==-2)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 4
-#endif
-#if(ESTOP_ISR==-3)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 16
-#endif
-#if(ESTOP_ISR==-4)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 64
-#endif
-#if(ESTOP_ISR==-5)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRB 1
-#endif
-#if(ESTOP_ISR==-6)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRB
-#define ESTOP_ISRB 4
-#endif
-#if(ESTOP_ISR==-7)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRB
-#define ESTOP_ISRB 16
-#endif
-#if(ESTOP_ISR==-8)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRB
-#define ESTOP_ISRB 64
-#endif
-#define DIO61_ISRREG ESTOP_ISRREG
+        <v>#if(defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
+#define DIO61_ISR (LIMIT_C_ISR)
+#define LIMIT_C_ISRREG (__pcmskreg__(LIMIT_C_ISR))
+#if(LIMIT_C_ISR==0)
+#define LIMIT_C_ISR0 (1 &lt;&lt; LIMIT_C_BIT)
+#endif
+#if(LIMIT_C_ISR==1)
+#define LIMIT_C_ISR1 (1 &lt;&lt; LIMIT_C_BIT)
+#endif
+#if(LIMIT_C_ISR==2)
+#define LIMIT_C_ISR2 (1 &lt;&lt; LIMIT_C_BIT)
+#endif
+#if(LIMIT_C_ISR==-1)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 1
+#endif
+#if(LIMIT_C_ISR==-2)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 4
+#endif
+#if(LIMIT_C_ISR==-3)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 16
+#endif
+#if(LIMIT_C_ISR==-4)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 64
+#endif
+#if(LIMIT_C_ISR==-5)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRB 1
+#endif
+#if(LIMIT_C_ISR==-6)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRB
+#define LIMIT_C_ISRB 4
+#endif
+#if(LIMIT_C_ISR==-7)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRB
+#define LIMIT_C_ISRB 16
+#endif
+#if(LIMIT_C_ISR==-8)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRB
+#define LIMIT_C_ISRB 64
+#endif
+#define DIO61_ISRREG LIMIT_C_ISRREG
 #endif</v>
       </c>
       <c r="G64" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef ESTOP_ISR0
-#define ESTOP_ISR0 0
-#endif
-#ifndef ESTOP_ISR1
-#define ESTOP_ISR1 0
-#endif
-#ifndef ESTOP_ISR2
-#define ESTOP_ISR2 0
-#endif
-#ifndef ESTOP_ISRA
-#define ESTOP_ISRA 0
-#endif
-#ifndef ESTOP_ISRB
-#define ESTOP_ISRB 0
+        <v>#ifndef LIMIT_C_ISR0
+#define LIMIT_C_ISR0 0
+#endif
+#ifndef LIMIT_C_ISR1
+#define LIMIT_C_ISR1 0
+#endif
+#ifndef LIMIT_C_ISR2
+#define LIMIT_C_ISR2 0
+#endif
+#ifndef LIMIT_C_ISRA
+#define LIMIT_C_ISRA 0
+#endif
+#ifndef LIMIT_C_ISRB
+#define LIMIT_C_ISRB 0
 #endif</v>
       </c>
-      <c r="H64" s="6"/>
+      <c r="H64" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_C
+#define LIMITEN_LIMIT_C (1&lt;&lt;(LIMIT_C - LIMIT_X))
+#ifdef LIMIT_C_ISR
+#define LIMITISR_LIMIT_C (1&lt;&lt;(LIMIT_C - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_C 0
+#endif
+#else
+#define LIMITEN_LIMIT_C 0
+#define LIMITISR_LIMIT_C 0
+#endif</v>
+      </c>
       <c r="I64" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ESTOP
-CLEARBIT(ESTOP_DIRREG, ESTOP_BIT);
-#ifdef ESTOP_PULLUP
-SETBIT(ESTOP_PORTREG, ESTOP_BIT);
-#endif
-#ifdef ESTOP_ISR
-#if(ESTOP_ISR&gt;=0)
-SETBIT(ESTOP_ISRREG, ESTOP_BIT);
-#elif(ESTOP_ISR&lt;=-1 &amp;&amp; ESTOP_ISR&gt;=-4)
-SETFLAG(ESTOP_ISRREG,ESTOP_ISRA);
-#elif(ESTOP_ISR&lt;=-5 &amp;&amp; ESTOP_ISR&gt;=-8)
-SETFLAG(ESTOP_ISRREG, ESTOP_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef LIMIT_C
+CLEARBIT(LIMIT_C_DIRREG, LIMIT_C_BIT);
+#ifdef LIMIT_C_PULLUP
+SETBIT(LIMIT_C_PORTREG, LIMIT_C_BIT);
+#endif
+#ifdef LIMIT_C_ISR
+#if(LIMIT_C_ISR&gt;=0)
+SETBIT(LIMIT_C_ISRREG, LIMIT_C_BIT);
+#elif(LIMIT_C_ISR&lt;=-1 &amp;&amp; LIMIT_C_ISR&gt;=-4)
+SETFLAG(LIMIT_C_ISRREG,LIMIT_C_ISRA);
+#elif(LIMIT_C_ISR&lt;=-5 &amp;&amp; LIMIT_C_ISR&gt;=-8)
+SETFLAG(LIMIT_C_ISRREG, LIMIT_C_ISRB);
 #endif
 #endif
 #endif</v>
@@ -6416,7 +6494,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -6424,117 +6502,117 @@
         <f t="shared" si="0"/>
         <v>DIO62</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1</v>
+      <c r="C65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
       </c>
       <c r="E65" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
+        <v>#if(defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
 #define DIO62 62
-#define SAFETY_DOOR 62
-#define DIO62_PORT (SAFETY_DOOR_PORT)
-#define DIO62_BIT (SAFETY_DOOR_BIT)
-#define SAFETY_DOOR_OUTREG (__outreg__(SAFETY_DOOR_PORT))
-#define SAFETY_DOOR_INREG (__inreg__(SAFETY_DOOR_PORT))
-#define SAFETY_DOOR_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
-#define DIO62_OUTREG (__outreg__(SAFETY_DOOR_PORT))
-#define DIO62_INREG (__inreg__(SAFETY_DOOR_PORT))
-#define DIO62_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
+#define PROBE 62
+#define DIO62_PORT (PROBE_PORT)
+#define DIO62_BIT (PROBE_BIT)
+#define PROBE_OUTREG (__outreg__(PROBE_PORT))
+#define PROBE_INREG (__inreg__(PROBE_PORT))
+#define PROBE_DIRREG (__dirreg__(PROBE_PORT))
+#define DIO62_OUTREG (__outreg__(PROBE_PORT))
+#define DIO62_INREG (__inreg__(PROBE_PORT))
+#define DIO62_DIRREG (__dirreg__(PROBE_PORT))
 #endif</v>
       </c>
-      <c r="F65" s="14" t="str">
+      <c r="F65" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
-#define DIO62_ISR (SAFETY_DOOR_ISR)
-#define SAFETY_DOOR_ISRREG (__pcmskreg__(SAFETY_DOOR_ISR))
-#if(SAFETY_DOOR_ISR==0)
-#define SAFETY_DOOR_ISR0 (1 &lt;&lt; SAFETY_DOOR_BIT)
-#endif
-#if(SAFETY_DOOR_ISR==1)
-#define SAFETY_DOOR_ISR1 (1 &lt;&lt; SAFETY_DOOR_BIT)
-#endif
-#if(SAFETY_DOOR_ISR==2)
-#define SAFETY_DOOR_ISR2 (1 &lt;&lt; SAFETY_DOOR_BIT)
-#endif
-#if(SAFETY_DOOR_ISR==-1)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 1
-#endif
-#if(SAFETY_DOOR_ISR==-2)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 4
-#endif
-#if(SAFETY_DOOR_ISR==-3)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 16
-#endif
-#if(SAFETY_DOOR_ISR==-4)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 64
-#endif
-#if(SAFETY_DOOR_ISR==-5)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRB 1
-#endif
-#if(SAFETY_DOOR_ISR==-6)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRB
-#define SAFETY_DOOR_ISRB 4
-#endif
-#if(SAFETY_DOOR_ISR==-7)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRB
-#define SAFETY_DOOR_ISRB 16
-#endif
-#if(SAFETY_DOOR_ISR==-8)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRB
-#define SAFETY_DOOR_ISRB 64
-#endif
-#define DIO62_ISRREG SAFETY_DOOR_ISRREG
+        <v>#if(defined(PROBE_ISR) &amp;&amp; defined(PROBE))
+#define DIO62_ISR (PROBE_ISR)
+#define PROBE_ISRREG (__pcmskreg__(PROBE_ISR))
+#if(PROBE_ISR==0)
+#define PROBE_ISR0 (1 &lt;&lt; PROBE_BIT)
+#endif
+#if(PROBE_ISR==1)
+#define PROBE_ISR1 (1 &lt;&lt; PROBE_BIT)
+#endif
+#if(PROBE_ISR==2)
+#define PROBE_ISR2 (1 &lt;&lt; PROBE_BIT)
+#endif
+#if(PROBE_ISR==-1)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 1
+#endif
+#if(PROBE_ISR==-2)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 4
+#endif
+#if(PROBE_ISR==-3)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 16
+#endif
+#if(PROBE_ISR==-4)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 64
+#endif
+#if(PROBE_ISR==-5)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRB 1
+#endif
+#if(PROBE_ISR==-6)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRB
+#define PROBE_ISRB 4
+#endif
+#if(PROBE_ISR==-7)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRB
+#define PROBE_ISRB 16
+#endif
+#if(PROBE_ISR==-8)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRB
+#define PROBE_ISRB 64
+#endif
+#define DIO62_ISRREG PROBE_ISRREG
 #endif</v>
       </c>
       <c r="G65" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef SAFETY_DOOR_ISR0
-#define SAFETY_DOOR_ISR0 0
-#endif
-#ifndef SAFETY_DOOR_ISR1
-#define SAFETY_DOOR_ISR1 0
-#endif
-#ifndef SAFETY_DOOR_ISR2
-#define SAFETY_DOOR_ISR2 0
-#endif
-#ifndef SAFETY_DOOR_ISRA
-#define SAFETY_DOOR_ISRA 0
-#endif
-#ifndef SAFETY_DOOR_ISRB
-#define SAFETY_DOOR_ISRB 0
+        <v>#ifndef PROBE_ISR0
+#define PROBE_ISR0 0
+#endif
+#ifndef PROBE_ISR1
+#define PROBE_ISR1 0
+#endif
+#ifndef PROBE_ISR2
+#define PROBE_ISR2 0
+#endif
+#ifndef PROBE_ISRA
+#define PROBE_ISRA 0
+#endif
+#ifndef PROBE_ISRB
+#define PROBE_ISRB 0
 #endif</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef SAFETY_DOOR
-CLEARBIT(SAFETY_DOOR_DIRREG, SAFETY_DOOR_BIT);
-#ifdef SAFETY_DOOR_PULLUP
-SETBIT(SAFETY_DOOR_PORTREG, SAFETY_DOOR_BIT);
-#endif
-#ifdef SAFETY_DOOR_ISR
-#if(SAFETY_DOOR_ISR&gt;=0)
-SETBIT(SAFETY_DOOR_ISRREG, SAFETY_DOOR_BIT);
-#elif(SAFETY_DOOR_ISR&lt;=-1 &amp;&amp; SAFETY_DOOR_ISR&gt;=-4)
-SETFLAG(SAFETY_DOOR_ISRREG,SAFETY_DOOR_ISRA);
-#elif(SAFETY_DOOR_ISR&lt;=-5 &amp;&amp; SAFETY_DOOR_ISR&gt;=-8)
-SETFLAG(SAFETY_DOOR_ISRREG, SAFETY_DOOR_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef PROBE
+CLEARBIT(PROBE_DIRREG, PROBE_BIT);
+#ifdef PROBE_PULLUP
+SETBIT(PROBE_PORTREG, PROBE_BIT);
+#endif
+#ifdef PROBE_ISR
+#if(PROBE_ISR&gt;=0)
+SETBIT(PROBE_ISRREG, PROBE_BIT);
+#elif(PROBE_ISR&lt;=-1 &amp;&amp; PROBE_ISR&gt;=-4)
+SETFLAG(PROBE_ISRREG,PROBE_ISRA);
+#elif(PROBE_ISR&lt;=-5 &amp;&amp; PROBE_ISR&gt;=-8)
+SETFLAG(PROBE_ISRREG, PROBE_ISRB);
 #endif
 #endif
 #endif</v>
@@ -6568,116 +6646,139 @@
         <v>DIO63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D66" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(FHOLD_PORT) &amp;&amp; defined(FHOLD_BIT))
+        <v>#if(defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
 #define DIO63 63
-#define FHOLD 63
-#define DIO63_PORT (FHOLD_PORT)
-#define DIO63_BIT (FHOLD_BIT)
-#define FHOLD_OUTREG (__outreg__(FHOLD_PORT))
-#define FHOLD_INREG (__inreg__(FHOLD_PORT))
-#define FHOLD_DIRREG (__dirreg__(FHOLD_PORT))
-#define DIO63_OUTREG (__outreg__(FHOLD_PORT))
-#define DIO63_INREG (__inreg__(FHOLD_PORT))
-#define DIO63_DIRREG (__dirreg__(FHOLD_PORT))
+#define ESTOP 63
+#define DIO63_PORT (ESTOP_PORT)
+#define DIO63_BIT (ESTOP_BIT)
+#define ESTOP_OUTREG (__outreg__(ESTOP_PORT))
+#define ESTOP_INREG (__inreg__(ESTOP_PORT))
+#define ESTOP_DIRREG (__dirreg__(ESTOP_PORT))
+#define DIO63_OUTREG (__outreg__(ESTOP_PORT))
+#define DIO63_INREG (__inreg__(ESTOP_PORT))
+#define DIO63_DIRREG (__dirreg__(ESTOP_PORT))
 #endif</v>
       </c>
-      <c r="F66" s="14" t="str">
+      <c r="F66" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
-#define DIO63_ISR (FHOLD_ISR)
-#define FHOLD_ISRREG (__pcmskreg__(FHOLD_ISR))
-#if(FHOLD_ISR==0)
-#define FHOLD_ISR0 (1 &lt;&lt; FHOLD_BIT)
-#endif
-#if(FHOLD_ISR==1)
-#define FHOLD_ISR1 (1 &lt;&lt; FHOLD_BIT)
-#endif
-#if(FHOLD_ISR==2)
-#define FHOLD_ISR2 (1 &lt;&lt; FHOLD_BIT)
-#endif
-#if(FHOLD_ISR==-1)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 1
-#endif
-#if(FHOLD_ISR==-2)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 4
-#endif
-#if(FHOLD_ISR==-3)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 16
-#endif
-#if(FHOLD_ISR==-4)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 64
-#endif
-#if(FHOLD_ISR==-5)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRB 1
-#endif
-#if(FHOLD_ISR==-6)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRB
-#define FHOLD_ISRB 4
-#endif
-#if(FHOLD_ISR==-7)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRB
-#define FHOLD_ISRB 16
-#endif
-#if(FHOLD_ISR==-8)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRB
-#define FHOLD_ISRB 64
-#endif
-#define DIO63_ISRREG FHOLD_ISRREG
+        <v>#if(defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
+#define DIO63_ISR (ESTOP_ISR)
+#define ESTOP_ISRREG (__pcmskreg__(ESTOP_ISR))
+#if(ESTOP_ISR==0)
+#define ESTOP_ISR0 (1 &lt;&lt; ESTOP_BIT)
+#endif
+#if(ESTOP_ISR==1)
+#define ESTOP_ISR1 (1 &lt;&lt; ESTOP_BIT)
+#endif
+#if(ESTOP_ISR==2)
+#define ESTOP_ISR2 (1 &lt;&lt; ESTOP_BIT)
+#endif
+#if(ESTOP_ISR==-1)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 1
+#endif
+#if(ESTOP_ISR==-2)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 4
+#endif
+#if(ESTOP_ISR==-3)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 16
+#endif
+#if(ESTOP_ISR==-4)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 64
+#endif
+#if(ESTOP_ISR==-5)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRB 1
+#endif
+#if(ESTOP_ISR==-6)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRB
+#define ESTOP_ISRB 4
+#endif
+#if(ESTOP_ISR==-7)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRB
+#define ESTOP_ISRB 16
+#endif
+#if(ESTOP_ISR==-8)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRB
+#define ESTOP_ISRB 64
+#endif
+#define DIO63_ISRREG ESTOP_ISRREG
 #endif</v>
       </c>
       <c r="G66" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef FHOLD_ISR0
-#define FHOLD_ISR0 0
-#endif
-#ifndef FHOLD_ISR1
-#define FHOLD_ISR1 0
-#endif
-#ifndef FHOLD_ISR2
-#define FHOLD_ISR2 0
-#endif
-#ifndef FHOLD_ISRA
-#define FHOLD_ISRA 0
-#endif
-#ifndef FHOLD_ISRB
-#define FHOLD_ISRB 0
+        <v>#ifndef ESTOP_ISR0
+#define ESTOP_ISR0 0
+#endif
+#ifndef ESTOP_ISR1
+#define ESTOP_ISR1 0
+#endif
+#ifndef ESTOP_ISR2
+#define ESTOP_ISR2 0
+#endif
+#ifndef ESTOP_ISRA
+#define ESTOP_ISRA 0
+#endif
+#ifndef ESTOP_ISRB
+#define ESTOP_ISRB 0
 #endif</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6" t="str">
+        <f>"#ifdef "&amp;C66&amp;"
+#define CONTROLEN_"&amp;C66&amp;" (1&lt;&lt;("&amp;C66&amp;" - ESTOP))
+#ifdef "&amp;C66&amp;"_ISR
+#define CONTROLISR_"&amp;C66&amp;" (1&lt;&lt;("&amp;C66&amp;" - ESTOP))
+#else
+#define CONTROLISR_"&amp;C66&amp;" 0
+#endif
+#else
+#define CONTROLEN_"&amp;C66&amp;" 0
+#define CONTROLISR_"&amp;C66&amp;" 0
+#endif"</f>
+        <v>#ifdef ESTOP
+#define CONTROLEN_ESTOP (1&lt;&lt;(ESTOP - ESTOP))
+#ifdef ESTOP_ISR
+#define CONTROLISR_ESTOP (1&lt;&lt;(ESTOP - ESTOP))
+#else
+#define CONTROLISR_ESTOP 0
+#endif
+#else
+#define CONTROLEN_ESTOP 0
+#define CONTROLISR_ESTOP 0
+#endif</v>
+      </c>
       <c r="I66" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef FHOLD
-CLEARBIT(FHOLD_DIRREG, FHOLD_BIT);
-#ifdef FHOLD_PULLUP
-SETBIT(FHOLD_PORTREG, FHOLD_BIT);
-#endif
-#ifdef FHOLD_ISR
-#if(FHOLD_ISR&gt;=0)
-SETBIT(FHOLD_ISRREG, FHOLD_BIT);
-#elif(FHOLD_ISR&lt;=-1 &amp;&amp; FHOLD_ISR&gt;=-4)
-SETFLAG(FHOLD_ISRREG,FHOLD_ISRA);
-#elif(FHOLD_ISR&lt;=-5 &amp;&amp; FHOLD_ISR&gt;=-8)
-SETFLAG(FHOLD_ISRREG, FHOLD_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef ESTOP
+CLEARBIT(ESTOP_DIRREG, ESTOP_BIT);
+#ifdef ESTOP_PULLUP
+SETBIT(ESTOP_PORTREG, ESTOP_BIT);
+#endif
+#ifdef ESTOP_ISR
+#if(ESTOP_ISR&gt;=0)
+SETBIT(ESTOP_ISRREG, ESTOP_BIT);
+#elif(ESTOP_ISR&lt;=-1 &amp;&amp; ESTOP_ISR&gt;=-4)
+SETFLAG(ESTOP_ISRREG,ESTOP_ISRA);
+#elif(ESTOP_ISR&lt;=-5 &amp;&amp; ESTOP_ISR&gt;=-8)
+SETFLAG(ESTOP_ISRREG, ESTOP_ISRB);
 #endif
 #endif
 #endif</v>
@@ -6711,118 +6812,139 @@
         <v>DIO64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>#if(defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
+        <v>#if(defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
 #define DIO64 64
-#define CS_RES 64
-#define DIO64_PORT (CS_RES_PORT)
-#define DIO64_BIT (CS_RES_BIT)
-#define CS_RES_OUTREG (__outreg__(CS_RES_PORT))
-#define CS_RES_INREG (__inreg__(CS_RES_PORT))
-#define CS_RES_DIRREG (__dirreg__(CS_RES_PORT))
-#define DIO64_OUTREG (__outreg__(CS_RES_PORT))
-#define DIO64_INREG (__inreg__(CS_RES_PORT))
-#define DIO64_DIRREG (__dirreg__(CS_RES_PORT))
+#define SAFETY_DOOR 64
+#define DIO64_PORT (SAFETY_DOOR_PORT)
+#define DIO64_BIT (SAFETY_DOOR_BIT)
+#define SAFETY_DOOR_OUTREG (__outreg__(SAFETY_DOOR_PORT))
+#define SAFETY_DOOR_INREG (__inreg__(SAFETY_DOOR_PORT))
+#define SAFETY_DOOR_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
+#define DIO64_OUTREG (__outreg__(SAFETY_DOOR_PORT))
+#define DIO64_INREG (__inreg__(SAFETY_DOOR_PORT))
+#define DIO64_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
 #endif</v>
       </c>
-      <c r="F67" s="14" t="str">
+      <c r="F67" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>#if(defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
-#define DIO64_ISR (CS_RES_ISR)
-#define CS_RES_ISRREG (__pcmskreg__(CS_RES_ISR))
-#if(CS_RES_ISR==0)
-#define CS_RES_ISR0 (1 &lt;&lt; CS_RES_BIT)
-#endif
-#if(CS_RES_ISR==1)
-#define CS_RES_ISR1 (1 &lt;&lt; CS_RES_BIT)
-#endif
-#if(CS_RES_ISR==2)
-#define CS_RES_ISR2 (1 &lt;&lt; CS_RES_BIT)
-#endif
-#if(CS_RES_ISR==-1)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 1
-#endif
-#if(CS_RES_ISR==-2)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 4
-#endif
-#if(CS_RES_ISR==-3)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 16
-#endif
-#if(CS_RES_ISR==-4)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 64
-#endif
-#if(CS_RES_ISR==-5)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRB 1
-#endif
-#if(CS_RES_ISR==-6)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRB
-#define CS_RES_ISRB 4
-#endif
-#if(CS_RES_ISR==-7)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRB
-#define CS_RES_ISRB 16
-#endif
-#if(CS_RES_ISR==-8)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRB
-#define CS_RES_ISRB 64
-#endif
-#define DIO64_ISRREG CS_RES_ISRREG
+        <v>#if(defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
+#define DIO64_ISR (SAFETY_DOOR_ISR)
+#define SAFETY_DOOR_ISRREG (__pcmskreg__(SAFETY_DOOR_ISR))
+#if(SAFETY_DOOR_ISR==0)
+#define SAFETY_DOOR_ISR0 (1 &lt;&lt; SAFETY_DOOR_BIT)
+#endif
+#if(SAFETY_DOOR_ISR==1)
+#define SAFETY_DOOR_ISR1 (1 &lt;&lt; SAFETY_DOOR_BIT)
+#endif
+#if(SAFETY_DOOR_ISR==2)
+#define SAFETY_DOOR_ISR2 (1 &lt;&lt; SAFETY_DOOR_BIT)
+#endif
+#if(SAFETY_DOOR_ISR==-1)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 1
+#endif
+#if(SAFETY_DOOR_ISR==-2)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 4
+#endif
+#if(SAFETY_DOOR_ISR==-3)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 16
+#endif
+#if(SAFETY_DOOR_ISR==-4)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 64
+#endif
+#if(SAFETY_DOOR_ISR==-5)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRB 1
+#endif
+#if(SAFETY_DOOR_ISR==-6)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRB
+#define SAFETY_DOOR_ISRB 4
+#endif
+#if(SAFETY_DOOR_ISR==-7)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRB
+#define SAFETY_DOOR_ISRB 16
+#endif
+#if(SAFETY_DOOR_ISR==-8)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRB
+#define SAFETY_DOOR_ISRB 64
+#endif
+#define DIO64_ISRREG SAFETY_DOOR_ISRREG
 #endif</v>
       </c>
       <c r="G67" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef CS_RES_ISR0
-#define CS_RES_ISR0 0
-#endif
-#ifndef CS_RES_ISR1
-#define CS_RES_ISR1 0
-#endif
-#ifndef CS_RES_ISR2
-#define CS_RES_ISR2 0
-#endif
-#ifndef CS_RES_ISRA
-#define CS_RES_ISRA 0
-#endif
-#ifndef CS_RES_ISRB
-#define CS_RES_ISRB 0
+        <v>#ifndef SAFETY_DOOR_ISR0
+#define SAFETY_DOOR_ISR0 0
+#endif
+#ifndef SAFETY_DOOR_ISR1
+#define SAFETY_DOOR_ISR1 0
+#endif
+#ifndef SAFETY_DOOR_ISR2
+#define SAFETY_DOOR_ISR2 0
+#endif
+#ifndef SAFETY_DOOR_ISRA
+#define SAFETY_DOOR_ISRA 0
+#endif
+#ifndef SAFETY_DOOR_ISRB
+#define SAFETY_DOOR_ISRB 0
 #endif</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>107</v>
+      <c r="H67" s="6" t="str">
+        <f t="shared" ref="H67:H69" si="11">"#ifdef "&amp;C67&amp;"
+#define CONTROLEN_"&amp;C67&amp;" (1&lt;&lt;("&amp;C67&amp;" - ESTOP))
+#ifdef "&amp;C67&amp;"_ISR
+#define CONTROLISR_"&amp;C67&amp;" (1&lt;&lt;("&amp;C67&amp;" - ESTOP))
+#else
+#define CONTROLISR_"&amp;C67&amp;" 0
+#endif
+#else
+#define CONTROLEN_"&amp;C67&amp;" 0
+#define CONTROLISR_"&amp;C67&amp;" 0
+#endif"</f>
+        <v>#ifdef SAFETY_DOOR
+#define CONTROLEN_SAFETY_DOOR (1&lt;&lt;(SAFETY_DOOR - ESTOP))
+#ifdef SAFETY_DOOR_ISR
+#define CONTROLISR_SAFETY_DOOR (1&lt;&lt;(SAFETY_DOOR - ESTOP))
+#else
+#define CONTROLISR_SAFETY_DOOR 0
+#endif
+#else
+#define CONTROLEN_SAFETY_DOOR 0
+#define CONTROLISR_SAFETY_DOOR 0
+#endif</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef CS_RES
-CLEARBIT(CS_RES_DIRREG, CS_RES_BIT);
-#ifdef CS_RES_PULLUP
-SETBIT(CS_RES_PORTREG, CS_RES_BIT);
-#endif
-#ifdef CS_RES_ISR
-#if(CS_RES_ISR&gt;=0)
-SETBIT(CS_RES_ISRREG, CS_RES_BIT);
-#elif(CS_RES_ISR&lt;=-1 &amp;&amp; CS_RES_ISR&gt;=-4)
-SETFLAG(CS_RES_ISRREG,CS_RES_ISRA);
-#elif(CS_RES_ISR&lt;=-5 &amp;&amp; CS_RES_ISR&gt;=-8)
-SETFLAG(CS_RES_ISRREG, CS_RES_ISRB);
+        <f t="shared" si="10"/>
+        <v>#ifdef SAFETY_DOOR
+CLEARBIT(SAFETY_DOOR_DIRREG, SAFETY_DOOR_BIT);
+#ifdef SAFETY_DOOR_PULLUP
+SETBIT(SAFETY_DOOR_PORTREG, SAFETY_DOOR_BIT);
+#endif
+#ifdef SAFETY_DOOR_ISR
+#if(SAFETY_DOOR_ISR&gt;=0)
+SETBIT(SAFETY_DOOR_ISRREG, SAFETY_DOOR_BIT);
+#elif(SAFETY_DOOR_ISR&lt;=-1 &amp;&amp; SAFETY_DOOR_ISR&gt;=-4)
+SETFLAG(SAFETY_DOOR_ISRREG,SAFETY_DOOR_ISRA);
+#elif(SAFETY_DOOR_ISR&lt;=-5 &amp;&amp; SAFETY_DOOR_ISR&gt;=-8)
+SETFLAG(SAFETY_DOOR_ISRREG, SAFETY_DOOR_ISRB);
 #endif
 #endif
 #endif</v>
@@ -6856,55 +6978,131 @@
         <v>DIO65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" ref="E68:E100" si="10">"#if(defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
-#define "&amp;B68&amp;" "&amp;A68&amp;"
-#define "&amp;C68&amp;" "&amp;A68&amp;"
-#define "&amp;B68&amp;"_PORT ("&amp;C68&amp;"_PORT)
-#define "&amp;B68&amp;"_BIT ("&amp;C68&amp;"_BIT)
-#define "&amp;C68&amp;"_OUTREG (__outreg__("&amp;C68&amp;"_PORT))
-#define "&amp;C68&amp;"_INREG (__inreg__("&amp;C68&amp;"_PORT))
-#define "&amp;C68&amp;"_DIRREG (__dirreg__("&amp;C68&amp;"_PORT))
-#define "&amp;B68&amp;"_OUTREG (__outreg__("&amp;C68&amp;"_PORT))
-#define "&amp;B68&amp;"_INREG (__inreg__("&amp;C68&amp;"_PORT))
-#define "&amp;B68&amp;"_DIRREG (__dirreg__("&amp;C68&amp;"_PORT))
-#endif"</f>
-        <v>#if(defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
+        <f t="shared" si="2"/>
+        <v>#if(defined(FHOLD_PORT) &amp;&amp; defined(FHOLD_BIT))
 #define DIO65 65
-#define ANALOG0 65
-#define DIO65_PORT (ANALOG0_PORT)
-#define DIO65_BIT (ANALOG0_BIT)
-#define ANALOG0_OUTREG (__outreg__(ANALOG0_PORT))
-#define ANALOG0_INREG (__inreg__(ANALOG0_PORT))
-#define ANALOG0_DIRREG (__dirreg__(ANALOG0_PORT))
-#define DIO65_OUTREG (__outreg__(ANALOG0_PORT))
-#define DIO65_INREG (__inreg__(ANALOG0_PORT))
-#define DIO65_DIRREG (__dirreg__(ANALOG0_PORT))
+#define FHOLD 65
+#define DIO65_PORT (FHOLD_PORT)
+#define DIO65_BIT (FHOLD_BIT)
+#define FHOLD_OUTREG (__outreg__(FHOLD_PORT))
+#define FHOLD_INREG (__inreg__(FHOLD_PORT))
+#define FHOLD_DIRREG (__dirreg__(FHOLD_PORT))
+#define DIO65_OUTREG (__outreg__(FHOLD_PORT))
+#define DIO65_INREG (__inreg__(FHOLD_PORT))
+#define DIO65_DIRREG (__dirreg__(FHOLD_PORT))
 #endif</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="8" t="str">
-        <f>"#ifdef "&amp;C68&amp;"
-#define "&amp;C68&amp;"_ADMUXREG (1&lt;&lt;"&amp;D68&amp;")
-#define "&amp;B68&amp;"_ADMUXREG (1&lt;&lt;"&amp;D68&amp;")
-#endif"</f>
-        <v>#ifdef ANALOG0
-#define ANALOG0_ADMUXREG (1&lt;&lt;0)
-#define DIO65_ADMUXREG (1&lt;&lt;0)
+      <c r="F68" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>#if(defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
+#define DIO65_ISR (FHOLD_ISR)
+#define FHOLD_ISRREG (__pcmskreg__(FHOLD_ISR))
+#if(FHOLD_ISR==0)
+#define FHOLD_ISR0 (1 &lt;&lt; FHOLD_BIT)
+#endif
+#if(FHOLD_ISR==1)
+#define FHOLD_ISR1 (1 &lt;&lt; FHOLD_BIT)
+#endif
+#if(FHOLD_ISR==2)
+#define FHOLD_ISR2 (1 &lt;&lt; FHOLD_BIT)
+#endif
+#if(FHOLD_ISR==-1)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 1
+#endif
+#if(FHOLD_ISR==-2)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 4
+#endif
+#if(FHOLD_ISR==-3)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 16
+#endif
+#if(FHOLD_ISR==-4)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 64
+#endif
+#if(FHOLD_ISR==-5)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRB 1
+#endif
+#if(FHOLD_ISR==-6)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRB
+#define FHOLD_ISRB 4
+#endif
+#if(FHOLD_ISR==-7)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRB
+#define FHOLD_ISRB 16
+#endif
+#if(FHOLD_ISR==-8)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRB
+#define FHOLD_ISRB 64
+#endif
+#define DIO65_ISRREG FHOLD_ISRREG
 #endif</v>
       </c>
+      <c r="G68" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifndef FHOLD_ISR0
+#define FHOLD_ISR0 0
+#endif
+#ifndef FHOLD_ISR1
+#define FHOLD_ISR1 0
+#endif
+#ifndef FHOLD_ISR2
+#define FHOLD_ISR2 0
+#endif
+#ifndef FHOLD_ISRA
+#define FHOLD_ISRA 0
+#endif
+#ifndef FHOLD_ISRB
+#define FHOLD_ISRB 0
+#endif</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef FHOLD
+#define CONTROLEN_FHOLD (1&lt;&lt;(FHOLD - ESTOP))
+#ifdef FHOLD_ISR
+#define CONTROLISR_FHOLD (1&lt;&lt;(FHOLD - ESTOP))
+#else
+#define CONTROLISR_FHOLD 0
+#endif
+#else
+#define CONTROLEN_FHOLD 0
+#define CONTROLISR_FHOLD 0
+#endif</v>
+      </c>
       <c r="I68" s="3" t="str">
-        <f t="shared" ref="I68:I84" si="11">"#ifdef "&amp;C68&amp;"
-CLEARBIT("&amp;C68&amp;"_DIRREG, "&amp;C68&amp;"_BIT);
-#endif"</f>
-        <v>#ifdef ANALOG0
-CLEARBIT(ANALOG0_DIRREG, ANALOG0_BIT);
+        <f t="shared" si="10"/>
+        <v>#ifdef FHOLD
+CLEARBIT(FHOLD_DIRREG, FHOLD_BIT);
+#ifdef FHOLD_PULLUP
+SETBIT(FHOLD_PORTREG, FHOLD_BIT);
+#endif
+#ifdef FHOLD_ISR
+#if(FHOLD_ISR&gt;=0)
+SETBIT(FHOLD_ISRREG, FHOLD_BIT);
+#elif(FHOLD_ISR&lt;=-1 &amp;&amp; FHOLD_ISR&gt;=-4)
+SETFLAG(FHOLD_ISRREG,FHOLD_ISRA);
+#elif(FHOLD_ISR&lt;=-5 &amp;&amp; FHOLD_ISR&gt;=-8)
+SETFLAG(FHOLD_ISRREG, FHOLD_ISRB);
+#endif
+#endif
 #endif</v>
       </c>
       <c r="J68" s="3"/>
@@ -6936,42 +7134,131 @@
         <v>DIO66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>#if(defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
+#define DIO66 66
+#define CS_RES 66
+#define DIO66_PORT (CS_RES_PORT)
+#define DIO66_BIT (CS_RES_BIT)
+#define CS_RES_OUTREG (__outreg__(CS_RES_PORT))
+#define CS_RES_INREG (__inreg__(CS_RES_PORT))
+#define CS_RES_DIRREG (__dirreg__(CS_RES_PORT))
+#define DIO66_OUTREG (__outreg__(CS_RES_PORT))
+#define DIO66_INREG (__inreg__(CS_RES_PORT))
+#define DIO66_DIRREG (__dirreg__(CS_RES_PORT))
+#endif</v>
+      </c>
+      <c r="F69" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>#if(defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
+#define DIO66_ISR (CS_RES_ISR)
+#define CS_RES_ISRREG (__pcmskreg__(CS_RES_ISR))
+#if(CS_RES_ISR==0)
+#define CS_RES_ISR0 (1 &lt;&lt; CS_RES_BIT)
+#endif
+#if(CS_RES_ISR==1)
+#define CS_RES_ISR1 (1 &lt;&lt; CS_RES_BIT)
+#endif
+#if(CS_RES_ISR==2)
+#define CS_RES_ISR2 (1 &lt;&lt; CS_RES_BIT)
+#endif
+#if(CS_RES_ISR==-1)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 1
+#endif
+#if(CS_RES_ISR==-2)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 4
+#endif
+#if(CS_RES_ISR==-3)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 16
+#endif
+#if(CS_RES_ISR==-4)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 64
+#endif
+#if(CS_RES_ISR==-5)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRB 1
+#endif
+#if(CS_RES_ISR==-6)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRB
+#define CS_RES_ISRB 4
+#endif
+#if(CS_RES_ISR==-7)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRB
+#define CS_RES_ISRB 16
+#endif
+#if(CS_RES_ISR==-8)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRB
+#define CS_RES_ISRB 64
+#endif
+#define DIO66_ISRREG CS_RES_ISRREG
+#endif</v>
+      </c>
+      <c r="G69" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifndef CS_RES_ISR0
+#define CS_RES_ISR0 0
+#endif
+#ifndef CS_RES_ISR1
+#define CS_RES_ISR1 0
+#endif
+#ifndef CS_RES_ISR2
+#define CS_RES_ISR2 0
+#endif
+#ifndef CS_RES_ISRA
+#define CS_RES_ISRA 0
+#endif
+#ifndef CS_RES_ISRB
+#define CS_RES_ISRB 0
+#endif</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef CS_RES
+#define CONTROLEN_CS_RES (1&lt;&lt;(CS_RES - ESTOP))
+#ifdef CS_RES_ISR
+#define CONTROLISR_CS_RES (1&lt;&lt;(CS_RES - ESTOP))
+#else
+#define CONTROLISR_CS_RES 0
+#endif
+#else
+#define CONTROLEN_CS_RES 0
+#define CONTROLISR_CS_RES 0
+#endif</v>
+      </c>
+      <c r="I69" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
-#define DIO66 66
-#define ANALOG1 66
-#define DIO66_PORT (ANALOG1_PORT)
-#define DIO66_BIT (ANALOG1_BIT)
-#define ANALOG1_OUTREG (__outreg__(ANALOG1_PORT))
-#define ANALOG1_INREG (__inreg__(ANALOG1_PORT))
-#define ANALOG1_DIRREG (__dirreg__(ANALOG1_PORT))
-#define DIO66_OUTREG (__outreg__(ANALOG1_PORT))
-#define DIO66_INREG (__inreg__(ANALOG1_PORT))
-#define DIO66_DIRREG (__dirreg__(ANALOG1_PORT))
-#endif</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="8" t="str">
-        <f t="shared" ref="H69:H83" si="12">"#ifdef "&amp;C69&amp;"
-#define "&amp;C69&amp;"_ADMUXREG (1&lt;&lt;"&amp;D69&amp;")
-#define "&amp;B69&amp;"_ADMUXREG (1&lt;&lt;"&amp;D69&amp;")
-#endif"</f>
-        <v>#ifdef ANALOG1
-#define ANALOG1_ADMUXREG (1&lt;&lt;1)
-#define DIO66_ADMUXREG (1&lt;&lt;1)
-#endif</v>
-      </c>
-      <c r="I69" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG1
-CLEARBIT(ANALOG1_DIRREG, ANALOG1_BIT);
+        <v>#ifdef CS_RES
+CLEARBIT(CS_RES_DIRREG, CS_RES_BIT);
+#ifdef CS_RES_PULLUP
+SETBIT(CS_RES_PORTREG, CS_RES_BIT);
+#endif
+#ifdef CS_RES_ISR
+#if(CS_RES_ISR&gt;=0)
+SETBIT(CS_RES_ISRREG, CS_RES_BIT);
+#elif(CS_RES_ISR&lt;=-1 &amp;&amp; CS_RES_ISR&gt;=-4)
+SETFLAG(CS_RES_ISRREG,CS_RES_ISRA);
+#elif(CS_RES_ISR&lt;=-5 &amp;&amp; CS_RES_ISR&gt;=-8)
+SETFLAG(CS_RES_ISRREG, CS_RES_ISRB);
+#endif
+#endif
 #endif</v>
       </c>
       <c r="J69" s="3"/>
@@ -7003,39 +7290,48 @@
         <v>DIO67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D70" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
+        <f t="shared" ref="E70:E102" si="12">"#if(defined("&amp;C70&amp;"_PORT) &amp;&amp; defined("&amp;C70&amp;"_BIT))
+#define "&amp;B70&amp;" "&amp;A70&amp;"
+#define "&amp;C70&amp;" "&amp;A70&amp;"
+#define "&amp;B70&amp;"_PORT ("&amp;C70&amp;"_PORT)
+#define "&amp;B70&amp;"_BIT ("&amp;C70&amp;"_BIT)
+#define "&amp;C70&amp;"_OUTREG (__outreg__("&amp;C70&amp;"_PORT))
+#define "&amp;C70&amp;"_INREG (__inreg__("&amp;C70&amp;"_PORT))
+#define "&amp;C70&amp;"_DIRREG (__dirreg__("&amp;C70&amp;"_PORT))
+#define "&amp;B70&amp;"_OUTREG (__outreg__("&amp;C70&amp;"_PORT))
+#define "&amp;B70&amp;"_INREG (__inreg__("&amp;C70&amp;"_PORT))
+#define "&amp;B70&amp;"_DIRREG (__dirreg__("&amp;C70&amp;"_PORT))
+#endif"</f>
+        <v>#if(defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
 #define DIO67 67
-#define ANALOG2 67
-#define DIO67_PORT (ANALOG2_PORT)
-#define DIO67_BIT (ANALOG2_BIT)
-#define ANALOG2_OUTREG (__outreg__(ANALOG2_PORT))
-#define ANALOG2_INREG (__inreg__(ANALOG2_PORT))
-#define ANALOG2_DIRREG (__dirreg__(ANALOG2_PORT))
-#define DIO67_OUTREG (__outreg__(ANALOG2_PORT))
-#define DIO67_INREG (__inreg__(ANALOG2_PORT))
-#define DIO67_DIRREG (__dirreg__(ANALOG2_PORT))
+#define ANALOG0 67
+#define DIO67_PORT (ANALOG0_PORT)
+#define DIO67_BIT (ANALOG0_BIT)
+#define ANALOG0_OUTREG (__outreg__(ANALOG0_PORT))
+#define ANALOG0_INREG (__inreg__(ANALOG0_PORT))
+#define ANALOG0_DIRREG (__dirreg__(ANALOG0_PORT))
+#define DIO67_OUTREG (__outreg__(ANALOG0_PORT))
+#define DIO67_INREG (__inreg__(ANALOG0_PORT))
+#define DIO67_DIRREG (__dirreg__(ANALOG0_PORT))
 #endif</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG2
-#define ANALOG2_ADMUXREG (1&lt;&lt;2)
-#define DIO67_ADMUXREG (1&lt;&lt;2)
-#endif</v>
+      <c r="H70" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG2
-CLEARBIT(ANALOG2_DIRREG, ANALOG2_BIT);
+        <f t="shared" ref="I70:I86" si="13">"#ifdef "&amp;C70&amp;"
+CLEARBIT("&amp;C70&amp;"_DIRREG, "&amp;C70&amp;"_BIT);
+#endif"</f>
+        <v>#ifdef ANALOG0
+CLEARBIT(ANALOG0_DIRREG, ANALOG0_BIT);
 #endif</v>
       </c>
       <c r="J70" s="3"/>
@@ -7067,39 +7363,35 @@
         <v>DIO68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
 #define DIO68 68
-#define ANALOG3 68
-#define DIO68_PORT (ANALOG3_PORT)
-#define DIO68_BIT (ANALOG3_BIT)
-#define ANALOG3_OUTREG (__outreg__(ANALOG3_PORT))
-#define ANALOG3_INREG (__inreg__(ANALOG3_PORT))
-#define ANALOG3_DIRREG (__dirreg__(ANALOG3_PORT))
-#define DIO68_OUTREG (__outreg__(ANALOG3_PORT))
-#define DIO68_INREG (__inreg__(ANALOG3_PORT))
-#define DIO68_DIRREG (__dirreg__(ANALOG3_PORT))
+#define ANALOG1 68
+#define DIO68_PORT (ANALOG1_PORT)
+#define DIO68_BIT (ANALOG1_BIT)
+#define ANALOG1_OUTREG (__outreg__(ANALOG1_PORT))
+#define ANALOG1_INREG (__inreg__(ANALOG1_PORT))
+#define ANALOG1_DIRREG (__dirreg__(ANALOG1_PORT))
+#define DIO68_OUTREG (__outreg__(ANALOG1_PORT))
+#define DIO68_INREG (__inreg__(ANALOG1_PORT))
+#define DIO68_DIRREG (__dirreg__(ANALOG1_PORT))
 #endif</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG3
-#define ANALOG3_ADMUXREG (1&lt;&lt;3)
-#define DIO68_ADMUXREG (1&lt;&lt;3)
-#endif</v>
+      <c r="H71" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG3
-CLEARBIT(ANALOG3_DIRREG, ANALOG3_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG1
+CLEARBIT(ANALOG1_DIRREG, ANALOG1_BIT);
 #endif</v>
       </c>
       <c r="J71" s="3"/>
@@ -7131,39 +7423,35 @@
         <v>DIO69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D72" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
 #define DIO69 69
-#define ANALOG4 69
-#define DIO69_PORT (ANALOG4_PORT)
-#define DIO69_BIT (ANALOG4_BIT)
-#define ANALOG4_OUTREG (__outreg__(ANALOG4_PORT))
-#define ANALOG4_INREG (__inreg__(ANALOG4_PORT))
-#define ANALOG4_DIRREG (__dirreg__(ANALOG4_PORT))
-#define DIO69_OUTREG (__outreg__(ANALOG4_PORT))
-#define DIO69_INREG (__inreg__(ANALOG4_PORT))
-#define DIO69_DIRREG (__dirreg__(ANALOG4_PORT))
+#define ANALOG2 69
+#define DIO69_PORT (ANALOG2_PORT)
+#define DIO69_BIT (ANALOG2_BIT)
+#define ANALOG2_OUTREG (__outreg__(ANALOG2_PORT))
+#define ANALOG2_INREG (__inreg__(ANALOG2_PORT))
+#define ANALOG2_DIRREG (__dirreg__(ANALOG2_PORT))
+#define DIO69_OUTREG (__outreg__(ANALOG2_PORT))
+#define DIO69_INREG (__inreg__(ANALOG2_PORT))
+#define DIO69_DIRREG (__dirreg__(ANALOG2_PORT))
 #endif</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG4
-#define ANALOG4_ADMUXREG (1&lt;&lt;4)
-#define DIO69_ADMUXREG (1&lt;&lt;4)
-#endif</v>
+      <c r="H72" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG4
-CLEARBIT(ANALOG4_DIRREG, ANALOG4_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG2
+CLEARBIT(ANALOG2_DIRREG, ANALOG2_BIT);
 #endif</v>
       </c>
       <c r="J72" s="3"/>
@@ -7195,39 +7483,35 @@
         <v>DIO70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D73" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
 #define DIO70 70
-#define ANALOG5 70
-#define DIO70_PORT (ANALOG5_PORT)
-#define DIO70_BIT (ANALOG5_BIT)
-#define ANALOG5_OUTREG (__outreg__(ANALOG5_PORT))
-#define ANALOG5_INREG (__inreg__(ANALOG5_PORT))
-#define ANALOG5_DIRREG (__dirreg__(ANALOG5_PORT))
-#define DIO70_OUTREG (__outreg__(ANALOG5_PORT))
-#define DIO70_INREG (__inreg__(ANALOG5_PORT))
-#define DIO70_DIRREG (__dirreg__(ANALOG5_PORT))
+#define ANALOG3 70
+#define DIO70_PORT (ANALOG3_PORT)
+#define DIO70_BIT (ANALOG3_BIT)
+#define ANALOG3_OUTREG (__outreg__(ANALOG3_PORT))
+#define ANALOG3_INREG (__inreg__(ANALOG3_PORT))
+#define ANALOG3_DIRREG (__dirreg__(ANALOG3_PORT))
+#define DIO70_OUTREG (__outreg__(ANALOG3_PORT))
+#define DIO70_INREG (__inreg__(ANALOG3_PORT))
+#define DIO70_DIRREG (__dirreg__(ANALOG3_PORT))
 #endif</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG5
-#define ANALOG5_ADMUXREG (1&lt;&lt;5)
-#define DIO70_ADMUXREG (1&lt;&lt;5)
-#endif</v>
+      <c r="H73" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG5
-CLEARBIT(ANALOG5_DIRREG, ANALOG5_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG3
+CLEARBIT(ANALOG3_DIRREG, ANALOG3_BIT);
 #endif</v>
       </c>
       <c r="J73" s="3"/>
@@ -7259,39 +7543,35 @@
         <v>DIO71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
 #define DIO71 71
-#define ANALOG6 71
-#define DIO71_PORT (ANALOG6_PORT)
-#define DIO71_BIT (ANALOG6_BIT)
-#define ANALOG6_OUTREG (__outreg__(ANALOG6_PORT))
-#define ANALOG6_INREG (__inreg__(ANALOG6_PORT))
-#define ANALOG6_DIRREG (__dirreg__(ANALOG6_PORT))
-#define DIO71_OUTREG (__outreg__(ANALOG6_PORT))
-#define DIO71_INREG (__inreg__(ANALOG6_PORT))
-#define DIO71_DIRREG (__dirreg__(ANALOG6_PORT))
+#define ANALOG4 71
+#define DIO71_PORT (ANALOG4_PORT)
+#define DIO71_BIT (ANALOG4_BIT)
+#define ANALOG4_OUTREG (__outreg__(ANALOG4_PORT))
+#define ANALOG4_INREG (__inreg__(ANALOG4_PORT))
+#define ANALOG4_DIRREG (__dirreg__(ANALOG4_PORT))
+#define DIO71_OUTREG (__outreg__(ANALOG4_PORT))
+#define DIO71_INREG (__inreg__(ANALOG4_PORT))
+#define DIO71_DIRREG (__dirreg__(ANALOG4_PORT))
 #endif</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG6
-#define ANALOG6_ADMUXREG (1&lt;&lt;6)
-#define DIO71_ADMUXREG (1&lt;&lt;6)
-#endif</v>
+      <c r="H74" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="I74" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG6
-CLEARBIT(ANALOG6_DIRREG, ANALOG6_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG4
+CLEARBIT(ANALOG4_DIRREG, ANALOG4_BIT);
 #endif</v>
       </c>
       <c r="J74" s="3"/>
@@ -7323,39 +7603,35 @@
         <v>DIO72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
 #define DIO72 72
-#define ANALOG7 72
-#define DIO72_PORT (ANALOG7_PORT)
-#define DIO72_BIT (ANALOG7_BIT)
-#define ANALOG7_OUTREG (__outreg__(ANALOG7_PORT))
-#define ANALOG7_INREG (__inreg__(ANALOG7_PORT))
-#define ANALOG7_DIRREG (__dirreg__(ANALOG7_PORT))
-#define DIO72_OUTREG (__outreg__(ANALOG7_PORT))
-#define DIO72_INREG (__inreg__(ANALOG7_PORT))
-#define DIO72_DIRREG (__dirreg__(ANALOG7_PORT))
+#define ANALOG5 72
+#define DIO72_PORT (ANALOG5_PORT)
+#define DIO72_BIT (ANALOG5_BIT)
+#define ANALOG5_OUTREG (__outreg__(ANALOG5_PORT))
+#define ANALOG5_INREG (__inreg__(ANALOG5_PORT))
+#define ANALOG5_DIRREG (__dirreg__(ANALOG5_PORT))
+#define DIO72_OUTREG (__outreg__(ANALOG5_PORT))
+#define DIO72_INREG (__inreg__(ANALOG5_PORT))
+#define DIO72_DIRREG (__dirreg__(ANALOG5_PORT))
 #endif</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG7
-#define ANALOG7_ADMUXREG (1&lt;&lt;7)
-#define DIO72_ADMUXREG (1&lt;&lt;7)
-#endif</v>
+      <c r="H75" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG7
-CLEARBIT(ANALOG7_DIRREG, ANALOG7_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG5
+CLEARBIT(ANALOG5_DIRREG, ANALOG5_BIT);
 #endif</v>
       </c>
       <c r="J75" s="3"/>
@@ -7387,39 +7663,35 @@
         <v>DIO73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
 #define DIO73 73
-#define ANALOG8 73
-#define DIO73_PORT (ANALOG8_PORT)
-#define DIO73_BIT (ANALOG8_BIT)
-#define ANALOG8_OUTREG (__outreg__(ANALOG8_PORT))
-#define ANALOG8_INREG (__inreg__(ANALOG8_PORT))
-#define ANALOG8_DIRREG (__dirreg__(ANALOG8_PORT))
-#define DIO73_OUTREG (__outreg__(ANALOG8_PORT))
-#define DIO73_INREG (__inreg__(ANALOG8_PORT))
-#define DIO73_DIRREG (__dirreg__(ANALOG8_PORT))
+#define ANALOG6 73
+#define DIO73_PORT (ANALOG6_PORT)
+#define DIO73_BIT (ANALOG6_BIT)
+#define ANALOG6_OUTREG (__outreg__(ANALOG6_PORT))
+#define ANALOG6_INREG (__inreg__(ANALOG6_PORT))
+#define ANALOG6_DIRREG (__dirreg__(ANALOG6_PORT))
+#define DIO73_OUTREG (__outreg__(ANALOG6_PORT))
+#define DIO73_INREG (__inreg__(ANALOG6_PORT))
+#define DIO73_DIRREG (__dirreg__(ANALOG6_PORT))
 #endif</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG8
-#define ANALOG8_ADMUXREG (1&lt;&lt;8)
-#define DIO73_ADMUXREG (1&lt;&lt;8)
-#endif</v>
+      <c r="H76" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG8
-CLEARBIT(ANALOG8_DIRREG, ANALOG8_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG6
+CLEARBIT(ANALOG6_DIRREG, ANALOG6_BIT);
 #endif</v>
       </c>
       <c r="J76" s="3"/>
@@ -7451,39 +7723,35 @@
         <v>DIO74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
 #define DIO74 74
-#define ANALOG9 74
-#define DIO74_PORT (ANALOG9_PORT)
-#define DIO74_BIT (ANALOG9_BIT)
-#define ANALOG9_OUTREG (__outreg__(ANALOG9_PORT))
-#define ANALOG9_INREG (__inreg__(ANALOG9_PORT))
-#define ANALOG9_DIRREG (__dirreg__(ANALOG9_PORT))
-#define DIO74_OUTREG (__outreg__(ANALOG9_PORT))
-#define DIO74_INREG (__inreg__(ANALOG9_PORT))
-#define DIO74_DIRREG (__dirreg__(ANALOG9_PORT))
+#define ANALOG7 74
+#define DIO74_PORT (ANALOG7_PORT)
+#define DIO74_BIT (ANALOG7_BIT)
+#define ANALOG7_OUTREG (__outreg__(ANALOG7_PORT))
+#define ANALOG7_INREG (__inreg__(ANALOG7_PORT))
+#define ANALOG7_DIRREG (__dirreg__(ANALOG7_PORT))
+#define DIO74_OUTREG (__outreg__(ANALOG7_PORT))
+#define DIO74_INREG (__inreg__(ANALOG7_PORT))
+#define DIO74_DIRREG (__dirreg__(ANALOG7_PORT))
 #endif</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG9
-#define ANALOG9_ADMUXREG (1&lt;&lt;9)
-#define DIO74_ADMUXREG (1&lt;&lt;9)
-#endif</v>
+      <c r="H77" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG9
-CLEARBIT(ANALOG9_DIRREG, ANALOG9_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG7
+CLEARBIT(ANALOG7_DIRREG, ANALOG7_BIT);
 #endif</v>
       </c>
       <c r="J77" s="3"/>
@@ -7515,39 +7783,35 @@
         <v>DIO75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D78" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
 #define DIO75 75
-#define ANALOG10 75
-#define DIO75_PORT (ANALOG10_PORT)
-#define DIO75_BIT (ANALOG10_BIT)
-#define ANALOG10_OUTREG (__outreg__(ANALOG10_PORT))
-#define ANALOG10_INREG (__inreg__(ANALOG10_PORT))
-#define ANALOG10_DIRREG (__dirreg__(ANALOG10_PORT))
-#define DIO75_OUTREG (__outreg__(ANALOG10_PORT))
-#define DIO75_INREG (__inreg__(ANALOG10_PORT))
-#define DIO75_DIRREG (__dirreg__(ANALOG10_PORT))
+#define ANALOG8 75
+#define DIO75_PORT (ANALOG8_PORT)
+#define DIO75_BIT (ANALOG8_BIT)
+#define ANALOG8_OUTREG (__outreg__(ANALOG8_PORT))
+#define ANALOG8_INREG (__inreg__(ANALOG8_PORT))
+#define ANALOG8_DIRREG (__dirreg__(ANALOG8_PORT))
+#define DIO75_OUTREG (__outreg__(ANALOG8_PORT))
+#define DIO75_INREG (__inreg__(ANALOG8_PORT))
+#define DIO75_DIRREG (__dirreg__(ANALOG8_PORT))
 #endif</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG10
-#define ANALOG10_ADMUXREG (1&lt;&lt;10)
-#define DIO75_ADMUXREG (1&lt;&lt;10)
-#endif</v>
+      <c r="H78" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG10
-CLEARBIT(ANALOG10_DIRREG, ANALOG10_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG8
+CLEARBIT(ANALOG8_DIRREG, ANALOG8_BIT);
 #endif</v>
       </c>
       <c r="J78" s="3"/>
@@ -7579,39 +7843,35 @@
         <v>DIO76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
 #define DIO76 76
-#define ANALOG11 76
-#define DIO76_PORT (ANALOG11_PORT)
-#define DIO76_BIT (ANALOG11_BIT)
-#define ANALOG11_OUTREG (__outreg__(ANALOG11_PORT))
-#define ANALOG11_INREG (__inreg__(ANALOG11_PORT))
-#define ANALOG11_DIRREG (__dirreg__(ANALOG11_PORT))
-#define DIO76_OUTREG (__outreg__(ANALOG11_PORT))
-#define DIO76_INREG (__inreg__(ANALOG11_PORT))
-#define DIO76_DIRREG (__dirreg__(ANALOG11_PORT))
+#define ANALOG9 76
+#define DIO76_PORT (ANALOG9_PORT)
+#define DIO76_BIT (ANALOG9_BIT)
+#define ANALOG9_OUTREG (__outreg__(ANALOG9_PORT))
+#define ANALOG9_INREG (__inreg__(ANALOG9_PORT))
+#define ANALOG9_DIRREG (__dirreg__(ANALOG9_PORT))
+#define DIO76_OUTREG (__outreg__(ANALOG9_PORT))
+#define DIO76_INREG (__inreg__(ANALOG9_PORT))
+#define DIO76_DIRREG (__dirreg__(ANALOG9_PORT))
 #endif</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG11
-#define ANALOG11_ADMUXREG (1&lt;&lt;11)
-#define DIO76_ADMUXREG (1&lt;&lt;11)
-#endif</v>
+      <c r="H79" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="I79" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG11
-CLEARBIT(ANALOG11_DIRREG, ANALOG11_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG9
+CLEARBIT(ANALOG9_DIRREG, ANALOG9_BIT);
 #endif</v>
       </c>
       <c r="J79" s="3"/>
@@ -7643,39 +7903,35 @@
         <v>DIO77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D80" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
 #define DIO77 77
-#define ANALOG12 77
-#define DIO77_PORT (ANALOG12_PORT)
-#define DIO77_BIT (ANALOG12_BIT)
-#define ANALOG12_OUTREG (__outreg__(ANALOG12_PORT))
-#define ANALOG12_INREG (__inreg__(ANALOG12_PORT))
-#define ANALOG12_DIRREG (__dirreg__(ANALOG12_PORT))
-#define DIO77_OUTREG (__outreg__(ANALOG12_PORT))
-#define DIO77_INREG (__inreg__(ANALOG12_PORT))
-#define DIO77_DIRREG (__dirreg__(ANALOG12_PORT))
+#define ANALOG10 77
+#define DIO77_PORT (ANALOG10_PORT)
+#define DIO77_BIT (ANALOG10_BIT)
+#define ANALOG10_OUTREG (__outreg__(ANALOG10_PORT))
+#define ANALOG10_INREG (__inreg__(ANALOG10_PORT))
+#define ANALOG10_DIRREG (__dirreg__(ANALOG10_PORT))
+#define DIO77_OUTREG (__outreg__(ANALOG10_PORT))
+#define DIO77_INREG (__inreg__(ANALOG10_PORT))
+#define DIO77_DIRREG (__dirreg__(ANALOG10_PORT))
 #endif</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG12
-#define ANALOG12_ADMUXREG (1&lt;&lt;12)
-#define DIO77_ADMUXREG (1&lt;&lt;12)
-#endif</v>
+      <c r="H80" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="I80" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG12
-CLEARBIT(ANALOG12_DIRREG, ANALOG12_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG10
+CLEARBIT(ANALOG10_DIRREG, ANALOG10_BIT);
 #endif</v>
       </c>
       <c r="J80" s="3"/>
@@ -7707,39 +7963,35 @@
         <v>DIO78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D81" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
 #define DIO78 78
-#define ANALOG13 78
-#define DIO78_PORT (ANALOG13_PORT)
-#define DIO78_BIT (ANALOG13_BIT)
-#define ANALOG13_OUTREG (__outreg__(ANALOG13_PORT))
-#define ANALOG13_INREG (__inreg__(ANALOG13_PORT))
-#define ANALOG13_DIRREG (__dirreg__(ANALOG13_PORT))
-#define DIO78_OUTREG (__outreg__(ANALOG13_PORT))
-#define DIO78_INREG (__inreg__(ANALOG13_PORT))
-#define DIO78_DIRREG (__dirreg__(ANALOG13_PORT))
+#define ANALOG11 78
+#define DIO78_PORT (ANALOG11_PORT)
+#define DIO78_BIT (ANALOG11_BIT)
+#define ANALOG11_OUTREG (__outreg__(ANALOG11_PORT))
+#define ANALOG11_INREG (__inreg__(ANALOG11_PORT))
+#define ANALOG11_DIRREG (__dirreg__(ANALOG11_PORT))
+#define DIO78_OUTREG (__outreg__(ANALOG11_PORT))
+#define DIO78_INREG (__inreg__(ANALOG11_PORT))
+#define DIO78_DIRREG (__dirreg__(ANALOG11_PORT))
 #endif</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG13
-#define ANALOG13_ADMUXREG (1&lt;&lt;13)
-#define DIO78_ADMUXREG (1&lt;&lt;13)
-#endif</v>
+      <c r="H81" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="I81" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG13
-CLEARBIT(ANALOG13_DIRREG, ANALOG13_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG11
+CLEARBIT(ANALOG11_DIRREG, ANALOG11_BIT);
 #endif</v>
       </c>
       <c r="J81" s="3"/>
@@ -7771,39 +8023,35 @@
         <v>DIO79</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
 #define DIO79 79
-#define ANALOG14 79
-#define DIO79_PORT (ANALOG14_PORT)
-#define DIO79_BIT (ANALOG14_BIT)
-#define ANALOG14_OUTREG (__outreg__(ANALOG14_PORT))
-#define ANALOG14_INREG (__inreg__(ANALOG14_PORT))
-#define ANALOG14_DIRREG (__dirreg__(ANALOG14_PORT))
-#define DIO79_OUTREG (__outreg__(ANALOG14_PORT))
-#define DIO79_INREG (__inreg__(ANALOG14_PORT))
-#define DIO79_DIRREG (__dirreg__(ANALOG14_PORT))
+#define ANALOG12 79
+#define DIO79_PORT (ANALOG12_PORT)
+#define DIO79_BIT (ANALOG12_BIT)
+#define ANALOG12_OUTREG (__outreg__(ANALOG12_PORT))
+#define ANALOG12_INREG (__inreg__(ANALOG12_PORT))
+#define ANALOG12_DIRREG (__dirreg__(ANALOG12_PORT))
+#define DIO79_OUTREG (__outreg__(ANALOG12_PORT))
+#define DIO79_INREG (__inreg__(ANALOG12_PORT))
+#define DIO79_DIRREG (__dirreg__(ANALOG12_PORT))
 #endif</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG14
-#define ANALOG14_ADMUXREG (1&lt;&lt;14)
-#define DIO79_ADMUXREG (1&lt;&lt;14)
-#endif</v>
+      <c r="H82" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="I82" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG14
-CLEARBIT(ANALOG14_DIRREG, ANALOG14_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG12
+CLEARBIT(ANALOG12_DIRREG, ANALOG12_BIT);
 #endif</v>
       </c>
       <c r="J82" s="3"/>
@@ -7835,39 +8083,35 @@
         <v>DIO80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D83" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
 #define DIO80 80
-#define ANALOG15 80
-#define DIO80_PORT (ANALOG15_PORT)
-#define DIO80_BIT (ANALOG15_BIT)
-#define ANALOG15_OUTREG (__outreg__(ANALOG15_PORT))
-#define ANALOG15_INREG (__inreg__(ANALOG15_PORT))
-#define ANALOG15_DIRREG (__dirreg__(ANALOG15_PORT))
-#define DIO80_OUTREG (__outreg__(ANALOG15_PORT))
-#define DIO80_INREG (__inreg__(ANALOG15_PORT))
-#define DIO80_DIRREG (__dirreg__(ANALOG15_PORT))
+#define ANALOG13 80
+#define DIO80_PORT (ANALOG13_PORT)
+#define DIO80_BIT (ANALOG13_BIT)
+#define ANALOG13_OUTREG (__outreg__(ANALOG13_PORT))
+#define ANALOG13_INREG (__inreg__(ANALOG13_PORT))
+#define ANALOG13_DIRREG (__dirreg__(ANALOG13_PORT))
+#define DIO80_OUTREG (__outreg__(ANALOG13_PORT))
+#define DIO80_INREG (__inreg__(ANALOG13_PORT))
+#define DIO80_DIRREG (__dirreg__(ANALOG13_PORT))
 #endif</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG15
-#define ANALOG15_ADMUXREG (1&lt;&lt;15)
-#define DIO80_ADMUXREG (1&lt;&lt;15)
-#endif</v>
+      <c r="H83" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="I83" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef ANALOG15
-CLEARBIT(ANALOG15_DIRREG, ANALOG15_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG13
+CLEARBIT(ANALOG13_DIRREG, ANALOG13_BIT);
 #endif</v>
       </c>
       <c r="J83" s="3"/>
@@ -7899,33 +8143,35 @@
         <v>DIO81</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(RX_PORT) &amp;&amp; defined(RX_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
 #define DIO81 81
-#define RX 81
-#define DIO81_PORT (RX_PORT)
-#define DIO81_BIT (RX_BIT)
-#define RX_OUTREG (__outreg__(RX_PORT))
-#define RX_INREG (__inreg__(RX_PORT))
-#define RX_DIRREG (__dirreg__(RX_PORT))
-#define DIO81_OUTREG (__outreg__(RX_PORT))
-#define DIO81_INREG (__inreg__(RX_PORT))
-#define DIO81_DIRREG (__dirreg__(RX_PORT))
+#define ANALOG14 81
+#define DIO81_PORT (ANALOG14_PORT)
+#define DIO81_BIT (ANALOG14_BIT)
+#define ANALOG14_OUTREG (__outreg__(ANALOG14_PORT))
+#define ANALOG14_INREG (__inreg__(ANALOG14_PORT))
+#define ANALOG14_DIRREG (__dirreg__(ANALOG14_PORT))
+#define DIO81_OUTREG (__outreg__(ANALOG14_PORT))
+#define DIO81_INREG (__inreg__(ANALOG14_PORT))
+#define DIO81_DIRREG (__dirreg__(ANALOG14_PORT))
 #endif</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="I84" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef RX
-CLEARBIT(RX_DIRREG, RX_BIT);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG14
+CLEARBIT(ANALOG14_DIRREG, ANALOG14_BIT);
 #endif</v>
       </c>
       <c r="J84" s="3"/>
@@ -7956,42 +8202,36 @@
         <f t="shared" si="0"/>
         <v>DIO82</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="7">
-        <v>0</v>
+      <c r="C85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="3">
+        <v>15</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
 #define DIO82 82
-#define DIN0 82
-#define DIO82_PORT (DIN0_PORT)
-#define DIO82_BIT (DIN0_BIT)
-#define DIN0_OUTREG (__outreg__(DIN0_PORT))
-#define DIN0_INREG (__inreg__(DIN0_PORT))
-#define DIN0_DIRREG (__dirreg__(DIN0_PORT))
-#define DIO82_OUTREG (__outreg__(DIN0_PORT))
-#define DIO82_INREG (__inreg__(DIN0_PORT))
-#define DIO82_DIRREG (__dirreg__(DIN0_PORT))
+#define ANALOG15 82
+#define DIO82_PORT (ANALOG15_PORT)
+#define DIO82_BIT (ANALOG15_BIT)
+#define ANALOG15_OUTREG (__outreg__(ANALOG15_PORT))
+#define ANALOG15_INREG (__inreg__(ANALOG15_PORT))
+#define ANALOG15_DIRREG (__dirreg__(ANALOG15_PORT))
+#define DIO82_OUTREG (__outreg__(ANALOG15_PORT))
+#define DIO82_INREG (__inreg__(ANALOG15_PORT))
+#define DIO82_DIRREG (__dirreg__(ANALOG15_PORT))
 #endif</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="H85" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="I85" s="3" t="str">
-        <f t="shared" ref="I85:I100" si="13">"#ifdef "&amp;C85&amp;"
-CLEARBIT("&amp;C85&amp;"_DIRREG, "&amp;C85&amp;"_BIT);
-#ifdef "&amp;C85&amp;"_PULLUP
-SETBIT("&amp;C85&amp;"_PORTREG, "&amp;C85&amp;"_BIT);
-#endif
-#endif"</f>
-        <v>#ifdef DIN0
-CLEARBIT(DIN0_DIRREG, DIN0_BIT);
-#ifdef DIN0_PULLUP
-SETBIT(DIN0_PORTREG, DIN0_BIT);
-#endif
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG15
+CLEARBIT(ANALOG15_DIRREG, ANALOG15_BIT);
 #endif</v>
       </c>
       <c r="J85" s="3"/>
@@ -8022,37 +8262,34 @@
         <f t="shared" si="0"/>
         <v>DIO83</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="7">
-        <v>1</v>
+      <c r="C86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(RX_PORT) &amp;&amp; defined(RX_BIT))
 #define DIO83 83
-#define DIN1 83
-#define DIO83_PORT (DIN1_PORT)
-#define DIO83_BIT (DIN1_BIT)
-#define DIN1_OUTREG (__outreg__(DIN1_PORT))
-#define DIN1_INREG (__inreg__(DIN1_PORT))
-#define DIN1_DIRREG (__dirreg__(DIN1_PORT))
-#define DIO83_OUTREG (__outreg__(DIN1_PORT))
-#define DIO83_INREG (__inreg__(DIN1_PORT))
-#define DIO83_DIRREG (__dirreg__(DIN1_PORT))
+#define RX 83
+#define DIO83_PORT (RX_PORT)
+#define DIO83_BIT (RX_BIT)
+#define RX_OUTREG (__outreg__(RX_PORT))
+#define RX_INREG (__inreg__(RX_PORT))
+#define RX_DIRREG (__dirreg__(RX_PORT))
+#define DIO83_OUTREG (__outreg__(RX_PORT))
+#define DIO83_INREG (__inreg__(RX_PORT))
+#define DIO83_DIRREG (__dirreg__(RX_PORT))
 #endif</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef DIN1
-CLEARBIT(DIN1_DIRREG, DIN1_BIT);
-#ifdef DIN1_PULLUP
-SETBIT(DIN1_PORTREG, DIN1_BIT);
-#endif
+        <v>#ifdef RX
+CLEARBIT(RX_DIRREG, RX_BIT);
 #endif</v>
       </c>
       <c r="J86" s="3"/>
@@ -8084,35 +8321,40 @@
         <v>DIO84</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D87" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
 #define DIO84 84
-#define DIN2 84
-#define DIO84_PORT (DIN2_PORT)
-#define DIO84_BIT (DIN2_BIT)
-#define DIN2_OUTREG (__outreg__(DIN2_PORT))
-#define DIN2_INREG (__inreg__(DIN2_PORT))
-#define DIN2_DIRREG (__dirreg__(DIN2_PORT))
-#define DIO84_OUTREG (__outreg__(DIN2_PORT))
-#define DIO84_INREG (__inreg__(DIN2_PORT))
-#define DIO84_DIRREG (__dirreg__(DIN2_PORT))
+#define DIN0 84
+#define DIO84_PORT (DIN0_PORT)
+#define DIO84_BIT (DIN0_BIT)
+#define DIN0_OUTREG (__outreg__(DIN0_PORT))
+#define DIN0_INREG (__inreg__(DIN0_PORT))
+#define DIN0_DIRREG (__dirreg__(DIN0_PORT))
+#define DIO84_OUTREG (__outreg__(DIN0_PORT))
+#define DIO84_INREG (__inreg__(DIN0_PORT))
+#define DIO84_DIRREG (__dirreg__(DIN0_PORT))
 #endif</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN2
-CLEARBIT(DIN2_DIRREG, DIN2_BIT);
-#ifdef DIN2_PULLUP
-SETBIT(DIN2_PORTREG, DIN2_BIT);
+        <f t="shared" ref="I87:I102" si="14">"#ifdef "&amp;C87&amp;"
+CLEARBIT("&amp;C87&amp;"_DIRREG, "&amp;C87&amp;"_BIT);
+#ifdef "&amp;C87&amp;"_PULLUP
+SETBIT("&amp;C87&amp;"_PORTREG, "&amp;C87&amp;"_BIT);
+#endif
+#endif"</f>
+        <v>#ifdef DIN0
+CLEARBIT(DIN0_DIRREG, DIN0_BIT);
+#ifdef DIN0_PULLUP
+SETBIT(DIN0_PORTREG, DIN0_BIT);
 #endif
 #endif</v>
       </c>
@@ -8145,35 +8387,35 @@
         <v>DIO85</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D88" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
 #define DIO85 85
-#define DIN3 85
-#define DIO85_PORT (DIN3_PORT)
-#define DIO85_BIT (DIN3_BIT)
-#define DIN3_OUTREG (__outreg__(DIN3_PORT))
-#define DIN3_INREG (__inreg__(DIN3_PORT))
-#define DIN3_DIRREG (__dirreg__(DIN3_PORT))
-#define DIO85_OUTREG (__outreg__(DIN3_PORT))
-#define DIO85_INREG (__inreg__(DIN3_PORT))
-#define DIO85_DIRREG (__dirreg__(DIN3_PORT))
+#define DIN1 85
+#define DIO85_PORT (DIN1_PORT)
+#define DIO85_BIT (DIN1_BIT)
+#define DIN1_OUTREG (__outreg__(DIN1_PORT))
+#define DIN1_INREG (__inreg__(DIN1_PORT))
+#define DIN1_DIRREG (__dirreg__(DIN1_PORT))
+#define DIO85_OUTREG (__outreg__(DIN1_PORT))
+#define DIO85_INREG (__inreg__(DIN1_PORT))
+#define DIO85_DIRREG (__dirreg__(DIN1_PORT))
 #endif</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN3
-CLEARBIT(DIN3_DIRREG, DIN3_BIT);
-#ifdef DIN3_PULLUP
-SETBIT(DIN3_PORTREG, DIN3_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN1
+CLEARBIT(DIN1_DIRREG, DIN1_BIT);
+#ifdef DIN1_PULLUP
+SETBIT(DIN1_PORTREG, DIN1_BIT);
 #endif
 #endif</v>
       </c>
@@ -8206,35 +8448,35 @@
         <v>DIO86</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D89" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
 #define DIO86 86
-#define DIN4 86
-#define DIO86_PORT (DIN4_PORT)
-#define DIO86_BIT (DIN4_BIT)
-#define DIN4_OUTREG (__outreg__(DIN4_PORT))
-#define DIN4_INREG (__inreg__(DIN4_PORT))
-#define DIN4_DIRREG (__dirreg__(DIN4_PORT))
-#define DIO86_OUTREG (__outreg__(DIN4_PORT))
-#define DIO86_INREG (__inreg__(DIN4_PORT))
-#define DIO86_DIRREG (__dirreg__(DIN4_PORT))
+#define DIN2 86
+#define DIO86_PORT (DIN2_PORT)
+#define DIO86_BIT (DIN2_BIT)
+#define DIN2_OUTREG (__outreg__(DIN2_PORT))
+#define DIN2_INREG (__inreg__(DIN2_PORT))
+#define DIN2_DIRREG (__dirreg__(DIN2_PORT))
+#define DIO86_OUTREG (__outreg__(DIN2_PORT))
+#define DIO86_INREG (__inreg__(DIN2_PORT))
+#define DIO86_DIRREG (__dirreg__(DIN2_PORT))
 #endif</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN4
-CLEARBIT(DIN4_DIRREG, DIN4_BIT);
-#ifdef DIN4_PULLUP
-SETBIT(DIN4_PORTREG, DIN4_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN2
+CLEARBIT(DIN2_DIRREG, DIN2_BIT);
+#ifdef DIN2_PULLUP
+SETBIT(DIN2_PORTREG, DIN2_BIT);
 #endif
 #endif</v>
       </c>
@@ -8267,35 +8509,35 @@
         <v>DIO87</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D90" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
 #define DIO87 87
-#define DIN5 87
-#define DIO87_PORT (DIN5_PORT)
-#define DIO87_BIT (DIN5_BIT)
-#define DIN5_OUTREG (__outreg__(DIN5_PORT))
-#define DIN5_INREG (__inreg__(DIN5_PORT))
-#define DIN5_DIRREG (__dirreg__(DIN5_PORT))
-#define DIO87_OUTREG (__outreg__(DIN5_PORT))
-#define DIO87_INREG (__inreg__(DIN5_PORT))
-#define DIO87_DIRREG (__dirreg__(DIN5_PORT))
+#define DIN3 87
+#define DIO87_PORT (DIN3_PORT)
+#define DIO87_BIT (DIN3_BIT)
+#define DIN3_OUTREG (__outreg__(DIN3_PORT))
+#define DIN3_INREG (__inreg__(DIN3_PORT))
+#define DIN3_DIRREG (__dirreg__(DIN3_PORT))
+#define DIO87_OUTREG (__outreg__(DIN3_PORT))
+#define DIO87_INREG (__inreg__(DIN3_PORT))
+#define DIO87_DIRREG (__dirreg__(DIN3_PORT))
 #endif</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN5
-CLEARBIT(DIN5_DIRREG, DIN5_BIT);
-#ifdef DIN5_PULLUP
-SETBIT(DIN5_PORTREG, DIN5_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN3
+CLEARBIT(DIN3_DIRREG, DIN3_BIT);
+#ifdef DIN3_PULLUP
+SETBIT(DIN3_PORTREG, DIN3_BIT);
 #endif
 #endif</v>
       </c>
@@ -8328,35 +8570,35 @@
         <v>DIO88</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D91" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
 #define DIO88 88
-#define DIN6 88
-#define DIO88_PORT (DIN6_PORT)
-#define DIO88_BIT (DIN6_BIT)
-#define DIN6_OUTREG (__outreg__(DIN6_PORT))
-#define DIN6_INREG (__inreg__(DIN6_PORT))
-#define DIN6_DIRREG (__dirreg__(DIN6_PORT))
-#define DIO88_OUTREG (__outreg__(DIN6_PORT))
-#define DIO88_INREG (__inreg__(DIN6_PORT))
-#define DIO88_DIRREG (__dirreg__(DIN6_PORT))
+#define DIN4 88
+#define DIO88_PORT (DIN4_PORT)
+#define DIO88_BIT (DIN4_BIT)
+#define DIN4_OUTREG (__outreg__(DIN4_PORT))
+#define DIN4_INREG (__inreg__(DIN4_PORT))
+#define DIN4_DIRREG (__dirreg__(DIN4_PORT))
+#define DIO88_OUTREG (__outreg__(DIN4_PORT))
+#define DIO88_INREG (__inreg__(DIN4_PORT))
+#define DIO88_DIRREG (__dirreg__(DIN4_PORT))
 #endif</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN6
-CLEARBIT(DIN6_DIRREG, DIN6_BIT);
-#ifdef DIN6_PULLUP
-SETBIT(DIN6_PORTREG, DIN6_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN4
+CLEARBIT(DIN4_DIRREG, DIN4_BIT);
+#ifdef DIN4_PULLUP
+SETBIT(DIN4_PORTREG, DIN4_BIT);
 #endif
 #endif</v>
       </c>
@@ -8389,35 +8631,35 @@
         <v>DIO89</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D92" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
 #define DIO89 89
-#define DIN7 89
-#define DIO89_PORT (DIN7_PORT)
-#define DIO89_BIT (DIN7_BIT)
-#define DIN7_OUTREG (__outreg__(DIN7_PORT))
-#define DIN7_INREG (__inreg__(DIN7_PORT))
-#define DIN7_DIRREG (__dirreg__(DIN7_PORT))
-#define DIO89_OUTREG (__outreg__(DIN7_PORT))
-#define DIO89_INREG (__inreg__(DIN7_PORT))
-#define DIO89_DIRREG (__dirreg__(DIN7_PORT))
+#define DIN5 89
+#define DIO89_PORT (DIN5_PORT)
+#define DIO89_BIT (DIN5_BIT)
+#define DIN5_OUTREG (__outreg__(DIN5_PORT))
+#define DIN5_INREG (__inreg__(DIN5_PORT))
+#define DIN5_DIRREG (__dirreg__(DIN5_PORT))
+#define DIO89_OUTREG (__outreg__(DIN5_PORT))
+#define DIO89_INREG (__inreg__(DIN5_PORT))
+#define DIO89_DIRREG (__dirreg__(DIN5_PORT))
 #endif</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN7
-CLEARBIT(DIN7_DIRREG, DIN7_BIT);
-#ifdef DIN7_PULLUP
-SETBIT(DIN7_PORTREG, DIN7_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN5
+CLEARBIT(DIN5_DIRREG, DIN5_BIT);
+#ifdef DIN5_PULLUP
+SETBIT(DIN5_PORTREG, DIN5_BIT);
 #endif
 #endif</v>
       </c>
@@ -8450,35 +8692,35 @@
         <v>DIO90</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D93" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
 #define DIO90 90
-#define DIN8 90
-#define DIO90_PORT (DIN8_PORT)
-#define DIO90_BIT (DIN8_BIT)
-#define DIN8_OUTREG (__outreg__(DIN8_PORT))
-#define DIN8_INREG (__inreg__(DIN8_PORT))
-#define DIN8_DIRREG (__dirreg__(DIN8_PORT))
-#define DIO90_OUTREG (__outreg__(DIN8_PORT))
-#define DIO90_INREG (__inreg__(DIN8_PORT))
-#define DIO90_DIRREG (__dirreg__(DIN8_PORT))
+#define DIN6 90
+#define DIO90_PORT (DIN6_PORT)
+#define DIO90_BIT (DIN6_BIT)
+#define DIN6_OUTREG (__outreg__(DIN6_PORT))
+#define DIN6_INREG (__inreg__(DIN6_PORT))
+#define DIN6_DIRREG (__dirreg__(DIN6_PORT))
+#define DIO90_OUTREG (__outreg__(DIN6_PORT))
+#define DIO90_INREG (__inreg__(DIN6_PORT))
+#define DIO90_DIRREG (__dirreg__(DIN6_PORT))
 #endif</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN8
-CLEARBIT(DIN8_DIRREG, DIN8_BIT);
-#ifdef DIN8_PULLUP
-SETBIT(DIN8_PORTREG, DIN8_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN6
+CLEARBIT(DIN6_DIRREG, DIN6_BIT);
+#ifdef DIN6_PULLUP
+SETBIT(DIN6_PORTREG, DIN6_BIT);
 #endif
 #endif</v>
       </c>
@@ -8511,35 +8753,35 @@
         <v>DIO91</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D94" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E94" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
 #define DIO91 91
-#define DIN9 91
-#define DIO91_PORT (DIN9_PORT)
-#define DIO91_BIT (DIN9_BIT)
-#define DIN9_OUTREG (__outreg__(DIN9_PORT))
-#define DIN9_INREG (__inreg__(DIN9_PORT))
-#define DIN9_DIRREG (__dirreg__(DIN9_PORT))
-#define DIO91_OUTREG (__outreg__(DIN9_PORT))
-#define DIO91_INREG (__inreg__(DIN9_PORT))
-#define DIO91_DIRREG (__dirreg__(DIN9_PORT))
+#define DIN7 91
+#define DIO91_PORT (DIN7_PORT)
+#define DIO91_BIT (DIN7_BIT)
+#define DIN7_OUTREG (__outreg__(DIN7_PORT))
+#define DIN7_INREG (__inreg__(DIN7_PORT))
+#define DIN7_DIRREG (__dirreg__(DIN7_PORT))
+#define DIO91_OUTREG (__outreg__(DIN7_PORT))
+#define DIO91_INREG (__inreg__(DIN7_PORT))
+#define DIO91_DIRREG (__dirreg__(DIN7_PORT))
 #endif</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN9
-CLEARBIT(DIN9_DIRREG, DIN9_BIT);
-#ifdef DIN9_PULLUP
-SETBIT(DIN9_PORTREG, DIN9_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN7
+CLEARBIT(DIN7_DIRREG, DIN7_BIT);
+#ifdef DIN7_PULLUP
+SETBIT(DIN7_PORTREG, DIN7_BIT);
 #endif
 #endif</v>
       </c>
@@ -8572,35 +8814,35 @@
         <v>DIO92</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D95" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E95" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
 #define DIO92 92
-#define DIN10 92
-#define DIO92_PORT (DIN10_PORT)
-#define DIO92_BIT (DIN10_BIT)
-#define DIN10_OUTREG (__outreg__(DIN10_PORT))
-#define DIN10_INREG (__inreg__(DIN10_PORT))
-#define DIN10_DIRREG (__dirreg__(DIN10_PORT))
-#define DIO92_OUTREG (__outreg__(DIN10_PORT))
-#define DIO92_INREG (__inreg__(DIN10_PORT))
-#define DIO92_DIRREG (__dirreg__(DIN10_PORT))
+#define DIN8 92
+#define DIO92_PORT (DIN8_PORT)
+#define DIO92_BIT (DIN8_BIT)
+#define DIN8_OUTREG (__outreg__(DIN8_PORT))
+#define DIN8_INREG (__inreg__(DIN8_PORT))
+#define DIN8_DIRREG (__dirreg__(DIN8_PORT))
+#define DIO92_OUTREG (__outreg__(DIN8_PORT))
+#define DIO92_INREG (__inreg__(DIN8_PORT))
+#define DIO92_DIRREG (__dirreg__(DIN8_PORT))
 #endif</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN10
-CLEARBIT(DIN10_DIRREG, DIN10_BIT);
-#ifdef DIN10_PULLUP
-SETBIT(DIN10_PORTREG, DIN10_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN8
+CLEARBIT(DIN8_DIRREG, DIN8_BIT);
+#ifdef DIN8_PULLUP
+SETBIT(DIN8_PORTREG, DIN8_BIT);
 #endif
 #endif</v>
       </c>
@@ -8633,35 +8875,35 @@
         <v>DIO93</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D96" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E96" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
 #define DIO93 93
-#define DIN11 93
-#define DIO93_PORT (DIN11_PORT)
-#define DIO93_BIT (DIN11_BIT)
-#define DIN11_OUTREG (__outreg__(DIN11_PORT))
-#define DIN11_INREG (__inreg__(DIN11_PORT))
-#define DIN11_DIRREG (__dirreg__(DIN11_PORT))
-#define DIO93_OUTREG (__outreg__(DIN11_PORT))
-#define DIO93_INREG (__inreg__(DIN11_PORT))
-#define DIO93_DIRREG (__dirreg__(DIN11_PORT))
+#define DIN9 93
+#define DIO93_PORT (DIN9_PORT)
+#define DIO93_BIT (DIN9_BIT)
+#define DIN9_OUTREG (__outreg__(DIN9_PORT))
+#define DIN9_INREG (__inreg__(DIN9_PORT))
+#define DIN9_DIRREG (__dirreg__(DIN9_PORT))
+#define DIO93_OUTREG (__outreg__(DIN9_PORT))
+#define DIO93_INREG (__inreg__(DIN9_PORT))
+#define DIO93_DIRREG (__dirreg__(DIN9_PORT))
 #endif</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN11
-CLEARBIT(DIN11_DIRREG, DIN11_BIT);
-#ifdef DIN11_PULLUP
-SETBIT(DIN11_PORTREG, DIN11_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN9
+CLEARBIT(DIN9_DIRREG, DIN9_BIT);
+#ifdef DIN9_PULLUP
+SETBIT(DIN9_PORTREG, DIN9_BIT);
 #endif
 #endif</v>
       </c>
@@ -8694,35 +8936,35 @@
         <v>DIO94</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D97" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E97" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
 #define DIO94 94
-#define DIN12 94
-#define DIO94_PORT (DIN12_PORT)
-#define DIO94_BIT (DIN12_BIT)
-#define DIN12_OUTREG (__outreg__(DIN12_PORT))
-#define DIN12_INREG (__inreg__(DIN12_PORT))
-#define DIN12_DIRREG (__dirreg__(DIN12_PORT))
-#define DIO94_OUTREG (__outreg__(DIN12_PORT))
-#define DIO94_INREG (__inreg__(DIN12_PORT))
-#define DIO94_DIRREG (__dirreg__(DIN12_PORT))
+#define DIN10 94
+#define DIO94_PORT (DIN10_PORT)
+#define DIO94_BIT (DIN10_BIT)
+#define DIN10_OUTREG (__outreg__(DIN10_PORT))
+#define DIN10_INREG (__inreg__(DIN10_PORT))
+#define DIN10_DIRREG (__dirreg__(DIN10_PORT))
+#define DIO94_OUTREG (__outreg__(DIN10_PORT))
+#define DIO94_INREG (__inreg__(DIN10_PORT))
+#define DIO94_DIRREG (__dirreg__(DIN10_PORT))
 #endif</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN12
-CLEARBIT(DIN12_DIRREG, DIN12_BIT);
-#ifdef DIN12_PULLUP
-SETBIT(DIN12_PORTREG, DIN12_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN10
+CLEARBIT(DIN10_DIRREG, DIN10_BIT);
+#ifdef DIN10_PULLUP
+SETBIT(DIN10_PORTREG, DIN10_BIT);
 #endif
 #endif</v>
       </c>
@@ -8755,35 +8997,35 @@
         <v>DIO95</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D98" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E98" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
 #define DIO95 95
-#define DIN13 95
-#define DIO95_PORT (DIN13_PORT)
-#define DIO95_BIT (DIN13_BIT)
-#define DIN13_OUTREG (__outreg__(DIN13_PORT))
-#define DIN13_INREG (__inreg__(DIN13_PORT))
-#define DIN13_DIRREG (__dirreg__(DIN13_PORT))
-#define DIO95_OUTREG (__outreg__(DIN13_PORT))
-#define DIO95_INREG (__inreg__(DIN13_PORT))
-#define DIO95_DIRREG (__dirreg__(DIN13_PORT))
+#define DIN11 95
+#define DIO95_PORT (DIN11_PORT)
+#define DIO95_BIT (DIN11_BIT)
+#define DIN11_OUTREG (__outreg__(DIN11_PORT))
+#define DIN11_INREG (__inreg__(DIN11_PORT))
+#define DIN11_DIRREG (__dirreg__(DIN11_PORT))
+#define DIO95_OUTREG (__outreg__(DIN11_PORT))
+#define DIO95_INREG (__inreg__(DIN11_PORT))
+#define DIO95_DIRREG (__dirreg__(DIN11_PORT))
 #endif</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN13
-CLEARBIT(DIN13_DIRREG, DIN13_BIT);
-#ifdef DIN13_PULLUP
-SETBIT(DIN13_PORTREG, DIN13_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN11
+CLEARBIT(DIN11_DIRREG, DIN11_BIT);
+#ifdef DIN11_PULLUP
+SETBIT(DIN11_PORTREG, DIN11_BIT);
 #endif
 #endif</v>
       </c>
@@ -8816,35 +9058,35 @@
         <v>DIO96</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D99" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E99" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
 #define DIO96 96
-#define DIN14 96
-#define DIO96_PORT (DIN14_PORT)
-#define DIO96_BIT (DIN14_BIT)
-#define DIN14_OUTREG (__outreg__(DIN14_PORT))
-#define DIN14_INREG (__inreg__(DIN14_PORT))
-#define DIN14_DIRREG (__dirreg__(DIN14_PORT))
-#define DIO96_OUTREG (__outreg__(DIN14_PORT))
-#define DIO96_INREG (__inreg__(DIN14_PORT))
-#define DIO96_DIRREG (__dirreg__(DIN14_PORT))
+#define DIN12 96
+#define DIO96_PORT (DIN12_PORT)
+#define DIO96_BIT (DIN12_BIT)
+#define DIN12_OUTREG (__outreg__(DIN12_PORT))
+#define DIN12_INREG (__inreg__(DIN12_PORT))
+#define DIN12_DIRREG (__dirreg__(DIN12_PORT))
+#define DIO96_OUTREG (__outreg__(DIN12_PORT))
+#define DIO96_INREG (__inreg__(DIN12_PORT))
+#define DIO96_DIRREG (__dirreg__(DIN12_PORT))
 #endif</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN14
-CLEARBIT(DIN14_DIRREG, DIN14_BIT);
-#ifdef DIN14_PULLUP
-SETBIT(DIN14_PORTREG, DIN14_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN12
+CLEARBIT(DIN12_DIRREG, DIN12_BIT);
+#ifdef DIN12_PULLUP
+SETBIT(DIN12_PORTREG, DIN12_BIT);
 #endif
 #endif</v>
       </c>
@@ -8868,7 +9110,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="1:28" s="4" customFormat="1" ht="225.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -8877,35 +9119,35 @@
         <v>DIO97</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#if(defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
 #define DIO97 97
-#define DIN15 97
-#define DIO97_PORT (DIN15_PORT)
-#define DIO97_BIT (DIN15_BIT)
-#define DIN15_OUTREG (__outreg__(DIN15_PORT))
-#define DIN15_INREG (__inreg__(DIN15_PORT))
-#define DIN15_DIRREG (__dirreg__(DIN15_PORT))
-#define DIO97_OUTREG (__outreg__(DIN15_PORT))
-#define DIO97_INREG (__inreg__(DIN15_PORT))
-#define DIO97_DIRREG (__dirreg__(DIN15_PORT))
+#define DIN13 97
+#define DIO97_PORT (DIN13_PORT)
+#define DIO97_BIT (DIN13_BIT)
+#define DIN13_OUTREG (__outreg__(DIN13_PORT))
+#define DIN13_INREG (__inreg__(DIN13_PORT))
+#define DIN13_DIRREG (__dirreg__(DIN13_PORT))
+#define DIO97_OUTREG (__outreg__(DIN13_PORT))
+#define DIO97_INREG (__inreg__(DIN13_PORT))
+#define DIO97_DIRREG (__dirreg__(DIN13_PORT))
 #endif</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef DIN15
-CLEARBIT(DIN15_DIRREG, DIN15_BIT);
-#ifdef DIN15_PULLUP
-SETBIT(DIN15_PORTREG, DIN15_BIT);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN13
+CLEARBIT(DIN13_DIRREG, DIN13_BIT);
+#ifdef DIN13_PULLUP
+SETBIT(DIN13_PORTREG, DIN13_BIT);
 #endif
 #endif</v>
       </c>
@@ -8929,65 +9171,127 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-    </row>
-    <row r="102" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
+    <row r="101" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO98</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" s="7">
+        <v>14</v>
+      </c>
+      <c r="E101" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
+#define DIO98 98
+#define DIN14 98
+#define DIO98_PORT (DIN14_PORT)
+#define DIO98_BIT (DIN14_BIT)
+#define DIN14_OUTREG (__outreg__(DIN14_PORT))
+#define DIN14_INREG (__inreg__(DIN14_PORT))
+#define DIN14_DIRREG (__dirreg__(DIN14_PORT))
+#define DIO98_OUTREG (__outreg__(DIN14_PORT))
+#define DIO98_INREG (__inreg__(DIN14_PORT))
+#define DIO98_DIRREG (__dirreg__(DIN14_PORT))
+#endif</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN14
+CLEARBIT(DIN14_DIRREG, DIN14_BIT);
+#ifdef DIN14_PULLUP
+SETBIT(DIN14_PORTREG, DIN14_BIT);
+#endif
+#endif</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+    </row>
+    <row r="102" spans="1:28" s="4" customFormat="1" ht="225.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO99</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="7">
+        <v>15</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>#if(defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
+#define DIO99 99
+#define DIN15 99
+#define DIO99_PORT (DIN15_PORT)
+#define DIO99_BIT (DIN15_BIT)
+#define DIN15_OUTREG (__outreg__(DIN15_PORT))
+#define DIN15_INREG (__inreg__(DIN15_PORT))
+#define DIN15_DIRREG (__dirreg__(DIN15_PORT))
+#define DIO99_OUTREG (__outreg__(DIN15_PORT))
+#define DIO99_INREG (__inreg__(DIN15_PORT))
+#define DIO99_DIRREG (__dirreg__(DIN15_PORT))
+#endif</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN15
+CLEARBIT(DIN15_DIRREG, DIN15_BIT);
+#ifdef DIN15_PULLUP
+SETBIT(DIN15_PORTREG, DIN15_BIT);
+#endif
+#endif</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
     </row>
     <row r="103" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -35959,12 +36263,73 @@
       <c r="AA1001" s="1"/>
       <c r="AB1001" s="1"/>
     </row>
+    <row r="1002" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+      <c r="AA1003" s="1"/>
+      <c r="AB1003" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/docs/avr_mcumap_gen.xlsx
+++ b/docs/avr_mcumap_gen.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uCNC-1.1.x\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7098BA7-8150-4B02-8ACD-AD787043EF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2EAB0-290E-47B4-9E0D-716B6CD5B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
   <si>
     <t>Names</t>
   </si>
@@ -61,24 +53,6 @@
   </si>
   <si>
     <t>STEP5</t>
-  </si>
-  <si>
-    <t>STEP0_EN</t>
-  </si>
-  <si>
-    <t>STEP1_EN</t>
-  </si>
-  <si>
-    <t>STEP2_EN</t>
-  </si>
-  <si>
-    <t>STEP3_EN</t>
-  </si>
-  <si>
-    <t>STEP4_EN</t>
-  </si>
-  <si>
-    <t>STEP5_EN</t>
   </si>
   <si>
     <t>DIR0</t>
@@ -372,6 +346,9 @@
 #define PWMENMASKC 0x08
 #define pwmenmask(x) PWMENMASK##x
 #define __pwmenmask__(x) pwmenmask(x)</t>
+  </si>
+  <si>
+    <t>STEPPER_ENABLE</t>
   </si>
 </sst>
 </file>
@@ -771,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1003"/>
+  <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70:H85"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -783,6 +760,7 @@
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,13 +806,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
@@ -866,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B102" si="0">"DIO"&amp;A3</f>
+        <f t="shared" ref="B3:B97" si="0">"DIO"&amp;A3</f>
         <v>DIO0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -916,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
@@ -982,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E69" si="1">"#if(defined("&amp;C4&amp;"_PORT) &amp;&amp; defined("&amp;C4&amp;"_BIT))
+        <f t="shared" ref="E4:E64" si="1">"#if(defined("&amp;C4&amp;"_PORT) &amp;&amp; defined("&amp;C4&amp;"_BIT))
 #define "&amp;B4&amp;" "&amp;A4&amp;"
 #define "&amp;C4&amp;" "&amp;A4&amp;"
 #define "&amp;B4&amp;"_PORT ("&amp;C4&amp;"_PORT)
@@ -1011,7 +989,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I55" si="2">"#ifdef "&amp;C4&amp;"
+        <f t="shared" ref="I4:I50" si="2">"#ifdef "&amp;C4&amp;"
 mcu_config_ouput("&amp;C4&amp;");
 #endif"</f>
         <v>#ifdef STEP1
@@ -1022,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
@@ -1115,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L5" s="3">
         <v>16</v>
@@ -1195,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L6" s="3">
         <v>64</v>
@@ -1275,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1355,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L8" s="3">
         <v>4</v>
@@ -1402,7 +1380,7 @@
         <v>DIO6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
@@ -1435,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L9" s="3">
         <v>16</v>
@@ -1495,7 +1473,7 @@
         <v>DIO7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
@@ -1528,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L10" s="3">
         <v>64</v>
@@ -1588,24 +1566,24 @@
         <v>DIO8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(STEP0_EN_PORT) &amp;&amp; defined(STEP0_EN_BIT))
+        <v>#if(defined(STEPPER_ENABLE_PORT) &amp;&amp; defined(STEPPER_ENABLE_BIT))
 #define DIO8 8
-#define STEP0_EN 8
-#define DIO8_PORT (STEP0_EN_PORT)
-#define DIO8_BIT (STEP0_EN_BIT)
-#define STEP0_EN_OUTREG (__outreg__(STEP0_EN_PORT))
-#define STEP0_EN_INREG (__inreg__(STEP0_EN_PORT))
-#define STEP0_EN_DIRREG (__dirreg__(STEP0_EN_PORT))
-#define DIO8_OUTREG (__outreg__(STEP0_EN_PORT))
-#define DIO8_INREG (__inreg__(STEP0_EN_PORT))
-#define DIO8_DIRREG (__dirreg__(STEP0_EN_PORT))
+#define STEPPER_ENABLE 8
+#define DIO8_PORT (STEPPER_ENABLE_PORT)
+#define DIO8_BIT (STEPPER_ENABLE_BIT)
+#define STEPPER_ENABLE_OUTREG (__outreg__(STEPPER_ENABLE_PORT))
+#define STEPPER_ENABLE_INREG (__inreg__(STEPPER_ENABLE_PORT))
+#define STEPPER_ENABLE_DIRREG (__dirreg__(STEPPER_ENABLE_PORT))
+#define DIO8_OUTREG (__outreg__(STEPPER_ENABLE_PORT))
+#define DIO8_INREG (__inreg__(STEPPER_ENABLE_PORT))
+#define DIO8_DIRREG (__dirreg__(STEPPER_ENABLE_PORT))
 #endif</v>
       </c>
       <c r="F11" s="6"/>
@@ -1613,8 +1591,8 @@
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP0_EN
-mcu_config_ouput(STEP0_EN);
+        <v>#ifdef STEPPER_ENABLE
+mcu_config_ouput(STEPPER_ENABLE);
 #endif</v>
       </c>
       <c r="N11" s="3"/>
@@ -1642,24 +1620,24 @@
         <v>DIO9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(STEP1_EN_PORT) &amp;&amp; defined(STEP1_EN_BIT))
+        <v>#if(defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
 #define DIO9 9
-#define STEP1_EN 9
-#define DIO9_PORT (STEP1_EN_PORT)
-#define DIO9_BIT (STEP1_EN_BIT)
-#define STEP1_EN_OUTREG (__outreg__(STEP1_EN_PORT))
-#define STEP1_EN_INREG (__inreg__(STEP1_EN_PORT))
-#define STEP1_EN_DIRREG (__dirreg__(STEP1_EN_PORT))
-#define DIO9_OUTREG (__outreg__(STEP1_EN_PORT))
-#define DIO9_INREG (__inreg__(STEP1_EN_PORT))
-#define DIO9_DIRREG (__dirreg__(STEP1_EN_PORT))
+#define DIR0 9
+#define DIO9_PORT (DIR0_PORT)
+#define DIO9_BIT (DIR0_BIT)
+#define DIR0_OUTREG (__outreg__(DIR0_PORT))
+#define DIR0_INREG (__inreg__(DIR0_PORT))
+#define DIR0_DIRREG (__dirreg__(DIR0_PORT))
+#define DIO9_OUTREG (__outreg__(DIR0_PORT))
+#define DIO9_INREG (__inreg__(DIR0_PORT))
+#define DIO9_DIRREG (__dirreg__(DIR0_PORT))
 #endif</v>
       </c>
       <c r="F12" s="6"/>
@@ -1667,10 +1645,14 @@
       <c r="H12" s="6"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP1_EN
-mcu_config_ouput(STEP1_EN);
+        <v>#ifdef DIR0
+mcu_config_ouput(DIR0);
 #endif</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1696,24 +1678,24 @@
         <v>DIO10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(STEP2_EN_PORT) &amp;&amp; defined(STEP2_EN_BIT))
+        <v>#if(defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
 #define DIO10 10
-#define STEP2_EN 10
-#define DIO10_PORT (STEP2_EN_PORT)
-#define DIO10_BIT (STEP2_EN_BIT)
-#define STEP2_EN_OUTREG (__outreg__(STEP2_EN_PORT))
-#define STEP2_EN_INREG (__inreg__(STEP2_EN_PORT))
-#define STEP2_EN_DIRREG (__dirreg__(STEP2_EN_PORT))
-#define DIO10_OUTREG (__outreg__(STEP2_EN_PORT))
-#define DIO10_INREG (__inreg__(STEP2_EN_PORT))
-#define DIO10_DIRREG (__dirreg__(STEP2_EN_PORT))
+#define DIR1 10
+#define DIO10_PORT (DIR1_PORT)
+#define DIO10_BIT (DIR1_BIT)
+#define DIR1_OUTREG (__outreg__(DIR1_PORT))
+#define DIR1_INREG (__inreg__(DIR1_PORT))
+#define DIR1_DIRREG (__dirreg__(DIR1_PORT))
+#define DIO10_OUTREG (__outreg__(DIR1_PORT))
+#define DIO10_INREG (__inreg__(DIR1_PORT))
+#define DIO10_DIRREG (__dirreg__(DIR1_PORT))
 #endif</v>
       </c>
       <c r="F13" s="6"/>
@@ -1721,8 +1703,8 @@
       <c r="H13" s="6"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP2_EN
-mcu_config_ouput(STEP2_EN);
+        <v>#ifdef DIR1
+mcu_config_ouput(DIR1);
 #endif</v>
       </c>
       <c r="J13" s="3"/>
@@ -1754,24 +1736,24 @@
         <v>DIO11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(STEP3_EN_PORT) &amp;&amp; defined(STEP3_EN_BIT))
+        <v>#if(defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
 #define DIO11 11
-#define STEP3_EN 11
-#define DIO11_PORT (STEP3_EN_PORT)
-#define DIO11_BIT (STEP3_EN_BIT)
-#define STEP3_EN_OUTREG (__outreg__(STEP3_EN_PORT))
-#define STEP3_EN_INREG (__inreg__(STEP3_EN_PORT))
-#define STEP3_EN_DIRREG (__dirreg__(STEP3_EN_PORT))
-#define DIO11_OUTREG (__outreg__(STEP3_EN_PORT))
-#define DIO11_INREG (__inreg__(STEP3_EN_PORT))
-#define DIO11_DIRREG (__dirreg__(STEP3_EN_PORT))
+#define DIR2 11
+#define DIO11_PORT (DIR2_PORT)
+#define DIO11_BIT (DIR2_BIT)
+#define DIR2_OUTREG (__outreg__(DIR2_PORT))
+#define DIR2_INREG (__inreg__(DIR2_PORT))
+#define DIR2_DIRREG (__dirreg__(DIR2_PORT))
+#define DIO11_OUTREG (__outreg__(DIR2_PORT))
+#define DIO11_INREG (__inreg__(DIR2_PORT))
+#define DIO11_DIRREG (__dirreg__(DIR2_PORT))
 #endif</v>
       </c>
       <c r="F14" s="6"/>
@@ -1779,8 +1761,8 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP3_EN
-mcu_config_ouput(STEP3_EN);
+        <v>#ifdef DIR2
+mcu_config_ouput(DIR2);
 #endif</v>
       </c>
       <c r="J14" s="3"/>
@@ -1812,24 +1794,24 @@
         <v>DIO12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(STEP4_EN_PORT) &amp;&amp; defined(STEP4_EN_BIT))
+        <v>#if(defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
 #define DIO12 12
-#define STEP4_EN 12
-#define DIO12_PORT (STEP4_EN_PORT)
-#define DIO12_BIT (STEP4_EN_BIT)
-#define STEP4_EN_OUTREG (__outreg__(STEP4_EN_PORT))
-#define STEP4_EN_INREG (__inreg__(STEP4_EN_PORT))
-#define STEP4_EN_DIRREG (__dirreg__(STEP4_EN_PORT))
-#define DIO12_OUTREG (__outreg__(STEP4_EN_PORT))
-#define DIO12_INREG (__inreg__(STEP4_EN_PORT))
-#define DIO12_DIRREG (__dirreg__(STEP4_EN_PORT))
+#define DIR3 12
+#define DIO12_PORT (DIR3_PORT)
+#define DIO12_BIT (DIR3_BIT)
+#define DIR3_OUTREG (__outreg__(DIR3_PORT))
+#define DIR3_INREG (__inreg__(DIR3_PORT))
+#define DIR3_DIRREG (__dirreg__(DIR3_PORT))
+#define DIO12_OUTREG (__outreg__(DIR3_PORT))
+#define DIO12_INREG (__inreg__(DIR3_PORT))
+#define DIO12_DIRREG (__dirreg__(DIR3_PORT))
 #endif</v>
       </c>
       <c r="F15" s="6"/>
@@ -1837,8 +1819,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP4_EN
-mcu_config_ouput(STEP4_EN);
+        <v>#ifdef DIR3
+mcu_config_ouput(DIR3);
 #endif</v>
       </c>
       <c r="J15" s="3"/>
@@ -1870,24 +1852,24 @@
         <v>DIO13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(STEP5_EN_PORT) &amp;&amp; defined(STEP5_EN_BIT))
+        <v>#if(defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
 #define DIO13 13
-#define STEP5_EN 13
-#define DIO13_PORT (STEP5_EN_PORT)
-#define DIO13_BIT (STEP5_EN_BIT)
-#define STEP5_EN_OUTREG (__outreg__(STEP5_EN_PORT))
-#define STEP5_EN_INREG (__inreg__(STEP5_EN_PORT))
-#define STEP5_EN_DIRREG (__dirreg__(STEP5_EN_PORT))
-#define DIO13_OUTREG (__outreg__(STEP5_EN_PORT))
-#define DIO13_INREG (__inreg__(STEP5_EN_PORT))
-#define DIO13_DIRREG (__dirreg__(STEP5_EN_PORT))
+#define DIR4 13
+#define DIO13_PORT (DIR4_PORT)
+#define DIO13_BIT (DIR4_BIT)
+#define DIR4_OUTREG (__outreg__(DIR4_PORT))
+#define DIR4_INREG (__inreg__(DIR4_PORT))
+#define DIR4_DIRREG (__dirreg__(DIR4_PORT))
+#define DIO13_OUTREG (__outreg__(DIR4_PORT))
+#define DIO13_INREG (__inreg__(DIR4_PORT))
+#define DIO13_DIRREG (__dirreg__(DIR4_PORT))
 #endif</v>
       </c>
       <c r="F16" s="6"/>
@@ -1895,8 +1877,8 @@
       <c r="H16" s="6"/>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP5_EN
-mcu_config_ouput(STEP5_EN);
+        <v>#ifdef DIR4
+mcu_config_ouput(DIR4);
 #endif</v>
       </c>
       <c r="J16" s="3"/>
@@ -1928,33 +1910,35 @@
         <v>DIO14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
+        <v>#if(defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
 #define DIO14 14
-#define DIR0 14
-#define DIO14_PORT (DIR0_PORT)
-#define DIO14_BIT (DIR0_BIT)
-#define DIR0_OUTREG (__outreg__(DIR0_PORT))
-#define DIR0_INREG (__inreg__(DIR0_PORT))
-#define DIR0_DIRREG (__dirreg__(DIR0_PORT))
-#define DIO14_OUTREG (__outreg__(DIR0_PORT))
-#define DIO14_INREG (__inreg__(DIR0_PORT))
-#define DIO14_DIRREG (__dirreg__(DIR0_PORT))
+#define DIR5 14
+#define DIO14_PORT (DIR5_PORT)
+#define DIO14_BIT (DIR5_BIT)
+#define DIR5_OUTREG (__outreg__(DIR5_PORT))
+#define DIR5_INREG (__inreg__(DIR5_PORT))
+#define DIR5_DIRREG (__dirreg__(DIR5_PORT))
+#define DIO14_OUTREG (__outreg__(DIR5_PORT))
+#define DIO14_INREG (__inreg__(DIR5_PORT))
+#define DIO14_DIRREG (__dirreg__(DIR5_PORT))
 #endif</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DIR0
-mcu_config_ouput(DIR0);
+        <v>#ifdef DIR5
+mcu_config_ouput(DIR5);
 #endif</v>
       </c>
       <c r="J17" s="3"/>
@@ -1986,33 +1970,88 @@
         <v>DIO15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
+        <v>#if(defined(PWM0_PORT) &amp;&amp; defined(PWM0_BIT))
 #define DIO15 15
-#define DIR1 15
-#define DIO15_PORT (DIR1_PORT)
-#define DIO15_BIT (DIR1_BIT)
-#define DIR1_OUTREG (__outreg__(DIR1_PORT))
-#define DIR1_INREG (__inreg__(DIR1_PORT))
-#define DIR1_DIRREG (__dirreg__(DIR1_PORT))
-#define DIO15_OUTREG (__outreg__(DIR1_PORT))
-#define DIO15_INREG (__inreg__(DIR1_PORT))
-#define DIO15_DIRREG (__dirreg__(DIR1_PORT))
+#define PWM0 15
+#define DIO15_PORT (PWM0_PORT)
+#define DIO15_BIT (PWM0_BIT)
+#define PWM0_OUTREG (__outreg__(PWM0_PORT))
+#define PWM0_INREG (__inreg__(PWM0_PORT))
+#define PWM0_DIRREG (__dirreg__(PWM0_PORT))
+#define DIO15_OUTREG (__outreg__(PWM0_PORT))
+#define DIO15_INREG (__inreg__(PWM0_PORT))
+#define DIO15_DIRREG (__dirreg__(PWM0_PORT))
 #endif</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="str">
+        <f>"#if (defined("&amp;C18&amp;"_OCR) &amp;&amp; defined("&amp;C18&amp;"_TIMER) &amp;&amp; defined("&amp;C18&amp;"))
+#define "&amp;C18&amp;"_OCRREG (__ocrreg__("&amp;C18&amp;"_TIMER, "&amp;C18&amp;"_OCR))
+#define "&amp;C18&amp;"_TMRAREG (__tmrareg__("&amp;C18&amp;"_TIMER))
+#define "&amp;C18&amp;"_TMRBREG (__tmrbreg__("&amp;C18&amp;"_TIMER))
+#define "&amp;C18&amp;"_ENABLE_MASK __pwmenmask__("&amp;C18&amp;"_OCR)
+#if ("&amp;C18&amp;"_TIMER == 2)
+#define "&amp;C18&amp;"_PRESCALLER 0x04
+#elif ("&amp;C18&amp;"_TIMER == 0)
+#define "&amp;C18&amp;"_PRESCALLER 0x03
+#else
+#define "&amp;C18&amp;"_PRESCALLER 0x0B
+#endif
+#if ("&amp;C18&amp;"_TIMER == 0 || "&amp;C18&amp;"_TIMER == 2)
+#define "&amp;C18&amp;"_MODE 0x03
+#else
+#define "&amp;C18&amp;"_MODE 0x01
+#endif
+#define "&amp;B18&amp;"_OCR "&amp;C18&amp;"_OCR
+#define "&amp;B18&amp;"_TIMER "&amp;C18&amp;"_TIMER
+#define "&amp;B18&amp;"_OCRREG "&amp;C18&amp;"_OCRREG
+#define "&amp;B18&amp;"_TMRAREG "&amp;C18&amp;"_TMRAREG
+#define "&amp;B18&amp;"_TMRBREG "&amp;C18&amp;"_TMRBREG
+#define "&amp;B18&amp;"_ENABLE_MASK "&amp;C18&amp;"_ENABLE_MASK
+#define "&amp;B18&amp;"_MODE "&amp;C18&amp;"_MODE
+#define "&amp;B18&amp;"_PRESCALLER "&amp;C18&amp;"_PRESCALLER
+#endif"</f>
+        <v>#if (defined(PWM0_OCR) &amp;&amp; defined(PWM0_TIMER) &amp;&amp; defined(PWM0))
+#define PWM0_OCRREG (__ocrreg__(PWM0_TIMER, PWM0_OCR))
+#define PWM0_TMRAREG (__tmrareg__(PWM0_TIMER))
+#define PWM0_TMRBREG (__tmrbreg__(PWM0_TIMER))
+#define PWM0_ENABLE_MASK __pwmenmask__(PWM0_OCR)
+#if (PWM0_TIMER == 2)
+#define PWM0_PRESCALLER 0x04
+#elif (PWM0_TIMER == 0)
+#define PWM0_PRESCALLER 0x03
+#else
+#define PWM0_PRESCALLER 0x0B
+#endif
+#if (PWM0_TIMER == 0 || PWM0_TIMER == 2)
+#define PWM0_MODE 0x03
+#else
+#define PWM0_MODE 0x01
+#endif
+#define DIO15_OCR PWM0_OCR
+#define DIO15_TIMER PWM0_TIMER
+#define DIO15_OCRREG PWM0_OCRREG
+#define DIO15_TMRAREG PWM0_TMRAREG
+#define DIO15_TMRBREG PWM0_TMRBREG
+#define DIO15_ENABLE_MASK PWM0_ENABLE_MASK
+#define DIO15_MODE PWM0_MODE
+#define DIO15_PRESCALLER PWM0_PRESCALLER
+#endif</v>
+      </c>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR1
-mcu_config_ouput(DIR1);
+        <f>"#ifdef "&amp;C18&amp;"
+mcu_config_pwm("&amp;C18&amp;");
+#endif"</f>
+        <v>#ifdef PWM0
+mcu_config_pwm(PWM0);
 #endif</v>
       </c>
       <c r="J18" s="3"/>
@@ -2044,33 +2083,88 @@
         <v>DIO16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
+        <v>#if(defined(PWM1_PORT) &amp;&amp; defined(PWM1_BIT))
 #define DIO16 16
-#define DIR2 16
-#define DIO16_PORT (DIR2_PORT)
-#define DIO16_BIT (DIR2_BIT)
-#define DIR2_OUTREG (__outreg__(DIR2_PORT))
-#define DIR2_INREG (__inreg__(DIR2_PORT))
-#define DIR2_DIRREG (__dirreg__(DIR2_PORT))
-#define DIO16_OUTREG (__outreg__(DIR2_PORT))
-#define DIO16_INREG (__inreg__(DIR2_PORT))
-#define DIO16_DIRREG (__dirreg__(DIR2_PORT))
+#define PWM1 16
+#define DIO16_PORT (PWM1_PORT)
+#define DIO16_BIT (PWM1_BIT)
+#define PWM1_OUTREG (__outreg__(PWM1_PORT))
+#define PWM1_INREG (__inreg__(PWM1_PORT))
+#define PWM1_DIRREG (__dirreg__(PWM1_PORT))
+#define DIO16_OUTREG (__outreg__(PWM1_PORT))
+#define DIO16_INREG (__inreg__(PWM1_PORT))
+#define DIO16_DIRREG (__dirreg__(PWM1_PORT))
 #endif</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="str">
+        <f t="shared" ref="H19:H33" si="4">"#if (defined("&amp;C19&amp;"_OCR) &amp;&amp; defined("&amp;C19&amp;"_TIMER) &amp;&amp; defined("&amp;C19&amp;"))
+#define "&amp;C19&amp;"_OCRREG (__ocrreg__("&amp;C19&amp;"_TIMER, "&amp;C19&amp;"_OCR))
+#define "&amp;C19&amp;"_TMRAREG (__tmrareg__("&amp;C19&amp;"_TIMER))
+#define "&amp;C19&amp;"_TMRBREG (__tmrbreg__("&amp;C19&amp;"_TIMER))
+#define "&amp;C19&amp;"_ENABLE_MASK __pwmenmask__("&amp;C19&amp;"_OCR)
+#if ("&amp;C19&amp;"_TIMER == 2)
+#define "&amp;C19&amp;"_PRESCALLER 0x04
+#elif ("&amp;C19&amp;"_TIMER == 0)
+#define "&amp;C19&amp;"_PRESCALLER 0x03
+#else
+#define "&amp;C19&amp;"_PRESCALLER 0x0B
+#endif
+#if ("&amp;C19&amp;"_TIMER == 0 || "&amp;C19&amp;"_TIMER == 2)
+#define "&amp;C19&amp;"_MODE 0x03
+#else
+#define "&amp;C19&amp;"_MODE 0x01
+#endif
+#define "&amp;B19&amp;"_OCR "&amp;C19&amp;"_OCR
+#define "&amp;B19&amp;"_TIMER "&amp;C19&amp;"_TIMER
+#define "&amp;B19&amp;"_OCRREG "&amp;C19&amp;"_OCRREG
+#define "&amp;B19&amp;"_TMRAREG "&amp;C19&amp;"_TMRAREG
+#define "&amp;B19&amp;"_TMRBREG "&amp;C19&amp;"_TMRBREG
+#define "&amp;B19&amp;"_ENABLE_MASK "&amp;C19&amp;"_ENABLE_MASK
+#define "&amp;B19&amp;"_MODE "&amp;C19&amp;"_MODE
+#define "&amp;B19&amp;"_PRESCALLER "&amp;C19&amp;"_PRESCALLER
+#endif"</f>
+        <v>#if (defined(PWM1_OCR) &amp;&amp; defined(PWM1_TIMER) &amp;&amp; defined(PWM1))
+#define PWM1_OCRREG (__ocrreg__(PWM1_TIMER, PWM1_OCR))
+#define PWM1_TMRAREG (__tmrareg__(PWM1_TIMER))
+#define PWM1_TMRBREG (__tmrbreg__(PWM1_TIMER))
+#define PWM1_ENABLE_MASK __pwmenmask__(PWM1_OCR)
+#if (PWM1_TIMER == 2)
+#define PWM1_PRESCALLER 0x04
+#elif (PWM1_TIMER == 0)
+#define PWM1_PRESCALLER 0x03
+#else
+#define PWM1_PRESCALLER 0x0B
+#endif
+#if (PWM1_TIMER == 0 || PWM1_TIMER == 2)
+#define PWM1_MODE 0x03
+#else
+#define PWM1_MODE 0x01
+#endif
+#define DIO16_OCR PWM1_OCR
+#define DIO16_TIMER PWM1_TIMER
+#define DIO16_OCRREG PWM1_OCRREG
+#define DIO16_TMRAREG PWM1_TMRAREG
+#define DIO16_TMRBREG PWM1_TMRBREG
+#define DIO16_ENABLE_MASK PWM1_ENABLE_MASK
+#define DIO16_MODE PWM1_MODE
+#define DIO16_PRESCALLER PWM1_PRESCALLER
+#endif</v>
+      </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR2
-mcu_config_ouput(DIR2);
+        <f t="shared" ref="I19:I33" si="5">"#ifdef "&amp;C19&amp;"
+mcu_config_pwm("&amp;C19&amp;");
+#endif"</f>
+        <v>#ifdef PWM1
+mcu_config_pwm(PWM1);
 #endif</v>
       </c>
       <c r="J19" s="3"/>
@@ -2102,33 +2196,61 @@
         <v>DIO17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
+        <v>#if(defined(PWM2_PORT) &amp;&amp; defined(PWM2_BIT))
 #define DIO17 17
-#define DIR3 17
-#define DIO17_PORT (DIR3_PORT)
-#define DIO17_BIT (DIR3_BIT)
-#define DIR3_OUTREG (__outreg__(DIR3_PORT))
-#define DIR3_INREG (__inreg__(DIR3_PORT))
-#define DIR3_DIRREG (__dirreg__(DIR3_PORT))
-#define DIO17_OUTREG (__outreg__(DIR3_PORT))
-#define DIO17_INREG (__inreg__(DIR3_PORT))
-#define DIO17_DIRREG (__dirreg__(DIR3_PORT))
+#define PWM2 17
+#define DIO17_PORT (PWM2_PORT)
+#define DIO17_BIT (PWM2_BIT)
+#define PWM2_OUTREG (__outreg__(PWM2_PORT))
+#define PWM2_INREG (__inreg__(PWM2_PORT))
+#define PWM2_DIRREG (__dirreg__(PWM2_PORT))
+#define DIO17_OUTREG (__outreg__(PWM2_PORT))
+#define DIO17_INREG (__inreg__(PWM2_PORT))
+#define DIO17_DIRREG (__dirreg__(PWM2_PORT))
 #endif</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>#if (defined(PWM2_OCR) &amp;&amp; defined(PWM2_TIMER) &amp;&amp; defined(PWM2))
+#define PWM2_OCRREG (__ocrreg__(PWM2_TIMER, PWM2_OCR))
+#define PWM2_TMRAREG (__tmrareg__(PWM2_TIMER))
+#define PWM2_TMRBREG (__tmrbreg__(PWM2_TIMER))
+#define PWM2_ENABLE_MASK __pwmenmask__(PWM2_OCR)
+#if (PWM2_TIMER == 2)
+#define PWM2_PRESCALLER 0x04
+#elif (PWM2_TIMER == 0)
+#define PWM2_PRESCALLER 0x03
+#else
+#define PWM2_PRESCALLER 0x0B
+#endif
+#if (PWM2_TIMER == 0 || PWM2_TIMER == 2)
+#define PWM2_MODE 0x03
+#else
+#define PWM2_MODE 0x01
+#endif
+#define DIO17_OCR PWM2_OCR
+#define DIO17_TIMER PWM2_TIMER
+#define DIO17_OCRREG PWM2_OCRREG
+#define DIO17_TMRAREG PWM2_TMRAREG
+#define DIO17_TMRBREG PWM2_TMRBREG
+#define DIO17_ENABLE_MASK PWM2_ENABLE_MASK
+#define DIO17_MODE PWM2_MODE
+#define DIO17_PRESCALLER PWM2_PRESCALLER
+#endif</v>
+      </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR3
-mcu_config_ouput(DIR3);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM2
+mcu_config_pwm(PWM2);
 #endif</v>
       </c>
       <c r="J20" s="3"/>
@@ -2160,33 +2282,61 @@
         <v>DIO18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
+        <v>#if(defined(PWM3_PORT) &amp;&amp; defined(PWM3_BIT))
 #define DIO18 18
-#define DIR4 18
-#define DIO18_PORT (DIR4_PORT)
-#define DIO18_BIT (DIR4_BIT)
-#define DIR4_OUTREG (__outreg__(DIR4_PORT))
-#define DIR4_INREG (__inreg__(DIR4_PORT))
-#define DIR4_DIRREG (__dirreg__(DIR4_PORT))
-#define DIO18_OUTREG (__outreg__(DIR4_PORT))
-#define DIO18_INREG (__inreg__(DIR4_PORT))
-#define DIO18_DIRREG (__dirreg__(DIR4_PORT))
+#define PWM3 18
+#define DIO18_PORT (PWM3_PORT)
+#define DIO18_BIT (PWM3_BIT)
+#define PWM3_OUTREG (__outreg__(PWM3_PORT))
+#define PWM3_INREG (__inreg__(PWM3_PORT))
+#define PWM3_DIRREG (__dirreg__(PWM3_PORT))
+#define DIO18_OUTREG (__outreg__(PWM3_PORT))
+#define DIO18_INREG (__inreg__(PWM3_PORT))
+#define DIO18_DIRREG (__dirreg__(PWM3_PORT))
 #endif</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>#if (defined(PWM3_OCR) &amp;&amp; defined(PWM3_TIMER) &amp;&amp; defined(PWM3))
+#define PWM3_OCRREG (__ocrreg__(PWM3_TIMER, PWM3_OCR))
+#define PWM3_TMRAREG (__tmrareg__(PWM3_TIMER))
+#define PWM3_TMRBREG (__tmrbreg__(PWM3_TIMER))
+#define PWM3_ENABLE_MASK __pwmenmask__(PWM3_OCR)
+#if (PWM3_TIMER == 2)
+#define PWM3_PRESCALLER 0x04
+#elif (PWM3_TIMER == 0)
+#define PWM3_PRESCALLER 0x03
+#else
+#define PWM3_PRESCALLER 0x0B
+#endif
+#if (PWM3_TIMER == 0 || PWM3_TIMER == 2)
+#define PWM3_MODE 0x03
+#else
+#define PWM3_MODE 0x01
+#endif
+#define DIO18_OCR PWM3_OCR
+#define DIO18_TIMER PWM3_TIMER
+#define DIO18_OCRREG PWM3_OCRREG
+#define DIO18_TMRAREG PWM3_TMRAREG
+#define DIO18_TMRBREG PWM3_TMRBREG
+#define DIO18_ENABLE_MASK PWM3_ENABLE_MASK
+#define DIO18_MODE PWM3_MODE
+#define DIO18_PRESCALLER PWM3_PRESCALLER
+#endif</v>
+      </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR4
-mcu_config_ouput(DIR4);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM3
+mcu_config_pwm(PWM3);
 #endif</v>
       </c>
       <c r="J21" s="3"/>
@@ -2218,35 +2368,61 @@
         <v>DIO19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
+        <v>#if(defined(PWM4_PORT) &amp;&amp; defined(PWM4_BIT))
 #define DIO19 19
-#define DIR5 19
-#define DIO19_PORT (DIR5_PORT)
-#define DIO19_BIT (DIR5_BIT)
-#define DIR5_OUTREG (__outreg__(DIR5_PORT))
-#define DIR5_INREG (__inreg__(DIR5_PORT))
-#define DIR5_DIRREG (__dirreg__(DIR5_PORT))
-#define DIO19_OUTREG (__outreg__(DIR5_PORT))
-#define DIO19_INREG (__inreg__(DIR5_PORT))
-#define DIO19_DIRREG (__dirreg__(DIR5_PORT))
+#define PWM4 19
+#define DIO19_PORT (PWM4_PORT)
+#define DIO19_BIT (PWM4_BIT)
+#define PWM4_OUTREG (__outreg__(PWM4_PORT))
+#define PWM4_INREG (__inreg__(PWM4_PORT))
+#define PWM4_DIRREG (__dirreg__(PWM4_PORT))
+#define DIO19_OUTREG (__outreg__(PWM4_PORT))
+#define DIO19_INREG (__inreg__(PWM4_PORT))
+#define DIO19_DIRREG (__dirreg__(PWM4_PORT))
 #endif</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>112</v>
+      <c r="H22" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>#if (defined(PWM4_OCR) &amp;&amp; defined(PWM4_TIMER) &amp;&amp; defined(PWM4))
+#define PWM4_OCRREG (__ocrreg__(PWM4_TIMER, PWM4_OCR))
+#define PWM4_TMRAREG (__tmrareg__(PWM4_TIMER))
+#define PWM4_TMRBREG (__tmrbreg__(PWM4_TIMER))
+#define PWM4_ENABLE_MASK __pwmenmask__(PWM4_OCR)
+#if (PWM4_TIMER == 2)
+#define PWM4_PRESCALLER 0x04
+#elif (PWM4_TIMER == 0)
+#define PWM4_PRESCALLER 0x03
+#else
+#define PWM4_PRESCALLER 0x0B
+#endif
+#if (PWM4_TIMER == 0 || PWM4_TIMER == 2)
+#define PWM4_MODE 0x03
+#else
+#define PWM4_MODE 0x01
+#endif
+#define DIO19_OCR PWM4_OCR
+#define DIO19_TIMER PWM4_TIMER
+#define DIO19_OCRREG PWM4_OCRREG
+#define DIO19_TMRAREG PWM4_TMRAREG
+#define DIO19_TMRBREG PWM4_TMRBREG
+#define DIO19_ENABLE_MASK PWM4_ENABLE_MASK
+#define DIO19_MODE PWM4_MODE
+#define DIO19_PRESCALLER PWM4_PRESCALLER
+#endif</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR5
-mcu_config_ouput(DIR5);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM4
+mcu_config_pwm(PWM4);
 #endif</v>
       </c>
       <c r="J22" s="3"/>
@@ -2278,88 +2454,61 @@
         <v>DIO20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM0_PORT) &amp;&amp; defined(PWM0_BIT))
+        <v>#if(defined(PWM5_PORT) &amp;&amp; defined(PWM5_BIT))
 #define DIO20 20
-#define PWM0 20
-#define DIO20_PORT (PWM0_PORT)
-#define DIO20_BIT (PWM0_BIT)
-#define PWM0_OUTREG (__outreg__(PWM0_PORT))
-#define PWM0_INREG (__inreg__(PWM0_PORT))
-#define PWM0_DIRREG (__dirreg__(PWM0_PORT))
-#define DIO20_OUTREG (__outreg__(PWM0_PORT))
-#define DIO20_INREG (__inreg__(PWM0_PORT))
-#define DIO20_DIRREG (__dirreg__(PWM0_PORT))
+#define PWM5 20
+#define DIO20_PORT (PWM5_PORT)
+#define DIO20_BIT (PWM5_BIT)
+#define PWM5_OUTREG (__outreg__(PWM5_PORT))
+#define PWM5_INREG (__inreg__(PWM5_PORT))
+#define PWM5_DIRREG (__dirreg__(PWM5_PORT))
+#define DIO20_OUTREG (__outreg__(PWM5_PORT))
+#define DIO20_INREG (__inreg__(PWM5_PORT))
+#define DIO20_DIRREG (__dirreg__(PWM5_PORT))
 #endif</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="str">
-        <f>"#if (defined("&amp;C23&amp;"_OCR) &amp;&amp; defined("&amp;C23&amp;"_TIMER) &amp;&amp; defined("&amp;C23&amp;"))
-#define "&amp;C23&amp;"_OCRREG (__ocrreg__("&amp;C23&amp;"_TIMER, "&amp;C23&amp;"_OCR))
-#define "&amp;C23&amp;"_TMRAREG (__tmrareg__("&amp;C23&amp;"_TIMER))
-#define "&amp;C23&amp;"_TMRBREG (__tmrbreg__("&amp;C23&amp;"_TIMER))
-#define "&amp;C23&amp;"_ENABLE_MASK __pwmenmask__("&amp;C23&amp;"_OCR)
-#if ("&amp;C23&amp;"_TIMER == 2)
-#define "&amp;C23&amp;"_PRESCALLER 0x04
-#elif ("&amp;C23&amp;"_TIMER == 0)
-#define "&amp;C23&amp;"_PRESCALLER 0x03
+        <f t="shared" si="4"/>
+        <v>#if (defined(PWM5_OCR) &amp;&amp; defined(PWM5_TIMER) &amp;&amp; defined(PWM5))
+#define PWM5_OCRREG (__ocrreg__(PWM5_TIMER, PWM5_OCR))
+#define PWM5_TMRAREG (__tmrareg__(PWM5_TIMER))
+#define PWM5_TMRBREG (__tmrbreg__(PWM5_TIMER))
+#define PWM5_ENABLE_MASK __pwmenmask__(PWM5_OCR)
+#if (PWM5_TIMER == 2)
+#define PWM5_PRESCALLER 0x04
+#elif (PWM5_TIMER == 0)
+#define PWM5_PRESCALLER 0x03
 #else
-#define "&amp;C23&amp;"_PRESCALLER 0x0B
-#endif
-#if ("&amp;C23&amp;"_TIMER == 0 || "&amp;C23&amp;"_TIMER == 2)
-#define "&amp;C23&amp;"_MODE 0x03
+#define PWM5_PRESCALLER 0x0B
+#endif
+#if (PWM5_TIMER == 0 || PWM5_TIMER == 2)
+#define PWM5_MODE 0x03
 #else
-#define "&amp;C23&amp;"_MODE 0x01
-#endif
-#define "&amp;B23&amp;"_OCR "&amp;C23&amp;"_OCR
-#define "&amp;B23&amp;"_TIMER "&amp;C23&amp;"_TIMER
-#define "&amp;B23&amp;"_OCRREG "&amp;C23&amp;"_OCRREG
-#define "&amp;B23&amp;"_TMRAREG "&amp;C23&amp;"_TMRAREG
-#define "&amp;B23&amp;"_TMRBREG "&amp;C23&amp;"_TMRBREG
-#define "&amp;B23&amp;"_ENABLE_MASK "&amp;C23&amp;"_ENABLE_MASK
-#define "&amp;B23&amp;"_MODE "&amp;C23&amp;"_MODE
-#define "&amp;B23&amp;"_PRESCALLER "&amp;C23&amp;"_PRESCALLER
-#endif"</f>
-        <v>#if (defined(PWM0_OCR) &amp;&amp; defined(PWM0_TIMER) &amp;&amp; defined(PWM0))
-#define PWM0_OCRREG (__ocrreg__(PWM0_TIMER, PWM0_OCR))
-#define PWM0_TMRAREG (__tmrareg__(PWM0_TIMER))
-#define PWM0_TMRBREG (__tmrbreg__(PWM0_TIMER))
-#define PWM0_ENABLE_MASK __pwmenmask__(PWM0_OCR)
-#if (PWM0_TIMER == 2)
-#define PWM0_PRESCALLER 0x04
-#elif (PWM0_TIMER == 0)
-#define PWM0_PRESCALLER 0x03
-#else
-#define PWM0_PRESCALLER 0x0B
-#endif
-#if (PWM0_TIMER == 0 || PWM0_TIMER == 2)
-#define PWM0_MODE 0x03
-#else
-#define PWM0_MODE 0x01
-#endif
-#define DIO20_OCR PWM0_OCR
-#define DIO20_TIMER PWM0_TIMER
-#define DIO20_OCRREG PWM0_OCRREG
-#define DIO20_TMRAREG PWM0_TMRAREG
-#define DIO20_TMRBREG PWM0_TMRBREG
-#define DIO20_ENABLE_MASK PWM0_ENABLE_MASK
-#define DIO20_MODE PWM0_MODE
-#define DIO20_PRESCALLER PWM0_PRESCALLER
+#define PWM5_MODE 0x01
+#endif
+#define DIO20_OCR PWM5_OCR
+#define DIO20_TIMER PWM5_TIMER
+#define DIO20_OCRREG PWM5_OCRREG
+#define DIO20_TMRAREG PWM5_TMRAREG
+#define DIO20_TMRBREG PWM5_TMRBREG
+#define DIO20_ENABLE_MASK PWM5_ENABLE_MASK
+#define DIO20_MODE PWM5_MODE
+#define DIO20_PRESCALLER PWM5_PRESCALLER
 #endif</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>"#ifdef "&amp;C23&amp;"
-mcu_config_pwm("&amp;C23&amp;");
-#endif"</f>
-        <v>#ifdef PWM0
-mcu_config_pwm(PWM0);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM5
+mcu_config_pwm(PWM5);
 #endif</v>
       </c>
       <c r="J23" s="3"/>
@@ -2391,88 +2540,61 @@
         <v>DIO21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM1_PORT) &amp;&amp; defined(PWM1_BIT))
+        <v>#if(defined(PWM6_PORT) &amp;&amp; defined(PWM6_BIT))
 #define DIO21 21
-#define PWM1 21
-#define DIO21_PORT (PWM1_PORT)
-#define DIO21_BIT (PWM1_BIT)
-#define PWM1_OUTREG (__outreg__(PWM1_PORT))
-#define PWM1_INREG (__inreg__(PWM1_PORT))
-#define PWM1_DIRREG (__dirreg__(PWM1_PORT))
-#define DIO21_OUTREG (__outreg__(PWM1_PORT))
-#define DIO21_INREG (__inreg__(PWM1_PORT))
-#define DIO21_DIRREG (__dirreg__(PWM1_PORT))
+#define PWM6 21
+#define DIO21_PORT (PWM6_PORT)
+#define DIO21_BIT (PWM6_BIT)
+#define PWM6_OUTREG (__outreg__(PWM6_PORT))
+#define PWM6_INREG (__inreg__(PWM6_PORT))
+#define PWM6_DIRREG (__dirreg__(PWM6_PORT))
+#define DIO21_OUTREG (__outreg__(PWM6_PORT))
+#define DIO21_INREG (__inreg__(PWM6_PORT))
+#define DIO21_DIRREG (__dirreg__(PWM6_PORT))
 #endif</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="str">
-        <f t="shared" ref="H24:H38" si="4">"#if (defined("&amp;C24&amp;"_OCR) &amp;&amp; defined("&amp;C24&amp;"_TIMER) &amp;&amp; defined("&amp;C24&amp;"))
-#define "&amp;C24&amp;"_OCRREG (__ocrreg__("&amp;C24&amp;"_TIMER, "&amp;C24&amp;"_OCR))
-#define "&amp;C24&amp;"_TMRAREG (__tmrareg__("&amp;C24&amp;"_TIMER))
-#define "&amp;C24&amp;"_TMRBREG (__tmrbreg__("&amp;C24&amp;"_TIMER))
-#define "&amp;C24&amp;"_ENABLE_MASK __pwmenmask__("&amp;C24&amp;"_OCR)
-#if ("&amp;C24&amp;"_TIMER == 2)
-#define "&amp;C24&amp;"_PRESCALLER 0x04
-#elif ("&amp;C24&amp;"_TIMER == 0)
-#define "&amp;C24&amp;"_PRESCALLER 0x03
+        <f t="shared" si="4"/>
+        <v>#if (defined(PWM6_OCR) &amp;&amp; defined(PWM6_TIMER) &amp;&amp; defined(PWM6))
+#define PWM6_OCRREG (__ocrreg__(PWM6_TIMER, PWM6_OCR))
+#define PWM6_TMRAREG (__tmrareg__(PWM6_TIMER))
+#define PWM6_TMRBREG (__tmrbreg__(PWM6_TIMER))
+#define PWM6_ENABLE_MASK __pwmenmask__(PWM6_OCR)
+#if (PWM6_TIMER == 2)
+#define PWM6_PRESCALLER 0x04
+#elif (PWM6_TIMER == 0)
+#define PWM6_PRESCALLER 0x03
 #else
-#define "&amp;C24&amp;"_PRESCALLER 0x0B
-#endif
-#if ("&amp;C24&amp;"_TIMER == 0 || "&amp;C24&amp;"_TIMER == 2)
-#define "&amp;C24&amp;"_MODE 0x03
+#define PWM6_PRESCALLER 0x0B
+#endif
+#if (PWM6_TIMER == 0 || PWM6_TIMER == 2)
+#define PWM6_MODE 0x03
 #else
-#define "&amp;C24&amp;"_MODE 0x01
-#endif
-#define "&amp;B24&amp;"_OCR "&amp;C24&amp;"_OCR
-#define "&amp;B24&amp;"_TIMER "&amp;C24&amp;"_TIMER
-#define "&amp;B24&amp;"_OCRREG "&amp;C24&amp;"_OCRREG
-#define "&amp;B24&amp;"_TMRAREG "&amp;C24&amp;"_TMRAREG
-#define "&amp;B24&amp;"_TMRBREG "&amp;C24&amp;"_TMRBREG
-#define "&amp;B24&amp;"_ENABLE_MASK "&amp;C24&amp;"_ENABLE_MASK
-#define "&amp;B24&amp;"_MODE "&amp;C24&amp;"_MODE
-#define "&amp;B24&amp;"_PRESCALLER "&amp;C24&amp;"_PRESCALLER
-#endif"</f>
-        <v>#if (defined(PWM1_OCR) &amp;&amp; defined(PWM1_TIMER) &amp;&amp; defined(PWM1))
-#define PWM1_OCRREG (__ocrreg__(PWM1_TIMER, PWM1_OCR))
-#define PWM1_TMRAREG (__tmrareg__(PWM1_TIMER))
-#define PWM1_TMRBREG (__tmrbreg__(PWM1_TIMER))
-#define PWM1_ENABLE_MASK __pwmenmask__(PWM1_OCR)
-#if (PWM1_TIMER == 2)
-#define PWM1_PRESCALLER 0x04
-#elif (PWM1_TIMER == 0)
-#define PWM1_PRESCALLER 0x03
-#else
-#define PWM1_PRESCALLER 0x0B
-#endif
-#if (PWM1_TIMER == 0 || PWM1_TIMER == 2)
-#define PWM1_MODE 0x03
-#else
-#define PWM1_MODE 0x01
-#endif
-#define DIO21_OCR PWM1_OCR
-#define DIO21_TIMER PWM1_TIMER
-#define DIO21_OCRREG PWM1_OCRREG
-#define DIO21_TMRAREG PWM1_TMRAREG
-#define DIO21_TMRBREG PWM1_TMRBREG
-#define DIO21_ENABLE_MASK PWM1_ENABLE_MASK
-#define DIO21_MODE PWM1_MODE
-#define DIO21_PRESCALLER PWM1_PRESCALLER
+#define PWM6_MODE 0x01
+#endif
+#define DIO21_OCR PWM6_OCR
+#define DIO21_TIMER PWM6_TIMER
+#define DIO21_OCRREG PWM6_OCRREG
+#define DIO21_TMRAREG PWM6_TMRAREG
+#define DIO21_TMRBREG PWM6_TMRBREG
+#define DIO21_ENABLE_MASK PWM6_ENABLE_MASK
+#define DIO21_MODE PWM6_MODE
+#define DIO21_PRESCALLER PWM6_PRESCALLER
 #endif</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" ref="I24:I38" si="5">"#ifdef "&amp;C24&amp;"
-mcu_config_pwm("&amp;C24&amp;");
-#endif"</f>
-        <v>#ifdef PWM1
-mcu_config_pwm(PWM1);
+        <f t="shared" si="5"/>
+        <v>#ifdef PWM6
+mcu_config_pwm(PWM6);
 #endif</v>
       </c>
       <c r="J24" s="3"/>
@@ -2504,61 +2626,61 @@
         <v>DIO22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM2_PORT) &amp;&amp; defined(PWM2_BIT))
+        <v>#if(defined(PWM7_PORT) &amp;&amp; defined(PWM7_BIT))
 #define DIO22 22
-#define PWM2 22
-#define DIO22_PORT (PWM2_PORT)
-#define DIO22_BIT (PWM2_BIT)
-#define PWM2_OUTREG (__outreg__(PWM2_PORT))
-#define PWM2_INREG (__inreg__(PWM2_PORT))
-#define PWM2_DIRREG (__dirreg__(PWM2_PORT))
-#define DIO22_OUTREG (__outreg__(PWM2_PORT))
-#define DIO22_INREG (__inreg__(PWM2_PORT))
-#define DIO22_DIRREG (__dirreg__(PWM2_PORT))
+#define PWM7 22
+#define DIO22_PORT (PWM7_PORT)
+#define DIO22_BIT (PWM7_BIT)
+#define PWM7_OUTREG (__outreg__(PWM7_PORT))
+#define PWM7_INREG (__inreg__(PWM7_PORT))
+#define PWM7_DIRREG (__dirreg__(PWM7_PORT))
+#define DIO22_OUTREG (__outreg__(PWM7_PORT))
+#define DIO22_INREG (__inreg__(PWM7_PORT))
+#define DIO22_DIRREG (__dirreg__(PWM7_PORT))
 #endif</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM2_OCR) &amp;&amp; defined(PWM2_TIMER) &amp;&amp; defined(PWM2))
-#define PWM2_OCRREG (__ocrreg__(PWM2_TIMER, PWM2_OCR))
-#define PWM2_TMRAREG (__tmrareg__(PWM2_TIMER))
-#define PWM2_TMRBREG (__tmrbreg__(PWM2_TIMER))
-#define PWM2_ENABLE_MASK __pwmenmask__(PWM2_OCR)
-#if (PWM2_TIMER == 2)
-#define PWM2_PRESCALLER 0x04
-#elif (PWM2_TIMER == 0)
-#define PWM2_PRESCALLER 0x03
+        <v>#if (defined(PWM7_OCR) &amp;&amp; defined(PWM7_TIMER) &amp;&amp; defined(PWM7))
+#define PWM7_OCRREG (__ocrreg__(PWM7_TIMER, PWM7_OCR))
+#define PWM7_TMRAREG (__tmrareg__(PWM7_TIMER))
+#define PWM7_TMRBREG (__tmrbreg__(PWM7_TIMER))
+#define PWM7_ENABLE_MASK __pwmenmask__(PWM7_OCR)
+#if (PWM7_TIMER == 2)
+#define PWM7_PRESCALLER 0x04
+#elif (PWM7_TIMER == 0)
+#define PWM7_PRESCALLER 0x03
 #else
-#define PWM2_PRESCALLER 0x0B
-#endif
-#if (PWM2_TIMER == 0 || PWM2_TIMER == 2)
-#define PWM2_MODE 0x03
+#define PWM7_PRESCALLER 0x0B
+#endif
+#if (PWM7_TIMER == 0 || PWM7_TIMER == 2)
+#define PWM7_MODE 0x03
 #else
-#define PWM2_MODE 0x01
-#endif
-#define DIO22_OCR PWM2_OCR
-#define DIO22_TIMER PWM2_TIMER
-#define DIO22_OCRREG PWM2_OCRREG
-#define DIO22_TMRAREG PWM2_TMRAREG
-#define DIO22_TMRBREG PWM2_TMRBREG
-#define DIO22_ENABLE_MASK PWM2_ENABLE_MASK
-#define DIO22_MODE PWM2_MODE
-#define DIO22_PRESCALLER PWM2_PRESCALLER
+#define PWM7_MODE 0x01
+#endif
+#define DIO22_OCR PWM7_OCR
+#define DIO22_TIMER PWM7_TIMER
+#define DIO22_OCRREG PWM7_OCRREG
+#define DIO22_TMRAREG PWM7_TMRAREG
+#define DIO22_TMRBREG PWM7_TMRBREG
+#define DIO22_ENABLE_MASK PWM7_ENABLE_MASK
+#define DIO22_MODE PWM7_MODE
+#define DIO22_PRESCALLER PWM7_PRESCALLER
 #endif</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM2
-mcu_config_pwm(PWM2);
+        <v>#ifdef PWM7
+mcu_config_pwm(PWM7);
 #endif</v>
       </c>
       <c r="J25" s="3"/>
@@ -2590,61 +2712,61 @@
         <v>DIO23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM3_PORT) &amp;&amp; defined(PWM3_BIT))
+        <v>#if(defined(PWM8_PORT) &amp;&amp; defined(PWM8_BIT))
 #define DIO23 23
-#define PWM3 23
-#define DIO23_PORT (PWM3_PORT)
-#define DIO23_BIT (PWM3_BIT)
-#define PWM3_OUTREG (__outreg__(PWM3_PORT))
-#define PWM3_INREG (__inreg__(PWM3_PORT))
-#define PWM3_DIRREG (__dirreg__(PWM3_PORT))
-#define DIO23_OUTREG (__outreg__(PWM3_PORT))
-#define DIO23_INREG (__inreg__(PWM3_PORT))
-#define DIO23_DIRREG (__dirreg__(PWM3_PORT))
+#define PWM8 23
+#define DIO23_PORT (PWM8_PORT)
+#define DIO23_BIT (PWM8_BIT)
+#define PWM8_OUTREG (__outreg__(PWM8_PORT))
+#define PWM8_INREG (__inreg__(PWM8_PORT))
+#define PWM8_DIRREG (__dirreg__(PWM8_PORT))
+#define DIO23_OUTREG (__outreg__(PWM8_PORT))
+#define DIO23_INREG (__inreg__(PWM8_PORT))
+#define DIO23_DIRREG (__dirreg__(PWM8_PORT))
 #endif</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM3_OCR) &amp;&amp; defined(PWM3_TIMER) &amp;&amp; defined(PWM3))
-#define PWM3_OCRREG (__ocrreg__(PWM3_TIMER, PWM3_OCR))
-#define PWM3_TMRAREG (__tmrareg__(PWM3_TIMER))
-#define PWM3_TMRBREG (__tmrbreg__(PWM3_TIMER))
-#define PWM3_ENABLE_MASK __pwmenmask__(PWM3_OCR)
-#if (PWM3_TIMER == 2)
-#define PWM3_PRESCALLER 0x04
-#elif (PWM3_TIMER == 0)
-#define PWM3_PRESCALLER 0x03
+        <v>#if (defined(PWM8_OCR) &amp;&amp; defined(PWM8_TIMER) &amp;&amp; defined(PWM8))
+#define PWM8_OCRREG (__ocrreg__(PWM8_TIMER, PWM8_OCR))
+#define PWM8_TMRAREG (__tmrareg__(PWM8_TIMER))
+#define PWM8_TMRBREG (__tmrbreg__(PWM8_TIMER))
+#define PWM8_ENABLE_MASK __pwmenmask__(PWM8_OCR)
+#if (PWM8_TIMER == 2)
+#define PWM8_PRESCALLER 0x04
+#elif (PWM8_TIMER == 0)
+#define PWM8_PRESCALLER 0x03
 #else
-#define PWM3_PRESCALLER 0x0B
-#endif
-#if (PWM3_TIMER == 0 || PWM3_TIMER == 2)
-#define PWM3_MODE 0x03
+#define PWM8_PRESCALLER 0x0B
+#endif
+#if (PWM8_TIMER == 0 || PWM8_TIMER == 2)
+#define PWM8_MODE 0x03
 #else
-#define PWM3_MODE 0x01
-#endif
-#define DIO23_OCR PWM3_OCR
-#define DIO23_TIMER PWM3_TIMER
-#define DIO23_OCRREG PWM3_OCRREG
-#define DIO23_TMRAREG PWM3_TMRAREG
-#define DIO23_TMRBREG PWM3_TMRBREG
-#define DIO23_ENABLE_MASK PWM3_ENABLE_MASK
-#define DIO23_MODE PWM3_MODE
-#define DIO23_PRESCALLER PWM3_PRESCALLER
+#define PWM8_MODE 0x01
+#endif
+#define DIO23_OCR PWM8_OCR
+#define DIO23_TIMER PWM8_TIMER
+#define DIO23_OCRREG PWM8_OCRREG
+#define DIO23_TMRAREG PWM8_TMRAREG
+#define DIO23_TMRBREG PWM8_TMRBREG
+#define DIO23_ENABLE_MASK PWM8_ENABLE_MASK
+#define DIO23_MODE PWM8_MODE
+#define DIO23_PRESCALLER PWM8_PRESCALLER
 #endif</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM3
-mcu_config_pwm(PWM3);
+        <v>#ifdef PWM8
+mcu_config_pwm(PWM8);
 #endif</v>
       </c>
       <c r="J26" s="3"/>
@@ -2676,61 +2798,61 @@
         <v>DIO24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM4_PORT) &amp;&amp; defined(PWM4_BIT))
+        <v>#if(defined(PWM9_PORT) &amp;&amp; defined(PWM9_BIT))
 #define DIO24 24
-#define PWM4 24
-#define DIO24_PORT (PWM4_PORT)
-#define DIO24_BIT (PWM4_BIT)
-#define PWM4_OUTREG (__outreg__(PWM4_PORT))
-#define PWM4_INREG (__inreg__(PWM4_PORT))
-#define PWM4_DIRREG (__dirreg__(PWM4_PORT))
-#define DIO24_OUTREG (__outreg__(PWM4_PORT))
-#define DIO24_INREG (__inreg__(PWM4_PORT))
-#define DIO24_DIRREG (__dirreg__(PWM4_PORT))
+#define PWM9 24
+#define DIO24_PORT (PWM9_PORT)
+#define DIO24_BIT (PWM9_BIT)
+#define PWM9_OUTREG (__outreg__(PWM9_PORT))
+#define PWM9_INREG (__inreg__(PWM9_PORT))
+#define PWM9_DIRREG (__dirreg__(PWM9_PORT))
+#define DIO24_OUTREG (__outreg__(PWM9_PORT))
+#define DIO24_INREG (__inreg__(PWM9_PORT))
+#define DIO24_DIRREG (__dirreg__(PWM9_PORT))
 #endif</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM4_OCR) &amp;&amp; defined(PWM4_TIMER) &amp;&amp; defined(PWM4))
-#define PWM4_OCRREG (__ocrreg__(PWM4_TIMER, PWM4_OCR))
-#define PWM4_TMRAREG (__tmrareg__(PWM4_TIMER))
-#define PWM4_TMRBREG (__tmrbreg__(PWM4_TIMER))
-#define PWM4_ENABLE_MASK __pwmenmask__(PWM4_OCR)
-#if (PWM4_TIMER == 2)
-#define PWM4_PRESCALLER 0x04
-#elif (PWM4_TIMER == 0)
-#define PWM4_PRESCALLER 0x03
+        <v>#if (defined(PWM9_OCR) &amp;&amp; defined(PWM9_TIMER) &amp;&amp; defined(PWM9))
+#define PWM9_OCRREG (__ocrreg__(PWM9_TIMER, PWM9_OCR))
+#define PWM9_TMRAREG (__tmrareg__(PWM9_TIMER))
+#define PWM9_TMRBREG (__tmrbreg__(PWM9_TIMER))
+#define PWM9_ENABLE_MASK __pwmenmask__(PWM9_OCR)
+#if (PWM9_TIMER == 2)
+#define PWM9_PRESCALLER 0x04
+#elif (PWM9_TIMER == 0)
+#define PWM9_PRESCALLER 0x03
 #else
-#define PWM4_PRESCALLER 0x0B
-#endif
-#if (PWM4_TIMER == 0 || PWM4_TIMER == 2)
-#define PWM4_MODE 0x03
+#define PWM9_PRESCALLER 0x0B
+#endif
+#if (PWM9_TIMER == 0 || PWM9_TIMER == 2)
+#define PWM9_MODE 0x03
 #else
-#define PWM4_MODE 0x01
-#endif
-#define DIO24_OCR PWM4_OCR
-#define DIO24_TIMER PWM4_TIMER
-#define DIO24_OCRREG PWM4_OCRREG
-#define DIO24_TMRAREG PWM4_TMRAREG
-#define DIO24_TMRBREG PWM4_TMRBREG
-#define DIO24_ENABLE_MASK PWM4_ENABLE_MASK
-#define DIO24_MODE PWM4_MODE
-#define DIO24_PRESCALLER PWM4_PRESCALLER
+#define PWM9_MODE 0x01
+#endif
+#define DIO24_OCR PWM9_OCR
+#define DIO24_TIMER PWM9_TIMER
+#define DIO24_OCRREG PWM9_OCRREG
+#define DIO24_TMRAREG PWM9_TMRAREG
+#define DIO24_TMRBREG PWM9_TMRBREG
+#define DIO24_ENABLE_MASK PWM9_ENABLE_MASK
+#define DIO24_MODE PWM9_MODE
+#define DIO24_PRESCALLER PWM9_PRESCALLER
 #endif</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM4
-mcu_config_pwm(PWM4);
+        <v>#ifdef PWM9
+mcu_config_pwm(PWM9);
 #endif</v>
       </c>
       <c r="J27" s="3"/>
@@ -2762,61 +2884,61 @@
         <v>DIO25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM5_PORT) &amp;&amp; defined(PWM5_BIT))
+        <v>#if(defined(PWM10_PORT) &amp;&amp; defined(PWM10_BIT))
 #define DIO25 25
-#define PWM5 25
-#define DIO25_PORT (PWM5_PORT)
-#define DIO25_BIT (PWM5_BIT)
-#define PWM5_OUTREG (__outreg__(PWM5_PORT))
-#define PWM5_INREG (__inreg__(PWM5_PORT))
-#define PWM5_DIRREG (__dirreg__(PWM5_PORT))
-#define DIO25_OUTREG (__outreg__(PWM5_PORT))
-#define DIO25_INREG (__inreg__(PWM5_PORT))
-#define DIO25_DIRREG (__dirreg__(PWM5_PORT))
+#define PWM10 25
+#define DIO25_PORT (PWM10_PORT)
+#define DIO25_BIT (PWM10_BIT)
+#define PWM10_OUTREG (__outreg__(PWM10_PORT))
+#define PWM10_INREG (__inreg__(PWM10_PORT))
+#define PWM10_DIRREG (__dirreg__(PWM10_PORT))
+#define DIO25_OUTREG (__outreg__(PWM10_PORT))
+#define DIO25_INREG (__inreg__(PWM10_PORT))
+#define DIO25_DIRREG (__dirreg__(PWM10_PORT))
 #endif</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM5_OCR) &amp;&amp; defined(PWM5_TIMER) &amp;&amp; defined(PWM5))
-#define PWM5_OCRREG (__ocrreg__(PWM5_TIMER, PWM5_OCR))
-#define PWM5_TMRAREG (__tmrareg__(PWM5_TIMER))
-#define PWM5_TMRBREG (__tmrbreg__(PWM5_TIMER))
-#define PWM5_ENABLE_MASK __pwmenmask__(PWM5_OCR)
-#if (PWM5_TIMER == 2)
-#define PWM5_PRESCALLER 0x04
-#elif (PWM5_TIMER == 0)
-#define PWM5_PRESCALLER 0x03
+        <v>#if (defined(PWM10_OCR) &amp;&amp; defined(PWM10_TIMER) &amp;&amp; defined(PWM10))
+#define PWM10_OCRREG (__ocrreg__(PWM10_TIMER, PWM10_OCR))
+#define PWM10_TMRAREG (__tmrareg__(PWM10_TIMER))
+#define PWM10_TMRBREG (__tmrbreg__(PWM10_TIMER))
+#define PWM10_ENABLE_MASK __pwmenmask__(PWM10_OCR)
+#if (PWM10_TIMER == 2)
+#define PWM10_PRESCALLER 0x04
+#elif (PWM10_TIMER == 0)
+#define PWM10_PRESCALLER 0x03
 #else
-#define PWM5_PRESCALLER 0x0B
-#endif
-#if (PWM5_TIMER == 0 || PWM5_TIMER == 2)
-#define PWM5_MODE 0x03
+#define PWM10_PRESCALLER 0x0B
+#endif
+#if (PWM10_TIMER == 0 || PWM10_TIMER == 2)
+#define PWM10_MODE 0x03
 #else
-#define PWM5_MODE 0x01
-#endif
-#define DIO25_OCR PWM5_OCR
-#define DIO25_TIMER PWM5_TIMER
-#define DIO25_OCRREG PWM5_OCRREG
-#define DIO25_TMRAREG PWM5_TMRAREG
-#define DIO25_TMRBREG PWM5_TMRBREG
-#define DIO25_ENABLE_MASK PWM5_ENABLE_MASK
-#define DIO25_MODE PWM5_MODE
-#define DIO25_PRESCALLER PWM5_PRESCALLER
+#define PWM10_MODE 0x01
+#endif
+#define DIO25_OCR PWM10_OCR
+#define DIO25_TIMER PWM10_TIMER
+#define DIO25_OCRREG PWM10_OCRREG
+#define DIO25_TMRAREG PWM10_TMRAREG
+#define DIO25_TMRBREG PWM10_TMRBREG
+#define DIO25_ENABLE_MASK PWM10_ENABLE_MASK
+#define DIO25_MODE PWM10_MODE
+#define DIO25_PRESCALLER PWM10_PRESCALLER
 #endif</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM5
-mcu_config_pwm(PWM5);
+        <v>#ifdef PWM10
+mcu_config_pwm(PWM10);
 #endif</v>
       </c>
       <c r="J28" s="3"/>
@@ -2848,61 +2970,61 @@
         <v>DIO26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM6_PORT) &amp;&amp; defined(PWM6_BIT))
+        <v>#if(defined(PWM11_PORT) &amp;&amp; defined(PWM11_BIT))
 #define DIO26 26
-#define PWM6 26
-#define DIO26_PORT (PWM6_PORT)
-#define DIO26_BIT (PWM6_BIT)
-#define PWM6_OUTREG (__outreg__(PWM6_PORT))
-#define PWM6_INREG (__inreg__(PWM6_PORT))
-#define PWM6_DIRREG (__dirreg__(PWM6_PORT))
-#define DIO26_OUTREG (__outreg__(PWM6_PORT))
-#define DIO26_INREG (__inreg__(PWM6_PORT))
-#define DIO26_DIRREG (__dirreg__(PWM6_PORT))
+#define PWM11 26
+#define DIO26_PORT (PWM11_PORT)
+#define DIO26_BIT (PWM11_BIT)
+#define PWM11_OUTREG (__outreg__(PWM11_PORT))
+#define PWM11_INREG (__inreg__(PWM11_PORT))
+#define PWM11_DIRREG (__dirreg__(PWM11_PORT))
+#define DIO26_OUTREG (__outreg__(PWM11_PORT))
+#define DIO26_INREG (__inreg__(PWM11_PORT))
+#define DIO26_DIRREG (__dirreg__(PWM11_PORT))
 #endif</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM6_OCR) &amp;&amp; defined(PWM6_TIMER) &amp;&amp; defined(PWM6))
-#define PWM6_OCRREG (__ocrreg__(PWM6_TIMER, PWM6_OCR))
-#define PWM6_TMRAREG (__tmrareg__(PWM6_TIMER))
-#define PWM6_TMRBREG (__tmrbreg__(PWM6_TIMER))
-#define PWM6_ENABLE_MASK __pwmenmask__(PWM6_OCR)
-#if (PWM6_TIMER == 2)
-#define PWM6_PRESCALLER 0x04
-#elif (PWM6_TIMER == 0)
-#define PWM6_PRESCALLER 0x03
+        <v>#if (defined(PWM11_OCR) &amp;&amp; defined(PWM11_TIMER) &amp;&amp; defined(PWM11))
+#define PWM11_OCRREG (__ocrreg__(PWM11_TIMER, PWM11_OCR))
+#define PWM11_TMRAREG (__tmrareg__(PWM11_TIMER))
+#define PWM11_TMRBREG (__tmrbreg__(PWM11_TIMER))
+#define PWM11_ENABLE_MASK __pwmenmask__(PWM11_OCR)
+#if (PWM11_TIMER == 2)
+#define PWM11_PRESCALLER 0x04
+#elif (PWM11_TIMER == 0)
+#define PWM11_PRESCALLER 0x03
 #else
-#define PWM6_PRESCALLER 0x0B
-#endif
-#if (PWM6_TIMER == 0 || PWM6_TIMER == 2)
-#define PWM6_MODE 0x03
+#define PWM11_PRESCALLER 0x0B
+#endif
+#if (PWM11_TIMER == 0 || PWM11_TIMER == 2)
+#define PWM11_MODE 0x03
 #else
-#define PWM6_MODE 0x01
-#endif
-#define DIO26_OCR PWM6_OCR
-#define DIO26_TIMER PWM6_TIMER
-#define DIO26_OCRREG PWM6_OCRREG
-#define DIO26_TMRAREG PWM6_TMRAREG
-#define DIO26_TMRBREG PWM6_TMRBREG
-#define DIO26_ENABLE_MASK PWM6_ENABLE_MASK
-#define DIO26_MODE PWM6_MODE
-#define DIO26_PRESCALLER PWM6_PRESCALLER
+#define PWM11_MODE 0x01
+#endif
+#define DIO26_OCR PWM11_OCR
+#define DIO26_TIMER PWM11_TIMER
+#define DIO26_OCRREG PWM11_OCRREG
+#define DIO26_TMRAREG PWM11_TMRAREG
+#define DIO26_TMRBREG PWM11_TMRBREG
+#define DIO26_ENABLE_MASK PWM11_ENABLE_MASK
+#define DIO26_MODE PWM11_MODE
+#define DIO26_PRESCALLER PWM11_PRESCALLER
 #endif</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM6
-mcu_config_pwm(PWM6);
+        <v>#ifdef PWM11
+mcu_config_pwm(PWM11);
 #endif</v>
       </c>
       <c r="J29" s="3"/>
@@ -2934,61 +3056,61 @@
         <v>DIO27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM7_PORT) &amp;&amp; defined(PWM7_BIT))
+        <v>#if(defined(PWM12_PORT) &amp;&amp; defined(PWM12_BIT))
 #define DIO27 27
-#define PWM7 27
-#define DIO27_PORT (PWM7_PORT)
-#define DIO27_BIT (PWM7_BIT)
-#define PWM7_OUTREG (__outreg__(PWM7_PORT))
-#define PWM7_INREG (__inreg__(PWM7_PORT))
-#define PWM7_DIRREG (__dirreg__(PWM7_PORT))
-#define DIO27_OUTREG (__outreg__(PWM7_PORT))
-#define DIO27_INREG (__inreg__(PWM7_PORT))
-#define DIO27_DIRREG (__dirreg__(PWM7_PORT))
+#define PWM12 27
+#define DIO27_PORT (PWM12_PORT)
+#define DIO27_BIT (PWM12_BIT)
+#define PWM12_OUTREG (__outreg__(PWM12_PORT))
+#define PWM12_INREG (__inreg__(PWM12_PORT))
+#define PWM12_DIRREG (__dirreg__(PWM12_PORT))
+#define DIO27_OUTREG (__outreg__(PWM12_PORT))
+#define DIO27_INREG (__inreg__(PWM12_PORT))
+#define DIO27_DIRREG (__dirreg__(PWM12_PORT))
 #endif</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM7_OCR) &amp;&amp; defined(PWM7_TIMER) &amp;&amp; defined(PWM7))
-#define PWM7_OCRREG (__ocrreg__(PWM7_TIMER, PWM7_OCR))
-#define PWM7_TMRAREG (__tmrareg__(PWM7_TIMER))
-#define PWM7_TMRBREG (__tmrbreg__(PWM7_TIMER))
-#define PWM7_ENABLE_MASK __pwmenmask__(PWM7_OCR)
-#if (PWM7_TIMER == 2)
-#define PWM7_PRESCALLER 0x04
-#elif (PWM7_TIMER == 0)
-#define PWM7_PRESCALLER 0x03
+        <v>#if (defined(PWM12_OCR) &amp;&amp; defined(PWM12_TIMER) &amp;&amp; defined(PWM12))
+#define PWM12_OCRREG (__ocrreg__(PWM12_TIMER, PWM12_OCR))
+#define PWM12_TMRAREG (__tmrareg__(PWM12_TIMER))
+#define PWM12_TMRBREG (__tmrbreg__(PWM12_TIMER))
+#define PWM12_ENABLE_MASK __pwmenmask__(PWM12_OCR)
+#if (PWM12_TIMER == 2)
+#define PWM12_PRESCALLER 0x04
+#elif (PWM12_TIMER == 0)
+#define PWM12_PRESCALLER 0x03
 #else
-#define PWM7_PRESCALLER 0x0B
-#endif
-#if (PWM7_TIMER == 0 || PWM7_TIMER == 2)
-#define PWM7_MODE 0x03
+#define PWM12_PRESCALLER 0x0B
+#endif
+#if (PWM12_TIMER == 0 || PWM12_TIMER == 2)
+#define PWM12_MODE 0x03
 #else
-#define PWM7_MODE 0x01
-#endif
-#define DIO27_OCR PWM7_OCR
-#define DIO27_TIMER PWM7_TIMER
-#define DIO27_OCRREG PWM7_OCRREG
-#define DIO27_TMRAREG PWM7_TMRAREG
-#define DIO27_TMRBREG PWM7_TMRBREG
-#define DIO27_ENABLE_MASK PWM7_ENABLE_MASK
-#define DIO27_MODE PWM7_MODE
-#define DIO27_PRESCALLER PWM7_PRESCALLER
+#define PWM12_MODE 0x01
+#endif
+#define DIO27_OCR PWM12_OCR
+#define DIO27_TIMER PWM12_TIMER
+#define DIO27_OCRREG PWM12_OCRREG
+#define DIO27_TMRAREG PWM12_TMRAREG
+#define DIO27_TMRBREG PWM12_TMRBREG
+#define DIO27_ENABLE_MASK PWM12_ENABLE_MASK
+#define DIO27_MODE PWM12_MODE
+#define DIO27_PRESCALLER PWM12_PRESCALLER
 #endif</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM7
-mcu_config_pwm(PWM7);
+        <v>#ifdef PWM12
+mcu_config_pwm(PWM12);
 #endif</v>
       </c>
       <c r="J30" s="3"/>
@@ -3020,61 +3142,61 @@
         <v>DIO28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM8_PORT) &amp;&amp; defined(PWM8_BIT))
+        <v>#if(defined(PWM13_PORT) &amp;&amp; defined(PWM13_BIT))
 #define DIO28 28
-#define PWM8 28
-#define DIO28_PORT (PWM8_PORT)
-#define DIO28_BIT (PWM8_BIT)
-#define PWM8_OUTREG (__outreg__(PWM8_PORT))
-#define PWM8_INREG (__inreg__(PWM8_PORT))
-#define PWM8_DIRREG (__dirreg__(PWM8_PORT))
-#define DIO28_OUTREG (__outreg__(PWM8_PORT))
-#define DIO28_INREG (__inreg__(PWM8_PORT))
-#define DIO28_DIRREG (__dirreg__(PWM8_PORT))
+#define PWM13 28
+#define DIO28_PORT (PWM13_PORT)
+#define DIO28_BIT (PWM13_BIT)
+#define PWM13_OUTREG (__outreg__(PWM13_PORT))
+#define PWM13_INREG (__inreg__(PWM13_PORT))
+#define PWM13_DIRREG (__dirreg__(PWM13_PORT))
+#define DIO28_OUTREG (__outreg__(PWM13_PORT))
+#define DIO28_INREG (__inreg__(PWM13_PORT))
+#define DIO28_DIRREG (__dirreg__(PWM13_PORT))
 #endif</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM8_OCR) &amp;&amp; defined(PWM8_TIMER) &amp;&amp; defined(PWM8))
-#define PWM8_OCRREG (__ocrreg__(PWM8_TIMER, PWM8_OCR))
-#define PWM8_TMRAREG (__tmrareg__(PWM8_TIMER))
-#define PWM8_TMRBREG (__tmrbreg__(PWM8_TIMER))
-#define PWM8_ENABLE_MASK __pwmenmask__(PWM8_OCR)
-#if (PWM8_TIMER == 2)
-#define PWM8_PRESCALLER 0x04
-#elif (PWM8_TIMER == 0)
-#define PWM8_PRESCALLER 0x03
+        <v>#if (defined(PWM13_OCR) &amp;&amp; defined(PWM13_TIMER) &amp;&amp; defined(PWM13))
+#define PWM13_OCRREG (__ocrreg__(PWM13_TIMER, PWM13_OCR))
+#define PWM13_TMRAREG (__tmrareg__(PWM13_TIMER))
+#define PWM13_TMRBREG (__tmrbreg__(PWM13_TIMER))
+#define PWM13_ENABLE_MASK __pwmenmask__(PWM13_OCR)
+#if (PWM13_TIMER == 2)
+#define PWM13_PRESCALLER 0x04
+#elif (PWM13_TIMER == 0)
+#define PWM13_PRESCALLER 0x03
 #else
-#define PWM8_PRESCALLER 0x0B
-#endif
-#if (PWM8_TIMER == 0 || PWM8_TIMER == 2)
-#define PWM8_MODE 0x03
+#define PWM13_PRESCALLER 0x0B
+#endif
+#if (PWM13_TIMER == 0 || PWM13_TIMER == 2)
+#define PWM13_MODE 0x03
 #else
-#define PWM8_MODE 0x01
-#endif
-#define DIO28_OCR PWM8_OCR
-#define DIO28_TIMER PWM8_TIMER
-#define DIO28_OCRREG PWM8_OCRREG
-#define DIO28_TMRAREG PWM8_TMRAREG
-#define DIO28_TMRBREG PWM8_TMRBREG
-#define DIO28_ENABLE_MASK PWM8_ENABLE_MASK
-#define DIO28_MODE PWM8_MODE
-#define DIO28_PRESCALLER PWM8_PRESCALLER
+#define PWM13_MODE 0x01
+#endif
+#define DIO28_OCR PWM13_OCR
+#define DIO28_TIMER PWM13_TIMER
+#define DIO28_OCRREG PWM13_OCRREG
+#define DIO28_TMRAREG PWM13_TMRAREG
+#define DIO28_TMRBREG PWM13_TMRBREG
+#define DIO28_ENABLE_MASK PWM13_ENABLE_MASK
+#define DIO28_MODE PWM13_MODE
+#define DIO28_PRESCALLER PWM13_PRESCALLER
 #endif</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM8
-mcu_config_pwm(PWM8);
+        <v>#ifdef PWM13
+mcu_config_pwm(PWM13);
 #endif</v>
       </c>
       <c r="J31" s="3"/>
@@ -3106,61 +3228,61 @@
         <v>DIO29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM9_PORT) &amp;&amp; defined(PWM9_BIT))
+        <v>#if(defined(PWM14_PORT) &amp;&amp; defined(PWM14_BIT))
 #define DIO29 29
-#define PWM9 29
-#define DIO29_PORT (PWM9_PORT)
-#define DIO29_BIT (PWM9_BIT)
-#define PWM9_OUTREG (__outreg__(PWM9_PORT))
-#define PWM9_INREG (__inreg__(PWM9_PORT))
-#define PWM9_DIRREG (__dirreg__(PWM9_PORT))
-#define DIO29_OUTREG (__outreg__(PWM9_PORT))
-#define DIO29_INREG (__inreg__(PWM9_PORT))
-#define DIO29_DIRREG (__dirreg__(PWM9_PORT))
+#define PWM14 29
+#define DIO29_PORT (PWM14_PORT)
+#define DIO29_BIT (PWM14_BIT)
+#define PWM14_OUTREG (__outreg__(PWM14_PORT))
+#define PWM14_INREG (__inreg__(PWM14_PORT))
+#define PWM14_DIRREG (__dirreg__(PWM14_PORT))
+#define DIO29_OUTREG (__outreg__(PWM14_PORT))
+#define DIO29_INREG (__inreg__(PWM14_PORT))
+#define DIO29_DIRREG (__dirreg__(PWM14_PORT))
 #endif</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM9_OCR) &amp;&amp; defined(PWM9_TIMER) &amp;&amp; defined(PWM9))
-#define PWM9_OCRREG (__ocrreg__(PWM9_TIMER, PWM9_OCR))
-#define PWM9_TMRAREG (__tmrareg__(PWM9_TIMER))
-#define PWM9_TMRBREG (__tmrbreg__(PWM9_TIMER))
-#define PWM9_ENABLE_MASK __pwmenmask__(PWM9_OCR)
-#if (PWM9_TIMER == 2)
-#define PWM9_PRESCALLER 0x04
-#elif (PWM9_TIMER == 0)
-#define PWM9_PRESCALLER 0x03
+        <v>#if (defined(PWM14_OCR) &amp;&amp; defined(PWM14_TIMER) &amp;&amp; defined(PWM14))
+#define PWM14_OCRREG (__ocrreg__(PWM14_TIMER, PWM14_OCR))
+#define PWM14_TMRAREG (__tmrareg__(PWM14_TIMER))
+#define PWM14_TMRBREG (__tmrbreg__(PWM14_TIMER))
+#define PWM14_ENABLE_MASK __pwmenmask__(PWM14_OCR)
+#if (PWM14_TIMER == 2)
+#define PWM14_PRESCALLER 0x04
+#elif (PWM14_TIMER == 0)
+#define PWM14_PRESCALLER 0x03
 #else
-#define PWM9_PRESCALLER 0x0B
-#endif
-#if (PWM9_TIMER == 0 || PWM9_TIMER == 2)
-#define PWM9_MODE 0x03
+#define PWM14_PRESCALLER 0x0B
+#endif
+#if (PWM14_TIMER == 0 || PWM14_TIMER == 2)
+#define PWM14_MODE 0x03
 #else
-#define PWM9_MODE 0x01
-#endif
-#define DIO29_OCR PWM9_OCR
-#define DIO29_TIMER PWM9_TIMER
-#define DIO29_OCRREG PWM9_OCRREG
-#define DIO29_TMRAREG PWM9_TMRAREG
-#define DIO29_TMRBREG PWM9_TMRBREG
-#define DIO29_ENABLE_MASK PWM9_ENABLE_MASK
-#define DIO29_MODE PWM9_MODE
-#define DIO29_PRESCALLER PWM9_PRESCALLER
+#define PWM14_MODE 0x01
+#endif
+#define DIO29_OCR PWM14_OCR
+#define DIO29_TIMER PWM14_TIMER
+#define DIO29_OCRREG PWM14_OCRREG
+#define DIO29_TMRAREG PWM14_TMRAREG
+#define DIO29_TMRBREG PWM14_TMRBREG
+#define DIO29_ENABLE_MASK PWM14_ENABLE_MASK
+#define DIO29_MODE PWM14_MODE
+#define DIO29_PRESCALLER PWM14_PRESCALLER
 #endif</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM9
-mcu_config_pwm(PWM9);
+        <v>#ifdef PWM14
+mcu_config_pwm(PWM14);
 #endif</v>
       </c>
       <c r="J32" s="3"/>
@@ -3192,61 +3314,61 @@
         <v>DIO30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM10_PORT) &amp;&amp; defined(PWM10_BIT))
+        <v>#if(defined(PWM15_PORT) &amp;&amp; defined(PWM15_BIT))
 #define DIO30 30
-#define PWM10 30
-#define DIO30_PORT (PWM10_PORT)
-#define DIO30_BIT (PWM10_BIT)
-#define PWM10_OUTREG (__outreg__(PWM10_PORT))
-#define PWM10_INREG (__inreg__(PWM10_PORT))
-#define PWM10_DIRREG (__dirreg__(PWM10_PORT))
-#define DIO30_OUTREG (__outreg__(PWM10_PORT))
-#define DIO30_INREG (__inreg__(PWM10_PORT))
-#define DIO30_DIRREG (__dirreg__(PWM10_PORT))
+#define PWM15 30
+#define DIO30_PORT (PWM15_PORT)
+#define DIO30_BIT (PWM15_BIT)
+#define PWM15_OUTREG (__outreg__(PWM15_PORT))
+#define PWM15_INREG (__inreg__(PWM15_PORT))
+#define PWM15_DIRREG (__dirreg__(PWM15_PORT))
+#define DIO30_OUTREG (__outreg__(PWM15_PORT))
+#define DIO30_INREG (__inreg__(PWM15_PORT))
+#define DIO30_DIRREG (__dirreg__(PWM15_PORT))
 #endif</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>#if (defined(PWM10_OCR) &amp;&amp; defined(PWM10_TIMER) &amp;&amp; defined(PWM10))
-#define PWM10_OCRREG (__ocrreg__(PWM10_TIMER, PWM10_OCR))
-#define PWM10_TMRAREG (__tmrareg__(PWM10_TIMER))
-#define PWM10_TMRBREG (__tmrbreg__(PWM10_TIMER))
-#define PWM10_ENABLE_MASK __pwmenmask__(PWM10_OCR)
-#if (PWM10_TIMER == 2)
-#define PWM10_PRESCALLER 0x04
-#elif (PWM10_TIMER == 0)
-#define PWM10_PRESCALLER 0x03
+        <v>#if (defined(PWM15_OCR) &amp;&amp; defined(PWM15_TIMER) &amp;&amp; defined(PWM15))
+#define PWM15_OCRREG (__ocrreg__(PWM15_TIMER, PWM15_OCR))
+#define PWM15_TMRAREG (__tmrareg__(PWM15_TIMER))
+#define PWM15_TMRBREG (__tmrbreg__(PWM15_TIMER))
+#define PWM15_ENABLE_MASK __pwmenmask__(PWM15_OCR)
+#if (PWM15_TIMER == 2)
+#define PWM15_PRESCALLER 0x04
+#elif (PWM15_TIMER == 0)
+#define PWM15_PRESCALLER 0x03
 #else
-#define PWM10_PRESCALLER 0x0B
-#endif
-#if (PWM10_TIMER == 0 || PWM10_TIMER == 2)
-#define PWM10_MODE 0x03
+#define PWM15_PRESCALLER 0x0B
+#endif
+#if (PWM15_TIMER == 0 || PWM15_TIMER == 2)
+#define PWM15_MODE 0x03
 #else
-#define PWM10_MODE 0x01
-#endif
-#define DIO30_OCR PWM10_OCR
-#define DIO30_TIMER PWM10_TIMER
-#define DIO30_OCRREG PWM10_OCRREG
-#define DIO30_TMRAREG PWM10_TMRAREG
-#define DIO30_TMRBREG PWM10_TMRBREG
-#define DIO30_ENABLE_MASK PWM10_ENABLE_MASK
-#define DIO30_MODE PWM10_MODE
-#define DIO30_PRESCALLER PWM10_PRESCALLER
+#define PWM15_MODE 0x01
+#endif
+#define DIO30_OCR PWM15_OCR
+#define DIO30_TIMER PWM15_TIMER
+#define DIO30_OCRREG PWM15_OCRREG
+#define DIO30_TMRAREG PWM15_TMRAREG
+#define DIO30_TMRBREG PWM15_TMRBREG
+#define DIO30_ENABLE_MASK PWM15_ENABLE_MASK
+#define DIO30_MODE PWM15_MODE
+#define DIO30_PRESCALLER PWM15_PRESCALLER
 #endif</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef PWM10
-mcu_config_pwm(PWM10);
+        <v>#ifdef PWM15
+mcu_config_pwm(PWM15);
 #endif</v>
       </c>
       <c r="J33" s="3"/>
@@ -3278,61 +3400,31 @@
         <v>DIO31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="3">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM11_PORT) &amp;&amp; defined(PWM11_BIT))
+        <v>#if(defined(TX_PORT) &amp;&amp; defined(TX_BIT))
 #define DIO31 31
-#define PWM11 31
-#define DIO31_PORT (PWM11_PORT)
-#define DIO31_BIT (PWM11_BIT)
-#define PWM11_OUTREG (__outreg__(PWM11_PORT))
-#define PWM11_INREG (__inreg__(PWM11_PORT))
-#define PWM11_DIRREG (__dirreg__(PWM11_PORT))
-#define DIO31_OUTREG (__outreg__(PWM11_PORT))
-#define DIO31_INREG (__inreg__(PWM11_PORT))
-#define DIO31_DIRREG (__dirreg__(PWM11_PORT))
+#define TX 31
+#define DIO31_PORT (TX_PORT)
+#define DIO31_BIT (TX_BIT)
+#define TX_OUTREG (__outreg__(TX_PORT))
+#define TX_INREG (__inreg__(TX_PORT))
+#define TX_DIRREG (__dirreg__(TX_PORT))
+#define DIO31_OUTREG (__outreg__(TX_PORT))
+#define DIO31_INREG (__inreg__(TX_PORT))
+#define DIO31_DIRREG (__dirreg__(TX_PORT))
 #endif</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if (defined(PWM11_OCR) &amp;&amp; defined(PWM11_TIMER) &amp;&amp; defined(PWM11))
-#define PWM11_OCRREG (__ocrreg__(PWM11_TIMER, PWM11_OCR))
-#define PWM11_TMRAREG (__tmrareg__(PWM11_TIMER))
-#define PWM11_TMRBREG (__tmrbreg__(PWM11_TIMER))
-#define PWM11_ENABLE_MASK __pwmenmask__(PWM11_OCR)
-#if (PWM11_TIMER == 2)
-#define PWM11_PRESCALLER 0x04
-#elif (PWM11_TIMER == 0)
-#define PWM11_PRESCALLER 0x03
-#else
-#define PWM11_PRESCALLER 0x0B
-#endif
-#if (PWM11_TIMER == 0 || PWM11_TIMER == 2)
-#define PWM11_MODE 0x03
-#else
-#define PWM11_MODE 0x01
-#endif
-#define DIO31_OCR PWM11_OCR
-#define DIO31_TIMER PWM11_TIMER
-#define DIO31_OCRREG PWM11_OCRREG
-#define DIO31_TMRAREG PWM11_TMRAREG
-#define DIO31_TMRBREG PWM11_TMRBREG
-#define DIO31_ENABLE_MASK PWM11_ENABLE_MASK
-#define DIO31_MODE PWM11_MODE
-#define DIO31_PRESCALLER PWM11_PRESCALLER
-#endif</v>
-      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM11
-mcu_config_pwm(PWM11);
+        <f t="shared" si="2"/>
+        <v>#ifdef TX
+mcu_config_ouput(TX);
 #endif</v>
       </c>
       <c r="J34" s="3"/>
@@ -3364,61 +3456,33 @@
         <v>DIO32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM12_PORT) &amp;&amp; defined(PWM12_BIT))
+        <v>#if(defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
 #define DIO32 32
-#define PWM12 32
-#define DIO32_PORT (PWM12_PORT)
-#define DIO32_BIT (PWM12_BIT)
-#define PWM12_OUTREG (__outreg__(PWM12_PORT))
-#define PWM12_INREG (__inreg__(PWM12_PORT))
-#define PWM12_DIRREG (__dirreg__(PWM12_PORT))
-#define DIO32_OUTREG (__outreg__(PWM12_PORT))
-#define DIO32_INREG (__inreg__(PWM12_PORT))
-#define DIO32_DIRREG (__dirreg__(PWM12_PORT))
+#define DOUT0 32
+#define DIO32_PORT (DOUT0_PORT)
+#define DIO32_BIT (DOUT0_BIT)
+#define DOUT0_OUTREG (__outreg__(DOUT0_PORT))
+#define DOUT0_INREG (__inreg__(DOUT0_PORT))
+#define DOUT0_DIRREG (__dirreg__(DOUT0_PORT))
+#define DIO32_OUTREG (__outreg__(DOUT0_PORT))
+#define DIO32_INREG (__inreg__(DOUT0_PORT))
+#define DIO32_DIRREG (__dirreg__(DOUT0_PORT))
 #endif</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if (defined(PWM12_OCR) &amp;&amp; defined(PWM12_TIMER) &amp;&amp; defined(PWM12))
-#define PWM12_OCRREG (__ocrreg__(PWM12_TIMER, PWM12_OCR))
-#define PWM12_TMRAREG (__tmrareg__(PWM12_TIMER))
-#define PWM12_TMRBREG (__tmrbreg__(PWM12_TIMER))
-#define PWM12_ENABLE_MASK __pwmenmask__(PWM12_OCR)
-#if (PWM12_TIMER == 2)
-#define PWM12_PRESCALLER 0x04
-#elif (PWM12_TIMER == 0)
-#define PWM12_PRESCALLER 0x03
-#else
-#define PWM12_PRESCALLER 0x0B
-#endif
-#if (PWM12_TIMER == 0 || PWM12_TIMER == 2)
-#define PWM12_MODE 0x03
-#else
-#define PWM12_MODE 0x01
-#endif
-#define DIO32_OCR PWM12_OCR
-#define DIO32_TIMER PWM12_TIMER
-#define DIO32_OCRREG PWM12_OCRREG
-#define DIO32_TMRAREG PWM12_TMRAREG
-#define DIO32_TMRBREG PWM12_TMRBREG
-#define DIO32_ENABLE_MASK PWM12_ENABLE_MASK
-#define DIO32_MODE PWM12_MODE
-#define DIO32_PRESCALLER PWM12_PRESCALLER
-#endif</v>
-      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM12
-mcu_config_pwm(PWM12);
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT0
+mcu_config_ouput(DOUT0);
 #endif</v>
       </c>
       <c r="J35" s="3"/>
@@ -3450,61 +3514,33 @@
         <v>DIO33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM13_PORT) &amp;&amp; defined(PWM13_BIT))
+        <v>#if(defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
 #define DIO33 33
-#define PWM13 33
-#define DIO33_PORT (PWM13_PORT)
-#define DIO33_BIT (PWM13_BIT)
-#define PWM13_OUTREG (__outreg__(PWM13_PORT))
-#define PWM13_INREG (__inreg__(PWM13_PORT))
-#define PWM13_DIRREG (__dirreg__(PWM13_PORT))
-#define DIO33_OUTREG (__outreg__(PWM13_PORT))
-#define DIO33_INREG (__inreg__(PWM13_PORT))
-#define DIO33_DIRREG (__dirreg__(PWM13_PORT))
+#define DOUT1 33
+#define DIO33_PORT (DOUT1_PORT)
+#define DIO33_BIT (DOUT1_BIT)
+#define DOUT1_OUTREG (__outreg__(DOUT1_PORT))
+#define DOUT1_INREG (__inreg__(DOUT1_PORT))
+#define DOUT1_DIRREG (__dirreg__(DOUT1_PORT))
+#define DIO33_OUTREG (__outreg__(DOUT1_PORT))
+#define DIO33_INREG (__inreg__(DOUT1_PORT))
+#define DIO33_DIRREG (__dirreg__(DOUT1_PORT))
 #endif</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if (defined(PWM13_OCR) &amp;&amp; defined(PWM13_TIMER) &amp;&amp; defined(PWM13))
-#define PWM13_OCRREG (__ocrreg__(PWM13_TIMER, PWM13_OCR))
-#define PWM13_TMRAREG (__tmrareg__(PWM13_TIMER))
-#define PWM13_TMRBREG (__tmrbreg__(PWM13_TIMER))
-#define PWM13_ENABLE_MASK __pwmenmask__(PWM13_OCR)
-#if (PWM13_TIMER == 2)
-#define PWM13_PRESCALLER 0x04
-#elif (PWM13_TIMER == 0)
-#define PWM13_PRESCALLER 0x03
-#else
-#define PWM13_PRESCALLER 0x0B
-#endif
-#if (PWM13_TIMER == 0 || PWM13_TIMER == 2)
-#define PWM13_MODE 0x03
-#else
-#define PWM13_MODE 0x01
-#endif
-#define DIO33_OCR PWM13_OCR
-#define DIO33_TIMER PWM13_TIMER
-#define DIO33_OCRREG PWM13_OCRREG
-#define DIO33_TMRAREG PWM13_TMRAREG
-#define DIO33_TMRBREG PWM13_TMRBREG
-#define DIO33_ENABLE_MASK PWM13_ENABLE_MASK
-#define DIO33_MODE PWM13_MODE
-#define DIO33_PRESCALLER PWM13_PRESCALLER
-#endif</v>
-      </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM13
-mcu_config_pwm(PWM13);
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT1
+mcu_config_ouput(DOUT1);
 #endif</v>
       </c>
       <c r="J36" s="3"/>
@@ -3536,61 +3572,33 @@
         <v>DIO34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM14_PORT) &amp;&amp; defined(PWM14_BIT))
+        <v>#if(defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
 #define DIO34 34
-#define PWM14 34
-#define DIO34_PORT (PWM14_PORT)
-#define DIO34_BIT (PWM14_BIT)
-#define PWM14_OUTREG (__outreg__(PWM14_PORT))
-#define PWM14_INREG (__inreg__(PWM14_PORT))
-#define PWM14_DIRREG (__dirreg__(PWM14_PORT))
-#define DIO34_OUTREG (__outreg__(PWM14_PORT))
-#define DIO34_INREG (__inreg__(PWM14_PORT))
-#define DIO34_DIRREG (__dirreg__(PWM14_PORT))
+#define DOUT2 34
+#define DIO34_PORT (DOUT2_PORT)
+#define DIO34_BIT (DOUT2_BIT)
+#define DOUT2_OUTREG (__outreg__(DOUT2_PORT))
+#define DOUT2_INREG (__inreg__(DOUT2_PORT))
+#define DOUT2_DIRREG (__dirreg__(DOUT2_PORT))
+#define DIO34_OUTREG (__outreg__(DOUT2_PORT))
+#define DIO34_INREG (__inreg__(DOUT2_PORT))
+#define DIO34_DIRREG (__dirreg__(DOUT2_PORT))
 #endif</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if (defined(PWM14_OCR) &amp;&amp; defined(PWM14_TIMER) &amp;&amp; defined(PWM14))
-#define PWM14_OCRREG (__ocrreg__(PWM14_TIMER, PWM14_OCR))
-#define PWM14_TMRAREG (__tmrareg__(PWM14_TIMER))
-#define PWM14_TMRBREG (__tmrbreg__(PWM14_TIMER))
-#define PWM14_ENABLE_MASK __pwmenmask__(PWM14_OCR)
-#if (PWM14_TIMER == 2)
-#define PWM14_PRESCALLER 0x04
-#elif (PWM14_TIMER == 0)
-#define PWM14_PRESCALLER 0x03
-#else
-#define PWM14_PRESCALLER 0x0B
-#endif
-#if (PWM14_TIMER == 0 || PWM14_TIMER == 2)
-#define PWM14_MODE 0x03
-#else
-#define PWM14_MODE 0x01
-#endif
-#define DIO34_OCR PWM14_OCR
-#define DIO34_TIMER PWM14_TIMER
-#define DIO34_OCRREG PWM14_OCRREG
-#define DIO34_TMRAREG PWM14_TMRAREG
-#define DIO34_TMRBREG PWM14_TMRBREG
-#define DIO34_ENABLE_MASK PWM14_ENABLE_MASK
-#define DIO34_MODE PWM14_MODE
-#define DIO34_PRESCALLER PWM14_PRESCALLER
-#endif</v>
-      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM14
-mcu_config_pwm(PWM14);
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT2
+mcu_config_ouput(DOUT2);
 #endif</v>
       </c>
       <c r="J37" s="3"/>
@@ -3622,61 +3630,33 @@
         <v>DIO35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(PWM15_PORT) &amp;&amp; defined(PWM15_BIT))
+        <v>#if(defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
 #define DIO35 35
-#define PWM15 35
-#define DIO35_PORT (PWM15_PORT)
-#define DIO35_BIT (PWM15_BIT)
-#define PWM15_OUTREG (__outreg__(PWM15_PORT))
-#define PWM15_INREG (__inreg__(PWM15_PORT))
-#define PWM15_DIRREG (__dirreg__(PWM15_PORT))
-#define DIO35_OUTREG (__outreg__(PWM15_PORT))
-#define DIO35_INREG (__inreg__(PWM15_PORT))
-#define DIO35_DIRREG (__dirreg__(PWM15_PORT))
+#define DOUT3 35
+#define DIO35_PORT (DOUT3_PORT)
+#define DIO35_BIT (DOUT3_BIT)
+#define DOUT3_OUTREG (__outreg__(DOUT3_PORT))
+#define DOUT3_INREG (__inreg__(DOUT3_PORT))
+#define DOUT3_DIRREG (__dirreg__(DOUT3_PORT))
+#define DIO35_OUTREG (__outreg__(DOUT3_PORT))
+#define DIO35_INREG (__inreg__(DOUT3_PORT))
+#define DIO35_DIRREG (__dirreg__(DOUT3_PORT))
 #endif</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>#if (defined(PWM15_OCR) &amp;&amp; defined(PWM15_TIMER) &amp;&amp; defined(PWM15))
-#define PWM15_OCRREG (__ocrreg__(PWM15_TIMER, PWM15_OCR))
-#define PWM15_TMRAREG (__tmrareg__(PWM15_TIMER))
-#define PWM15_TMRBREG (__tmrbreg__(PWM15_TIMER))
-#define PWM15_ENABLE_MASK __pwmenmask__(PWM15_OCR)
-#if (PWM15_TIMER == 2)
-#define PWM15_PRESCALLER 0x04
-#elif (PWM15_TIMER == 0)
-#define PWM15_PRESCALLER 0x03
-#else
-#define PWM15_PRESCALLER 0x0B
-#endif
-#if (PWM15_TIMER == 0 || PWM15_TIMER == 2)
-#define PWM15_MODE 0x03
-#else
-#define PWM15_MODE 0x01
-#endif
-#define DIO35_OCR PWM15_OCR
-#define DIO35_TIMER PWM15_TIMER
-#define DIO35_OCRREG PWM15_OCRREG
-#define DIO35_TMRAREG PWM15_TMRAREG
-#define DIO35_TMRBREG PWM15_TMRBREG
-#define DIO35_ENABLE_MASK PWM15_ENABLE_MASK
-#define DIO35_MODE PWM15_MODE
-#define DIO35_PRESCALLER PWM15_PRESCALLER
-#endif</v>
-      </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>#ifdef PWM15
-mcu_config_pwm(PWM15);
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT3
+mcu_config_ouput(DOUT3);
 #endif</v>
       </c>
       <c r="J38" s="3"/>
@@ -3708,22 +3688,24 @@
         <v>DIO36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(TX_PORT) &amp;&amp; defined(TX_BIT))
+        <v>#if(defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
 #define DIO36 36
-#define TX 36
-#define DIO36_PORT (TX_PORT)
-#define DIO36_BIT (TX_BIT)
-#define TX_OUTREG (__outreg__(TX_PORT))
-#define TX_INREG (__inreg__(TX_PORT))
-#define TX_DIRREG (__dirreg__(TX_PORT))
-#define DIO36_OUTREG (__outreg__(TX_PORT))
-#define DIO36_INREG (__inreg__(TX_PORT))
-#define DIO36_DIRREG (__dirreg__(TX_PORT))
+#define DOUT4 36
+#define DIO36_PORT (DOUT4_PORT)
+#define DIO36_BIT (DOUT4_BIT)
+#define DOUT4_OUTREG (__outreg__(DOUT4_PORT))
+#define DOUT4_INREG (__inreg__(DOUT4_PORT))
+#define DOUT4_DIRREG (__dirreg__(DOUT4_PORT))
+#define DIO36_OUTREG (__outreg__(DOUT4_PORT))
+#define DIO36_INREG (__inreg__(DOUT4_PORT))
+#define DIO36_DIRREG (__dirreg__(DOUT4_PORT))
 #endif</v>
       </c>
       <c r="F39" s="6"/>
@@ -3731,8 +3713,8 @@
       <c r="H39" s="6"/>
       <c r="I39" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef TX
-mcu_config_ouput(TX);
+        <v>#ifdef DOUT4
+mcu_config_ouput(DOUT4);
 #endif</v>
       </c>
       <c r="J39" s="3"/>
@@ -3764,24 +3746,24 @@
         <v>DIO37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
+        <v>#if(defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
 #define DIO37 37
-#define DOUT0 37
-#define DIO37_PORT (DOUT0_PORT)
-#define DIO37_BIT (DOUT0_BIT)
-#define DOUT0_OUTREG (__outreg__(DOUT0_PORT))
-#define DOUT0_INREG (__inreg__(DOUT0_PORT))
-#define DOUT0_DIRREG (__dirreg__(DOUT0_PORT))
-#define DIO37_OUTREG (__outreg__(DOUT0_PORT))
-#define DIO37_INREG (__inreg__(DOUT0_PORT))
-#define DIO37_DIRREG (__dirreg__(DOUT0_PORT))
+#define DOUT5 37
+#define DIO37_PORT (DOUT5_PORT)
+#define DIO37_BIT (DOUT5_BIT)
+#define DOUT5_OUTREG (__outreg__(DOUT5_PORT))
+#define DOUT5_INREG (__inreg__(DOUT5_PORT))
+#define DOUT5_DIRREG (__dirreg__(DOUT5_PORT))
+#define DIO37_OUTREG (__outreg__(DOUT5_PORT))
+#define DIO37_INREG (__inreg__(DOUT5_PORT))
+#define DIO37_DIRREG (__dirreg__(DOUT5_PORT))
 #endif</v>
       </c>
       <c r="F40" s="6"/>
@@ -3789,8 +3771,8 @@
       <c r="H40" s="6"/>
       <c r="I40" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT0
-mcu_config_ouput(DOUT0);
+        <v>#ifdef DOUT5
+mcu_config_ouput(DOUT5);
 #endif</v>
       </c>
       <c r="J40" s="3"/>
@@ -3822,24 +3804,24 @@
         <v>DIO38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
+        <v>#if(defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
 #define DIO38 38
-#define DOUT1 38
-#define DIO38_PORT (DOUT1_PORT)
-#define DIO38_BIT (DOUT1_BIT)
-#define DOUT1_OUTREG (__outreg__(DOUT1_PORT))
-#define DOUT1_INREG (__inreg__(DOUT1_PORT))
-#define DOUT1_DIRREG (__dirreg__(DOUT1_PORT))
-#define DIO38_OUTREG (__outreg__(DOUT1_PORT))
-#define DIO38_INREG (__inreg__(DOUT1_PORT))
-#define DIO38_DIRREG (__dirreg__(DOUT1_PORT))
+#define DOUT6 38
+#define DIO38_PORT (DOUT6_PORT)
+#define DIO38_BIT (DOUT6_BIT)
+#define DOUT6_OUTREG (__outreg__(DOUT6_PORT))
+#define DOUT6_INREG (__inreg__(DOUT6_PORT))
+#define DOUT6_DIRREG (__dirreg__(DOUT6_PORT))
+#define DIO38_OUTREG (__outreg__(DOUT6_PORT))
+#define DIO38_INREG (__inreg__(DOUT6_PORT))
+#define DIO38_DIRREG (__dirreg__(DOUT6_PORT))
 #endif</v>
       </c>
       <c r="F41" s="6"/>
@@ -3847,8 +3829,8 @@
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT1
-mcu_config_ouput(DOUT1);
+        <v>#ifdef DOUT6
+mcu_config_ouput(DOUT6);
 #endif</v>
       </c>
       <c r="J41" s="3"/>
@@ -3880,24 +3862,24 @@
         <v>DIO39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
+        <v>#if(defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
 #define DIO39 39
-#define DOUT2 39
-#define DIO39_PORT (DOUT2_PORT)
-#define DIO39_BIT (DOUT2_BIT)
-#define DOUT2_OUTREG (__outreg__(DOUT2_PORT))
-#define DOUT2_INREG (__inreg__(DOUT2_PORT))
-#define DOUT2_DIRREG (__dirreg__(DOUT2_PORT))
-#define DIO39_OUTREG (__outreg__(DOUT2_PORT))
-#define DIO39_INREG (__inreg__(DOUT2_PORT))
-#define DIO39_DIRREG (__dirreg__(DOUT2_PORT))
+#define DOUT7 39
+#define DIO39_PORT (DOUT7_PORT)
+#define DIO39_BIT (DOUT7_BIT)
+#define DOUT7_OUTREG (__outreg__(DOUT7_PORT))
+#define DOUT7_INREG (__inreg__(DOUT7_PORT))
+#define DOUT7_DIRREG (__dirreg__(DOUT7_PORT))
+#define DIO39_OUTREG (__outreg__(DOUT7_PORT))
+#define DIO39_INREG (__inreg__(DOUT7_PORT))
+#define DIO39_DIRREG (__dirreg__(DOUT7_PORT))
 #endif</v>
       </c>
       <c r="F42" s="6"/>
@@ -3905,8 +3887,8 @@
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT2
-mcu_config_ouput(DOUT2);
+        <v>#ifdef DOUT7
+mcu_config_ouput(DOUT7);
 #endif</v>
       </c>
       <c r="J42" s="3"/>
@@ -3938,24 +3920,24 @@
         <v>DIO40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
+        <v>#if(defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
 #define DIO40 40
-#define DOUT3 40
-#define DIO40_PORT (DOUT3_PORT)
-#define DIO40_BIT (DOUT3_BIT)
-#define DOUT3_OUTREG (__outreg__(DOUT3_PORT))
-#define DOUT3_INREG (__inreg__(DOUT3_PORT))
-#define DOUT3_DIRREG (__dirreg__(DOUT3_PORT))
-#define DIO40_OUTREG (__outreg__(DOUT3_PORT))
-#define DIO40_INREG (__inreg__(DOUT3_PORT))
-#define DIO40_DIRREG (__dirreg__(DOUT3_PORT))
+#define DOUT8 40
+#define DIO40_PORT (DOUT8_PORT)
+#define DIO40_BIT (DOUT8_BIT)
+#define DOUT8_OUTREG (__outreg__(DOUT8_PORT))
+#define DOUT8_INREG (__inreg__(DOUT8_PORT))
+#define DOUT8_DIRREG (__dirreg__(DOUT8_PORT))
+#define DIO40_OUTREG (__outreg__(DOUT8_PORT))
+#define DIO40_INREG (__inreg__(DOUT8_PORT))
+#define DIO40_DIRREG (__dirreg__(DOUT8_PORT))
 #endif</v>
       </c>
       <c r="F43" s="6"/>
@@ -3963,8 +3945,8 @@
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT3
-mcu_config_ouput(DOUT3);
+        <v>#ifdef DOUT8
+mcu_config_ouput(DOUT8);
 #endif</v>
       </c>
       <c r="J43" s="3"/>
@@ -3996,24 +3978,24 @@
         <v>DIO41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
+        <v>#if(defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
 #define DIO41 41
-#define DOUT4 41
-#define DIO41_PORT (DOUT4_PORT)
-#define DIO41_BIT (DOUT4_BIT)
-#define DOUT4_OUTREG (__outreg__(DOUT4_PORT))
-#define DOUT4_INREG (__inreg__(DOUT4_PORT))
-#define DOUT4_DIRREG (__dirreg__(DOUT4_PORT))
-#define DIO41_OUTREG (__outreg__(DOUT4_PORT))
-#define DIO41_INREG (__inreg__(DOUT4_PORT))
-#define DIO41_DIRREG (__dirreg__(DOUT4_PORT))
+#define DOUT9 41
+#define DIO41_PORT (DOUT9_PORT)
+#define DIO41_BIT (DOUT9_BIT)
+#define DOUT9_OUTREG (__outreg__(DOUT9_PORT))
+#define DOUT9_INREG (__inreg__(DOUT9_PORT))
+#define DOUT9_DIRREG (__dirreg__(DOUT9_PORT))
+#define DIO41_OUTREG (__outreg__(DOUT9_PORT))
+#define DIO41_INREG (__inreg__(DOUT9_PORT))
+#define DIO41_DIRREG (__dirreg__(DOUT9_PORT))
 #endif</v>
       </c>
       <c r="F44" s="6"/>
@@ -4021,8 +4003,8 @@
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT4
-mcu_config_ouput(DOUT4);
+        <v>#ifdef DOUT9
+mcu_config_ouput(DOUT9);
 #endif</v>
       </c>
       <c r="J44" s="3"/>
@@ -4054,24 +4036,24 @@
         <v>DIO42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
+        <v>#if(defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
 #define DIO42 42
-#define DOUT5 42
-#define DIO42_PORT (DOUT5_PORT)
-#define DIO42_BIT (DOUT5_BIT)
-#define DOUT5_OUTREG (__outreg__(DOUT5_PORT))
-#define DOUT5_INREG (__inreg__(DOUT5_PORT))
-#define DOUT5_DIRREG (__dirreg__(DOUT5_PORT))
-#define DIO42_OUTREG (__outreg__(DOUT5_PORT))
-#define DIO42_INREG (__inreg__(DOUT5_PORT))
-#define DIO42_DIRREG (__dirreg__(DOUT5_PORT))
+#define DOUT10 42
+#define DIO42_PORT (DOUT10_PORT)
+#define DIO42_BIT (DOUT10_BIT)
+#define DOUT10_OUTREG (__outreg__(DOUT10_PORT))
+#define DOUT10_INREG (__inreg__(DOUT10_PORT))
+#define DOUT10_DIRREG (__dirreg__(DOUT10_PORT))
+#define DIO42_OUTREG (__outreg__(DOUT10_PORT))
+#define DIO42_INREG (__inreg__(DOUT10_PORT))
+#define DIO42_DIRREG (__dirreg__(DOUT10_PORT))
 #endif</v>
       </c>
       <c r="F45" s="6"/>
@@ -4079,8 +4061,8 @@
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT5
-mcu_config_ouput(DOUT5);
+        <v>#ifdef DOUT10
+mcu_config_ouput(DOUT10);
 #endif</v>
       </c>
       <c r="J45" s="3"/>
@@ -4112,24 +4094,24 @@
         <v>DIO43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
+        <v>#if(defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
 #define DIO43 43
-#define DOUT6 43
-#define DIO43_PORT (DOUT6_PORT)
-#define DIO43_BIT (DOUT6_BIT)
-#define DOUT6_OUTREG (__outreg__(DOUT6_PORT))
-#define DOUT6_INREG (__inreg__(DOUT6_PORT))
-#define DOUT6_DIRREG (__dirreg__(DOUT6_PORT))
-#define DIO43_OUTREG (__outreg__(DOUT6_PORT))
-#define DIO43_INREG (__inreg__(DOUT6_PORT))
-#define DIO43_DIRREG (__dirreg__(DOUT6_PORT))
+#define DOUT11 43
+#define DIO43_PORT (DOUT11_PORT)
+#define DIO43_BIT (DOUT11_BIT)
+#define DOUT11_OUTREG (__outreg__(DOUT11_PORT))
+#define DOUT11_INREG (__inreg__(DOUT11_PORT))
+#define DOUT11_DIRREG (__dirreg__(DOUT11_PORT))
+#define DIO43_OUTREG (__outreg__(DOUT11_PORT))
+#define DIO43_INREG (__inreg__(DOUT11_PORT))
+#define DIO43_DIRREG (__dirreg__(DOUT11_PORT))
 #endif</v>
       </c>
       <c r="F46" s="6"/>
@@ -4137,8 +4119,8 @@
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT6
-mcu_config_ouput(DOUT6);
+        <v>#ifdef DOUT11
+mcu_config_ouput(DOUT11);
 #endif</v>
       </c>
       <c r="J46" s="3"/>
@@ -4170,24 +4152,24 @@
         <v>DIO44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
+        <v>#if(defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
 #define DIO44 44
-#define DOUT7 44
-#define DIO44_PORT (DOUT7_PORT)
-#define DIO44_BIT (DOUT7_BIT)
-#define DOUT7_OUTREG (__outreg__(DOUT7_PORT))
-#define DOUT7_INREG (__inreg__(DOUT7_PORT))
-#define DOUT7_DIRREG (__dirreg__(DOUT7_PORT))
-#define DIO44_OUTREG (__outreg__(DOUT7_PORT))
-#define DIO44_INREG (__inreg__(DOUT7_PORT))
-#define DIO44_DIRREG (__dirreg__(DOUT7_PORT))
+#define DOUT12 44
+#define DIO44_PORT (DOUT12_PORT)
+#define DIO44_BIT (DOUT12_BIT)
+#define DOUT12_OUTREG (__outreg__(DOUT12_PORT))
+#define DOUT12_INREG (__inreg__(DOUT12_PORT))
+#define DOUT12_DIRREG (__dirreg__(DOUT12_PORT))
+#define DIO44_OUTREG (__outreg__(DOUT12_PORT))
+#define DIO44_INREG (__inreg__(DOUT12_PORT))
+#define DIO44_DIRREG (__dirreg__(DOUT12_PORT))
 #endif</v>
       </c>
       <c r="F47" s="6"/>
@@ -4195,8 +4177,8 @@
       <c r="H47" s="6"/>
       <c r="I47" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT7
-mcu_config_ouput(DOUT7);
+        <v>#ifdef DOUT12
+mcu_config_ouput(DOUT12);
 #endif</v>
       </c>
       <c r="J47" s="3"/>
@@ -4228,24 +4210,24 @@
         <v>DIO45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
+        <v>#if(defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
 #define DIO45 45
-#define DOUT8 45
-#define DIO45_PORT (DOUT8_PORT)
-#define DIO45_BIT (DOUT8_BIT)
-#define DOUT8_OUTREG (__outreg__(DOUT8_PORT))
-#define DOUT8_INREG (__inreg__(DOUT8_PORT))
-#define DOUT8_DIRREG (__dirreg__(DOUT8_PORT))
-#define DIO45_OUTREG (__outreg__(DOUT8_PORT))
-#define DIO45_INREG (__inreg__(DOUT8_PORT))
-#define DIO45_DIRREG (__dirreg__(DOUT8_PORT))
+#define DOUT13 45
+#define DIO45_PORT (DOUT13_PORT)
+#define DIO45_BIT (DOUT13_BIT)
+#define DOUT13_OUTREG (__outreg__(DOUT13_PORT))
+#define DOUT13_INREG (__inreg__(DOUT13_PORT))
+#define DOUT13_DIRREG (__dirreg__(DOUT13_PORT))
+#define DIO45_OUTREG (__outreg__(DOUT13_PORT))
+#define DIO45_INREG (__inreg__(DOUT13_PORT))
+#define DIO45_DIRREG (__dirreg__(DOUT13_PORT))
 #endif</v>
       </c>
       <c r="F48" s="6"/>
@@ -4253,8 +4235,8 @@
       <c r="H48" s="6"/>
       <c r="I48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT8
-mcu_config_ouput(DOUT8);
+        <v>#ifdef DOUT13
+mcu_config_ouput(DOUT13);
 #endif</v>
       </c>
       <c r="J48" s="3"/>
@@ -4286,24 +4268,24 @@
         <v>DIO46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
+        <v>#if(defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
 #define DIO46 46
-#define DOUT9 46
-#define DIO46_PORT (DOUT9_PORT)
-#define DIO46_BIT (DOUT9_BIT)
-#define DOUT9_OUTREG (__outreg__(DOUT9_PORT))
-#define DOUT9_INREG (__inreg__(DOUT9_PORT))
-#define DOUT9_DIRREG (__dirreg__(DOUT9_PORT))
-#define DIO46_OUTREG (__outreg__(DOUT9_PORT))
-#define DIO46_INREG (__inreg__(DOUT9_PORT))
-#define DIO46_DIRREG (__dirreg__(DOUT9_PORT))
+#define DOUT14 46
+#define DIO46_PORT (DOUT14_PORT)
+#define DIO46_BIT (DOUT14_BIT)
+#define DOUT14_OUTREG (__outreg__(DOUT14_PORT))
+#define DOUT14_INREG (__inreg__(DOUT14_PORT))
+#define DOUT14_DIRREG (__dirreg__(DOUT14_PORT))
+#define DIO46_OUTREG (__outreg__(DOUT14_PORT))
+#define DIO46_INREG (__inreg__(DOUT14_PORT))
+#define DIO46_DIRREG (__dirreg__(DOUT14_PORT))
 #endif</v>
       </c>
       <c r="F49" s="6"/>
@@ -4311,8 +4293,8 @@
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT9
-mcu_config_ouput(DOUT9);
+        <v>#ifdef DOUT14
+mcu_config_ouput(DOUT14);
 #endif</v>
       </c>
       <c r="J49" s="3"/>
@@ -4344,33 +4326,37 @@
         <v>DIO47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
+        <v>#if(defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
 #define DIO47 47
-#define DOUT10 47
-#define DIO47_PORT (DOUT10_PORT)
-#define DIO47_BIT (DOUT10_BIT)
-#define DOUT10_OUTREG (__outreg__(DOUT10_PORT))
-#define DOUT10_INREG (__inreg__(DOUT10_PORT))
-#define DOUT10_DIRREG (__dirreg__(DOUT10_PORT))
-#define DIO47_OUTREG (__outreg__(DOUT10_PORT))
-#define DIO47_INREG (__inreg__(DOUT10_PORT))
-#define DIO47_DIRREG (__dirreg__(DOUT10_PORT))
+#define DOUT15 47
+#define DIO47_PORT (DOUT15_PORT)
+#define DIO47_BIT (DOUT15_BIT)
+#define DOUT15_OUTREG (__outreg__(DOUT15_PORT))
+#define DOUT15_INREG (__inreg__(DOUT15_PORT))
+#define DOUT15_DIRREG (__dirreg__(DOUT15_PORT))
+#define DIO47_OUTREG (__outreg__(DOUT15_PORT))
+#define DIO47_INREG (__inreg__(DOUT15_PORT))
+#define DIO47_DIRREG (__dirreg__(DOUT15_PORT))
 #endif</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT10
-mcu_config_ouput(DOUT10);
+        <v>#ifdef DOUT15
+mcu_config_ouput(DOUT15);
 #endif</v>
       </c>
       <c r="J50" s="3"/>
@@ -4402,33 +4388,222 @@
         <v>DIO48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
+        <v>#if(defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
 #define DIO48 48
-#define DOUT11 48
-#define DIO48_PORT (DOUT11_PORT)
-#define DIO48_BIT (DOUT11_BIT)
-#define DOUT11_OUTREG (__outreg__(DOUT11_PORT))
-#define DOUT11_INREG (__inreg__(DOUT11_PORT))
-#define DOUT11_DIRREG (__dirreg__(DOUT11_PORT))
-#define DIO48_OUTREG (__outreg__(DOUT11_PORT))
-#define DIO48_INREG (__inreg__(DOUT11_PORT))
-#define DIO48_DIRREG (__dirreg__(DOUT11_PORT))
+#define LIMIT_X 48
+#define DIO48_PORT (LIMIT_X_PORT)
+#define DIO48_BIT (LIMIT_X_BIT)
+#define LIMIT_X_OUTREG (__outreg__(LIMIT_X_PORT))
+#define LIMIT_X_INREG (__inreg__(LIMIT_X_PORT))
+#define LIMIT_X_DIRREG (__dirreg__(LIMIT_X_PORT))
+#define DIO48_OUTREG (__outreg__(LIMIT_X_PORT))
+#define DIO48_INREG (__inreg__(LIMIT_X_PORT))
+#define DIO48_DIRREG (__dirreg__(LIMIT_X_PORT))
 #endif</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT11
-mcu_config_ouput(DOUT11);
+      <c r="F51" s="10" t="str">
+        <f>"#if(defined("&amp;C51&amp;"_ISR) &amp;&amp; defined("&amp;C51&amp;"))
+#define "&amp;B51&amp;"_ISR ("&amp;C51&amp;"_ISR)
+#define "&amp;C51&amp;"_ISRREG (__pcmskreg__("&amp;C51&amp;"_ISR))
+#if("&amp;C51&amp;"_ISR==0)
+#define "&amp;C51&amp;"_ISR0 (1 &lt;&lt; "&amp;C51&amp;"_BIT)
+#endif
+#if("&amp;C51&amp;"_ISR==1)
+#define "&amp;C51&amp;"_ISR1 (1 &lt;&lt; "&amp;C51&amp;"_BIT)
+#endif
+#if("&amp;C51&amp;"_ISR==2)
+#define "&amp;C51&amp;"_ISR2 (1 &lt;&lt; "&amp;C51&amp;"_BIT)
+#endif
+#if("&amp;C51&amp;"_ISR==-1)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRA
+#define "&amp;C51&amp;"_ISRA 1
+#endif
+#if("&amp;C51&amp;"_ISR==-2)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRA
+#define "&amp;C51&amp;"_ISRA 4
+#endif
+#if("&amp;C51&amp;"_ISR==-3)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRA
+#define "&amp;C51&amp;"_ISRA 16
+#endif
+#if("&amp;C51&amp;"_ISR==-4)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRA
+#define "&amp;C51&amp;"_ISRA 64
+#endif
+#if("&amp;C51&amp;"_ISR==-5)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRA
+#define "&amp;C51&amp;"_ISRB 1
+#endif
+#if("&amp;C51&amp;"_ISR==-6)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRB
+#define "&amp;C51&amp;"_ISRB 4
+#endif
+#if("&amp;C51&amp;"_ISR==-7)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRB
+#define "&amp;C51&amp;"_ISRB 16
+#endif
+#if("&amp;C51&amp;"_ISR==-8)
+#undef "&amp;C51&amp;"_ISRREG
+#define "&amp;C51&amp;"_ISRREG EICRB
+#define "&amp;C51&amp;"_ISRB 64
+#endif
+#define "&amp;B51&amp;"_ISRREG "&amp;C51&amp;"_ISRREG
+#endif"</f>
+        <v>#if(defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
+#define DIO48_ISR (LIMIT_X_ISR)
+#define LIMIT_X_ISRREG (__pcmskreg__(LIMIT_X_ISR))
+#if(LIMIT_X_ISR==0)
+#define LIMIT_X_ISR0 (1 &lt;&lt; LIMIT_X_BIT)
+#endif
+#if(LIMIT_X_ISR==1)
+#define LIMIT_X_ISR1 (1 &lt;&lt; LIMIT_X_BIT)
+#endif
+#if(LIMIT_X_ISR==2)
+#define LIMIT_X_ISR2 (1 &lt;&lt; LIMIT_X_BIT)
+#endif
+#if(LIMIT_X_ISR==-1)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 1
+#endif
+#if(LIMIT_X_ISR==-2)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 4
+#endif
+#if(LIMIT_X_ISR==-3)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 16
+#endif
+#if(LIMIT_X_ISR==-4)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRA 64
+#endif
+#if(LIMIT_X_ISR==-5)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRA
+#define LIMIT_X_ISRB 1
+#endif
+#if(LIMIT_X_ISR==-6)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRB
+#define LIMIT_X_ISRB 4
+#endif
+#if(LIMIT_X_ISR==-7)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRB
+#define LIMIT_X_ISRB 16
+#endif
+#if(LIMIT_X_ISR==-8)
+#undef LIMIT_X_ISRREG
+#define LIMIT_X_ISRREG EICRB
+#define LIMIT_X_ISRB 64
+#endif
+#define DIO48_ISRREG LIMIT_X_ISRREG
+#endif</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f>"#ifndef "&amp;C51&amp;"_ISR0
+#define "&amp;C51&amp;"_ISR0 0
+#endif
+#ifndef "&amp;C51&amp;"_ISR1
+#define "&amp;C51&amp;"_ISR1 0
+#endif
+#ifndef "&amp;C51&amp;"_ISR2
+#define "&amp;C51&amp;"_ISR2 0
+#endif
+#ifndef "&amp;C51&amp;"_ISRA
+#define "&amp;C51&amp;"_ISRA 0
+#endif
+#ifndef "&amp;C51&amp;"_ISRB
+#define "&amp;C51&amp;"_ISRB 0
+#endif
+#define "&amp;C51&amp;"_ISR_MASK ("&amp;C51&amp;"_ISR0 | "&amp;C51&amp;"_ISR1 | "&amp;C51&amp;"_ISR2 | "&amp;C51&amp;"_ISRA | "&amp;C51&amp;"_ISRB)
+#ifndef "&amp;C51&amp;"_ISR_MASK
+#define "&amp;C51&amp;"_ISR_MASK 0
+#endif
+#define "&amp;B51&amp;"_ISR_MASK "&amp;C51&amp;"_ISR_MASK
+#define "&amp;B51&amp;"_ISRREG "&amp;C51&amp;"_ISRREG"</f>
+        <v>#ifndef LIMIT_X_ISR0
+#define LIMIT_X_ISR0 0
+#endif
+#ifndef LIMIT_X_ISR1
+#define LIMIT_X_ISR1 0
+#endif
+#ifndef LIMIT_X_ISR2
+#define LIMIT_X_ISR2 0
+#endif
+#ifndef LIMIT_X_ISRA
+#define LIMIT_X_ISRA 0
+#endif
+#ifndef LIMIT_X_ISRB
+#define LIMIT_X_ISRB 0
+#endif
+#define LIMIT_X_ISR_MASK (LIMIT_X_ISR0 | LIMIT_X_ISR1 | LIMIT_X_ISR2 | LIMIT_X_ISRA | LIMIT_X_ISRB)
+#ifndef LIMIT_X_ISR_MASK
+#define LIMIT_X_ISR_MASK 0
+#endif
+#define DIO48_ISR_MASK LIMIT_X_ISR_MASK
+#define DIO48_ISRREG LIMIT_X_ISRREG</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>"#ifdef "&amp;C51&amp;"
+#define LIMITEN_"&amp;C51&amp;" (1&lt;&lt;("&amp;C51&amp;" - LIMIT_X))
+#ifdef "&amp;C51&amp;"_ISR
+#define LIMITISR_"&amp;C51&amp;" (1&lt;&lt;("&amp;C51&amp;" - LIMIT_X))
+#else
+#define LIMITISR_"&amp;C51&amp;" 0
+#endif
+#else
+#define LIMITEN_"&amp;C51&amp;" 0
+#define LIMITISR_"&amp;C51&amp;" 0
+#endif"</f>
+        <v>#ifdef LIMIT_X
+#define LIMITEN_LIMIT_X (1&lt;&lt;(LIMIT_X - LIMIT_X))
+#ifdef LIMIT_X_ISR
+#define LIMITISR_LIMIT_X (1&lt;&lt;(LIMIT_X - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_X 0
+#endif
+#else
+#define LIMITEN_LIMIT_X 0
+#define LIMITISR_LIMIT_X 0
+#endif</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>"#ifdef "&amp;C51&amp;"
+mcu_config_input("&amp;C51&amp;");
+#ifdef "&amp;C51&amp;"_PULLUP
+mcu_config_pullup("&amp;C51&amp;");
+#endif
+#ifdef "&amp;C51&amp;"_ISR
+mcu_config_input_isr("&amp;C51&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef LIMIT_X
+mcu_config_input(LIMIT_X);
+#ifdef LIMIT_X_PULLUP
+mcu_config_pullup(LIMIT_X);
+#endif
+#ifdef LIMIT_X_ISR
+mcu_config_input_isr(LIMIT_X);
+#endif
 #endif</v>
       </c>
       <c r="J51" s="3"/>
@@ -4460,33 +4635,222 @@
         <v>DIO49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
+        <v>#if(defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
 #define DIO49 49
-#define DOUT12 49
-#define DIO49_PORT (DOUT12_PORT)
-#define DIO49_BIT (DOUT12_BIT)
-#define DOUT12_OUTREG (__outreg__(DOUT12_PORT))
-#define DOUT12_INREG (__inreg__(DOUT12_PORT))
-#define DOUT12_DIRREG (__dirreg__(DOUT12_PORT))
-#define DIO49_OUTREG (__outreg__(DOUT12_PORT))
-#define DIO49_INREG (__inreg__(DOUT12_PORT))
-#define DIO49_DIRREG (__dirreg__(DOUT12_PORT))
+#define LIMIT_Y 49
+#define DIO49_PORT (LIMIT_Y_PORT)
+#define DIO49_BIT (LIMIT_Y_BIT)
+#define LIMIT_Y_OUTREG (__outreg__(LIMIT_Y_PORT))
+#define LIMIT_Y_INREG (__inreg__(LIMIT_Y_PORT))
+#define LIMIT_Y_DIRREG (__dirreg__(LIMIT_Y_PORT))
+#define DIO49_OUTREG (__outreg__(LIMIT_Y_PORT))
+#define DIO49_INREG (__inreg__(LIMIT_Y_PORT))
+#define DIO49_DIRREG (__dirreg__(LIMIT_Y_PORT))
 #endif</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT12
-mcu_config_ouput(DOUT12);
+      <c r="F52" s="10" t="str">
+        <f t="shared" ref="F52:F64" si="6">"#if(defined("&amp;C52&amp;"_ISR) &amp;&amp; defined("&amp;C52&amp;"))
+#define "&amp;B52&amp;"_ISR ("&amp;C52&amp;"_ISR)
+#define "&amp;C52&amp;"_ISRREG (__pcmskreg__("&amp;C52&amp;"_ISR))
+#if("&amp;C52&amp;"_ISR==0)
+#define "&amp;C52&amp;"_ISR0 (1 &lt;&lt; "&amp;C52&amp;"_BIT)
+#endif
+#if("&amp;C52&amp;"_ISR==1)
+#define "&amp;C52&amp;"_ISR1 (1 &lt;&lt; "&amp;C52&amp;"_BIT)
+#endif
+#if("&amp;C52&amp;"_ISR==2)
+#define "&amp;C52&amp;"_ISR2 (1 &lt;&lt; "&amp;C52&amp;"_BIT)
+#endif
+#if("&amp;C52&amp;"_ISR==-1)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRA
+#define "&amp;C52&amp;"_ISRA 1
+#endif
+#if("&amp;C52&amp;"_ISR==-2)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRA
+#define "&amp;C52&amp;"_ISRA 4
+#endif
+#if("&amp;C52&amp;"_ISR==-3)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRA
+#define "&amp;C52&amp;"_ISRA 16
+#endif
+#if("&amp;C52&amp;"_ISR==-4)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRA
+#define "&amp;C52&amp;"_ISRA 64
+#endif
+#if("&amp;C52&amp;"_ISR==-5)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRA
+#define "&amp;C52&amp;"_ISRB 1
+#endif
+#if("&amp;C52&amp;"_ISR==-6)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRB
+#define "&amp;C52&amp;"_ISRB 4
+#endif
+#if("&amp;C52&amp;"_ISR==-7)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRB
+#define "&amp;C52&amp;"_ISRB 16
+#endif
+#if("&amp;C52&amp;"_ISR==-8)
+#undef "&amp;C52&amp;"_ISRREG
+#define "&amp;C52&amp;"_ISRREG EICRB
+#define "&amp;C52&amp;"_ISRB 64
+#endif
+#define "&amp;B52&amp;"_ISRREG "&amp;C52&amp;"_ISRREG
+#endif"</f>
+        <v>#if(defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
+#define DIO49_ISR (LIMIT_Y_ISR)
+#define LIMIT_Y_ISRREG (__pcmskreg__(LIMIT_Y_ISR))
+#if(LIMIT_Y_ISR==0)
+#define LIMIT_Y_ISR0 (1 &lt;&lt; LIMIT_Y_BIT)
+#endif
+#if(LIMIT_Y_ISR==1)
+#define LIMIT_Y_ISR1 (1 &lt;&lt; LIMIT_Y_BIT)
+#endif
+#if(LIMIT_Y_ISR==2)
+#define LIMIT_Y_ISR2 (1 &lt;&lt; LIMIT_Y_BIT)
+#endif
+#if(LIMIT_Y_ISR==-1)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 1
+#endif
+#if(LIMIT_Y_ISR==-2)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 4
+#endif
+#if(LIMIT_Y_ISR==-3)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 16
+#endif
+#if(LIMIT_Y_ISR==-4)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRA 64
+#endif
+#if(LIMIT_Y_ISR==-5)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRA
+#define LIMIT_Y_ISRB 1
+#endif
+#if(LIMIT_Y_ISR==-6)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRB
+#define LIMIT_Y_ISRB 4
+#endif
+#if(LIMIT_Y_ISR==-7)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRB
+#define LIMIT_Y_ISRB 16
+#endif
+#if(LIMIT_Y_ISR==-8)
+#undef LIMIT_Y_ISRREG
+#define LIMIT_Y_ISRREG EICRB
+#define LIMIT_Y_ISRB 64
+#endif
+#define DIO49_ISRREG LIMIT_Y_ISRREG
+#endif</v>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f t="shared" ref="G52:G64" si="7">"#ifndef "&amp;C52&amp;"_ISR0
+#define "&amp;C52&amp;"_ISR0 0
+#endif
+#ifndef "&amp;C52&amp;"_ISR1
+#define "&amp;C52&amp;"_ISR1 0
+#endif
+#ifndef "&amp;C52&amp;"_ISR2
+#define "&amp;C52&amp;"_ISR2 0
+#endif
+#ifndef "&amp;C52&amp;"_ISRA
+#define "&amp;C52&amp;"_ISRA 0
+#endif
+#ifndef "&amp;C52&amp;"_ISRB
+#define "&amp;C52&amp;"_ISRB 0
+#endif
+#define "&amp;C52&amp;"_ISR_MASK ("&amp;C52&amp;"_ISR0 | "&amp;C52&amp;"_ISR1 | "&amp;C52&amp;"_ISR2 | "&amp;C52&amp;"_ISRA | "&amp;C52&amp;"_ISRB)
+#ifndef "&amp;C52&amp;"_ISR_MASK
+#define "&amp;C52&amp;"_ISR_MASK 0
+#endif
+#define "&amp;B52&amp;"_ISR_MASK "&amp;C52&amp;"_ISR_MASK
+#define "&amp;B52&amp;"_ISRREG "&amp;C52&amp;"_ISRREG"</f>
+        <v>#ifndef LIMIT_Y_ISR0
+#define LIMIT_Y_ISR0 0
+#endif
+#ifndef LIMIT_Y_ISR1
+#define LIMIT_Y_ISR1 0
+#endif
+#ifndef LIMIT_Y_ISR2
+#define LIMIT_Y_ISR2 0
+#endif
+#ifndef LIMIT_Y_ISRA
+#define LIMIT_Y_ISRA 0
+#endif
+#ifndef LIMIT_Y_ISRB
+#define LIMIT_Y_ISRB 0
+#endif
+#define LIMIT_Y_ISR_MASK (LIMIT_Y_ISR0 | LIMIT_Y_ISR1 | LIMIT_Y_ISR2 | LIMIT_Y_ISRA | LIMIT_Y_ISRB)
+#ifndef LIMIT_Y_ISR_MASK
+#define LIMIT_Y_ISR_MASK 0
+#endif
+#define DIO49_ISR_MASK LIMIT_Y_ISR_MASK
+#define DIO49_ISRREG LIMIT_Y_ISRREG</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f t="shared" ref="H52:H59" si="8">"#ifdef "&amp;C52&amp;"
+#define LIMITEN_"&amp;C52&amp;" (1&lt;&lt;("&amp;C52&amp;" - LIMIT_X))
+#ifdef "&amp;C52&amp;"_ISR
+#define LIMITISR_"&amp;C52&amp;" (1&lt;&lt;("&amp;C52&amp;" - LIMIT_X))
+#else
+#define LIMITISR_"&amp;C52&amp;" 0
+#endif
+#else
+#define LIMITEN_"&amp;C52&amp;" 0
+#define LIMITISR_"&amp;C52&amp;" 0
+#endif"</f>
+        <v>#ifdef LIMIT_Y
+#define LIMITEN_LIMIT_Y (1&lt;&lt;(LIMIT_Y - LIMIT_X))
+#ifdef LIMIT_Y_ISR
+#define LIMITISR_LIMIT_Y (1&lt;&lt;(LIMIT_Y - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Y 0
+#endif
+#else
+#define LIMITEN_LIMIT_Y 0
+#define LIMITISR_LIMIT_Y 0
+#endif</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" ref="I52:I64" si="9">"#ifdef "&amp;C52&amp;"
+mcu_config_input("&amp;C52&amp;");
+#ifdef "&amp;C52&amp;"_PULLUP
+mcu_config_pullup("&amp;C52&amp;");
+#endif
+#ifdef "&amp;C52&amp;"_ISR
+mcu_config_input_isr("&amp;C52&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef LIMIT_Y
+mcu_config_input(LIMIT_Y);
+#ifdef LIMIT_Y_PULLUP
+mcu_config_pullup(LIMIT_Y);
+#endif
+#ifdef LIMIT_Y_ISR
+mcu_config_input_isr(LIMIT_Y);
+#endif
 #endif</v>
       </c>
       <c r="J52" s="3"/>
@@ -4518,33 +4882,131 @@
         <v>DIO50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
+        <v>#if(defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
 #define DIO50 50
-#define DOUT13 50
-#define DIO50_PORT (DOUT13_PORT)
-#define DIO50_BIT (DOUT13_BIT)
-#define DOUT13_OUTREG (__outreg__(DOUT13_PORT))
-#define DOUT13_INREG (__inreg__(DOUT13_PORT))
-#define DOUT13_DIRREG (__dirreg__(DOUT13_PORT))
-#define DIO50_OUTREG (__outreg__(DOUT13_PORT))
-#define DIO50_INREG (__inreg__(DOUT13_PORT))
-#define DIO50_DIRREG (__dirreg__(DOUT13_PORT))
+#define LIMIT_Z 50
+#define DIO50_PORT (LIMIT_Z_PORT)
+#define DIO50_BIT (LIMIT_Z_BIT)
+#define LIMIT_Z_OUTREG (__outreg__(LIMIT_Z_PORT))
+#define LIMIT_Z_INREG (__inreg__(LIMIT_Z_PORT))
+#define LIMIT_Z_DIRREG (__dirreg__(LIMIT_Z_PORT))
+#define DIO50_OUTREG (__outreg__(LIMIT_Z_PORT))
+#define DIO50_INREG (__inreg__(LIMIT_Z_PORT))
+#define DIO50_DIRREG (__dirreg__(LIMIT_Z_PORT))
 #endif</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT13
-mcu_config_ouput(DOUT13);
+      <c r="F53" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>#if(defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
+#define DIO50_ISR (LIMIT_Z_ISR)
+#define LIMIT_Z_ISRREG (__pcmskreg__(LIMIT_Z_ISR))
+#if(LIMIT_Z_ISR==0)
+#define LIMIT_Z_ISR0 (1 &lt;&lt; LIMIT_Z_BIT)
+#endif
+#if(LIMIT_Z_ISR==1)
+#define LIMIT_Z_ISR1 (1 &lt;&lt; LIMIT_Z_BIT)
+#endif
+#if(LIMIT_Z_ISR==2)
+#define LIMIT_Z_ISR2 (1 &lt;&lt; LIMIT_Z_BIT)
+#endif
+#if(LIMIT_Z_ISR==-1)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 1
+#endif
+#if(LIMIT_Z_ISR==-2)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 4
+#endif
+#if(LIMIT_Z_ISR==-3)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 16
+#endif
+#if(LIMIT_Z_ISR==-4)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRA 64
+#endif
+#if(LIMIT_Z_ISR==-5)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRA
+#define LIMIT_Z_ISRB 1
+#endif
+#if(LIMIT_Z_ISR==-6)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRB
+#define LIMIT_Z_ISRB 4
+#endif
+#if(LIMIT_Z_ISR==-7)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRB
+#define LIMIT_Z_ISRB 16
+#endif
+#if(LIMIT_Z_ISR==-8)
+#undef LIMIT_Z_ISRREG
+#define LIMIT_Z_ISRREG EICRB
+#define LIMIT_Z_ISRB 64
+#endif
+#define DIO50_ISRREG LIMIT_Z_ISRREG
+#endif</v>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>#ifndef LIMIT_Z_ISR0
+#define LIMIT_Z_ISR0 0
+#endif
+#ifndef LIMIT_Z_ISR1
+#define LIMIT_Z_ISR1 0
+#endif
+#ifndef LIMIT_Z_ISR2
+#define LIMIT_Z_ISR2 0
+#endif
+#ifndef LIMIT_Z_ISRA
+#define LIMIT_Z_ISRA 0
+#endif
+#ifndef LIMIT_Z_ISRB
+#define LIMIT_Z_ISRB 0
+#endif
+#define LIMIT_Z_ISR_MASK (LIMIT_Z_ISR0 | LIMIT_Z_ISR1 | LIMIT_Z_ISR2 | LIMIT_Z_ISRA | LIMIT_Z_ISRB)
+#ifndef LIMIT_Z_ISR_MASK
+#define LIMIT_Z_ISR_MASK 0
+#endif
+#define DIO50_ISR_MASK LIMIT_Z_ISR_MASK
+#define DIO50_ISRREG LIMIT_Z_ISRREG</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef LIMIT_Z
+#define LIMITEN_LIMIT_Z (1&lt;&lt;(LIMIT_Z - LIMIT_X))
+#ifdef LIMIT_Z_ISR
+#define LIMITISR_LIMIT_Z (1&lt;&lt;(LIMIT_Z - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Z 0
+#endif
+#else
+#define LIMITEN_LIMIT_Z 0
+#define LIMITISR_LIMIT_Z 0
+#endif</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_Z
+mcu_config_input(LIMIT_Z);
+#ifdef LIMIT_Z_PULLUP
+mcu_config_pullup(LIMIT_Z);
+#endif
+#ifdef LIMIT_Z_ISR
+mcu_config_input_isr(LIMIT_Z);
+#endif
 #endif</v>
       </c>
       <c r="J53" s="3"/>
@@ -4576,33 +5038,131 @@
         <v>DIO51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
+        <v>#if(defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
 #define DIO51 51
-#define DOUT14 51
-#define DIO51_PORT (DOUT14_PORT)
-#define DIO51_BIT (DOUT14_BIT)
-#define DOUT14_OUTREG (__outreg__(DOUT14_PORT))
-#define DOUT14_INREG (__inreg__(DOUT14_PORT))
-#define DOUT14_DIRREG (__dirreg__(DOUT14_PORT))
-#define DIO51_OUTREG (__outreg__(DOUT14_PORT))
-#define DIO51_INREG (__inreg__(DOUT14_PORT))
-#define DIO51_DIRREG (__dirreg__(DOUT14_PORT))
+#define LIMIT_X2 51
+#define DIO51_PORT (LIMIT_X2_PORT)
+#define DIO51_BIT (LIMIT_X2_BIT)
+#define LIMIT_X2_OUTREG (__outreg__(LIMIT_X2_PORT))
+#define LIMIT_X2_INREG (__inreg__(LIMIT_X2_PORT))
+#define LIMIT_X2_DIRREG (__dirreg__(LIMIT_X2_PORT))
+#define DIO51_OUTREG (__outreg__(LIMIT_X2_PORT))
+#define DIO51_INREG (__inreg__(LIMIT_X2_PORT))
+#define DIO51_DIRREG (__dirreg__(LIMIT_X2_PORT))
 #endif</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT14
-mcu_config_ouput(DOUT14);
+      <c r="F54" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>#if(defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
+#define DIO51_ISR (LIMIT_X2_ISR)
+#define LIMIT_X2_ISRREG (__pcmskreg__(LIMIT_X2_ISR))
+#if(LIMIT_X2_ISR==0)
+#define LIMIT_X2_ISR0 (1 &lt;&lt; LIMIT_X2_BIT)
+#endif
+#if(LIMIT_X2_ISR==1)
+#define LIMIT_X2_ISR1 (1 &lt;&lt; LIMIT_X2_BIT)
+#endif
+#if(LIMIT_X2_ISR==2)
+#define LIMIT_X2_ISR2 (1 &lt;&lt; LIMIT_X2_BIT)
+#endif
+#if(LIMIT_X2_ISR==-1)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 1
+#endif
+#if(LIMIT_X2_ISR==-2)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 4
+#endif
+#if(LIMIT_X2_ISR==-3)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 16
+#endif
+#if(LIMIT_X2_ISR==-4)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRA 64
+#endif
+#if(LIMIT_X2_ISR==-5)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRA
+#define LIMIT_X2_ISRB 1
+#endif
+#if(LIMIT_X2_ISR==-6)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRB
+#define LIMIT_X2_ISRB 4
+#endif
+#if(LIMIT_X2_ISR==-7)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRB
+#define LIMIT_X2_ISRB 16
+#endif
+#if(LIMIT_X2_ISR==-8)
+#undef LIMIT_X2_ISRREG
+#define LIMIT_X2_ISRREG EICRB
+#define LIMIT_X2_ISRB 64
+#endif
+#define DIO51_ISRREG LIMIT_X2_ISRREG
+#endif</v>
+      </c>
+      <c r="G54" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>#ifndef LIMIT_X2_ISR0
+#define LIMIT_X2_ISR0 0
+#endif
+#ifndef LIMIT_X2_ISR1
+#define LIMIT_X2_ISR1 0
+#endif
+#ifndef LIMIT_X2_ISR2
+#define LIMIT_X2_ISR2 0
+#endif
+#ifndef LIMIT_X2_ISRA
+#define LIMIT_X2_ISRA 0
+#endif
+#ifndef LIMIT_X2_ISRB
+#define LIMIT_X2_ISRB 0
+#endif
+#define LIMIT_X2_ISR_MASK (LIMIT_X2_ISR0 | LIMIT_X2_ISR1 | LIMIT_X2_ISR2 | LIMIT_X2_ISRA | LIMIT_X2_ISRB)
+#ifndef LIMIT_X2_ISR_MASK
+#define LIMIT_X2_ISR_MASK 0
+#endif
+#define DIO51_ISR_MASK LIMIT_X2_ISR_MASK
+#define DIO51_ISRREG LIMIT_X2_ISRREG</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef LIMIT_X2
+#define LIMITEN_LIMIT_X2 (1&lt;&lt;(LIMIT_X2 - LIMIT_X))
+#ifdef LIMIT_X2_ISR
+#define LIMITISR_LIMIT_X2 (1&lt;&lt;(LIMIT_X2 - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_X2 0
+#endif
+#else
+#define LIMITEN_LIMIT_X2 0
+#define LIMITISR_LIMIT_X2 0
+#endif</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_X2
+mcu_config_input(LIMIT_X2);
+#ifdef LIMIT_X2_PULLUP
+mcu_config_pullup(LIMIT_X2);
+#endif
+#ifdef LIMIT_X2_ISR
+mcu_config_input_isr(LIMIT_X2);
+#endif
 #endif</v>
       </c>
       <c r="J54" s="3"/>
@@ -4634,37 +5194,131 @@
         <v>DIO52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E55" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
+        <v>#if(defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
 #define DIO52 52
-#define DOUT15 52
-#define DIO52_PORT (DOUT15_PORT)
-#define DIO52_BIT (DOUT15_BIT)
-#define DOUT15_OUTREG (__outreg__(DOUT15_PORT))
-#define DOUT15_INREG (__inreg__(DOUT15_PORT))
-#define DOUT15_DIRREG (__dirreg__(DOUT15_PORT))
-#define DIO52_OUTREG (__outreg__(DOUT15_PORT))
-#define DIO52_INREG (__inreg__(DOUT15_PORT))
-#define DIO52_DIRREG (__dirreg__(DOUT15_PORT))
+#define LIMIT_Y2 52
+#define DIO52_PORT (LIMIT_Y2_PORT)
+#define DIO52_BIT (LIMIT_Y2_BIT)
+#define LIMIT_Y2_OUTREG (__outreg__(LIMIT_Y2_PORT))
+#define LIMIT_Y2_INREG (__inreg__(LIMIT_Y2_PORT))
+#define LIMIT_Y2_DIRREG (__dirreg__(LIMIT_Y2_PORT))
+#define DIO52_OUTREG (__outreg__(LIMIT_Y2_PORT))
+#define DIO52_INREG (__inreg__(LIMIT_Y2_PORT))
+#define DIO52_DIRREG (__dirreg__(LIMIT_Y2_PORT))
 #endif</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT15
-mcu_config_ouput(DOUT15);
+      <c r="F55" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>#if(defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
+#define DIO52_ISR (LIMIT_Y2_ISR)
+#define LIMIT_Y2_ISRREG (__pcmskreg__(LIMIT_Y2_ISR))
+#if(LIMIT_Y2_ISR==0)
+#define LIMIT_Y2_ISR0 (1 &lt;&lt; LIMIT_Y2_BIT)
+#endif
+#if(LIMIT_Y2_ISR==1)
+#define LIMIT_Y2_ISR1 (1 &lt;&lt; LIMIT_Y2_BIT)
+#endif
+#if(LIMIT_Y2_ISR==2)
+#define LIMIT_Y2_ISR2 (1 &lt;&lt; LIMIT_Y2_BIT)
+#endif
+#if(LIMIT_Y2_ISR==-1)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 1
+#endif
+#if(LIMIT_Y2_ISR==-2)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 4
+#endif
+#if(LIMIT_Y2_ISR==-3)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 16
+#endif
+#if(LIMIT_Y2_ISR==-4)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRA 64
+#endif
+#if(LIMIT_Y2_ISR==-5)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRA
+#define LIMIT_Y2_ISRB 1
+#endif
+#if(LIMIT_Y2_ISR==-6)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRB
+#define LIMIT_Y2_ISRB 4
+#endif
+#if(LIMIT_Y2_ISR==-7)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRB
+#define LIMIT_Y2_ISRB 16
+#endif
+#if(LIMIT_Y2_ISR==-8)
+#undef LIMIT_Y2_ISRREG
+#define LIMIT_Y2_ISRREG EICRB
+#define LIMIT_Y2_ISRB 64
+#endif
+#define DIO52_ISRREG LIMIT_Y2_ISRREG
+#endif</v>
+      </c>
+      <c r="G55" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>#ifndef LIMIT_Y2_ISR0
+#define LIMIT_Y2_ISR0 0
+#endif
+#ifndef LIMIT_Y2_ISR1
+#define LIMIT_Y2_ISR1 0
+#endif
+#ifndef LIMIT_Y2_ISR2
+#define LIMIT_Y2_ISR2 0
+#endif
+#ifndef LIMIT_Y2_ISRA
+#define LIMIT_Y2_ISRA 0
+#endif
+#ifndef LIMIT_Y2_ISRB
+#define LIMIT_Y2_ISRB 0
+#endif
+#define LIMIT_Y2_ISR_MASK (LIMIT_Y2_ISR0 | LIMIT_Y2_ISR1 | LIMIT_Y2_ISR2 | LIMIT_Y2_ISRA | LIMIT_Y2_ISRB)
+#ifndef LIMIT_Y2_ISR_MASK
+#define LIMIT_Y2_ISR_MASK 0
+#endif
+#define DIO52_ISR_MASK LIMIT_Y2_ISR_MASK
+#define DIO52_ISRREG LIMIT_Y2_ISRREG</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef LIMIT_Y2
+#define LIMITEN_LIMIT_Y2 (1&lt;&lt;(LIMIT_Y2 - LIMIT_X))
+#ifdef LIMIT_Y2_ISR
+#define LIMITISR_LIMIT_Y2 (1&lt;&lt;(LIMIT_Y2 - LIMIT_X))
+#else
+#define LIMITISR_LIMIT_Y2 0
+#endif
+#else
+#define LIMITEN_LIMIT_Y2 0
+#define LIMITISR_LIMIT_Y2 0
+#endif</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_Y2
+mcu_config_input(LIMIT_Y2);
+#ifdef LIMIT_Y2_PULLUP
+mcu_config_pullup(LIMIT_Y2);
+#endif
+#ifdef LIMIT_Y2_ISR
+mcu_config_input_isr(LIMIT_Y2);
+#endif
 #endif</v>
       </c>
       <c r="J55" s="3"/>
@@ -4696,221 +5350,130 @@
         <v>DIO53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
+        <v>#if(defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
 #define DIO53 53
-#define LIMIT_X 53
-#define DIO53_PORT (LIMIT_X_PORT)
-#define DIO53_BIT (LIMIT_X_BIT)
-#define LIMIT_X_OUTREG (__outreg__(LIMIT_X_PORT))
-#define LIMIT_X_INREG (__inreg__(LIMIT_X_PORT))
-#define LIMIT_X_DIRREG (__dirreg__(LIMIT_X_PORT))
-#define DIO53_OUTREG (__outreg__(LIMIT_X_PORT))
-#define DIO53_INREG (__inreg__(LIMIT_X_PORT))
-#define DIO53_DIRREG (__dirreg__(LIMIT_X_PORT))
+#define LIMIT_Z2 53
+#define DIO53_PORT (LIMIT_Z2_PORT)
+#define DIO53_BIT (LIMIT_Z2_BIT)
+#define LIMIT_Z2_OUTREG (__outreg__(LIMIT_Z2_PORT))
+#define LIMIT_Z2_INREG (__inreg__(LIMIT_Z2_PORT))
+#define LIMIT_Z2_DIRREG (__dirreg__(LIMIT_Z2_PORT))
+#define DIO53_OUTREG (__outreg__(LIMIT_Z2_PORT))
+#define DIO53_INREG (__inreg__(LIMIT_Z2_PORT))
+#define DIO53_DIRREG (__dirreg__(LIMIT_Z2_PORT))
 #endif</v>
       </c>
       <c r="F56" s="10" t="str">
-        <f>"#if(defined("&amp;C56&amp;"_ISR) &amp;&amp; defined("&amp;C56&amp;"))
-#define "&amp;B56&amp;"_ISR ("&amp;C56&amp;"_ISR)
-#define "&amp;C56&amp;"_ISRREG (__pcmskreg__("&amp;C56&amp;"_ISR))
-#if("&amp;C56&amp;"_ISR==0)
-#define "&amp;C56&amp;"_ISR0 (1 &lt;&lt; "&amp;C56&amp;"_BIT)
-#endif
-#if("&amp;C56&amp;"_ISR==1)
-#define "&amp;C56&amp;"_ISR1 (1 &lt;&lt; "&amp;C56&amp;"_BIT)
-#endif
-#if("&amp;C56&amp;"_ISR==2)
-#define "&amp;C56&amp;"_ISR2 (1 &lt;&lt; "&amp;C56&amp;"_BIT)
-#endif
-#if("&amp;C56&amp;"_ISR==-1)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRA
-#define "&amp;C56&amp;"_ISRA 1
-#endif
-#if("&amp;C56&amp;"_ISR==-2)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRA
-#define "&amp;C56&amp;"_ISRA 4
-#endif
-#if("&amp;C56&amp;"_ISR==-3)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRA
-#define "&amp;C56&amp;"_ISRA 16
-#endif
-#if("&amp;C56&amp;"_ISR==-4)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRA
-#define "&amp;C56&amp;"_ISRA 64
-#endif
-#if("&amp;C56&amp;"_ISR==-5)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRA
-#define "&amp;C56&amp;"_ISRB 1
-#endif
-#if("&amp;C56&amp;"_ISR==-6)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRB
-#define "&amp;C56&amp;"_ISRB 4
-#endif
-#if("&amp;C56&amp;"_ISR==-7)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRB
-#define "&amp;C56&amp;"_ISRB 16
-#endif
-#if("&amp;C56&amp;"_ISR==-8)
-#undef "&amp;C56&amp;"_ISRREG
-#define "&amp;C56&amp;"_ISRREG EICRB
-#define "&amp;C56&amp;"_ISRB 64
-#endif
-#define "&amp;B56&amp;"_ISRREG "&amp;C56&amp;"_ISRREG
-#endif"</f>
-        <v>#if(defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
-#define DIO53_ISR (LIMIT_X_ISR)
-#define LIMIT_X_ISRREG (__pcmskreg__(LIMIT_X_ISR))
-#if(LIMIT_X_ISR==0)
-#define LIMIT_X_ISR0 (1 &lt;&lt; LIMIT_X_BIT)
-#endif
-#if(LIMIT_X_ISR==1)
-#define LIMIT_X_ISR1 (1 &lt;&lt; LIMIT_X_BIT)
-#endif
-#if(LIMIT_X_ISR==2)
-#define LIMIT_X_ISR2 (1 &lt;&lt; LIMIT_X_BIT)
-#endif
-#if(LIMIT_X_ISR==-1)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 1
-#endif
-#if(LIMIT_X_ISR==-2)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 4
-#endif
-#if(LIMIT_X_ISR==-3)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 16
-#endif
-#if(LIMIT_X_ISR==-4)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRA 64
-#endif
-#if(LIMIT_X_ISR==-5)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRA
-#define LIMIT_X_ISRB 1
-#endif
-#if(LIMIT_X_ISR==-6)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRB
-#define LIMIT_X_ISRB 4
-#endif
-#if(LIMIT_X_ISR==-7)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRB
-#define LIMIT_X_ISRB 16
-#endif
-#if(LIMIT_X_ISR==-8)
-#undef LIMIT_X_ISRREG
-#define LIMIT_X_ISRREG EICRB
-#define LIMIT_X_ISRB 64
-#endif
-#define DIO53_ISRREG LIMIT_X_ISRREG
+        <f t="shared" si="6"/>
+        <v>#if(defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
+#define DIO53_ISR (LIMIT_Z2_ISR)
+#define LIMIT_Z2_ISRREG (__pcmskreg__(LIMIT_Z2_ISR))
+#if(LIMIT_Z2_ISR==0)
+#define LIMIT_Z2_ISR0 (1 &lt;&lt; LIMIT_Z2_BIT)
+#endif
+#if(LIMIT_Z2_ISR==1)
+#define LIMIT_Z2_ISR1 (1 &lt;&lt; LIMIT_Z2_BIT)
+#endif
+#if(LIMIT_Z2_ISR==2)
+#define LIMIT_Z2_ISR2 (1 &lt;&lt; LIMIT_Z2_BIT)
+#endif
+#if(LIMIT_Z2_ISR==-1)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 1
+#endif
+#if(LIMIT_Z2_ISR==-2)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 4
+#endif
+#if(LIMIT_Z2_ISR==-3)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 16
+#endif
+#if(LIMIT_Z2_ISR==-4)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRA 64
+#endif
+#if(LIMIT_Z2_ISR==-5)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRA
+#define LIMIT_Z2_ISRB 1
+#endif
+#if(LIMIT_Z2_ISR==-6)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRB
+#define LIMIT_Z2_ISRB 4
+#endif
+#if(LIMIT_Z2_ISR==-7)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRB
+#define LIMIT_Z2_ISRB 16
+#endif
+#if(LIMIT_Z2_ISR==-8)
+#undef LIMIT_Z2_ISRREG
+#define LIMIT_Z2_ISRREG EICRB
+#define LIMIT_Z2_ISRB 64
+#endif
+#define DIO53_ISRREG LIMIT_Z2_ISRREG
 #endif</v>
       </c>
       <c r="G56" s="6" t="str">
-        <f>"#ifndef "&amp;C56&amp;"_ISR0
-#define "&amp;C56&amp;"_ISR0 0
-#endif
-#ifndef "&amp;C56&amp;"_ISR1
-#define "&amp;C56&amp;"_ISR1 0
-#endif
-#ifndef "&amp;C56&amp;"_ISR2
-#define "&amp;C56&amp;"_ISR2 0
-#endif
-#ifndef "&amp;C56&amp;"_ISRA
-#define "&amp;C56&amp;"_ISRA 0
-#endif
-#ifndef "&amp;C56&amp;"_ISRB
-#define "&amp;C56&amp;"_ISRB 0
-#endif
-#define "&amp;C56&amp;"_ISR_MASK ("&amp;C56&amp;"_ISR0 | "&amp;C56&amp;"_ISR1 | "&amp;C56&amp;"_ISR2 | "&amp;C56&amp;"_ISRA | "&amp;C56&amp;"_ISRB)
-#ifndef "&amp;C56&amp;"_ISR_MASK
-#define "&amp;C56&amp;"_ISR_MASK 0
-#endif
-#define "&amp;B56&amp;"_ISR_MASK "&amp;C56&amp;"_ISR_MASK
-#define "&amp;B56&amp;"_ISRREG "&amp;C56&amp;"_ISRREG"</f>
-        <v>#ifndef LIMIT_X_ISR0
-#define LIMIT_X_ISR0 0
-#endif
-#ifndef LIMIT_X_ISR1
-#define LIMIT_X_ISR1 0
-#endif
-#ifndef LIMIT_X_ISR2
-#define LIMIT_X_ISR2 0
-#endif
-#ifndef LIMIT_X_ISRA
-#define LIMIT_X_ISRA 0
-#endif
-#ifndef LIMIT_X_ISRB
-#define LIMIT_X_ISRB 0
-#endif
-#define LIMIT_X_ISR_MASK (LIMIT_X_ISR0 | LIMIT_X_ISR1 | LIMIT_X_ISR2 | LIMIT_X_ISRA | LIMIT_X_ISRB)
-#ifndef LIMIT_X_ISR_MASK
-#define LIMIT_X_ISR_MASK 0
-#endif
-#define DIO53_ISR_MASK LIMIT_X_ISR_MASK
-#define DIO53_ISRREG LIMIT_X_ISRREG</v>
+        <f t="shared" si="7"/>
+        <v>#ifndef LIMIT_Z2_ISR0
+#define LIMIT_Z2_ISR0 0
+#endif
+#ifndef LIMIT_Z2_ISR1
+#define LIMIT_Z2_ISR1 0
+#endif
+#ifndef LIMIT_Z2_ISR2
+#define LIMIT_Z2_ISR2 0
+#endif
+#ifndef LIMIT_Z2_ISRA
+#define LIMIT_Z2_ISRA 0
+#endif
+#ifndef LIMIT_Z2_ISRB
+#define LIMIT_Z2_ISRB 0
+#endif
+#define LIMIT_Z2_ISR_MASK (LIMIT_Z2_ISR0 | LIMIT_Z2_ISR1 | LIMIT_Z2_ISR2 | LIMIT_Z2_ISRA | LIMIT_Z2_ISRB)
+#ifndef LIMIT_Z2_ISR_MASK
+#define LIMIT_Z2_ISR_MASK 0
+#endif
+#define DIO53_ISR_MASK LIMIT_Z2_ISR_MASK
+#define DIO53_ISRREG LIMIT_Z2_ISRREG</v>
       </c>
       <c r="H56" s="6" t="str">
-        <f>"#ifdef "&amp;C56&amp;"
-#define LIMITEN_"&amp;C56&amp;" (1&lt;&lt;("&amp;C56&amp;" - LIMIT_X))
-#ifdef "&amp;C56&amp;"_ISR
-#define LIMITISR_"&amp;C56&amp;" (1&lt;&lt;("&amp;C56&amp;" - LIMIT_X))
+        <f t="shared" si="8"/>
+        <v>#ifdef LIMIT_Z2
+#define LIMITEN_LIMIT_Z2 (1&lt;&lt;(LIMIT_Z2 - LIMIT_X))
+#ifdef LIMIT_Z2_ISR
+#define LIMITISR_LIMIT_Z2 (1&lt;&lt;(LIMIT_Z2 - LIMIT_X))
 #else
-#define LIMITISR_"&amp;C56&amp;" 0
+#define LIMITISR_LIMIT_Z2 0
 #endif
 #else
-#define LIMITEN_"&amp;C56&amp;" 0
-#define LIMITISR_"&amp;C56&amp;" 0
-#endif"</f>
-        <v>#ifdef LIMIT_X
-#define LIMITEN_LIMIT_X (1&lt;&lt;(LIMIT_X - LIMIT_X))
-#ifdef LIMIT_X_ISR
-#define LIMITISR_LIMIT_X (1&lt;&lt;(LIMIT_X - LIMIT_X))
-#else
-#define LIMITISR_LIMIT_X 0
-#endif
-#else
-#define LIMITEN_LIMIT_X 0
-#define LIMITISR_LIMIT_X 0
+#define LIMITEN_LIMIT_Z2 0
+#define LIMITISR_LIMIT_Z2 0
 #endif</v>
       </c>
       <c r="I56" s="6" t="str">
-        <f>"#ifdef "&amp;C56&amp;"
-mcu_config_input("&amp;C56&amp;");
-#ifdef "&amp;C56&amp;"_PULLUP
-mcu_config_pullup("&amp;C56&amp;");
-#endif
-#ifdef "&amp;C56&amp;"_ISR
-mcu_config_input_isr("&amp;C56&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef LIMIT_X
-mcu_config_input(LIMIT_X);
-#ifdef LIMIT_X_PULLUP
-mcu_config_pullup(LIMIT_X);
-#endif
-#ifdef LIMIT_X_ISR
-mcu_config_input_isr(LIMIT_X);
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_Z2
+mcu_config_input(LIMIT_Z2);
+#ifdef LIMIT_Z2_PULLUP
+mcu_config_pullup(LIMIT_Z2);
+#endif
+#ifdef LIMIT_Z2_ISR
+mcu_config_input_isr(LIMIT_Z2);
 #endif
 #endif</v>
       </c>
@@ -4943,221 +5506,130 @@
         <v>DIO54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
+        <v>#if(defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
 #define DIO54 54
-#define LIMIT_Y 54
-#define DIO54_PORT (LIMIT_Y_PORT)
-#define DIO54_BIT (LIMIT_Y_BIT)
-#define LIMIT_Y_OUTREG (__outreg__(LIMIT_Y_PORT))
-#define LIMIT_Y_INREG (__inreg__(LIMIT_Y_PORT))
-#define LIMIT_Y_DIRREG (__dirreg__(LIMIT_Y_PORT))
-#define DIO54_OUTREG (__outreg__(LIMIT_Y_PORT))
-#define DIO54_INREG (__inreg__(LIMIT_Y_PORT))
-#define DIO54_DIRREG (__dirreg__(LIMIT_Y_PORT))
+#define LIMIT_A 54
+#define DIO54_PORT (LIMIT_A_PORT)
+#define DIO54_BIT (LIMIT_A_BIT)
+#define LIMIT_A_OUTREG (__outreg__(LIMIT_A_PORT))
+#define LIMIT_A_INREG (__inreg__(LIMIT_A_PORT))
+#define LIMIT_A_DIRREG (__dirreg__(LIMIT_A_PORT))
+#define DIO54_OUTREG (__outreg__(LIMIT_A_PORT))
+#define DIO54_INREG (__inreg__(LIMIT_A_PORT))
+#define DIO54_DIRREG (__dirreg__(LIMIT_A_PORT))
 #endif</v>
       </c>
       <c r="F57" s="10" t="str">
-        <f t="shared" ref="F57:F69" si="6">"#if(defined("&amp;C57&amp;"_ISR) &amp;&amp; defined("&amp;C57&amp;"))
-#define "&amp;B57&amp;"_ISR ("&amp;C57&amp;"_ISR)
-#define "&amp;C57&amp;"_ISRREG (__pcmskreg__("&amp;C57&amp;"_ISR))
-#if("&amp;C57&amp;"_ISR==0)
-#define "&amp;C57&amp;"_ISR0 (1 &lt;&lt; "&amp;C57&amp;"_BIT)
-#endif
-#if("&amp;C57&amp;"_ISR==1)
-#define "&amp;C57&amp;"_ISR1 (1 &lt;&lt; "&amp;C57&amp;"_BIT)
-#endif
-#if("&amp;C57&amp;"_ISR==2)
-#define "&amp;C57&amp;"_ISR2 (1 &lt;&lt; "&amp;C57&amp;"_BIT)
-#endif
-#if("&amp;C57&amp;"_ISR==-1)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRA
-#define "&amp;C57&amp;"_ISRA 1
-#endif
-#if("&amp;C57&amp;"_ISR==-2)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRA
-#define "&amp;C57&amp;"_ISRA 4
-#endif
-#if("&amp;C57&amp;"_ISR==-3)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRA
-#define "&amp;C57&amp;"_ISRA 16
-#endif
-#if("&amp;C57&amp;"_ISR==-4)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRA
-#define "&amp;C57&amp;"_ISRA 64
-#endif
-#if("&amp;C57&amp;"_ISR==-5)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRA
-#define "&amp;C57&amp;"_ISRB 1
-#endif
-#if("&amp;C57&amp;"_ISR==-6)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRB
-#define "&amp;C57&amp;"_ISRB 4
-#endif
-#if("&amp;C57&amp;"_ISR==-7)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRB
-#define "&amp;C57&amp;"_ISRB 16
-#endif
-#if("&amp;C57&amp;"_ISR==-8)
-#undef "&amp;C57&amp;"_ISRREG
-#define "&amp;C57&amp;"_ISRREG EICRB
-#define "&amp;C57&amp;"_ISRB 64
-#endif
-#define "&amp;B57&amp;"_ISRREG "&amp;C57&amp;"_ISRREG
-#endif"</f>
-        <v>#if(defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
-#define DIO54_ISR (LIMIT_Y_ISR)
-#define LIMIT_Y_ISRREG (__pcmskreg__(LIMIT_Y_ISR))
-#if(LIMIT_Y_ISR==0)
-#define LIMIT_Y_ISR0 (1 &lt;&lt; LIMIT_Y_BIT)
-#endif
-#if(LIMIT_Y_ISR==1)
-#define LIMIT_Y_ISR1 (1 &lt;&lt; LIMIT_Y_BIT)
-#endif
-#if(LIMIT_Y_ISR==2)
-#define LIMIT_Y_ISR2 (1 &lt;&lt; LIMIT_Y_BIT)
-#endif
-#if(LIMIT_Y_ISR==-1)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 1
-#endif
-#if(LIMIT_Y_ISR==-2)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 4
-#endif
-#if(LIMIT_Y_ISR==-3)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 16
-#endif
-#if(LIMIT_Y_ISR==-4)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRA 64
-#endif
-#if(LIMIT_Y_ISR==-5)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRA
-#define LIMIT_Y_ISRB 1
-#endif
-#if(LIMIT_Y_ISR==-6)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRB
-#define LIMIT_Y_ISRB 4
-#endif
-#if(LIMIT_Y_ISR==-7)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRB
-#define LIMIT_Y_ISRB 16
-#endif
-#if(LIMIT_Y_ISR==-8)
-#undef LIMIT_Y_ISRREG
-#define LIMIT_Y_ISRREG EICRB
-#define LIMIT_Y_ISRB 64
-#endif
-#define DIO54_ISRREG LIMIT_Y_ISRREG
+        <f t="shared" si="6"/>
+        <v>#if(defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
+#define DIO54_ISR (LIMIT_A_ISR)
+#define LIMIT_A_ISRREG (__pcmskreg__(LIMIT_A_ISR))
+#if(LIMIT_A_ISR==0)
+#define LIMIT_A_ISR0 (1 &lt;&lt; LIMIT_A_BIT)
+#endif
+#if(LIMIT_A_ISR==1)
+#define LIMIT_A_ISR1 (1 &lt;&lt; LIMIT_A_BIT)
+#endif
+#if(LIMIT_A_ISR==2)
+#define LIMIT_A_ISR2 (1 &lt;&lt; LIMIT_A_BIT)
+#endif
+#if(LIMIT_A_ISR==-1)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 1
+#endif
+#if(LIMIT_A_ISR==-2)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 4
+#endif
+#if(LIMIT_A_ISR==-3)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 16
+#endif
+#if(LIMIT_A_ISR==-4)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRA 64
+#endif
+#if(LIMIT_A_ISR==-5)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRA
+#define LIMIT_A_ISRB 1
+#endif
+#if(LIMIT_A_ISR==-6)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRB
+#define LIMIT_A_ISRB 4
+#endif
+#if(LIMIT_A_ISR==-7)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRB
+#define LIMIT_A_ISRB 16
+#endif
+#if(LIMIT_A_ISR==-8)
+#undef LIMIT_A_ISRREG
+#define LIMIT_A_ISRREG EICRB
+#define LIMIT_A_ISRB 64
+#endif
+#define DIO54_ISRREG LIMIT_A_ISRREG
 #endif</v>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" ref="G57:G69" si="7">"#ifndef "&amp;C57&amp;"_ISR0
-#define "&amp;C57&amp;"_ISR0 0
-#endif
-#ifndef "&amp;C57&amp;"_ISR1
-#define "&amp;C57&amp;"_ISR1 0
-#endif
-#ifndef "&amp;C57&amp;"_ISR2
-#define "&amp;C57&amp;"_ISR2 0
-#endif
-#ifndef "&amp;C57&amp;"_ISRA
-#define "&amp;C57&amp;"_ISRA 0
-#endif
-#ifndef "&amp;C57&amp;"_ISRB
-#define "&amp;C57&amp;"_ISRB 0
-#endif
-#define "&amp;C57&amp;"_ISR_MASK ("&amp;C57&amp;"_ISR0 | "&amp;C57&amp;"_ISR1 | "&amp;C57&amp;"_ISR2 | "&amp;C57&amp;"_ISRA | "&amp;C57&amp;"_ISRB)
-#ifndef "&amp;C57&amp;"_ISR_MASK
-#define "&amp;C57&amp;"_ISR_MASK 0
-#endif
-#define "&amp;B57&amp;"_ISR_MASK "&amp;C57&amp;"_ISR_MASK
-#define "&amp;B57&amp;"_ISRREG "&amp;C57&amp;"_ISRREG"</f>
-        <v>#ifndef LIMIT_Y_ISR0
-#define LIMIT_Y_ISR0 0
-#endif
-#ifndef LIMIT_Y_ISR1
-#define LIMIT_Y_ISR1 0
-#endif
-#ifndef LIMIT_Y_ISR2
-#define LIMIT_Y_ISR2 0
-#endif
-#ifndef LIMIT_Y_ISRA
-#define LIMIT_Y_ISRA 0
-#endif
-#ifndef LIMIT_Y_ISRB
-#define LIMIT_Y_ISRB 0
-#endif
-#define LIMIT_Y_ISR_MASK (LIMIT_Y_ISR0 | LIMIT_Y_ISR1 | LIMIT_Y_ISR2 | LIMIT_Y_ISRA | LIMIT_Y_ISRB)
-#ifndef LIMIT_Y_ISR_MASK
-#define LIMIT_Y_ISR_MASK 0
-#endif
-#define DIO54_ISR_MASK LIMIT_Y_ISR_MASK
-#define DIO54_ISRREG LIMIT_Y_ISRREG</v>
+        <f t="shared" si="7"/>
+        <v>#ifndef LIMIT_A_ISR0
+#define LIMIT_A_ISR0 0
+#endif
+#ifndef LIMIT_A_ISR1
+#define LIMIT_A_ISR1 0
+#endif
+#ifndef LIMIT_A_ISR2
+#define LIMIT_A_ISR2 0
+#endif
+#ifndef LIMIT_A_ISRA
+#define LIMIT_A_ISRA 0
+#endif
+#ifndef LIMIT_A_ISRB
+#define LIMIT_A_ISRB 0
+#endif
+#define LIMIT_A_ISR_MASK (LIMIT_A_ISR0 | LIMIT_A_ISR1 | LIMIT_A_ISR2 | LIMIT_A_ISRA | LIMIT_A_ISRB)
+#ifndef LIMIT_A_ISR_MASK
+#define LIMIT_A_ISR_MASK 0
+#endif
+#define DIO54_ISR_MASK LIMIT_A_ISR_MASK
+#define DIO54_ISRREG LIMIT_A_ISRREG</v>
       </c>
       <c r="H57" s="6" t="str">
-        <f t="shared" ref="H57:H64" si="8">"#ifdef "&amp;C57&amp;"
-#define LIMITEN_"&amp;C57&amp;" (1&lt;&lt;("&amp;C57&amp;" - LIMIT_X))
-#ifdef "&amp;C57&amp;"_ISR
-#define LIMITISR_"&amp;C57&amp;" (1&lt;&lt;("&amp;C57&amp;" - LIMIT_X))
+        <f t="shared" si="8"/>
+        <v>#ifdef LIMIT_A
+#define LIMITEN_LIMIT_A (1&lt;&lt;(LIMIT_A - LIMIT_X))
+#ifdef LIMIT_A_ISR
+#define LIMITISR_LIMIT_A (1&lt;&lt;(LIMIT_A - LIMIT_X))
 #else
-#define LIMITISR_"&amp;C57&amp;" 0
+#define LIMITISR_LIMIT_A 0
 #endif
 #else
-#define LIMITEN_"&amp;C57&amp;" 0
-#define LIMITISR_"&amp;C57&amp;" 0
-#endif"</f>
-        <v>#ifdef LIMIT_Y
-#define LIMITEN_LIMIT_Y (1&lt;&lt;(LIMIT_Y - LIMIT_X))
-#ifdef LIMIT_Y_ISR
-#define LIMITISR_LIMIT_Y (1&lt;&lt;(LIMIT_Y - LIMIT_X))
-#else
-#define LIMITISR_LIMIT_Y 0
-#endif
-#else
-#define LIMITEN_LIMIT_Y 0
-#define LIMITISR_LIMIT_Y 0
+#define LIMITEN_LIMIT_A 0
+#define LIMITISR_LIMIT_A 0
 #endif</v>
       </c>
       <c r="I57" s="6" t="str">
-        <f t="shared" ref="I57:I69" si="9">"#ifdef "&amp;C57&amp;"
-mcu_config_input("&amp;C57&amp;");
-#ifdef "&amp;C57&amp;"_PULLUP
-mcu_config_pullup("&amp;C57&amp;");
-#endif
-#ifdef "&amp;C57&amp;"_ISR
-mcu_config_input_isr("&amp;C57&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef LIMIT_Y
-mcu_config_input(LIMIT_Y);
-#ifdef LIMIT_Y_PULLUP
-mcu_config_pullup(LIMIT_Y);
-#endif
-#ifdef LIMIT_Y_ISR
-mcu_config_input_isr(LIMIT_Y);
+        <f t="shared" si="9"/>
+        <v>#ifdef LIMIT_A
+mcu_config_input(LIMIT_A);
+#ifdef LIMIT_A_PULLUP
+mcu_config_pullup(LIMIT_A);
+#endif
+#ifdef LIMIT_A_ISR
+mcu_config_input_isr(LIMIT_A);
 #endif
 #endif</v>
       </c>
@@ -5190,130 +5662,130 @@
         <v>DIO55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
+        <v>#if(defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
 #define DIO55 55
-#define LIMIT_Z 55
-#define DIO55_PORT (LIMIT_Z_PORT)
-#define DIO55_BIT (LIMIT_Z_BIT)
-#define LIMIT_Z_OUTREG (__outreg__(LIMIT_Z_PORT))
-#define LIMIT_Z_INREG (__inreg__(LIMIT_Z_PORT))
-#define LIMIT_Z_DIRREG (__dirreg__(LIMIT_Z_PORT))
-#define DIO55_OUTREG (__outreg__(LIMIT_Z_PORT))
-#define DIO55_INREG (__inreg__(LIMIT_Z_PORT))
-#define DIO55_DIRREG (__dirreg__(LIMIT_Z_PORT))
+#define LIMIT_B 55
+#define DIO55_PORT (LIMIT_B_PORT)
+#define DIO55_BIT (LIMIT_B_BIT)
+#define LIMIT_B_OUTREG (__outreg__(LIMIT_B_PORT))
+#define LIMIT_B_INREG (__inreg__(LIMIT_B_PORT))
+#define LIMIT_B_DIRREG (__dirreg__(LIMIT_B_PORT))
+#define DIO55_OUTREG (__outreg__(LIMIT_B_PORT))
+#define DIO55_INREG (__inreg__(LIMIT_B_PORT))
+#define DIO55_DIRREG (__dirreg__(LIMIT_B_PORT))
 #endif</v>
       </c>
       <c r="F58" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
-#define DIO55_ISR (LIMIT_Z_ISR)
-#define LIMIT_Z_ISRREG (__pcmskreg__(LIMIT_Z_ISR))
-#if(LIMIT_Z_ISR==0)
-#define LIMIT_Z_ISR0 (1 &lt;&lt; LIMIT_Z_BIT)
-#endif
-#if(LIMIT_Z_ISR==1)
-#define LIMIT_Z_ISR1 (1 &lt;&lt; LIMIT_Z_BIT)
-#endif
-#if(LIMIT_Z_ISR==2)
-#define LIMIT_Z_ISR2 (1 &lt;&lt; LIMIT_Z_BIT)
-#endif
-#if(LIMIT_Z_ISR==-1)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 1
-#endif
-#if(LIMIT_Z_ISR==-2)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 4
-#endif
-#if(LIMIT_Z_ISR==-3)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 16
-#endif
-#if(LIMIT_Z_ISR==-4)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRA 64
-#endif
-#if(LIMIT_Z_ISR==-5)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRA
-#define LIMIT_Z_ISRB 1
-#endif
-#if(LIMIT_Z_ISR==-6)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRB
-#define LIMIT_Z_ISRB 4
-#endif
-#if(LIMIT_Z_ISR==-7)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRB
-#define LIMIT_Z_ISRB 16
-#endif
-#if(LIMIT_Z_ISR==-8)
-#undef LIMIT_Z_ISRREG
-#define LIMIT_Z_ISRREG EICRB
-#define LIMIT_Z_ISRB 64
-#endif
-#define DIO55_ISRREG LIMIT_Z_ISRREG
+        <v>#if(defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
+#define DIO55_ISR (LIMIT_B_ISR)
+#define LIMIT_B_ISRREG (__pcmskreg__(LIMIT_B_ISR))
+#if(LIMIT_B_ISR==0)
+#define LIMIT_B_ISR0 (1 &lt;&lt; LIMIT_B_BIT)
+#endif
+#if(LIMIT_B_ISR==1)
+#define LIMIT_B_ISR1 (1 &lt;&lt; LIMIT_B_BIT)
+#endif
+#if(LIMIT_B_ISR==2)
+#define LIMIT_B_ISR2 (1 &lt;&lt; LIMIT_B_BIT)
+#endif
+#if(LIMIT_B_ISR==-1)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 1
+#endif
+#if(LIMIT_B_ISR==-2)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 4
+#endif
+#if(LIMIT_B_ISR==-3)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 16
+#endif
+#if(LIMIT_B_ISR==-4)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRA 64
+#endif
+#if(LIMIT_B_ISR==-5)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRA
+#define LIMIT_B_ISRB 1
+#endif
+#if(LIMIT_B_ISR==-6)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRB
+#define LIMIT_B_ISRB 4
+#endif
+#if(LIMIT_B_ISR==-7)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRB
+#define LIMIT_B_ISRB 16
+#endif
+#if(LIMIT_B_ISR==-8)
+#undef LIMIT_B_ISRREG
+#define LIMIT_B_ISRREG EICRB
+#define LIMIT_B_ISRB 64
+#endif
+#define DIO55_ISRREG LIMIT_B_ISRREG
 #endif</v>
       </c>
       <c r="G58" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_Z_ISR0
-#define LIMIT_Z_ISR0 0
-#endif
-#ifndef LIMIT_Z_ISR1
-#define LIMIT_Z_ISR1 0
-#endif
-#ifndef LIMIT_Z_ISR2
-#define LIMIT_Z_ISR2 0
-#endif
-#ifndef LIMIT_Z_ISRA
-#define LIMIT_Z_ISRA 0
-#endif
-#ifndef LIMIT_Z_ISRB
-#define LIMIT_Z_ISRB 0
-#endif
-#define LIMIT_Z_ISR_MASK (LIMIT_Z_ISR0 | LIMIT_Z_ISR1 | LIMIT_Z_ISR2 | LIMIT_Z_ISRA | LIMIT_Z_ISRB)
-#ifndef LIMIT_Z_ISR_MASK
-#define LIMIT_Z_ISR_MASK 0
-#endif
-#define DIO55_ISR_MASK LIMIT_Z_ISR_MASK
-#define DIO55_ISRREG LIMIT_Z_ISRREG</v>
+        <v>#ifndef LIMIT_B_ISR0
+#define LIMIT_B_ISR0 0
+#endif
+#ifndef LIMIT_B_ISR1
+#define LIMIT_B_ISR1 0
+#endif
+#ifndef LIMIT_B_ISR2
+#define LIMIT_B_ISR2 0
+#endif
+#ifndef LIMIT_B_ISRA
+#define LIMIT_B_ISRA 0
+#endif
+#ifndef LIMIT_B_ISRB
+#define LIMIT_B_ISRB 0
+#endif
+#define LIMIT_B_ISR_MASK (LIMIT_B_ISR0 | LIMIT_B_ISR1 | LIMIT_B_ISR2 | LIMIT_B_ISRA | LIMIT_B_ISRB)
+#ifndef LIMIT_B_ISR_MASK
+#define LIMIT_B_ISR_MASK 0
+#endif
+#define DIO55_ISR_MASK LIMIT_B_ISR_MASK
+#define DIO55_ISRREG LIMIT_B_ISRREG</v>
       </c>
       <c r="H58" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_Z
-#define LIMITEN_LIMIT_Z (1&lt;&lt;(LIMIT_Z - LIMIT_X))
-#ifdef LIMIT_Z_ISR
-#define LIMITISR_LIMIT_Z (1&lt;&lt;(LIMIT_Z - LIMIT_X))
+        <v>#ifdef LIMIT_B
+#define LIMITEN_LIMIT_B (1&lt;&lt;(LIMIT_B - LIMIT_X))
+#ifdef LIMIT_B_ISR
+#define LIMITISR_LIMIT_B (1&lt;&lt;(LIMIT_B - LIMIT_X))
 #else
-#define LIMITISR_LIMIT_Z 0
+#define LIMITISR_LIMIT_B 0
 #endif
 #else
-#define LIMITEN_LIMIT_Z 0
-#define LIMITISR_LIMIT_Z 0
+#define LIMITEN_LIMIT_B 0
+#define LIMITISR_LIMIT_B 0
 #endif</v>
       </c>
       <c r="I58" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_Z
-mcu_config_input(LIMIT_Z);
-#ifdef LIMIT_Z_PULLUP
-mcu_config_pullup(LIMIT_Z);
-#endif
-#ifdef LIMIT_Z_ISR
-mcu_config_input_isr(LIMIT_Z);
+        <v>#ifdef LIMIT_B
+mcu_config_input(LIMIT_B);
+#ifdef LIMIT_B_PULLUP
+mcu_config_pullup(LIMIT_B);
+#endif
+#ifdef LIMIT_B_ISR
+mcu_config_input_isr(LIMIT_B);
 #endif
 #endif</v>
       </c>
@@ -5346,130 +5818,130 @@
         <v>DIO56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
+        <v>#if(defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
 #define DIO56 56
-#define LIMIT_X2 56
-#define DIO56_PORT (LIMIT_X2_PORT)
-#define DIO56_BIT (LIMIT_X2_BIT)
-#define LIMIT_X2_OUTREG (__outreg__(LIMIT_X2_PORT))
-#define LIMIT_X2_INREG (__inreg__(LIMIT_X2_PORT))
-#define LIMIT_X2_DIRREG (__dirreg__(LIMIT_X2_PORT))
-#define DIO56_OUTREG (__outreg__(LIMIT_X2_PORT))
-#define DIO56_INREG (__inreg__(LIMIT_X2_PORT))
-#define DIO56_DIRREG (__dirreg__(LIMIT_X2_PORT))
+#define LIMIT_C 56
+#define DIO56_PORT (LIMIT_C_PORT)
+#define DIO56_BIT (LIMIT_C_BIT)
+#define LIMIT_C_OUTREG (__outreg__(LIMIT_C_PORT))
+#define LIMIT_C_INREG (__inreg__(LIMIT_C_PORT))
+#define LIMIT_C_DIRREG (__dirreg__(LIMIT_C_PORT))
+#define DIO56_OUTREG (__outreg__(LIMIT_C_PORT))
+#define DIO56_INREG (__inreg__(LIMIT_C_PORT))
+#define DIO56_DIRREG (__dirreg__(LIMIT_C_PORT))
 #endif</v>
       </c>
       <c r="F59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
-#define DIO56_ISR (LIMIT_X2_ISR)
-#define LIMIT_X2_ISRREG (__pcmskreg__(LIMIT_X2_ISR))
-#if(LIMIT_X2_ISR==0)
-#define LIMIT_X2_ISR0 (1 &lt;&lt; LIMIT_X2_BIT)
-#endif
-#if(LIMIT_X2_ISR==1)
-#define LIMIT_X2_ISR1 (1 &lt;&lt; LIMIT_X2_BIT)
-#endif
-#if(LIMIT_X2_ISR==2)
-#define LIMIT_X2_ISR2 (1 &lt;&lt; LIMIT_X2_BIT)
-#endif
-#if(LIMIT_X2_ISR==-1)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 1
-#endif
-#if(LIMIT_X2_ISR==-2)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 4
-#endif
-#if(LIMIT_X2_ISR==-3)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 16
-#endif
-#if(LIMIT_X2_ISR==-4)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRA 64
-#endif
-#if(LIMIT_X2_ISR==-5)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRA
-#define LIMIT_X2_ISRB 1
-#endif
-#if(LIMIT_X2_ISR==-6)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRB
-#define LIMIT_X2_ISRB 4
-#endif
-#if(LIMIT_X2_ISR==-7)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRB
-#define LIMIT_X2_ISRB 16
-#endif
-#if(LIMIT_X2_ISR==-8)
-#undef LIMIT_X2_ISRREG
-#define LIMIT_X2_ISRREG EICRB
-#define LIMIT_X2_ISRB 64
-#endif
-#define DIO56_ISRREG LIMIT_X2_ISRREG
+        <v>#if(defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
+#define DIO56_ISR (LIMIT_C_ISR)
+#define LIMIT_C_ISRREG (__pcmskreg__(LIMIT_C_ISR))
+#if(LIMIT_C_ISR==0)
+#define LIMIT_C_ISR0 (1 &lt;&lt; LIMIT_C_BIT)
+#endif
+#if(LIMIT_C_ISR==1)
+#define LIMIT_C_ISR1 (1 &lt;&lt; LIMIT_C_BIT)
+#endif
+#if(LIMIT_C_ISR==2)
+#define LIMIT_C_ISR2 (1 &lt;&lt; LIMIT_C_BIT)
+#endif
+#if(LIMIT_C_ISR==-1)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 1
+#endif
+#if(LIMIT_C_ISR==-2)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 4
+#endif
+#if(LIMIT_C_ISR==-3)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 16
+#endif
+#if(LIMIT_C_ISR==-4)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRA 64
+#endif
+#if(LIMIT_C_ISR==-5)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRA
+#define LIMIT_C_ISRB 1
+#endif
+#if(LIMIT_C_ISR==-6)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRB
+#define LIMIT_C_ISRB 4
+#endif
+#if(LIMIT_C_ISR==-7)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRB
+#define LIMIT_C_ISRB 16
+#endif
+#if(LIMIT_C_ISR==-8)
+#undef LIMIT_C_ISRREG
+#define LIMIT_C_ISRREG EICRB
+#define LIMIT_C_ISRB 64
+#endif
+#define DIO56_ISRREG LIMIT_C_ISRREG
 #endif</v>
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_X2_ISR0
-#define LIMIT_X2_ISR0 0
-#endif
-#ifndef LIMIT_X2_ISR1
-#define LIMIT_X2_ISR1 0
-#endif
-#ifndef LIMIT_X2_ISR2
-#define LIMIT_X2_ISR2 0
-#endif
-#ifndef LIMIT_X2_ISRA
-#define LIMIT_X2_ISRA 0
-#endif
-#ifndef LIMIT_X2_ISRB
-#define LIMIT_X2_ISRB 0
-#endif
-#define LIMIT_X2_ISR_MASK (LIMIT_X2_ISR0 | LIMIT_X2_ISR1 | LIMIT_X2_ISR2 | LIMIT_X2_ISRA | LIMIT_X2_ISRB)
-#ifndef LIMIT_X2_ISR_MASK
-#define LIMIT_X2_ISR_MASK 0
-#endif
-#define DIO56_ISR_MASK LIMIT_X2_ISR_MASK
-#define DIO56_ISRREG LIMIT_X2_ISRREG</v>
+        <v>#ifndef LIMIT_C_ISR0
+#define LIMIT_C_ISR0 0
+#endif
+#ifndef LIMIT_C_ISR1
+#define LIMIT_C_ISR1 0
+#endif
+#ifndef LIMIT_C_ISR2
+#define LIMIT_C_ISR2 0
+#endif
+#ifndef LIMIT_C_ISRA
+#define LIMIT_C_ISRA 0
+#endif
+#ifndef LIMIT_C_ISRB
+#define LIMIT_C_ISRB 0
+#endif
+#define LIMIT_C_ISR_MASK (LIMIT_C_ISR0 | LIMIT_C_ISR1 | LIMIT_C_ISR2 | LIMIT_C_ISRA | LIMIT_C_ISRB)
+#ifndef LIMIT_C_ISR_MASK
+#define LIMIT_C_ISR_MASK 0
+#endif
+#define DIO56_ISR_MASK LIMIT_C_ISR_MASK
+#define DIO56_ISRREG LIMIT_C_ISRREG</v>
       </c>
       <c r="H59" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_X2
-#define LIMITEN_LIMIT_X2 (1&lt;&lt;(LIMIT_X2 - LIMIT_X))
-#ifdef LIMIT_X2_ISR
-#define LIMITISR_LIMIT_X2 (1&lt;&lt;(LIMIT_X2 - LIMIT_X))
+        <v>#ifdef LIMIT_C
+#define LIMITEN_LIMIT_C (1&lt;&lt;(LIMIT_C - LIMIT_X))
+#ifdef LIMIT_C_ISR
+#define LIMITISR_LIMIT_C (1&lt;&lt;(LIMIT_C - LIMIT_X))
 #else
-#define LIMITISR_LIMIT_X2 0
+#define LIMITISR_LIMIT_C 0
 #endif
 #else
-#define LIMITEN_LIMIT_X2 0
-#define LIMITISR_LIMIT_X2 0
+#define LIMITEN_LIMIT_C 0
+#define LIMITISR_LIMIT_C 0
 #endif</v>
       </c>
       <c r="I59" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_X2
-mcu_config_input(LIMIT_X2);
-#ifdef LIMIT_X2_PULLUP
-mcu_config_pullup(LIMIT_X2);
-#endif
-#ifdef LIMIT_X2_ISR
-mcu_config_input_isr(LIMIT_X2);
+        <v>#ifdef LIMIT_C
+mcu_config_input(LIMIT_C);
+#ifdef LIMIT_C_PULLUP
+mcu_config_pullup(LIMIT_C);
+#endif
+#ifdef LIMIT_C_ISR
+mcu_config_input_isr(LIMIT_C);
 #endif
 #endif</v>
       </c>
@@ -5501,131 +5973,118 @@
         <f t="shared" si="0"/>
         <v>DIO57</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
+      <c r="C60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
       </c>
       <c r="E60" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
+        <v>#if(defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
 #define DIO57 57
-#define LIMIT_Y2 57
-#define DIO57_PORT (LIMIT_Y2_PORT)
-#define DIO57_BIT (LIMIT_Y2_BIT)
-#define LIMIT_Y2_OUTREG (__outreg__(LIMIT_Y2_PORT))
-#define LIMIT_Y2_INREG (__inreg__(LIMIT_Y2_PORT))
-#define LIMIT_Y2_DIRREG (__dirreg__(LIMIT_Y2_PORT))
-#define DIO57_OUTREG (__outreg__(LIMIT_Y2_PORT))
-#define DIO57_INREG (__inreg__(LIMIT_Y2_PORT))
-#define DIO57_DIRREG (__dirreg__(LIMIT_Y2_PORT))
+#define PROBE 57
+#define DIO57_PORT (PROBE_PORT)
+#define DIO57_BIT (PROBE_BIT)
+#define PROBE_OUTREG (__outreg__(PROBE_PORT))
+#define PROBE_INREG (__inreg__(PROBE_PORT))
+#define PROBE_DIRREG (__dirreg__(PROBE_PORT))
+#define DIO57_OUTREG (__outreg__(PROBE_PORT))
+#define DIO57_INREG (__inreg__(PROBE_PORT))
+#define DIO57_DIRREG (__dirreg__(PROBE_PORT))
 #endif</v>
       </c>
       <c r="F60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
-#define DIO57_ISR (LIMIT_Y2_ISR)
-#define LIMIT_Y2_ISRREG (__pcmskreg__(LIMIT_Y2_ISR))
-#if(LIMIT_Y2_ISR==0)
-#define LIMIT_Y2_ISR0 (1 &lt;&lt; LIMIT_Y2_BIT)
-#endif
-#if(LIMIT_Y2_ISR==1)
-#define LIMIT_Y2_ISR1 (1 &lt;&lt; LIMIT_Y2_BIT)
-#endif
-#if(LIMIT_Y2_ISR==2)
-#define LIMIT_Y2_ISR2 (1 &lt;&lt; LIMIT_Y2_BIT)
-#endif
-#if(LIMIT_Y2_ISR==-1)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 1
-#endif
-#if(LIMIT_Y2_ISR==-2)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 4
-#endif
-#if(LIMIT_Y2_ISR==-3)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 16
-#endif
-#if(LIMIT_Y2_ISR==-4)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRA 64
-#endif
-#if(LIMIT_Y2_ISR==-5)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRA
-#define LIMIT_Y2_ISRB 1
-#endif
-#if(LIMIT_Y2_ISR==-6)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRB
-#define LIMIT_Y2_ISRB 4
-#endif
-#if(LIMIT_Y2_ISR==-7)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRB
-#define LIMIT_Y2_ISRB 16
-#endif
-#if(LIMIT_Y2_ISR==-8)
-#undef LIMIT_Y2_ISRREG
-#define LIMIT_Y2_ISRREG EICRB
-#define LIMIT_Y2_ISRB 64
-#endif
-#define DIO57_ISRREG LIMIT_Y2_ISRREG
+        <v>#if(defined(PROBE_ISR) &amp;&amp; defined(PROBE))
+#define DIO57_ISR (PROBE_ISR)
+#define PROBE_ISRREG (__pcmskreg__(PROBE_ISR))
+#if(PROBE_ISR==0)
+#define PROBE_ISR0 (1 &lt;&lt; PROBE_BIT)
+#endif
+#if(PROBE_ISR==1)
+#define PROBE_ISR1 (1 &lt;&lt; PROBE_BIT)
+#endif
+#if(PROBE_ISR==2)
+#define PROBE_ISR2 (1 &lt;&lt; PROBE_BIT)
+#endif
+#if(PROBE_ISR==-1)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 1
+#endif
+#if(PROBE_ISR==-2)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 4
+#endif
+#if(PROBE_ISR==-3)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 16
+#endif
+#if(PROBE_ISR==-4)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRA 64
+#endif
+#if(PROBE_ISR==-5)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRA
+#define PROBE_ISRB 1
+#endif
+#if(PROBE_ISR==-6)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRB
+#define PROBE_ISRB 4
+#endif
+#if(PROBE_ISR==-7)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRB
+#define PROBE_ISRB 16
+#endif
+#if(PROBE_ISR==-8)
+#undef PROBE_ISRREG
+#define PROBE_ISRREG EICRB
+#define PROBE_ISRB 64
+#endif
+#define DIO57_ISRREG PROBE_ISRREG
 #endif</v>
       </c>
       <c r="G60" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_Y2_ISR0
-#define LIMIT_Y2_ISR0 0
-#endif
-#ifndef LIMIT_Y2_ISR1
-#define LIMIT_Y2_ISR1 0
-#endif
-#ifndef LIMIT_Y2_ISR2
-#define LIMIT_Y2_ISR2 0
-#endif
-#ifndef LIMIT_Y2_ISRA
-#define LIMIT_Y2_ISRA 0
-#endif
-#ifndef LIMIT_Y2_ISRB
-#define LIMIT_Y2_ISRB 0
-#endif
-#define LIMIT_Y2_ISR_MASK (LIMIT_Y2_ISR0 | LIMIT_Y2_ISR1 | LIMIT_Y2_ISR2 | LIMIT_Y2_ISRA | LIMIT_Y2_ISRB)
-#ifndef LIMIT_Y2_ISR_MASK
-#define LIMIT_Y2_ISR_MASK 0
-#endif
-#define DIO57_ISR_MASK LIMIT_Y2_ISR_MASK
-#define DIO57_ISRREG LIMIT_Y2_ISRREG</v>
-      </c>
-      <c r="H60" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_Y2
-#define LIMITEN_LIMIT_Y2 (1&lt;&lt;(LIMIT_Y2 - LIMIT_X))
-#ifdef LIMIT_Y2_ISR
-#define LIMITISR_LIMIT_Y2 (1&lt;&lt;(LIMIT_Y2 - LIMIT_X))
-#else
-#define LIMITISR_LIMIT_Y2 0
-#endif
-#else
-#define LIMITEN_LIMIT_Y2 0
-#define LIMITISR_LIMIT_Y2 0
-#endif</v>
-      </c>
+        <v>#ifndef PROBE_ISR0
+#define PROBE_ISR0 0
+#endif
+#ifndef PROBE_ISR1
+#define PROBE_ISR1 0
+#endif
+#ifndef PROBE_ISR2
+#define PROBE_ISR2 0
+#endif
+#ifndef PROBE_ISRA
+#define PROBE_ISRA 0
+#endif
+#ifndef PROBE_ISRB
+#define PROBE_ISRB 0
+#endif
+#define PROBE_ISR_MASK (PROBE_ISR0 | PROBE_ISR1 | PROBE_ISR2 | PROBE_ISRA | PROBE_ISRB)
+#ifndef PROBE_ISR_MASK
+#define PROBE_ISR_MASK 0
+#endif
+#define DIO57_ISR_MASK PROBE_ISR_MASK
+#define DIO57_ISRREG PROBE_ISRREG</v>
+      </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_Y2
-mcu_config_input(LIMIT_Y2);
-#ifdef LIMIT_Y2_PULLUP
-mcu_config_pullup(LIMIT_Y2);
-#endif
-#ifdef LIMIT_Y2_ISR
-mcu_config_input_isr(LIMIT_Y2);
+        <v>#ifdef PROBE
+mcu_config_input(PROBE);
+#ifdef PROBE_PULLUP
+mcu_config_pullup(PROBE);
+#endif
+#ifdef PROBE_ISR
+mcu_config_input_isr(PROBE);
 #endif
 #endif</v>
       </c>
@@ -5658,130 +6117,140 @@
         <v>DIO58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
+        <v>#if(defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
 #define DIO58 58
-#define LIMIT_Z2 58
-#define DIO58_PORT (LIMIT_Z2_PORT)
-#define DIO58_BIT (LIMIT_Z2_BIT)
-#define LIMIT_Z2_OUTREG (__outreg__(LIMIT_Z2_PORT))
-#define LIMIT_Z2_INREG (__inreg__(LIMIT_Z2_PORT))
-#define LIMIT_Z2_DIRREG (__dirreg__(LIMIT_Z2_PORT))
-#define DIO58_OUTREG (__outreg__(LIMIT_Z2_PORT))
-#define DIO58_INREG (__inreg__(LIMIT_Z2_PORT))
-#define DIO58_DIRREG (__dirreg__(LIMIT_Z2_PORT))
+#define ESTOP 58
+#define DIO58_PORT (ESTOP_PORT)
+#define DIO58_BIT (ESTOP_BIT)
+#define ESTOP_OUTREG (__outreg__(ESTOP_PORT))
+#define ESTOP_INREG (__inreg__(ESTOP_PORT))
+#define ESTOP_DIRREG (__dirreg__(ESTOP_PORT))
+#define DIO58_OUTREG (__outreg__(ESTOP_PORT))
+#define DIO58_INREG (__inreg__(ESTOP_PORT))
+#define DIO58_DIRREG (__dirreg__(ESTOP_PORT))
 #endif</v>
       </c>
       <c r="F61" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
-#define DIO58_ISR (LIMIT_Z2_ISR)
-#define LIMIT_Z2_ISRREG (__pcmskreg__(LIMIT_Z2_ISR))
-#if(LIMIT_Z2_ISR==0)
-#define LIMIT_Z2_ISR0 (1 &lt;&lt; LIMIT_Z2_BIT)
-#endif
-#if(LIMIT_Z2_ISR==1)
-#define LIMIT_Z2_ISR1 (1 &lt;&lt; LIMIT_Z2_BIT)
-#endif
-#if(LIMIT_Z2_ISR==2)
-#define LIMIT_Z2_ISR2 (1 &lt;&lt; LIMIT_Z2_BIT)
-#endif
-#if(LIMIT_Z2_ISR==-1)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 1
-#endif
-#if(LIMIT_Z2_ISR==-2)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 4
-#endif
-#if(LIMIT_Z2_ISR==-3)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 16
-#endif
-#if(LIMIT_Z2_ISR==-4)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRA 64
-#endif
-#if(LIMIT_Z2_ISR==-5)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRA
-#define LIMIT_Z2_ISRB 1
-#endif
-#if(LIMIT_Z2_ISR==-6)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRB
-#define LIMIT_Z2_ISRB 4
-#endif
-#if(LIMIT_Z2_ISR==-7)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRB
-#define LIMIT_Z2_ISRB 16
-#endif
-#if(LIMIT_Z2_ISR==-8)
-#undef LIMIT_Z2_ISRREG
-#define LIMIT_Z2_ISRREG EICRB
-#define LIMIT_Z2_ISRB 64
-#endif
-#define DIO58_ISRREG LIMIT_Z2_ISRREG
+        <v>#if(defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
+#define DIO58_ISR (ESTOP_ISR)
+#define ESTOP_ISRREG (__pcmskreg__(ESTOP_ISR))
+#if(ESTOP_ISR==0)
+#define ESTOP_ISR0 (1 &lt;&lt; ESTOP_BIT)
+#endif
+#if(ESTOP_ISR==1)
+#define ESTOP_ISR1 (1 &lt;&lt; ESTOP_BIT)
+#endif
+#if(ESTOP_ISR==2)
+#define ESTOP_ISR2 (1 &lt;&lt; ESTOP_BIT)
+#endif
+#if(ESTOP_ISR==-1)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 1
+#endif
+#if(ESTOP_ISR==-2)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 4
+#endif
+#if(ESTOP_ISR==-3)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 16
+#endif
+#if(ESTOP_ISR==-4)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRA 64
+#endif
+#if(ESTOP_ISR==-5)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRA
+#define ESTOP_ISRB 1
+#endif
+#if(ESTOP_ISR==-6)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRB
+#define ESTOP_ISRB 4
+#endif
+#if(ESTOP_ISR==-7)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRB
+#define ESTOP_ISRB 16
+#endif
+#if(ESTOP_ISR==-8)
+#undef ESTOP_ISRREG
+#define ESTOP_ISRREG EICRB
+#define ESTOP_ISRB 64
+#endif
+#define DIO58_ISRREG ESTOP_ISRREG
 #endif</v>
       </c>
       <c r="G61" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_Z2_ISR0
-#define LIMIT_Z2_ISR0 0
-#endif
-#ifndef LIMIT_Z2_ISR1
-#define LIMIT_Z2_ISR1 0
-#endif
-#ifndef LIMIT_Z2_ISR2
-#define LIMIT_Z2_ISR2 0
-#endif
-#ifndef LIMIT_Z2_ISRA
-#define LIMIT_Z2_ISRA 0
-#endif
-#ifndef LIMIT_Z2_ISRB
-#define LIMIT_Z2_ISRB 0
-#endif
-#define LIMIT_Z2_ISR_MASK (LIMIT_Z2_ISR0 | LIMIT_Z2_ISR1 | LIMIT_Z2_ISR2 | LIMIT_Z2_ISRA | LIMIT_Z2_ISRB)
-#ifndef LIMIT_Z2_ISR_MASK
-#define LIMIT_Z2_ISR_MASK 0
-#endif
-#define DIO58_ISR_MASK LIMIT_Z2_ISR_MASK
-#define DIO58_ISRREG LIMIT_Z2_ISRREG</v>
+        <v>#ifndef ESTOP_ISR0
+#define ESTOP_ISR0 0
+#endif
+#ifndef ESTOP_ISR1
+#define ESTOP_ISR1 0
+#endif
+#ifndef ESTOP_ISR2
+#define ESTOP_ISR2 0
+#endif
+#ifndef ESTOP_ISRA
+#define ESTOP_ISRA 0
+#endif
+#ifndef ESTOP_ISRB
+#define ESTOP_ISRB 0
+#endif
+#define ESTOP_ISR_MASK (ESTOP_ISR0 | ESTOP_ISR1 | ESTOP_ISR2 | ESTOP_ISRA | ESTOP_ISRB)
+#ifndef ESTOP_ISR_MASK
+#define ESTOP_ISR_MASK 0
+#endif
+#define DIO58_ISR_MASK ESTOP_ISR_MASK
+#define DIO58_ISRREG ESTOP_ISRREG</v>
       </c>
       <c r="H61" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_Z2
-#define LIMITEN_LIMIT_Z2 (1&lt;&lt;(LIMIT_Z2 - LIMIT_X))
-#ifdef LIMIT_Z2_ISR
-#define LIMITISR_LIMIT_Z2 (1&lt;&lt;(LIMIT_Z2 - LIMIT_X))
+        <f>"#ifdef "&amp;C61&amp;"
+#define CONTROLEN_"&amp;C61&amp;" (1&lt;&lt;("&amp;C61&amp;" - ESTOP))
+#ifdef "&amp;C61&amp;"_ISR
+#define CONTROLISR_"&amp;C61&amp;" (1&lt;&lt;("&amp;C61&amp;" - ESTOP))
 #else
-#define LIMITISR_LIMIT_Z2 0
+#define CONTROLISR_"&amp;C61&amp;" 0
 #endif
 #else
-#define LIMITEN_LIMIT_Z2 0
-#define LIMITISR_LIMIT_Z2 0
+#define CONTROLEN_"&amp;C61&amp;" 0
+#define CONTROLISR_"&amp;C61&amp;" 0
+#endif"</f>
+        <v>#ifdef ESTOP
+#define CONTROLEN_ESTOP (1&lt;&lt;(ESTOP - ESTOP))
+#ifdef ESTOP_ISR
+#define CONTROLISR_ESTOP (1&lt;&lt;(ESTOP - ESTOP))
+#else
+#define CONTROLISR_ESTOP 0
+#endif
+#else
+#define CONTROLEN_ESTOP 0
+#define CONTROLISR_ESTOP 0
 #endif</v>
       </c>
       <c r="I61" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_Z2
-mcu_config_input(LIMIT_Z2);
-#ifdef LIMIT_Z2_PULLUP
-mcu_config_pullup(LIMIT_Z2);
-#endif
-#ifdef LIMIT_Z2_ISR
-mcu_config_input_isr(LIMIT_Z2);
+        <v>#ifdef ESTOP
+mcu_config_input(ESTOP);
+#ifdef ESTOP_PULLUP
+mcu_config_pullup(ESTOP);
+#endif
+#ifdef ESTOP_ISR
+mcu_config_input_isr(ESTOP);
 #endif
 #endif</v>
       </c>
@@ -5814,130 +6283,140 @@
         <v>DIO59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
+        <v>#if(defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
 #define DIO59 59
-#define LIMIT_A 59
-#define DIO59_PORT (LIMIT_A_PORT)
-#define DIO59_BIT (LIMIT_A_BIT)
-#define LIMIT_A_OUTREG (__outreg__(LIMIT_A_PORT))
-#define LIMIT_A_INREG (__inreg__(LIMIT_A_PORT))
-#define LIMIT_A_DIRREG (__dirreg__(LIMIT_A_PORT))
-#define DIO59_OUTREG (__outreg__(LIMIT_A_PORT))
-#define DIO59_INREG (__inreg__(LIMIT_A_PORT))
-#define DIO59_DIRREG (__dirreg__(LIMIT_A_PORT))
+#define SAFETY_DOOR 59
+#define DIO59_PORT (SAFETY_DOOR_PORT)
+#define DIO59_BIT (SAFETY_DOOR_BIT)
+#define SAFETY_DOOR_OUTREG (__outreg__(SAFETY_DOOR_PORT))
+#define SAFETY_DOOR_INREG (__inreg__(SAFETY_DOOR_PORT))
+#define SAFETY_DOOR_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
+#define DIO59_OUTREG (__outreg__(SAFETY_DOOR_PORT))
+#define DIO59_INREG (__inreg__(SAFETY_DOOR_PORT))
+#define DIO59_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
 #endif</v>
       </c>
       <c r="F62" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
-#define DIO59_ISR (LIMIT_A_ISR)
-#define LIMIT_A_ISRREG (__pcmskreg__(LIMIT_A_ISR))
-#if(LIMIT_A_ISR==0)
-#define LIMIT_A_ISR0 (1 &lt;&lt; LIMIT_A_BIT)
-#endif
-#if(LIMIT_A_ISR==1)
-#define LIMIT_A_ISR1 (1 &lt;&lt; LIMIT_A_BIT)
-#endif
-#if(LIMIT_A_ISR==2)
-#define LIMIT_A_ISR2 (1 &lt;&lt; LIMIT_A_BIT)
-#endif
-#if(LIMIT_A_ISR==-1)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 1
-#endif
-#if(LIMIT_A_ISR==-2)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 4
-#endif
-#if(LIMIT_A_ISR==-3)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 16
-#endif
-#if(LIMIT_A_ISR==-4)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRA 64
-#endif
-#if(LIMIT_A_ISR==-5)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRA
-#define LIMIT_A_ISRB 1
-#endif
-#if(LIMIT_A_ISR==-6)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRB
-#define LIMIT_A_ISRB 4
-#endif
-#if(LIMIT_A_ISR==-7)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRB
-#define LIMIT_A_ISRB 16
-#endif
-#if(LIMIT_A_ISR==-8)
-#undef LIMIT_A_ISRREG
-#define LIMIT_A_ISRREG EICRB
-#define LIMIT_A_ISRB 64
-#endif
-#define DIO59_ISRREG LIMIT_A_ISRREG
+        <v>#if(defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
+#define DIO59_ISR (SAFETY_DOOR_ISR)
+#define SAFETY_DOOR_ISRREG (__pcmskreg__(SAFETY_DOOR_ISR))
+#if(SAFETY_DOOR_ISR==0)
+#define SAFETY_DOOR_ISR0 (1 &lt;&lt; SAFETY_DOOR_BIT)
+#endif
+#if(SAFETY_DOOR_ISR==1)
+#define SAFETY_DOOR_ISR1 (1 &lt;&lt; SAFETY_DOOR_BIT)
+#endif
+#if(SAFETY_DOOR_ISR==2)
+#define SAFETY_DOOR_ISR2 (1 &lt;&lt; SAFETY_DOOR_BIT)
+#endif
+#if(SAFETY_DOOR_ISR==-1)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 1
+#endif
+#if(SAFETY_DOOR_ISR==-2)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 4
+#endif
+#if(SAFETY_DOOR_ISR==-3)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 16
+#endif
+#if(SAFETY_DOOR_ISR==-4)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRA 64
+#endif
+#if(SAFETY_DOOR_ISR==-5)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRA
+#define SAFETY_DOOR_ISRB 1
+#endif
+#if(SAFETY_DOOR_ISR==-6)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRB
+#define SAFETY_DOOR_ISRB 4
+#endif
+#if(SAFETY_DOOR_ISR==-7)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRB
+#define SAFETY_DOOR_ISRB 16
+#endif
+#if(SAFETY_DOOR_ISR==-8)
+#undef SAFETY_DOOR_ISRREG
+#define SAFETY_DOOR_ISRREG EICRB
+#define SAFETY_DOOR_ISRB 64
+#endif
+#define DIO59_ISRREG SAFETY_DOOR_ISRREG
 #endif</v>
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_A_ISR0
-#define LIMIT_A_ISR0 0
-#endif
-#ifndef LIMIT_A_ISR1
-#define LIMIT_A_ISR1 0
-#endif
-#ifndef LIMIT_A_ISR2
-#define LIMIT_A_ISR2 0
-#endif
-#ifndef LIMIT_A_ISRA
-#define LIMIT_A_ISRA 0
-#endif
-#ifndef LIMIT_A_ISRB
-#define LIMIT_A_ISRB 0
-#endif
-#define LIMIT_A_ISR_MASK (LIMIT_A_ISR0 | LIMIT_A_ISR1 | LIMIT_A_ISR2 | LIMIT_A_ISRA | LIMIT_A_ISRB)
-#ifndef LIMIT_A_ISR_MASK
-#define LIMIT_A_ISR_MASK 0
-#endif
-#define DIO59_ISR_MASK LIMIT_A_ISR_MASK
-#define DIO59_ISRREG LIMIT_A_ISRREG</v>
+        <v>#ifndef SAFETY_DOOR_ISR0
+#define SAFETY_DOOR_ISR0 0
+#endif
+#ifndef SAFETY_DOOR_ISR1
+#define SAFETY_DOOR_ISR1 0
+#endif
+#ifndef SAFETY_DOOR_ISR2
+#define SAFETY_DOOR_ISR2 0
+#endif
+#ifndef SAFETY_DOOR_ISRA
+#define SAFETY_DOOR_ISRA 0
+#endif
+#ifndef SAFETY_DOOR_ISRB
+#define SAFETY_DOOR_ISRB 0
+#endif
+#define SAFETY_DOOR_ISR_MASK (SAFETY_DOOR_ISR0 | SAFETY_DOOR_ISR1 | SAFETY_DOOR_ISR2 | SAFETY_DOOR_ISRA | SAFETY_DOOR_ISRB)
+#ifndef SAFETY_DOOR_ISR_MASK
+#define SAFETY_DOOR_ISR_MASK 0
+#endif
+#define DIO59_ISR_MASK SAFETY_DOOR_ISR_MASK
+#define DIO59_ISRREG SAFETY_DOOR_ISRREG</v>
       </c>
       <c r="H62" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_A
-#define LIMITEN_LIMIT_A (1&lt;&lt;(LIMIT_A - LIMIT_X))
-#ifdef LIMIT_A_ISR
-#define LIMITISR_LIMIT_A (1&lt;&lt;(LIMIT_A - LIMIT_X))
+        <f t="shared" ref="H62:H64" si="10">"#ifdef "&amp;C62&amp;"
+#define CONTROLEN_"&amp;C62&amp;" (1&lt;&lt;("&amp;C62&amp;" - ESTOP))
+#ifdef "&amp;C62&amp;"_ISR
+#define CONTROLISR_"&amp;C62&amp;" (1&lt;&lt;("&amp;C62&amp;" - ESTOP))
 #else
-#define LIMITISR_LIMIT_A 0
+#define CONTROLISR_"&amp;C62&amp;" 0
 #endif
 #else
-#define LIMITEN_LIMIT_A 0
-#define LIMITISR_LIMIT_A 0
+#define CONTROLEN_"&amp;C62&amp;" 0
+#define CONTROLISR_"&amp;C62&amp;" 0
+#endif"</f>
+        <v>#ifdef SAFETY_DOOR
+#define CONTROLEN_SAFETY_DOOR (1&lt;&lt;(SAFETY_DOOR - ESTOP))
+#ifdef SAFETY_DOOR_ISR
+#define CONTROLISR_SAFETY_DOOR (1&lt;&lt;(SAFETY_DOOR - ESTOP))
+#else
+#define CONTROLISR_SAFETY_DOOR 0
+#endif
+#else
+#define CONTROLEN_SAFETY_DOOR 0
+#define CONTROLISR_SAFETY_DOOR 0
 #endif</v>
       </c>
       <c r="I62" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_A
-mcu_config_input(LIMIT_A);
-#ifdef LIMIT_A_PULLUP
-mcu_config_pullup(LIMIT_A);
-#endif
-#ifdef LIMIT_A_ISR
-mcu_config_input_isr(LIMIT_A);
+        <v>#ifdef SAFETY_DOOR
+mcu_config_input(SAFETY_DOOR);
+#ifdef SAFETY_DOOR_PULLUP
+mcu_config_pullup(SAFETY_DOOR);
+#endif
+#ifdef SAFETY_DOOR_ISR
+mcu_config_input_isr(SAFETY_DOOR);
 #endif
 #endif</v>
       </c>
@@ -5970,130 +6449,130 @@
         <v>DIO60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
+        <v>#if(defined(FHOLD_PORT) &amp;&amp; defined(FHOLD_BIT))
 #define DIO60 60
-#define LIMIT_B 60
-#define DIO60_PORT (LIMIT_B_PORT)
-#define DIO60_BIT (LIMIT_B_BIT)
-#define LIMIT_B_OUTREG (__outreg__(LIMIT_B_PORT))
-#define LIMIT_B_INREG (__inreg__(LIMIT_B_PORT))
-#define LIMIT_B_DIRREG (__dirreg__(LIMIT_B_PORT))
-#define DIO60_OUTREG (__outreg__(LIMIT_B_PORT))
-#define DIO60_INREG (__inreg__(LIMIT_B_PORT))
-#define DIO60_DIRREG (__dirreg__(LIMIT_B_PORT))
+#define FHOLD 60
+#define DIO60_PORT (FHOLD_PORT)
+#define DIO60_BIT (FHOLD_BIT)
+#define FHOLD_OUTREG (__outreg__(FHOLD_PORT))
+#define FHOLD_INREG (__inreg__(FHOLD_PORT))
+#define FHOLD_DIRREG (__dirreg__(FHOLD_PORT))
+#define DIO60_OUTREG (__outreg__(FHOLD_PORT))
+#define DIO60_INREG (__inreg__(FHOLD_PORT))
+#define DIO60_DIRREG (__dirreg__(FHOLD_PORT))
 #endif</v>
       </c>
       <c r="F63" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
-#define DIO60_ISR (LIMIT_B_ISR)
-#define LIMIT_B_ISRREG (__pcmskreg__(LIMIT_B_ISR))
-#if(LIMIT_B_ISR==0)
-#define LIMIT_B_ISR0 (1 &lt;&lt; LIMIT_B_BIT)
-#endif
-#if(LIMIT_B_ISR==1)
-#define LIMIT_B_ISR1 (1 &lt;&lt; LIMIT_B_BIT)
-#endif
-#if(LIMIT_B_ISR==2)
-#define LIMIT_B_ISR2 (1 &lt;&lt; LIMIT_B_BIT)
-#endif
-#if(LIMIT_B_ISR==-1)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 1
-#endif
-#if(LIMIT_B_ISR==-2)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 4
-#endif
-#if(LIMIT_B_ISR==-3)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 16
-#endif
-#if(LIMIT_B_ISR==-4)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRA 64
-#endif
-#if(LIMIT_B_ISR==-5)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRA
-#define LIMIT_B_ISRB 1
-#endif
-#if(LIMIT_B_ISR==-6)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRB
-#define LIMIT_B_ISRB 4
-#endif
-#if(LIMIT_B_ISR==-7)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRB
-#define LIMIT_B_ISRB 16
-#endif
-#if(LIMIT_B_ISR==-8)
-#undef LIMIT_B_ISRREG
-#define LIMIT_B_ISRREG EICRB
-#define LIMIT_B_ISRB 64
-#endif
-#define DIO60_ISRREG LIMIT_B_ISRREG
+        <v>#if(defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
+#define DIO60_ISR (FHOLD_ISR)
+#define FHOLD_ISRREG (__pcmskreg__(FHOLD_ISR))
+#if(FHOLD_ISR==0)
+#define FHOLD_ISR0 (1 &lt;&lt; FHOLD_BIT)
+#endif
+#if(FHOLD_ISR==1)
+#define FHOLD_ISR1 (1 &lt;&lt; FHOLD_BIT)
+#endif
+#if(FHOLD_ISR==2)
+#define FHOLD_ISR2 (1 &lt;&lt; FHOLD_BIT)
+#endif
+#if(FHOLD_ISR==-1)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 1
+#endif
+#if(FHOLD_ISR==-2)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 4
+#endif
+#if(FHOLD_ISR==-3)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 16
+#endif
+#if(FHOLD_ISR==-4)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRA 64
+#endif
+#if(FHOLD_ISR==-5)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRA
+#define FHOLD_ISRB 1
+#endif
+#if(FHOLD_ISR==-6)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRB
+#define FHOLD_ISRB 4
+#endif
+#if(FHOLD_ISR==-7)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRB
+#define FHOLD_ISRB 16
+#endif
+#if(FHOLD_ISR==-8)
+#undef FHOLD_ISRREG
+#define FHOLD_ISRREG EICRB
+#define FHOLD_ISRB 64
+#endif
+#define DIO60_ISRREG FHOLD_ISRREG
 #endif</v>
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_B_ISR0
-#define LIMIT_B_ISR0 0
-#endif
-#ifndef LIMIT_B_ISR1
-#define LIMIT_B_ISR1 0
-#endif
-#ifndef LIMIT_B_ISR2
-#define LIMIT_B_ISR2 0
-#endif
-#ifndef LIMIT_B_ISRA
-#define LIMIT_B_ISRA 0
-#endif
-#ifndef LIMIT_B_ISRB
-#define LIMIT_B_ISRB 0
-#endif
-#define LIMIT_B_ISR_MASK (LIMIT_B_ISR0 | LIMIT_B_ISR1 | LIMIT_B_ISR2 | LIMIT_B_ISRA | LIMIT_B_ISRB)
-#ifndef LIMIT_B_ISR_MASK
-#define LIMIT_B_ISR_MASK 0
-#endif
-#define DIO60_ISR_MASK LIMIT_B_ISR_MASK
-#define DIO60_ISRREG LIMIT_B_ISRREG</v>
+        <v>#ifndef FHOLD_ISR0
+#define FHOLD_ISR0 0
+#endif
+#ifndef FHOLD_ISR1
+#define FHOLD_ISR1 0
+#endif
+#ifndef FHOLD_ISR2
+#define FHOLD_ISR2 0
+#endif
+#ifndef FHOLD_ISRA
+#define FHOLD_ISRA 0
+#endif
+#ifndef FHOLD_ISRB
+#define FHOLD_ISRB 0
+#endif
+#define FHOLD_ISR_MASK (FHOLD_ISR0 | FHOLD_ISR1 | FHOLD_ISR2 | FHOLD_ISRA | FHOLD_ISRB)
+#ifndef FHOLD_ISR_MASK
+#define FHOLD_ISR_MASK 0
+#endif
+#define DIO60_ISR_MASK FHOLD_ISR_MASK
+#define DIO60_ISRREG FHOLD_ISRREG</v>
       </c>
       <c r="H63" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_B
-#define LIMITEN_LIMIT_B (1&lt;&lt;(LIMIT_B - LIMIT_X))
-#ifdef LIMIT_B_ISR
-#define LIMITISR_LIMIT_B (1&lt;&lt;(LIMIT_B - LIMIT_X))
+        <f t="shared" si="10"/>
+        <v>#ifdef FHOLD
+#define CONTROLEN_FHOLD (1&lt;&lt;(FHOLD - ESTOP))
+#ifdef FHOLD_ISR
+#define CONTROLISR_FHOLD (1&lt;&lt;(FHOLD - ESTOP))
 #else
-#define LIMITISR_LIMIT_B 0
+#define CONTROLISR_FHOLD 0
 #endif
 #else
-#define LIMITEN_LIMIT_B 0
-#define LIMITISR_LIMIT_B 0
+#define CONTROLEN_FHOLD 0
+#define CONTROLISR_FHOLD 0
 #endif</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_B
-mcu_config_input(LIMIT_B);
-#ifdef LIMIT_B_PULLUP
-mcu_config_pullup(LIMIT_B);
-#endif
-#ifdef LIMIT_B_ISR
-mcu_config_input_isr(LIMIT_B);
+        <v>#ifdef FHOLD
+mcu_config_input(FHOLD);
+#ifdef FHOLD_PULLUP
+mcu_config_pullup(FHOLD);
+#endif
+#ifdef FHOLD_ISR
+mcu_config_input_isr(FHOLD);
 #endif
 #endif</v>
       </c>
@@ -6126,130 +6605,130 @@
         <v>DIO61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if(defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
+        <v>#if(defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
 #define DIO61 61
-#define LIMIT_C 61
-#define DIO61_PORT (LIMIT_C_PORT)
-#define DIO61_BIT (LIMIT_C_BIT)
-#define LIMIT_C_OUTREG (__outreg__(LIMIT_C_PORT))
-#define LIMIT_C_INREG (__inreg__(LIMIT_C_PORT))
-#define LIMIT_C_DIRREG (__dirreg__(LIMIT_C_PORT))
-#define DIO61_OUTREG (__outreg__(LIMIT_C_PORT))
-#define DIO61_INREG (__inreg__(LIMIT_C_PORT))
-#define DIO61_DIRREG (__dirreg__(LIMIT_C_PORT))
+#define CS_RES 61
+#define DIO61_PORT (CS_RES_PORT)
+#define DIO61_BIT (CS_RES_BIT)
+#define CS_RES_OUTREG (__outreg__(CS_RES_PORT))
+#define CS_RES_INREG (__inreg__(CS_RES_PORT))
+#define CS_RES_DIRREG (__dirreg__(CS_RES_PORT))
+#define DIO61_OUTREG (__outreg__(CS_RES_PORT))
+#define DIO61_INREG (__inreg__(CS_RES_PORT))
+#define DIO61_DIRREG (__dirreg__(CS_RES_PORT))
 #endif</v>
       </c>
       <c r="F64" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if(defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
-#define DIO61_ISR (LIMIT_C_ISR)
-#define LIMIT_C_ISRREG (__pcmskreg__(LIMIT_C_ISR))
-#if(LIMIT_C_ISR==0)
-#define LIMIT_C_ISR0 (1 &lt;&lt; LIMIT_C_BIT)
-#endif
-#if(LIMIT_C_ISR==1)
-#define LIMIT_C_ISR1 (1 &lt;&lt; LIMIT_C_BIT)
-#endif
-#if(LIMIT_C_ISR==2)
-#define LIMIT_C_ISR2 (1 &lt;&lt; LIMIT_C_BIT)
-#endif
-#if(LIMIT_C_ISR==-1)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 1
-#endif
-#if(LIMIT_C_ISR==-2)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 4
-#endif
-#if(LIMIT_C_ISR==-3)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 16
-#endif
-#if(LIMIT_C_ISR==-4)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRA 64
-#endif
-#if(LIMIT_C_ISR==-5)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRA
-#define LIMIT_C_ISRB 1
-#endif
-#if(LIMIT_C_ISR==-6)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRB
-#define LIMIT_C_ISRB 4
-#endif
-#if(LIMIT_C_ISR==-7)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRB
-#define LIMIT_C_ISRB 16
-#endif
-#if(LIMIT_C_ISR==-8)
-#undef LIMIT_C_ISRREG
-#define LIMIT_C_ISRREG EICRB
-#define LIMIT_C_ISRB 64
-#endif
-#define DIO61_ISRREG LIMIT_C_ISRREG
+        <v>#if(defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
+#define DIO61_ISR (CS_RES_ISR)
+#define CS_RES_ISRREG (__pcmskreg__(CS_RES_ISR))
+#if(CS_RES_ISR==0)
+#define CS_RES_ISR0 (1 &lt;&lt; CS_RES_BIT)
+#endif
+#if(CS_RES_ISR==1)
+#define CS_RES_ISR1 (1 &lt;&lt; CS_RES_BIT)
+#endif
+#if(CS_RES_ISR==2)
+#define CS_RES_ISR2 (1 &lt;&lt; CS_RES_BIT)
+#endif
+#if(CS_RES_ISR==-1)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 1
+#endif
+#if(CS_RES_ISR==-2)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 4
+#endif
+#if(CS_RES_ISR==-3)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 16
+#endif
+#if(CS_RES_ISR==-4)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRA 64
+#endif
+#if(CS_RES_ISR==-5)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRA
+#define CS_RES_ISRB 1
+#endif
+#if(CS_RES_ISR==-6)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRB
+#define CS_RES_ISRB 4
+#endif
+#if(CS_RES_ISR==-7)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRB
+#define CS_RES_ISRB 16
+#endif
+#if(CS_RES_ISR==-8)
+#undef CS_RES_ISRREG
+#define CS_RES_ISRREG EICRB
+#define CS_RES_ISRB 64
+#endif
+#define DIO61_ISRREG CS_RES_ISRREG
 #endif</v>
       </c>
       <c r="G64" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>#ifndef LIMIT_C_ISR0
-#define LIMIT_C_ISR0 0
-#endif
-#ifndef LIMIT_C_ISR1
-#define LIMIT_C_ISR1 0
-#endif
-#ifndef LIMIT_C_ISR2
-#define LIMIT_C_ISR2 0
-#endif
-#ifndef LIMIT_C_ISRA
-#define LIMIT_C_ISRA 0
-#endif
-#ifndef LIMIT_C_ISRB
-#define LIMIT_C_ISRB 0
-#endif
-#define LIMIT_C_ISR_MASK (LIMIT_C_ISR0 | LIMIT_C_ISR1 | LIMIT_C_ISR2 | LIMIT_C_ISRA | LIMIT_C_ISRB)
-#ifndef LIMIT_C_ISR_MASK
-#define LIMIT_C_ISR_MASK 0
-#endif
-#define DIO61_ISR_MASK LIMIT_C_ISR_MASK
-#define DIO61_ISRREG LIMIT_C_ISRREG</v>
+        <v>#ifndef CS_RES_ISR0
+#define CS_RES_ISR0 0
+#endif
+#ifndef CS_RES_ISR1
+#define CS_RES_ISR1 0
+#endif
+#ifndef CS_RES_ISR2
+#define CS_RES_ISR2 0
+#endif
+#ifndef CS_RES_ISRA
+#define CS_RES_ISRA 0
+#endif
+#ifndef CS_RES_ISRB
+#define CS_RES_ISRB 0
+#endif
+#define CS_RES_ISR_MASK (CS_RES_ISR0 | CS_RES_ISR1 | CS_RES_ISR2 | CS_RES_ISRA | CS_RES_ISRB)
+#ifndef CS_RES_ISR_MASK
+#define CS_RES_ISR_MASK 0
+#endif
+#define DIO61_ISR_MASK CS_RES_ISR_MASK
+#define DIO61_ISRREG CS_RES_ISRREG</v>
       </c>
       <c r="H64" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#ifdef LIMIT_C
-#define LIMITEN_LIMIT_C (1&lt;&lt;(LIMIT_C - LIMIT_X))
-#ifdef LIMIT_C_ISR
-#define LIMITISR_LIMIT_C (1&lt;&lt;(LIMIT_C - LIMIT_X))
+        <f t="shared" si="10"/>
+        <v>#ifdef CS_RES
+#define CONTROLEN_CS_RES (1&lt;&lt;(CS_RES - ESTOP))
+#ifdef CS_RES_ISR
+#define CONTROLISR_CS_RES (1&lt;&lt;(CS_RES - ESTOP))
 #else
-#define LIMITISR_LIMIT_C 0
+#define CONTROLISR_CS_RES 0
 #endif
 #else
-#define LIMITEN_LIMIT_C 0
-#define LIMITISR_LIMIT_C 0
+#define CONTROLEN_CS_RES 0
+#define CONTROLISR_CS_RES 0
 #endif</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef LIMIT_C
-mcu_config_input(LIMIT_C);
-#ifdef LIMIT_C_PULLUP
-mcu_config_pullup(LIMIT_C);
-#endif
-#ifdef LIMIT_C_ISR
-mcu_config_input_isr(LIMIT_C);
+        <v>#ifdef CS_RES
+mcu_config_input(CS_RES);
+#ifdef CS_RES_PULLUP
+mcu_config_pullup(CS_RES);
+#endif
+#ifdef CS_RES_ISR
+mcu_config_input_isr(CS_RES);
 #endif
 #endif</v>
       </c>
@@ -6281,119 +6760,56 @@
         <f t="shared" si="0"/>
         <v>DIO62</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if(defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
+        <f t="shared" ref="E65:E97" si="11">"#if(defined("&amp;C65&amp;"_PORT) &amp;&amp; defined("&amp;C65&amp;"_BIT))
+#define "&amp;B65&amp;" "&amp;A65&amp;"
+#define "&amp;C65&amp;" "&amp;A65&amp;"
+#define "&amp;B65&amp;"_PORT ("&amp;C65&amp;"_PORT)
+#define "&amp;B65&amp;"_BIT ("&amp;C65&amp;"_BIT)
+#define "&amp;C65&amp;"_OUTREG (__outreg__("&amp;C65&amp;"_PORT))
+#define "&amp;C65&amp;"_INREG (__inreg__("&amp;C65&amp;"_PORT))
+#define "&amp;C65&amp;"_DIRREG (__dirreg__("&amp;C65&amp;"_PORT))
+#define "&amp;B65&amp;"_OUTREG (__outreg__("&amp;C65&amp;"_PORT))
+#define "&amp;B65&amp;"_INREG (__inreg__("&amp;C65&amp;"_PORT))
+#define "&amp;B65&amp;"_DIRREG (__dirreg__("&amp;C65&amp;"_PORT))
+#endif"</f>
+        <v>#if(defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
 #define DIO62 62
-#define PROBE 62
-#define DIO62_PORT (PROBE_PORT)
-#define DIO62_BIT (PROBE_BIT)
-#define PROBE_OUTREG (__outreg__(PROBE_PORT))
-#define PROBE_INREG (__inreg__(PROBE_PORT))
-#define PROBE_DIRREG (__dirreg__(PROBE_PORT))
-#define DIO62_OUTREG (__outreg__(PROBE_PORT))
-#define DIO62_INREG (__inreg__(PROBE_PORT))
-#define DIO62_DIRREG (__dirreg__(PROBE_PORT))
+#define ANALOG0 62
+#define DIO62_PORT (ANALOG0_PORT)
+#define DIO62_BIT (ANALOG0_BIT)
+#define ANALOG0_OUTREG (__outreg__(ANALOG0_PORT))
+#define ANALOG0_INREG (__inreg__(ANALOG0_PORT))
+#define ANALOG0_DIRREG (__dirreg__(ANALOG0_PORT))
+#define DIO62_OUTREG (__outreg__(ANALOG0_PORT))
+#define DIO62_INREG (__inreg__(ANALOG0_PORT))
+#define DIO62_DIRREG (__dirreg__(ANALOG0_PORT))
 #endif</v>
       </c>
-      <c r="F65" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if(defined(PROBE_ISR) &amp;&amp; defined(PROBE))
-#define DIO62_ISR (PROBE_ISR)
-#define PROBE_ISRREG (__pcmskreg__(PROBE_ISR))
-#if(PROBE_ISR==0)
-#define PROBE_ISR0 (1 &lt;&lt; PROBE_BIT)
-#endif
-#if(PROBE_ISR==1)
-#define PROBE_ISR1 (1 &lt;&lt; PROBE_BIT)
-#endif
-#if(PROBE_ISR==2)
-#define PROBE_ISR2 (1 &lt;&lt; PROBE_BIT)
-#endif
-#if(PROBE_ISR==-1)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 1
-#endif
-#if(PROBE_ISR==-2)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 4
-#endif
-#if(PROBE_ISR==-3)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 16
-#endif
-#if(PROBE_ISR==-4)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRA 64
-#endif
-#if(PROBE_ISR==-5)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRA
-#define PROBE_ISRB 1
-#endif
-#if(PROBE_ISR==-6)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRB
-#define PROBE_ISRB 4
-#endif
-#if(PROBE_ISR==-7)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRB
-#define PROBE_ISRB 16
-#endif
-#if(PROBE_ISR==-8)
-#undef PROBE_ISRREG
-#define PROBE_ISRREG EICRB
-#define PROBE_ISRB 64
-#endif
-#define DIO62_ISRREG PROBE_ISRREG
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8" t="str">
+        <f>"#ifdef "&amp;C65&amp;"
+#define "&amp;B65&amp;"_PRESC "&amp;C65&amp;"_PRESC
+#define  "&amp;B65&amp;"_CHANNEL "&amp;C65&amp;"_CHANNEL
+#endif"</f>
+        <v>#ifdef ANALOG0
+#define DIO62_PRESC ANALOG0_PRESC
+#define  DIO62_CHANNEL ANALOG0_CHANNEL
 #endif</v>
       </c>
-      <c r="G65" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifndef PROBE_ISR0
-#define PROBE_ISR0 0
-#endif
-#ifndef PROBE_ISR1
-#define PROBE_ISR1 0
-#endif
-#ifndef PROBE_ISR2
-#define PROBE_ISR2 0
-#endif
-#ifndef PROBE_ISRA
-#define PROBE_ISRA 0
-#endif
-#ifndef PROBE_ISRB
-#define PROBE_ISRB 0
-#endif
-#define PROBE_ISR_MASK (PROBE_ISR0 | PROBE_ISR1 | PROBE_ISR2 | PROBE_ISRA | PROBE_ISRB)
-#ifndef PROBE_ISR_MASK
-#define PROBE_ISR_MASK 0
-#endif
-#define DIO62_ISR_MASK PROBE_ISR_MASK
-#define DIO62_ISRREG PROBE_ISRREG</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef PROBE
-mcu_config_input(PROBE);
-#ifdef PROBE_PULLUP
-mcu_config_pullup(PROBE);
-#endif
-#ifdef PROBE_ISR
-mcu_config_input_isr(PROBE);
-#endif
+      <c r="I65" s="3" t="str">
+        <f>"#ifdef "&amp;C65&amp;"
+mcu_config_input("&amp;C65&amp;");
+#endif"</f>
+        <v>#ifdef ANALOG0
+mcu_config_input(ANALOG0);
 #endif</v>
       </c>
       <c r="J65" s="3"/>
@@ -6425,141 +6841,44 @@
         <v>DIO63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if(defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
+        <f t="shared" si="11"/>
+        <v>#if(defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
 #define DIO63 63
-#define ESTOP 63
-#define DIO63_PORT (ESTOP_PORT)
-#define DIO63_BIT (ESTOP_BIT)
-#define ESTOP_OUTREG (__outreg__(ESTOP_PORT))
-#define ESTOP_INREG (__inreg__(ESTOP_PORT))
-#define ESTOP_DIRREG (__dirreg__(ESTOP_PORT))
-#define DIO63_OUTREG (__outreg__(ESTOP_PORT))
-#define DIO63_INREG (__inreg__(ESTOP_PORT))
-#define DIO63_DIRREG (__dirreg__(ESTOP_PORT))
+#define ANALOG1 63
+#define DIO63_PORT (ANALOG1_PORT)
+#define DIO63_BIT (ANALOG1_BIT)
+#define ANALOG1_OUTREG (__outreg__(ANALOG1_PORT))
+#define ANALOG1_INREG (__inreg__(ANALOG1_PORT))
+#define ANALOG1_DIRREG (__dirreg__(ANALOG1_PORT))
+#define DIO63_OUTREG (__outreg__(ANALOG1_PORT))
+#define DIO63_INREG (__inreg__(ANALOG1_PORT))
+#define DIO63_DIRREG (__dirreg__(ANALOG1_PORT))
 #endif</v>
       </c>
-      <c r="F66" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if(defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
-#define DIO63_ISR (ESTOP_ISR)
-#define ESTOP_ISRREG (__pcmskreg__(ESTOP_ISR))
-#if(ESTOP_ISR==0)
-#define ESTOP_ISR0 (1 &lt;&lt; ESTOP_BIT)
-#endif
-#if(ESTOP_ISR==1)
-#define ESTOP_ISR1 (1 &lt;&lt; ESTOP_BIT)
-#endif
-#if(ESTOP_ISR==2)
-#define ESTOP_ISR2 (1 &lt;&lt; ESTOP_BIT)
-#endif
-#if(ESTOP_ISR==-1)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 1
-#endif
-#if(ESTOP_ISR==-2)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 4
-#endif
-#if(ESTOP_ISR==-3)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 16
-#endif
-#if(ESTOP_ISR==-4)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRA 64
-#endif
-#if(ESTOP_ISR==-5)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRA
-#define ESTOP_ISRB 1
-#endif
-#if(ESTOP_ISR==-6)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRB
-#define ESTOP_ISRB 4
-#endif
-#if(ESTOP_ISR==-7)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRB
-#define ESTOP_ISRB 16
-#endif
-#if(ESTOP_ISR==-8)
-#undef ESTOP_ISRREG
-#define ESTOP_ISRREG EICRB
-#define ESTOP_ISRB 64
-#endif
-#define DIO63_ISRREG ESTOP_ISRREG
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8" t="str">
+        <f t="shared" ref="H66:H80" si="12">"#ifdef "&amp;C66&amp;"
+#define "&amp;B66&amp;"_PRESC "&amp;C66&amp;"_PRESC
+#define  "&amp;B66&amp;"_CHANNEL "&amp;C66&amp;"_CHANNEL
+#endif"</f>
+        <v>#ifdef ANALOG1
+#define DIO63_PRESC ANALOG1_PRESC
+#define  DIO63_CHANNEL ANALOG1_CHANNEL
 #endif</v>
       </c>
-      <c r="G66" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifndef ESTOP_ISR0
-#define ESTOP_ISR0 0
-#endif
-#ifndef ESTOP_ISR1
-#define ESTOP_ISR1 0
-#endif
-#ifndef ESTOP_ISR2
-#define ESTOP_ISR2 0
-#endif
-#ifndef ESTOP_ISRA
-#define ESTOP_ISRA 0
-#endif
-#ifndef ESTOP_ISRB
-#define ESTOP_ISRB 0
-#endif
-#define ESTOP_ISR_MASK (ESTOP_ISR0 | ESTOP_ISR1 | ESTOP_ISR2 | ESTOP_ISRA | ESTOP_ISRB)
-#ifndef ESTOP_ISR_MASK
-#define ESTOP_ISR_MASK 0
-#endif
-#define DIO63_ISR_MASK ESTOP_ISR_MASK
-#define DIO63_ISRREG ESTOP_ISRREG</v>
-      </c>
-      <c r="H66" s="6" t="str">
-        <f>"#ifdef "&amp;C66&amp;"
-#define CONTROLEN_"&amp;C66&amp;" (1&lt;&lt;("&amp;C66&amp;" - ESTOP))
-#ifdef "&amp;C66&amp;"_ISR
-#define CONTROLISR_"&amp;C66&amp;" (1&lt;&lt;("&amp;C66&amp;" - ESTOP))
-#else
-#define CONTROLISR_"&amp;C66&amp;" 0
-#endif
-#else
-#define CONTROLEN_"&amp;C66&amp;" 0
-#define CONTROLISR_"&amp;C66&amp;" 0
+      <c r="I66" s="3" t="str">
+        <f t="shared" ref="I66:I81" si="13">"#ifdef "&amp;C66&amp;"
+mcu_config_input("&amp;C66&amp;");
 #endif"</f>
-        <v>#ifdef ESTOP
-#define CONTROLEN_ESTOP (1&lt;&lt;(ESTOP - ESTOP))
-#ifdef ESTOP_ISR
-#define CONTROLISR_ESTOP (1&lt;&lt;(ESTOP - ESTOP))
-#else
-#define CONTROLISR_ESTOP 0
-#endif
-#else
-#define CONTROLEN_ESTOP 0
-#define CONTROLISR_ESTOP 0
-#endif</v>
-      </c>
-      <c r="I66" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ESTOP
-mcu_config_input(ESTOP);
-#ifdef ESTOP_PULLUP
-mcu_config_pullup(ESTOP);
-#endif
-#ifdef ESTOP_ISR
-mcu_config_input_isr(ESTOP);
-#endif
+        <v>#ifdef ANALOG1
+mcu_config_input(ANALOG1);
 #endif</v>
       </c>
       <c r="J66" s="3"/>
@@ -6591,141 +6910,39 @@
         <v>DIO64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if(defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
+        <f t="shared" si="11"/>
+        <v>#if(defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
 #define DIO64 64
-#define SAFETY_DOOR 64
-#define DIO64_PORT (SAFETY_DOOR_PORT)
-#define DIO64_BIT (SAFETY_DOOR_BIT)
-#define SAFETY_DOOR_OUTREG (__outreg__(SAFETY_DOOR_PORT))
-#define SAFETY_DOOR_INREG (__inreg__(SAFETY_DOOR_PORT))
-#define SAFETY_DOOR_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
-#define DIO64_OUTREG (__outreg__(SAFETY_DOOR_PORT))
-#define DIO64_INREG (__inreg__(SAFETY_DOOR_PORT))
-#define DIO64_DIRREG (__dirreg__(SAFETY_DOOR_PORT))
+#define ANALOG2 64
+#define DIO64_PORT (ANALOG2_PORT)
+#define DIO64_BIT (ANALOG2_BIT)
+#define ANALOG2_OUTREG (__outreg__(ANALOG2_PORT))
+#define ANALOG2_INREG (__inreg__(ANALOG2_PORT))
+#define ANALOG2_DIRREG (__dirreg__(ANALOG2_PORT))
+#define DIO64_OUTREG (__outreg__(ANALOG2_PORT))
+#define DIO64_INREG (__inreg__(ANALOG2_PORT))
+#define DIO64_DIRREG (__dirreg__(ANALOG2_PORT))
 #endif</v>
       </c>
-      <c r="F67" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if(defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
-#define DIO64_ISR (SAFETY_DOOR_ISR)
-#define SAFETY_DOOR_ISRREG (__pcmskreg__(SAFETY_DOOR_ISR))
-#if(SAFETY_DOOR_ISR==0)
-#define SAFETY_DOOR_ISR0 (1 &lt;&lt; SAFETY_DOOR_BIT)
-#endif
-#if(SAFETY_DOOR_ISR==1)
-#define SAFETY_DOOR_ISR1 (1 &lt;&lt; SAFETY_DOOR_BIT)
-#endif
-#if(SAFETY_DOOR_ISR==2)
-#define SAFETY_DOOR_ISR2 (1 &lt;&lt; SAFETY_DOOR_BIT)
-#endif
-#if(SAFETY_DOOR_ISR==-1)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 1
-#endif
-#if(SAFETY_DOOR_ISR==-2)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 4
-#endif
-#if(SAFETY_DOOR_ISR==-3)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 16
-#endif
-#if(SAFETY_DOOR_ISR==-4)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRA 64
-#endif
-#if(SAFETY_DOOR_ISR==-5)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRA
-#define SAFETY_DOOR_ISRB 1
-#endif
-#if(SAFETY_DOOR_ISR==-6)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRB
-#define SAFETY_DOOR_ISRB 4
-#endif
-#if(SAFETY_DOOR_ISR==-7)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRB
-#define SAFETY_DOOR_ISRB 16
-#endif
-#if(SAFETY_DOOR_ISR==-8)
-#undef SAFETY_DOOR_ISRREG
-#define SAFETY_DOOR_ISRREG EICRB
-#define SAFETY_DOOR_ISRB 64
-#endif
-#define DIO64_ISRREG SAFETY_DOOR_ISRREG
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef ANALOG2
+#define DIO64_PRESC ANALOG2_PRESC
+#define  DIO64_CHANNEL ANALOG2_CHANNEL
 #endif</v>
       </c>
-      <c r="G67" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifndef SAFETY_DOOR_ISR0
-#define SAFETY_DOOR_ISR0 0
-#endif
-#ifndef SAFETY_DOOR_ISR1
-#define SAFETY_DOOR_ISR1 0
-#endif
-#ifndef SAFETY_DOOR_ISR2
-#define SAFETY_DOOR_ISR2 0
-#endif
-#ifndef SAFETY_DOOR_ISRA
-#define SAFETY_DOOR_ISRA 0
-#endif
-#ifndef SAFETY_DOOR_ISRB
-#define SAFETY_DOOR_ISRB 0
-#endif
-#define SAFETY_DOOR_ISR_MASK (SAFETY_DOOR_ISR0 | SAFETY_DOOR_ISR1 | SAFETY_DOOR_ISR2 | SAFETY_DOOR_ISRA | SAFETY_DOOR_ISRB)
-#ifndef SAFETY_DOOR_ISR_MASK
-#define SAFETY_DOOR_ISR_MASK 0
-#endif
-#define DIO64_ISR_MASK SAFETY_DOOR_ISR_MASK
-#define DIO64_ISRREG SAFETY_DOOR_ISRREG</v>
-      </c>
-      <c r="H67" s="6" t="str">
-        <f t="shared" ref="H67:H69" si="10">"#ifdef "&amp;C67&amp;"
-#define CONTROLEN_"&amp;C67&amp;" (1&lt;&lt;("&amp;C67&amp;" - ESTOP))
-#ifdef "&amp;C67&amp;"_ISR
-#define CONTROLISR_"&amp;C67&amp;" (1&lt;&lt;("&amp;C67&amp;" - ESTOP))
-#else
-#define CONTROLISR_"&amp;C67&amp;" 0
-#endif
-#else
-#define CONTROLEN_"&amp;C67&amp;" 0
-#define CONTROLISR_"&amp;C67&amp;" 0
-#endif"</f>
-        <v>#ifdef SAFETY_DOOR
-#define CONTROLEN_SAFETY_DOOR (1&lt;&lt;(SAFETY_DOOR - ESTOP))
-#ifdef SAFETY_DOOR_ISR
-#define CONTROLISR_SAFETY_DOOR (1&lt;&lt;(SAFETY_DOOR - ESTOP))
-#else
-#define CONTROLISR_SAFETY_DOOR 0
-#endif
-#else
-#define CONTROLEN_SAFETY_DOOR 0
-#define CONTROLISR_SAFETY_DOOR 0
-#endif</v>
-      </c>
-      <c r="I67" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef SAFETY_DOOR
-mcu_config_input(SAFETY_DOOR);
-#ifdef SAFETY_DOOR_PULLUP
-mcu_config_pullup(SAFETY_DOOR);
-#endif
-#ifdef SAFETY_DOOR_ISR
-mcu_config_input_isr(SAFETY_DOOR);
-#endif
+      <c r="I67" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG2
+mcu_config_input(ANALOG2);
 #endif</v>
       </c>
       <c r="J67" s="3"/>
@@ -6757,131 +6974,39 @@
         <v>DIO65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D68" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if(defined(FHOLD_PORT) &amp;&amp; defined(FHOLD_BIT))
+        <f t="shared" si="11"/>
+        <v>#if(defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
 #define DIO65 65
-#define FHOLD 65
-#define DIO65_PORT (FHOLD_PORT)
-#define DIO65_BIT (FHOLD_BIT)
-#define FHOLD_OUTREG (__outreg__(FHOLD_PORT))
-#define FHOLD_INREG (__inreg__(FHOLD_PORT))
-#define FHOLD_DIRREG (__dirreg__(FHOLD_PORT))
-#define DIO65_OUTREG (__outreg__(FHOLD_PORT))
-#define DIO65_INREG (__inreg__(FHOLD_PORT))
-#define DIO65_DIRREG (__dirreg__(FHOLD_PORT))
+#define ANALOG3 65
+#define DIO65_PORT (ANALOG3_PORT)
+#define DIO65_BIT (ANALOG3_BIT)
+#define ANALOG3_OUTREG (__outreg__(ANALOG3_PORT))
+#define ANALOG3_INREG (__inreg__(ANALOG3_PORT))
+#define ANALOG3_DIRREG (__dirreg__(ANALOG3_PORT))
+#define DIO65_OUTREG (__outreg__(ANALOG3_PORT))
+#define DIO65_INREG (__inreg__(ANALOG3_PORT))
+#define DIO65_DIRREG (__dirreg__(ANALOG3_PORT))
 #endif</v>
       </c>
-      <c r="F68" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if(defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
-#define DIO65_ISR (FHOLD_ISR)
-#define FHOLD_ISRREG (__pcmskreg__(FHOLD_ISR))
-#if(FHOLD_ISR==0)
-#define FHOLD_ISR0 (1 &lt;&lt; FHOLD_BIT)
-#endif
-#if(FHOLD_ISR==1)
-#define FHOLD_ISR1 (1 &lt;&lt; FHOLD_BIT)
-#endif
-#if(FHOLD_ISR==2)
-#define FHOLD_ISR2 (1 &lt;&lt; FHOLD_BIT)
-#endif
-#if(FHOLD_ISR==-1)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 1
-#endif
-#if(FHOLD_ISR==-2)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 4
-#endif
-#if(FHOLD_ISR==-3)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 16
-#endif
-#if(FHOLD_ISR==-4)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRA 64
-#endif
-#if(FHOLD_ISR==-5)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRA
-#define FHOLD_ISRB 1
-#endif
-#if(FHOLD_ISR==-6)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRB
-#define FHOLD_ISRB 4
-#endif
-#if(FHOLD_ISR==-7)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRB
-#define FHOLD_ISRB 16
-#endif
-#if(FHOLD_ISR==-8)
-#undef FHOLD_ISRREG
-#define FHOLD_ISRREG EICRB
-#define FHOLD_ISRB 64
-#endif
-#define DIO65_ISRREG FHOLD_ISRREG
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef ANALOG3
+#define DIO65_PRESC ANALOG3_PRESC
+#define  DIO65_CHANNEL ANALOG3_CHANNEL
 #endif</v>
       </c>
-      <c r="G68" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifndef FHOLD_ISR0
-#define FHOLD_ISR0 0
-#endif
-#ifndef FHOLD_ISR1
-#define FHOLD_ISR1 0
-#endif
-#ifndef FHOLD_ISR2
-#define FHOLD_ISR2 0
-#endif
-#ifndef FHOLD_ISRA
-#define FHOLD_ISRA 0
-#endif
-#ifndef FHOLD_ISRB
-#define FHOLD_ISRB 0
-#endif
-#define FHOLD_ISR_MASK (FHOLD_ISR0 | FHOLD_ISR1 | FHOLD_ISR2 | FHOLD_ISRA | FHOLD_ISRB)
-#ifndef FHOLD_ISR_MASK
-#define FHOLD_ISR_MASK 0
-#endif
-#define DIO65_ISR_MASK FHOLD_ISR_MASK
-#define DIO65_ISRREG FHOLD_ISRREG</v>
-      </c>
-      <c r="H68" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef FHOLD
-#define CONTROLEN_FHOLD (1&lt;&lt;(FHOLD - ESTOP))
-#ifdef FHOLD_ISR
-#define CONTROLISR_FHOLD (1&lt;&lt;(FHOLD - ESTOP))
-#else
-#define CONTROLISR_FHOLD 0
-#endif
-#else
-#define CONTROLEN_FHOLD 0
-#define CONTROLISR_FHOLD 0
-#endif</v>
-      </c>
-      <c r="I68" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef FHOLD
-mcu_config_input(FHOLD);
-#ifdef FHOLD_PULLUP
-mcu_config_pullup(FHOLD);
-#endif
-#ifdef FHOLD_ISR
-mcu_config_input_isr(FHOLD);
-#endif
+      <c r="I68" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG3
+mcu_config_input(ANALOG3);
 #endif</v>
       </c>
       <c r="J68" s="3"/>
@@ -6913,131 +7038,39 @@
         <v>DIO66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if(defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
+        <f t="shared" si="11"/>
+        <v>#if(defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
 #define DIO66 66
-#define CS_RES 66
-#define DIO66_PORT (CS_RES_PORT)
-#define DIO66_BIT (CS_RES_BIT)
-#define CS_RES_OUTREG (__outreg__(CS_RES_PORT))
-#define CS_RES_INREG (__inreg__(CS_RES_PORT))
-#define CS_RES_DIRREG (__dirreg__(CS_RES_PORT))
-#define DIO66_OUTREG (__outreg__(CS_RES_PORT))
-#define DIO66_INREG (__inreg__(CS_RES_PORT))
-#define DIO66_DIRREG (__dirreg__(CS_RES_PORT))
+#define ANALOG4 66
+#define DIO66_PORT (ANALOG4_PORT)
+#define DIO66_BIT (ANALOG4_BIT)
+#define ANALOG4_OUTREG (__outreg__(ANALOG4_PORT))
+#define ANALOG4_INREG (__inreg__(ANALOG4_PORT))
+#define ANALOG4_DIRREG (__dirreg__(ANALOG4_PORT))
+#define DIO66_OUTREG (__outreg__(ANALOG4_PORT))
+#define DIO66_INREG (__inreg__(ANALOG4_PORT))
+#define DIO66_DIRREG (__dirreg__(ANALOG4_PORT))
 #endif</v>
       </c>
-      <c r="F69" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if(defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
-#define DIO66_ISR (CS_RES_ISR)
-#define CS_RES_ISRREG (__pcmskreg__(CS_RES_ISR))
-#if(CS_RES_ISR==0)
-#define CS_RES_ISR0 (1 &lt;&lt; CS_RES_BIT)
-#endif
-#if(CS_RES_ISR==1)
-#define CS_RES_ISR1 (1 &lt;&lt; CS_RES_BIT)
-#endif
-#if(CS_RES_ISR==2)
-#define CS_RES_ISR2 (1 &lt;&lt; CS_RES_BIT)
-#endif
-#if(CS_RES_ISR==-1)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 1
-#endif
-#if(CS_RES_ISR==-2)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 4
-#endif
-#if(CS_RES_ISR==-3)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 16
-#endif
-#if(CS_RES_ISR==-4)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRA 64
-#endif
-#if(CS_RES_ISR==-5)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRA
-#define CS_RES_ISRB 1
-#endif
-#if(CS_RES_ISR==-6)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRB
-#define CS_RES_ISRB 4
-#endif
-#if(CS_RES_ISR==-7)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRB
-#define CS_RES_ISRB 16
-#endif
-#if(CS_RES_ISR==-8)
-#undef CS_RES_ISRREG
-#define CS_RES_ISRREG EICRB
-#define CS_RES_ISRB 64
-#endif
-#define DIO66_ISRREG CS_RES_ISRREG
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef ANALOG4
+#define DIO66_PRESC ANALOG4_PRESC
+#define  DIO66_CHANNEL ANALOG4_CHANNEL
 #endif</v>
       </c>
-      <c r="G69" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifndef CS_RES_ISR0
-#define CS_RES_ISR0 0
-#endif
-#ifndef CS_RES_ISR1
-#define CS_RES_ISR1 0
-#endif
-#ifndef CS_RES_ISR2
-#define CS_RES_ISR2 0
-#endif
-#ifndef CS_RES_ISRA
-#define CS_RES_ISRA 0
-#endif
-#ifndef CS_RES_ISRB
-#define CS_RES_ISRB 0
-#endif
-#define CS_RES_ISR_MASK (CS_RES_ISR0 | CS_RES_ISR1 | CS_RES_ISR2 | CS_RES_ISRA | CS_RES_ISRB)
-#ifndef CS_RES_ISR_MASK
-#define CS_RES_ISR_MASK 0
-#endif
-#define DIO66_ISR_MASK CS_RES_ISR_MASK
-#define DIO66_ISRREG CS_RES_ISRREG</v>
-      </c>
-      <c r="H69" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef CS_RES
-#define CONTROLEN_CS_RES (1&lt;&lt;(CS_RES - ESTOP))
-#ifdef CS_RES_ISR
-#define CONTROLISR_CS_RES (1&lt;&lt;(CS_RES - ESTOP))
-#else
-#define CONTROLISR_CS_RES 0
-#endif
-#else
-#define CONTROLEN_CS_RES 0
-#define CONTROLISR_CS_RES 0
-#endif</v>
-      </c>
-      <c r="I69" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef CS_RES
-mcu_config_input(CS_RES);
-#ifdef CS_RES_PULLUP
-mcu_config_pullup(CS_RES);
-#endif
-#ifdef CS_RES_ISR
-mcu_config_input_isr(CS_RES);
-#endif
+      <c r="I69" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG4
+mcu_config_input(ANALOG4);
 #endif</v>
       </c>
       <c r="J69" s="3"/>
@@ -7069,55 +7102,39 @@
         <v>DIO67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f t="shared" ref="E70:E102" si="11">"#if(defined("&amp;C70&amp;"_PORT) &amp;&amp; defined("&amp;C70&amp;"_BIT))
-#define "&amp;B70&amp;" "&amp;A70&amp;"
-#define "&amp;C70&amp;" "&amp;A70&amp;"
-#define "&amp;B70&amp;"_PORT ("&amp;C70&amp;"_PORT)
-#define "&amp;B70&amp;"_BIT ("&amp;C70&amp;"_BIT)
-#define "&amp;C70&amp;"_OUTREG (__outreg__("&amp;C70&amp;"_PORT))
-#define "&amp;C70&amp;"_INREG (__inreg__("&amp;C70&amp;"_PORT))
-#define "&amp;C70&amp;"_DIRREG (__dirreg__("&amp;C70&amp;"_PORT))
-#define "&amp;B70&amp;"_OUTREG (__outreg__("&amp;C70&amp;"_PORT))
-#define "&amp;B70&amp;"_INREG (__inreg__("&amp;C70&amp;"_PORT))
-#define "&amp;B70&amp;"_DIRREG (__dirreg__("&amp;C70&amp;"_PORT))
-#endif"</f>
-        <v>#if(defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
+        <f t="shared" si="11"/>
+        <v>#if(defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
 #define DIO67 67
-#define ANALOG0 67
-#define DIO67_PORT (ANALOG0_PORT)
-#define DIO67_BIT (ANALOG0_BIT)
-#define ANALOG0_OUTREG (__outreg__(ANALOG0_PORT))
-#define ANALOG0_INREG (__inreg__(ANALOG0_PORT))
-#define ANALOG0_DIRREG (__dirreg__(ANALOG0_PORT))
-#define DIO67_OUTREG (__outreg__(ANALOG0_PORT))
-#define DIO67_INREG (__inreg__(ANALOG0_PORT))
-#define DIO67_DIRREG (__dirreg__(ANALOG0_PORT))
+#define ANALOG5 67
+#define DIO67_PORT (ANALOG5_PORT)
+#define DIO67_BIT (ANALOG5_BIT)
+#define ANALOG5_OUTREG (__outreg__(ANALOG5_PORT))
+#define ANALOG5_INREG (__inreg__(ANALOG5_PORT))
+#define ANALOG5_DIRREG (__dirreg__(ANALOG5_PORT))
+#define DIO67_OUTREG (__outreg__(ANALOG5_PORT))
+#define DIO67_INREG (__inreg__(ANALOG5_PORT))
+#define DIO67_DIRREG (__dirreg__(ANALOG5_PORT))
 #endif</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="8" t="str">
-        <f>"#ifdef "&amp;C70&amp;"
-#define "&amp;B70&amp;"_PRESC "&amp;C70&amp;"_PRESC
-#define  "&amp;B70&amp;"_CHANNEL "&amp;C70&amp;"_CHANNEL
-#endif"</f>
-        <v>#ifdef ANALOG0
-#define DIO67_PRESC ANALOG0_PRESC
-#define  DIO67_CHANNEL ANALOG0_CHANNEL
+        <f t="shared" si="12"/>
+        <v>#ifdef ANALOG5
+#define DIO67_PRESC ANALOG5_PRESC
+#define  DIO67_CHANNEL ANALOG5_CHANNEL
 #endif</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>"#ifdef "&amp;C70&amp;"
-mcu_config_input("&amp;C70&amp;");
-#endif"</f>
-        <v>#ifdef ANALOG0
-mcu_config_input(ANALOG0);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG5
+mcu_config_input(ANALOG5);
 #endif</v>
       </c>
       <c r="J70" s="3"/>
@@ -7149,44 +7166,39 @@
         <v>DIO68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E71" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
+        <v>#if(defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
 #define DIO68 68
-#define ANALOG1 68
-#define DIO68_PORT (ANALOG1_PORT)
-#define DIO68_BIT (ANALOG1_BIT)
-#define ANALOG1_OUTREG (__outreg__(ANALOG1_PORT))
-#define ANALOG1_INREG (__inreg__(ANALOG1_PORT))
-#define ANALOG1_DIRREG (__dirreg__(ANALOG1_PORT))
-#define DIO68_OUTREG (__outreg__(ANALOG1_PORT))
-#define DIO68_INREG (__inreg__(ANALOG1_PORT))
-#define DIO68_DIRREG (__dirreg__(ANALOG1_PORT))
+#define ANALOG6 68
+#define DIO68_PORT (ANALOG6_PORT)
+#define DIO68_BIT (ANALOG6_BIT)
+#define ANALOG6_OUTREG (__outreg__(ANALOG6_PORT))
+#define ANALOG6_INREG (__inreg__(ANALOG6_PORT))
+#define ANALOG6_DIRREG (__dirreg__(ANALOG6_PORT))
+#define DIO68_OUTREG (__outreg__(ANALOG6_PORT))
+#define DIO68_INREG (__inreg__(ANALOG6_PORT))
+#define DIO68_DIRREG (__dirreg__(ANALOG6_PORT))
 #endif</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="8" t="str">
-        <f t="shared" ref="H71:H85" si="12">"#ifdef "&amp;C71&amp;"
-#define "&amp;B71&amp;"_PRESC "&amp;C71&amp;"_PRESC
-#define  "&amp;B71&amp;"_CHANNEL "&amp;C71&amp;"_CHANNEL
-#endif"</f>
-        <v>#ifdef ANALOG1
-#define DIO68_PRESC ANALOG1_PRESC
-#define  DIO68_CHANNEL ANALOG1_CHANNEL
+        <f t="shared" si="12"/>
+        <v>#ifdef ANALOG6
+#define DIO68_PRESC ANALOG6_PRESC
+#define  DIO68_CHANNEL ANALOG6_CHANNEL
 #endif</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f t="shared" ref="I71:I86" si="13">"#ifdef "&amp;C71&amp;"
-mcu_config_input("&amp;C71&amp;");
-#endif"</f>
-        <v>#ifdef ANALOG1
-mcu_config_input(ANALOG1);
+        <f t="shared" si="13"/>
+        <v>#ifdef ANALOG6
+mcu_config_input(ANALOG6);
 #endif</v>
       </c>
       <c r="J71" s="3"/>
@@ -7218,39 +7230,39 @@
         <v>DIO69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E72" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
+        <v>#if(defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
 #define DIO69 69
-#define ANALOG2 69
-#define DIO69_PORT (ANALOG2_PORT)
-#define DIO69_BIT (ANALOG2_BIT)
-#define ANALOG2_OUTREG (__outreg__(ANALOG2_PORT))
-#define ANALOG2_INREG (__inreg__(ANALOG2_PORT))
-#define ANALOG2_DIRREG (__dirreg__(ANALOG2_PORT))
-#define DIO69_OUTREG (__outreg__(ANALOG2_PORT))
-#define DIO69_INREG (__inreg__(ANALOG2_PORT))
-#define DIO69_DIRREG (__dirreg__(ANALOG2_PORT))
+#define ANALOG7 69
+#define DIO69_PORT (ANALOG7_PORT)
+#define DIO69_BIT (ANALOG7_BIT)
+#define ANALOG7_OUTREG (__outreg__(ANALOG7_PORT))
+#define ANALOG7_INREG (__inreg__(ANALOG7_PORT))
+#define ANALOG7_DIRREG (__dirreg__(ANALOG7_PORT))
+#define DIO69_OUTREG (__outreg__(ANALOG7_PORT))
+#define DIO69_INREG (__inreg__(ANALOG7_PORT))
+#define DIO69_DIRREG (__dirreg__(ANALOG7_PORT))
 #endif</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG2
-#define DIO69_PRESC ANALOG2_PRESC
-#define  DIO69_CHANNEL ANALOG2_CHANNEL
+        <v>#ifdef ANALOG7
+#define DIO69_PRESC ANALOG7_PRESC
+#define  DIO69_CHANNEL ANALOG7_CHANNEL
 #endif</v>
       </c>
       <c r="I72" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG2
-mcu_config_input(ANALOG2);
+        <v>#ifdef ANALOG7
+mcu_config_input(ANALOG7);
 #endif</v>
       </c>
       <c r="J72" s="3"/>
@@ -7282,39 +7294,39 @@
         <v>DIO70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E73" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
+        <v>#if(defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
 #define DIO70 70
-#define ANALOG3 70
-#define DIO70_PORT (ANALOG3_PORT)
-#define DIO70_BIT (ANALOG3_BIT)
-#define ANALOG3_OUTREG (__outreg__(ANALOG3_PORT))
-#define ANALOG3_INREG (__inreg__(ANALOG3_PORT))
-#define ANALOG3_DIRREG (__dirreg__(ANALOG3_PORT))
-#define DIO70_OUTREG (__outreg__(ANALOG3_PORT))
-#define DIO70_INREG (__inreg__(ANALOG3_PORT))
-#define DIO70_DIRREG (__dirreg__(ANALOG3_PORT))
+#define ANALOG8 70
+#define DIO70_PORT (ANALOG8_PORT)
+#define DIO70_BIT (ANALOG8_BIT)
+#define ANALOG8_OUTREG (__outreg__(ANALOG8_PORT))
+#define ANALOG8_INREG (__inreg__(ANALOG8_PORT))
+#define ANALOG8_DIRREG (__dirreg__(ANALOG8_PORT))
+#define DIO70_OUTREG (__outreg__(ANALOG8_PORT))
+#define DIO70_INREG (__inreg__(ANALOG8_PORT))
+#define DIO70_DIRREG (__dirreg__(ANALOG8_PORT))
 #endif</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG3
-#define DIO70_PRESC ANALOG3_PRESC
-#define  DIO70_CHANNEL ANALOG3_CHANNEL
+        <v>#ifdef ANALOG8
+#define DIO70_PRESC ANALOG8_PRESC
+#define  DIO70_CHANNEL ANALOG8_CHANNEL
 #endif</v>
       </c>
       <c r="I73" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG3
-mcu_config_input(ANALOG3);
+        <v>#ifdef ANALOG8
+mcu_config_input(ANALOG8);
 #endif</v>
       </c>
       <c r="J73" s="3"/>
@@ -7346,39 +7358,39 @@
         <v>DIO71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E74" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
+        <v>#if(defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
 #define DIO71 71
-#define ANALOG4 71
-#define DIO71_PORT (ANALOG4_PORT)
-#define DIO71_BIT (ANALOG4_BIT)
-#define ANALOG4_OUTREG (__outreg__(ANALOG4_PORT))
-#define ANALOG4_INREG (__inreg__(ANALOG4_PORT))
-#define ANALOG4_DIRREG (__dirreg__(ANALOG4_PORT))
-#define DIO71_OUTREG (__outreg__(ANALOG4_PORT))
-#define DIO71_INREG (__inreg__(ANALOG4_PORT))
-#define DIO71_DIRREG (__dirreg__(ANALOG4_PORT))
+#define ANALOG9 71
+#define DIO71_PORT (ANALOG9_PORT)
+#define DIO71_BIT (ANALOG9_BIT)
+#define ANALOG9_OUTREG (__outreg__(ANALOG9_PORT))
+#define ANALOG9_INREG (__inreg__(ANALOG9_PORT))
+#define ANALOG9_DIRREG (__dirreg__(ANALOG9_PORT))
+#define DIO71_OUTREG (__outreg__(ANALOG9_PORT))
+#define DIO71_INREG (__inreg__(ANALOG9_PORT))
+#define DIO71_DIRREG (__dirreg__(ANALOG9_PORT))
 #endif</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG4
-#define DIO71_PRESC ANALOG4_PRESC
-#define  DIO71_CHANNEL ANALOG4_CHANNEL
+        <v>#ifdef ANALOG9
+#define DIO71_PRESC ANALOG9_PRESC
+#define  DIO71_CHANNEL ANALOG9_CHANNEL
 #endif</v>
       </c>
       <c r="I74" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG4
-mcu_config_input(ANALOG4);
+        <v>#ifdef ANALOG9
+mcu_config_input(ANALOG9);
 #endif</v>
       </c>
       <c r="J74" s="3"/>
@@ -7410,39 +7422,39 @@
         <v>DIO72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
+        <v>#if(defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
 #define DIO72 72
-#define ANALOG5 72
-#define DIO72_PORT (ANALOG5_PORT)
-#define DIO72_BIT (ANALOG5_BIT)
-#define ANALOG5_OUTREG (__outreg__(ANALOG5_PORT))
-#define ANALOG5_INREG (__inreg__(ANALOG5_PORT))
-#define ANALOG5_DIRREG (__dirreg__(ANALOG5_PORT))
-#define DIO72_OUTREG (__outreg__(ANALOG5_PORT))
-#define DIO72_INREG (__inreg__(ANALOG5_PORT))
-#define DIO72_DIRREG (__dirreg__(ANALOG5_PORT))
+#define ANALOG10 72
+#define DIO72_PORT (ANALOG10_PORT)
+#define DIO72_BIT (ANALOG10_BIT)
+#define ANALOG10_OUTREG (__outreg__(ANALOG10_PORT))
+#define ANALOG10_INREG (__inreg__(ANALOG10_PORT))
+#define ANALOG10_DIRREG (__dirreg__(ANALOG10_PORT))
+#define DIO72_OUTREG (__outreg__(ANALOG10_PORT))
+#define DIO72_INREG (__inreg__(ANALOG10_PORT))
+#define DIO72_DIRREG (__dirreg__(ANALOG10_PORT))
 #endif</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG5
-#define DIO72_PRESC ANALOG5_PRESC
-#define  DIO72_CHANNEL ANALOG5_CHANNEL
+        <v>#ifdef ANALOG10
+#define DIO72_PRESC ANALOG10_PRESC
+#define  DIO72_CHANNEL ANALOG10_CHANNEL
 #endif</v>
       </c>
       <c r="I75" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG5
-mcu_config_input(ANALOG5);
+        <v>#ifdef ANALOG10
+mcu_config_input(ANALOG10);
 #endif</v>
       </c>
       <c r="J75" s="3"/>
@@ -7474,39 +7486,39 @@
         <v>DIO73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E76" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
+        <v>#if(defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
 #define DIO73 73
-#define ANALOG6 73
-#define DIO73_PORT (ANALOG6_PORT)
-#define DIO73_BIT (ANALOG6_BIT)
-#define ANALOG6_OUTREG (__outreg__(ANALOG6_PORT))
-#define ANALOG6_INREG (__inreg__(ANALOG6_PORT))
-#define ANALOG6_DIRREG (__dirreg__(ANALOG6_PORT))
-#define DIO73_OUTREG (__outreg__(ANALOG6_PORT))
-#define DIO73_INREG (__inreg__(ANALOG6_PORT))
-#define DIO73_DIRREG (__dirreg__(ANALOG6_PORT))
+#define ANALOG11 73
+#define DIO73_PORT (ANALOG11_PORT)
+#define DIO73_BIT (ANALOG11_BIT)
+#define ANALOG11_OUTREG (__outreg__(ANALOG11_PORT))
+#define ANALOG11_INREG (__inreg__(ANALOG11_PORT))
+#define ANALOG11_DIRREG (__dirreg__(ANALOG11_PORT))
+#define DIO73_OUTREG (__outreg__(ANALOG11_PORT))
+#define DIO73_INREG (__inreg__(ANALOG11_PORT))
+#define DIO73_DIRREG (__dirreg__(ANALOG11_PORT))
 #endif</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG6
-#define DIO73_PRESC ANALOG6_PRESC
-#define  DIO73_CHANNEL ANALOG6_CHANNEL
+        <v>#ifdef ANALOG11
+#define DIO73_PRESC ANALOG11_PRESC
+#define  DIO73_CHANNEL ANALOG11_CHANNEL
 #endif</v>
       </c>
       <c r="I76" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG6
-mcu_config_input(ANALOG6);
+        <v>#ifdef ANALOG11
+mcu_config_input(ANALOG11);
 #endif</v>
       </c>
       <c r="J76" s="3"/>
@@ -7538,39 +7550,39 @@
         <v>DIO74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E77" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
+        <v>#if(defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
 #define DIO74 74
-#define ANALOG7 74
-#define DIO74_PORT (ANALOG7_PORT)
-#define DIO74_BIT (ANALOG7_BIT)
-#define ANALOG7_OUTREG (__outreg__(ANALOG7_PORT))
-#define ANALOG7_INREG (__inreg__(ANALOG7_PORT))
-#define ANALOG7_DIRREG (__dirreg__(ANALOG7_PORT))
-#define DIO74_OUTREG (__outreg__(ANALOG7_PORT))
-#define DIO74_INREG (__inreg__(ANALOG7_PORT))
-#define DIO74_DIRREG (__dirreg__(ANALOG7_PORT))
+#define ANALOG12 74
+#define DIO74_PORT (ANALOG12_PORT)
+#define DIO74_BIT (ANALOG12_BIT)
+#define ANALOG12_OUTREG (__outreg__(ANALOG12_PORT))
+#define ANALOG12_INREG (__inreg__(ANALOG12_PORT))
+#define ANALOG12_DIRREG (__dirreg__(ANALOG12_PORT))
+#define DIO74_OUTREG (__outreg__(ANALOG12_PORT))
+#define DIO74_INREG (__inreg__(ANALOG12_PORT))
+#define DIO74_DIRREG (__dirreg__(ANALOG12_PORT))
 #endif</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG7
-#define DIO74_PRESC ANALOG7_PRESC
-#define  DIO74_CHANNEL ANALOG7_CHANNEL
+        <v>#ifdef ANALOG12
+#define DIO74_PRESC ANALOG12_PRESC
+#define  DIO74_CHANNEL ANALOG12_CHANNEL
 #endif</v>
       </c>
       <c r="I77" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG7
-mcu_config_input(ANALOG7);
+        <v>#ifdef ANALOG12
+mcu_config_input(ANALOG12);
 #endif</v>
       </c>
       <c r="J77" s="3"/>
@@ -7602,39 +7614,39 @@
         <v>DIO75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E78" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
+        <v>#if(defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
 #define DIO75 75
-#define ANALOG8 75
-#define DIO75_PORT (ANALOG8_PORT)
-#define DIO75_BIT (ANALOG8_BIT)
-#define ANALOG8_OUTREG (__outreg__(ANALOG8_PORT))
-#define ANALOG8_INREG (__inreg__(ANALOG8_PORT))
-#define ANALOG8_DIRREG (__dirreg__(ANALOG8_PORT))
-#define DIO75_OUTREG (__outreg__(ANALOG8_PORT))
-#define DIO75_INREG (__inreg__(ANALOG8_PORT))
-#define DIO75_DIRREG (__dirreg__(ANALOG8_PORT))
+#define ANALOG13 75
+#define DIO75_PORT (ANALOG13_PORT)
+#define DIO75_BIT (ANALOG13_BIT)
+#define ANALOG13_OUTREG (__outreg__(ANALOG13_PORT))
+#define ANALOG13_INREG (__inreg__(ANALOG13_PORT))
+#define ANALOG13_DIRREG (__dirreg__(ANALOG13_PORT))
+#define DIO75_OUTREG (__outreg__(ANALOG13_PORT))
+#define DIO75_INREG (__inreg__(ANALOG13_PORT))
+#define DIO75_DIRREG (__dirreg__(ANALOG13_PORT))
 #endif</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG8
-#define DIO75_PRESC ANALOG8_PRESC
-#define  DIO75_CHANNEL ANALOG8_CHANNEL
+        <v>#ifdef ANALOG13
+#define DIO75_PRESC ANALOG13_PRESC
+#define  DIO75_CHANNEL ANALOG13_CHANNEL
 #endif</v>
       </c>
       <c r="I78" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG8
-mcu_config_input(ANALOG8);
+        <v>#ifdef ANALOG13
+mcu_config_input(ANALOG13);
 #endif</v>
       </c>
       <c r="J78" s="3"/>
@@ -7666,39 +7678,39 @@
         <v>DIO76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E79" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
+        <v>#if(defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
 #define DIO76 76
-#define ANALOG9 76
-#define DIO76_PORT (ANALOG9_PORT)
-#define DIO76_BIT (ANALOG9_BIT)
-#define ANALOG9_OUTREG (__outreg__(ANALOG9_PORT))
-#define ANALOG9_INREG (__inreg__(ANALOG9_PORT))
-#define ANALOG9_DIRREG (__dirreg__(ANALOG9_PORT))
-#define DIO76_OUTREG (__outreg__(ANALOG9_PORT))
-#define DIO76_INREG (__inreg__(ANALOG9_PORT))
-#define DIO76_DIRREG (__dirreg__(ANALOG9_PORT))
+#define ANALOG14 76
+#define DIO76_PORT (ANALOG14_PORT)
+#define DIO76_BIT (ANALOG14_BIT)
+#define ANALOG14_OUTREG (__outreg__(ANALOG14_PORT))
+#define ANALOG14_INREG (__inreg__(ANALOG14_PORT))
+#define ANALOG14_DIRREG (__dirreg__(ANALOG14_PORT))
+#define DIO76_OUTREG (__outreg__(ANALOG14_PORT))
+#define DIO76_INREG (__inreg__(ANALOG14_PORT))
+#define DIO76_DIRREG (__dirreg__(ANALOG14_PORT))
 #endif</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG9
-#define DIO76_PRESC ANALOG9_PRESC
-#define  DIO76_CHANNEL ANALOG9_CHANNEL
+        <v>#ifdef ANALOG14
+#define DIO76_PRESC ANALOG14_PRESC
+#define  DIO76_CHANNEL ANALOG14_CHANNEL
 #endif</v>
       </c>
       <c r="I79" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG9
-mcu_config_input(ANALOG9);
+        <v>#ifdef ANALOG14
+mcu_config_input(ANALOG14);
 #endif</v>
       </c>
       <c r="J79" s="3"/>
@@ -7730,39 +7742,39 @@
         <v>DIO77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
+        <v>#if(defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
 #define DIO77 77
-#define ANALOG10 77
-#define DIO77_PORT (ANALOG10_PORT)
-#define DIO77_BIT (ANALOG10_BIT)
-#define ANALOG10_OUTREG (__outreg__(ANALOG10_PORT))
-#define ANALOG10_INREG (__inreg__(ANALOG10_PORT))
-#define ANALOG10_DIRREG (__dirreg__(ANALOG10_PORT))
-#define DIO77_OUTREG (__outreg__(ANALOG10_PORT))
-#define DIO77_INREG (__inreg__(ANALOG10_PORT))
-#define DIO77_DIRREG (__dirreg__(ANALOG10_PORT))
+#define ANALOG15 77
+#define DIO77_PORT (ANALOG15_PORT)
+#define DIO77_BIT (ANALOG15_BIT)
+#define ANALOG15_OUTREG (__outreg__(ANALOG15_PORT))
+#define ANALOG15_INREG (__inreg__(ANALOG15_PORT))
+#define ANALOG15_DIRREG (__dirreg__(ANALOG15_PORT))
+#define DIO77_OUTREG (__outreg__(ANALOG15_PORT))
+#define DIO77_INREG (__inreg__(ANALOG15_PORT))
+#define DIO77_DIRREG (__dirreg__(ANALOG15_PORT))
 #endif</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>#ifdef ANALOG10
-#define DIO77_PRESC ANALOG10_PRESC
-#define  DIO77_CHANNEL ANALOG10_CHANNEL
+        <v>#ifdef ANALOG15
+#define DIO77_PRESC ANALOG15_PRESC
+#define  DIO77_CHANNEL ANALOG15_CHANNEL
 #endif</v>
       </c>
       <c r="I80" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG10
-mcu_config_input(ANALOG10);
+        <v>#ifdef ANALOG15
+mcu_config_input(ANALOG15);
 #endif</v>
       </c>
       <c r="J80" s="3"/>
@@ -7794,39 +7806,33 @@
         <v>DIO78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E81" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
+        <v>#if(defined(RX_PORT) &amp;&amp; defined(RX_BIT))
 #define DIO78 78
-#define ANALOG11 78
-#define DIO78_PORT (ANALOG11_PORT)
-#define DIO78_BIT (ANALOG11_BIT)
-#define ANALOG11_OUTREG (__outreg__(ANALOG11_PORT))
-#define ANALOG11_INREG (__inreg__(ANALOG11_PORT))
-#define ANALOG11_DIRREG (__dirreg__(ANALOG11_PORT))
-#define DIO78_OUTREG (__outreg__(ANALOG11_PORT))
-#define DIO78_INREG (__inreg__(ANALOG11_PORT))
-#define DIO78_DIRREG (__dirreg__(ANALOG11_PORT))
+#define RX 78
+#define DIO78_PORT (RX_PORT)
+#define DIO78_BIT (RX_BIT)
+#define RX_OUTREG (__outreg__(RX_PORT))
+#define RX_INREG (__inreg__(RX_PORT))
+#define RX_DIRREG (__dirreg__(RX_PORT))
+#define DIO78_OUTREG (__outreg__(RX_PORT))
+#define DIO78_INREG (__inreg__(RX_PORT))
+#define DIO78_DIRREG (__dirreg__(RX_PORT))
 #endif</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG11
-#define DIO78_PRESC ANALOG11_PRESC
-#define  DIO78_CHANNEL ANALOG11_CHANNEL
-#endif</v>
-      </c>
+      <c r="H81" s="8"/>
       <c r="I81" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>#ifdef ANALOG11
-mcu_config_input(ANALOG11);
+        <v>#ifdef RX
+mcu_config_input(RX);
 #endif</v>
       </c>
       <c r="J81" s="3"/>
@@ -7857,40 +7863,42 @@
         <f t="shared" si="0"/>
         <v>DIO79</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="3">
-        <v>12</v>
+      <c r="C82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
       </c>
       <c r="E82" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
+        <v>#if(defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
 #define DIO79 79
-#define ANALOG12 79
-#define DIO79_PORT (ANALOG12_PORT)
-#define DIO79_BIT (ANALOG12_BIT)
-#define ANALOG12_OUTREG (__outreg__(ANALOG12_PORT))
-#define ANALOG12_INREG (__inreg__(ANALOG12_PORT))
-#define ANALOG12_DIRREG (__dirreg__(ANALOG12_PORT))
-#define DIO79_OUTREG (__outreg__(ANALOG12_PORT))
-#define DIO79_INREG (__inreg__(ANALOG12_PORT))
-#define DIO79_DIRREG (__dirreg__(ANALOG12_PORT))
+#define DIN0 79
+#define DIO79_PORT (DIN0_PORT)
+#define DIO79_BIT (DIN0_BIT)
+#define DIN0_OUTREG (__outreg__(DIN0_PORT))
+#define DIN0_INREG (__inreg__(DIN0_PORT))
+#define DIN0_DIRREG (__dirreg__(DIN0_PORT))
+#define DIO79_OUTREG (__outreg__(DIN0_PORT))
+#define DIO79_INREG (__inreg__(DIN0_PORT))
+#define DIO79_DIRREG (__dirreg__(DIN0_PORT))
 #endif</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG12
-#define DIO79_PRESC ANALOG12_PRESC
-#define  DIO79_CHANNEL ANALOG12_CHANNEL
-#endif</v>
-      </c>
-      <c r="I82" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef ANALOG12
-mcu_config_input(ANALOG12);
+      <c r="H82" s="6"/>
+      <c r="I82" s="6" t="str">
+        <f>"#ifdef "&amp;C82&amp;"
+mcu_config_input("&amp;C82&amp;");
+#ifdef "&amp;C82&amp;"_PULLUP
+mcu_config_pullup("&amp;C82&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef DIN0
+mcu_config_input(DIN0);
+#ifdef DIN0_PULLUP
+mcu_config_pullup(DIN0);
+#endif
 #endif</v>
       </c>
       <c r="J82" s="3"/>
@@ -7921,40 +7929,42 @@
         <f t="shared" si="0"/>
         <v>DIO80</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="3">
-        <v>13</v>
+      <c r="C83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
       </c>
       <c r="E83" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
+        <v>#if(defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
 #define DIO80 80
-#define ANALOG13 80
-#define DIO80_PORT (ANALOG13_PORT)
-#define DIO80_BIT (ANALOG13_BIT)
-#define ANALOG13_OUTREG (__outreg__(ANALOG13_PORT))
-#define ANALOG13_INREG (__inreg__(ANALOG13_PORT))
-#define ANALOG13_DIRREG (__dirreg__(ANALOG13_PORT))
-#define DIO80_OUTREG (__outreg__(ANALOG13_PORT))
-#define DIO80_INREG (__inreg__(ANALOG13_PORT))
-#define DIO80_DIRREG (__dirreg__(ANALOG13_PORT))
+#define DIN1 80
+#define DIO80_PORT (DIN1_PORT)
+#define DIO80_BIT (DIN1_BIT)
+#define DIN1_OUTREG (__outreg__(DIN1_PORT))
+#define DIN1_INREG (__inreg__(DIN1_PORT))
+#define DIN1_DIRREG (__dirreg__(DIN1_PORT))
+#define DIO80_OUTREG (__outreg__(DIN1_PORT))
+#define DIO80_INREG (__inreg__(DIN1_PORT))
+#define DIO80_DIRREG (__dirreg__(DIN1_PORT))
 #endif</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG13
-#define DIO80_PRESC ANALOG13_PRESC
-#define  DIO80_CHANNEL ANALOG13_CHANNEL
-#endif</v>
-      </c>
-      <c r="I83" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef ANALOG13
-mcu_config_input(ANALOG13);
+      <c r="H83" s="6"/>
+      <c r="I83" s="6" t="str">
+        <f t="shared" ref="I83:I97" si="14">"#ifdef "&amp;C83&amp;"
+mcu_config_input("&amp;C83&amp;");
+#ifdef "&amp;C83&amp;"_PULLUP
+mcu_config_pullup("&amp;C83&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef DIN1
+mcu_config_input(DIN1);
+#ifdef DIN1_PULLUP
+mcu_config_pullup(DIN1);
+#endif
 #endif</v>
       </c>
       <c r="J83" s="3"/>
@@ -7985,40 +7995,37 @@
         <f t="shared" si="0"/>
         <v>DIO81</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="3">
-        <v>14</v>
+      <c r="C84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2</v>
       </c>
       <c r="E84" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
+        <v>#if(defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
 #define DIO81 81
-#define ANALOG14 81
-#define DIO81_PORT (ANALOG14_PORT)
-#define DIO81_BIT (ANALOG14_BIT)
-#define ANALOG14_OUTREG (__outreg__(ANALOG14_PORT))
-#define ANALOG14_INREG (__inreg__(ANALOG14_PORT))
-#define ANALOG14_DIRREG (__dirreg__(ANALOG14_PORT))
-#define DIO81_OUTREG (__outreg__(ANALOG14_PORT))
-#define DIO81_INREG (__inreg__(ANALOG14_PORT))
-#define DIO81_DIRREG (__dirreg__(ANALOG14_PORT))
+#define DIN2 81
+#define DIO81_PORT (DIN2_PORT)
+#define DIO81_BIT (DIN2_BIT)
+#define DIN2_OUTREG (__outreg__(DIN2_PORT))
+#define DIN2_INREG (__inreg__(DIN2_PORT))
+#define DIN2_DIRREG (__dirreg__(DIN2_PORT))
+#define DIO81_OUTREG (__outreg__(DIN2_PORT))
+#define DIO81_INREG (__inreg__(DIN2_PORT))
+#define DIO81_DIRREG (__dirreg__(DIN2_PORT))
 #endif</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG14
-#define DIO81_PRESC ANALOG14_PRESC
-#define  DIO81_CHANNEL ANALOG14_CHANNEL
-#endif</v>
-      </c>
-      <c r="I84" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef ANALOG14
-mcu_config_input(ANALOG14);
+      <c r="H84" s="6"/>
+      <c r="I84" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN2
+mcu_config_input(DIN2);
+#ifdef DIN2_PULLUP
+mcu_config_pullup(DIN2);
+#endif
 #endif</v>
       </c>
       <c r="J84" s="3"/>
@@ -8049,40 +8056,37 @@
         <f t="shared" si="0"/>
         <v>DIO82</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="3">
-        <v>15</v>
+      <c r="C85" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="7">
+        <v>3</v>
       </c>
       <c r="E85" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
+        <v>#if(defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
 #define DIO82 82
-#define ANALOG15 82
-#define DIO82_PORT (ANALOG15_PORT)
-#define DIO82_BIT (ANALOG15_BIT)
-#define ANALOG15_OUTREG (__outreg__(ANALOG15_PORT))
-#define ANALOG15_INREG (__inreg__(ANALOG15_PORT))
-#define ANALOG15_DIRREG (__dirreg__(ANALOG15_PORT))
-#define DIO82_OUTREG (__outreg__(ANALOG15_PORT))
-#define DIO82_INREG (__inreg__(ANALOG15_PORT))
-#define DIO82_DIRREG (__dirreg__(ANALOG15_PORT))
+#define DIN3 82
+#define DIO82_PORT (DIN3_PORT)
+#define DIO82_BIT (DIN3_BIT)
+#define DIN3_OUTREG (__outreg__(DIN3_PORT))
+#define DIN3_INREG (__inreg__(DIN3_PORT))
+#define DIN3_DIRREG (__dirreg__(DIN3_PORT))
+#define DIO82_OUTREG (__outreg__(DIN3_PORT))
+#define DIO82_INREG (__inreg__(DIN3_PORT))
+#define DIO82_DIRREG (__dirreg__(DIN3_PORT))
 #endif</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>#ifdef ANALOG15
-#define DIO82_PRESC ANALOG15_PRESC
-#define  DIO82_CHANNEL ANALOG15_CHANNEL
-#endif</v>
-      </c>
-      <c r="I85" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef ANALOG15
-mcu_config_input(ANALOG15);
+      <c r="H85" s="6"/>
+      <c r="I85" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN3
+mcu_config_input(DIN3);
+#ifdef DIN3_PULLUP
+mcu_config_pullup(DIN3);
+#endif
 #endif</v>
       </c>
       <c r="J85" s="3"/>
@@ -8113,34 +8117,37 @@
         <f t="shared" si="0"/>
         <v>DIO83</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
+      <c r="C86" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4</v>
       </c>
       <c r="E86" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(RX_PORT) &amp;&amp; defined(RX_BIT))
+        <v>#if(defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
 #define DIO83 83
-#define RX 83
-#define DIO83_PORT (RX_PORT)
-#define DIO83_BIT (RX_BIT)
-#define RX_OUTREG (__outreg__(RX_PORT))
-#define RX_INREG (__inreg__(RX_PORT))
-#define RX_DIRREG (__dirreg__(RX_PORT))
-#define DIO83_OUTREG (__outreg__(RX_PORT))
-#define DIO83_INREG (__inreg__(RX_PORT))
-#define DIO83_DIRREG (__dirreg__(RX_PORT))
+#define DIN4 83
+#define DIO83_PORT (DIN4_PORT)
+#define DIO83_BIT (DIN4_BIT)
+#define DIN4_OUTREG (__outreg__(DIN4_PORT))
+#define DIN4_INREG (__inreg__(DIN4_PORT))
+#define DIN4_DIRREG (__dirreg__(DIN4_PORT))
+#define DIO83_OUTREG (__outreg__(DIN4_PORT))
+#define DIO83_INREG (__inreg__(DIN4_PORT))
+#define DIO83_DIRREG (__dirreg__(DIN4_PORT))
 #endif</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>#ifdef RX
-mcu_config_input(RX);
+      <c r="H86" s="6"/>
+      <c r="I86" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN4
+mcu_config_input(DIN4);
+#ifdef DIN4_PULLUP
+mcu_config_pullup(DIN4);
+#endif
 #endif</v>
       </c>
       <c r="J86" s="3"/>
@@ -8172,40 +8179,35 @@
         <v>DIO84</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E87" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
+        <v>#if(defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
 #define DIO84 84
-#define DIN0 84
-#define DIO84_PORT (DIN0_PORT)
-#define DIO84_BIT (DIN0_BIT)
-#define DIN0_OUTREG (__outreg__(DIN0_PORT))
-#define DIN0_INREG (__inreg__(DIN0_PORT))
-#define DIN0_DIRREG (__dirreg__(DIN0_PORT))
-#define DIO84_OUTREG (__outreg__(DIN0_PORT))
-#define DIO84_INREG (__inreg__(DIN0_PORT))
-#define DIO84_DIRREG (__dirreg__(DIN0_PORT))
+#define DIN5 84
+#define DIO84_PORT (DIN5_PORT)
+#define DIO84_BIT (DIN5_BIT)
+#define DIN5_OUTREG (__outreg__(DIN5_PORT))
+#define DIN5_INREG (__inreg__(DIN5_PORT))
+#define DIN5_DIRREG (__dirreg__(DIN5_PORT))
+#define DIO84_OUTREG (__outreg__(DIN5_PORT))
+#define DIO84_INREG (__inreg__(DIN5_PORT))
+#define DIO84_DIRREG (__dirreg__(DIN5_PORT))
 #endif</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6" t="str">
-        <f>"#ifdef "&amp;C87&amp;"
-mcu_config_input("&amp;C87&amp;");
-#ifdef "&amp;C87&amp;"_PULLUP
-mcu_config_pullup("&amp;C87&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef DIN0
-mcu_config_input(DIN0);
-#ifdef DIN0_PULLUP
-mcu_config_pullup(DIN0);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN5
+mcu_config_input(DIN5);
+#ifdef DIN5_PULLUP
+mcu_config_pullup(DIN5);
 #endif
 #endif</v>
       </c>
@@ -8238,40 +8240,35 @@
         <v>DIO85</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E88" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
+        <v>#if(defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
 #define DIO85 85
-#define DIN1 85
-#define DIO85_PORT (DIN1_PORT)
-#define DIO85_BIT (DIN1_BIT)
-#define DIN1_OUTREG (__outreg__(DIN1_PORT))
-#define DIN1_INREG (__inreg__(DIN1_PORT))
-#define DIN1_DIRREG (__dirreg__(DIN1_PORT))
-#define DIO85_OUTREG (__outreg__(DIN1_PORT))
-#define DIO85_INREG (__inreg__(DIN1_PORT))
-#define DIO85_DIRREG (__dirreg__(DIN1_PORT))
+#define DIN6 85
+#define DIO85_PORT (DIN6_PORT)
+#define DIO85_BIT (DIN6_BIT)
+#define DIN6_OUTREG (__outreg__(DIN6_PORT))
+#define DIN6_INREG (__inreg__(DIN6_PORT))
+#define DIN6_DIRREG (__dirreg__(DIN6_PORT))
+#define DIO85_OUTREG (__outreg__(DIN6_PORT))
+#define DIO85_INREG (__inreg__(DIN6_PORT))
+#define DIO85_DIRREG (__dirreg__(DIN6_PORT))
 #endif</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6" t="str">
-        <f t="shared" ref="I88:I102" si="14">"#ifdef "&amp;C88&amp;"
-mcu_config_input("&amp;C88&amp;");
-#ifdef "&amp;C88&amp;"_PULLUP
-mcu_config_pullup("&amp;C88&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef DIN1
-mcu_config_input(DIN1);
-#ifdef DIN1_PULLUP
-mcu_config_pullup(DIN1);
+        <f t="shared" si="14"/>
+        <v>#ifdef DIN6
+mcu_config_input(DIN6);
+#ifdef DIN6_PULLUP
+mcu_config_pullup(DIN6);
 #endif
 #endif</v>
       </c>
@@ -8304,24 +8301,24 @@
         <v>DIO86</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E89" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
+        <v>#if(defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
 #define DIO86 86
-#define DIN2 86
-#define DIO86_PORT (DIN2_PORT)
-#define DIO86_BIT (DIN2_BIT)
-#define DIN2_OUTREG (__outreg__(DIN2_PORT))
-#define DIN2_INREG (__inreg__(DIN2_PORT))
-#define DIN2_DIRREG (__dirreg__(DIN2_PORT))
-#define DIO86_OUTREG (__outreg__(DIN2_PORT))
-#define DIO86_INREG (__inreg__(DIN2_PORT))
-#define DIO86_DIRREG (__dirreg__(DIN2_PORT))
+#define DIN7 86
+#define DIO86_PORT (DIN7_PORT)
+#define DIO86_BIT (DIN7_BIT)
+#define DIN7_OUTREG (__outreg__(DIN7_PORT))
+#define DIN7_INREG (__inreg__(DIN7_PORT))
+#define DIN7_DIRREG (__dirreg__(DIN7_PORT))
+#define DIO86_OUTREG (__outreg__(DIN7_PORT))
+#define DIO86_INREG (__inreg__(DIN7_PORT))
+#define DIO86_DIRREG (__dirreg__(DIN7_PORT))
 #endif</v>
       </c>
       <c r="F89" s="6"/>
@@ -8329,10 +8326,10 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN2
-mcu_config_input(DIN2);
-#ifdef DIN2_PULLUP
-mcu_config_pullup(DIN2);
+        <v>#ifdef DIN7
+mcu_config_input(DIN7);
+#ifdef DIN7_PULLUP
+mcu_config_pullup(DIN7);
 #endif
 #endif</v>
       </c>
@@ -8365,24 +8362,24 @@
         <v>DIO87</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E90" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
+        <v>#if(defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
 #define DIO87 87
-#define DIN3 87
-#define DIO87_PORT (DIN3_PORT)
-#define DIO87_BIT (DIN3_BIT)
-#define DIN3_OUTREG (__outreg__(DIN3_PORT))
-#define DIN3_INREG (__inreg__(DIN3_PORT))
-#define DIN3_DIRREG (__dirreg__(DIN3_PORT))
-#define DIO87_OUTREG (__outreg__(DIN3_PORT))
-#define DIO87_INREG (__inreg__(DIN3_PORT))
-#define DIO87_DIRREG (__dirreg__(DIN3_PORT))
+#define DIN8 87
+#define DIO87_PORT (DIN8_PORT)
+#define DIO87_BIT (DIN8_BIT)
+#define DIN8_OUTREG (__outreg__(DIN8_PORT))
+#define DIN8_INREG (__inreg__(DIN8_PORT))
+#define DIN8_DIRREG (__dirreg__(DIN8_PORT))
+#define DIO87_OUTREG (__outreg__(DIN8_PORT))
+#define DIO87_INREG (__inreg__(DIN8_PORT))
+#define DIO87_DIRREG (__dirreg__(DIN8_PORT))
 #endif</v>
       </c>
       <c r="F90" s="6"/>
@@ -8390,10 +8387,10 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN3
-mcu_config_input(DIN3);
-#ifdef DIN3_PULLUP
-mcu_config_pullup(DIN3);
+        <v>#ifdef DIN8
+mcu_config_input(DIN8);
+#ifdef DIN8_PULLUP
+mcu_config_pullup(DIN8);
 #endif
 #endif</v>
       </c>
@@ -8426,24 +8423,24 @@
         <v>DIO88</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
+        <v>#if(defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
 #define DIO88 88
-#define DIN4 88
-#define DIO88_PORT (DIN4_PORT)
-#define DIO88_BIT (DIN4_BIT)
-#define DIN4_OUTREG (__outreg__(DIN4_PORT))
-#define DIN4_INREG (__inreg__(DIN4_PORT))
-#define DIN4_DIRREG (__dirreg__(DIN4_PORT))
-#define DIO88_OUTREG (__outreg__(DIN4_PORT))
-#define DIO88_INREG (__inreg__(DIN4_PORT))
-#define DIO88_DIRREG (__dirreg__(DIN4_PORT))
+#define DIN9 88
+#define DIO88_PORT (DIN9_PORT)
+#define DIO88_BIT (DIN9_BIT)
+#define DIN9_OUTREG (__outreg__(DIN9_PORT))
+#define DIN9_INREG (__inreg__(DIN9_PORT))
+#define DIN9_DIRREG (__dirreg__(DIN9_PORT))
+#define DIO88_OUTREG (__outreg__(DIN9_PORT))
+#define DIO88_INREG (__inreg__(DIN9_PORT))
+#define DIO88_DIRREG (__dirreg__(DIN9_PORT))
 #endif</v>
       </c>
       <c r="F91" s="6"/>
@@ -8451,10 +8448,10 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN4
-mcu_config_input(DIN4);
-#ifdef DIN4_PULLUP
-mcu_config_pullup(DIN4);
+        <v>#ifdef DIN9
+mcu_config_input(DIN9);
+#ifdef DIN9_PULLUP
+mcu_config_pullup(DIN9);
 #endif
 #endif</v>
       </c>
@@ -8487,24 +8484,24 @@
         <v>DIO89</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E92" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
+        <v>#if(defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
 #define DIO89 89
-#define DIN5 89
-#define DIO89_PORT (DIN5_PORT)
-#define DIO89_BIT (DIN5_BIT)
-#define DIN5_OUTREG (__outreg__(DIN5_PORT))
-#define DIN5_INREG (__inreg__(DIN5_PORT))
-#define DIN5_DIRREG (__dirreg__(DIN5_PORT))
-#define DIO89_OUTREG (__outreg__(DIN5_PORT))
-#define DIO89_INREG (__inreg__(DIN5_PORT))
-#define DIO89_DIRREG (__dirreg__(DIN5_PORT))
+#define DIN10 89
+#define DIO89_PORT (DIN10_PORT)
+#define DIO89_BIT (DIN10_BIT)
+#define DIN10_OUTREG (__outreg__(DIN10_PORT))
+#define DIN10_INREG (__inreg__(DIN10_PORT))
+#define DIN10_DIRREG (__dirreg__(DIN10_PORT))
+#define DIO89_OUTREG (__outreg__(DIN10_PORT))
+#define DIO89_INREG (__inreg__(DIN10_PORT))
+#define DIO89_DIRREG (__dirreg__(DIN10_PORT))
 #endif</v>
       </c>
       <c r="F92" s="6"/>
@@ -8512,10 +8509,10 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN5
-mcu_config_input(DIN5);
-#ifdef DIN5_PULLUP
-mcu_config_pullup(DIN5);
+        <v>#ifdef DIN10
+mcu_config_input(DIN10);
+#ifdef DIN10_PULLUP
+mcu_config_pullup(DIN10);
 #endif
 #endif</v>
       </c>
@@ -8548,24 +8545,24 @@
         <v>DIO90</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E93" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
+        <v>#if(defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
 #define DIO90 90
-#define DIN6 90
-#define DIO90_PORT (DIN6_PORT)
-#define DIO90_BIT (DIN6_BIT)
-#define DIN6_OUTREG (__outreg__(DIN6_PORT))
-#define DIN6_INREG (__inreg__(DIN6_PORT))
-#define DIN6_DIRREG (__dirreg__(DIN6_PORT))
-#define DIO90_OUTREG (__outreg__(DIN6_PORT))
-#define DIO90_INREG (__inreg__(DIN6_PORT))
-#define DIO90_DIRREG (__dirreg__(DIN6_PORT))
+#define DIN11 90
+#define DIO90_PORT (DIN11_PORT)
+#define DIO90_BIT (DIN11_BIT)
+#define DIN11_OUTREG (__outreg__(DIN11_PORT))
+#define DIN11_INREG (__inreg__(DIN11_PORT))
+#define DIN11_DIRREG (__dirreg__(DIN11_PORT))
+#define DIO90_OUTREG (__outreg__(DIN11_PORT))
+#define DIO90_INREG (__inreg__(DIN11_PORT))
+#define DIO90_DIRREG (__dirreg__(DIN11_PORT))
 #endif</v>
       </c>
       <c r="F93" s="6"/>
@@ -8573,10 +8570,10 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN6
-mcu_config_input(DIN6);
-#ifdef DIN6_PULLUP
-mcu_config_pullup(DIN6);
+        <v>#ifdef DIN11
+mcu_config_input(DIN11);
+#ifdef DIN11_PULLUP
+mcu_config_pullup(DIN11);
 #endif
 #endif</v>
       </c>
@@ -8609,24 +8606,24 @@
         <v>DIO91</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E94" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
+        <v>#if(defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
 #define DIO91 91
-#define DIN7 91
-#define DIO91_PORT (DIN7_PORT)
-#define DIO91_BIT (DIN7_BIT)
-#define DIN7_OUTREG (__outreg__(DIN7_PORT))
-#define DIN7_INREG (__inreg__(DIN7_PORT))
-#define DIN7_DIRREG (__dirreg__(DIN7_PORT))
-#define DIO91_OUTREG (__outreg__(DIN7_PORT))
-#define DIO91_INREG (__inreg__(DIN7_PORT))
-#define DIO91_DIRREG (__dirreg__(DIN7_PORT))
+#define DIN12 91
+#define DIO91_PORT (DIN12_PORT)
+#define DIO91_BIT (DIN12_BIT)
+#define DIN12_OUTREG (__outreg__(DIN12_PORT))
+#define DIN12_INREG (__inreg__(DIN12_PORT))
+#define DIN12_DIRREG (__dirreg__(DIN12_PORT))
+#define DIO91_OUTREG (__outreg__(DIN12_PORT))
+#define DIO91_INREG (__inreg__(DIN12_PORT))
+#define DIO91_DIRREG (__dirreg__(DIN12_PORT))
 #endif</v>
       </c>
       <c r="F94" s="6"/>
@@ -8634,10 +8631,10 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN7
-mcu_config_input(DIN7);
-#ifdef DIN7_PULLUP
-mcu_config_pullup(DIN7);
+        <v>#ifdef DIN12
+mcu_config_input(DIN12);
+#ifdef DIN12_PULLUP
+mcu_config_pullup(DIN12);
 #endif
 #endif</v>
       </c>
@@ -8670,24 +8667,24 @@
         <v>DIO92</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E95" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
+        <v>#if(defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
 #define DIO92 92
-#define DIN8 92
-#define DIO92_PORT (DIN8_PORT)
-#define DIO92_BIT (DIN8_BIT)
-#define DIN8_OUTREG (__outreg__(DIN8_PORT))
-#define DIN8_INREG (__inreg__(DIN8_PORT))
-#define DIN8_DIRREG (__dirreg__(DIN8_PORT))
-#define DIO92_OUTREG (__outreg__(DIN8_PORT))
-#define DIO92_INREG (__inreg__(DIN8_PORT))
-#define DIO92_DIRREG (__dirreg__(DIN8_PORT))
+#define DIN13 92
+#define DIO92_PORT (DIN13_PORT)
+#define DIO92_BIT (DIN13_BIT)
+#define DIN13_OUTREG (__outreg__(DIN13_PORT))
+#define DIN13_INREG (__inreg__(DIN13_PORT))
+#define DIN13_DIRREG (__dirreg__(DIN13_PORT))
+#define DIO92_OUTREG (__outreg__(DIN13_PORT))
+#define DIO92_INREG (__inreg__(DIN13_PORT))
+#define DIO92_DIRREG (__dirreg__(DIN13_PORT))
 #endif</v>
       </c>
       <c r="F95" s="6"/>
@@ -8695,10 +8692,10 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN8
-mcu_config_input(DIN8);
-#ifdef DIN8_PULLUP
-mcu_config_pullup(DIN8);
+        <v>#ifdef DIN13
+mcu_config_input(DIN13);
+#ifdef DIN13_PULLUP
+mcu_config_pullup(DIN13);
 #endif
 #endif</v>
       </c>
@@ -8731,24 +8728,24 @@
         <v>DIO93</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E96" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
+        <v>#if(defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
 #define DIO93 93
-#define DIN9 93
-#define DIO93_PORT (DIN9_PORT)
-#define DIO93_BIT (DIN9_BIT)
-#define DIN9_OUTREG (__outreg__(DIN9_PORT))
-#define DIN9_INREG (__inreg__(DIN9_PORT))
-#define DIN9_DIRREG (__dirreg__(DIN9_PORT))
-#define DIO93_OUTREG (__outreg__(DIN9_PORT))
-#define DIO93_INREG (__inreg__(DIN9_PORT))
-#define DIO93_DIRREG (__dirreg__(DIN9_PORT))
+#define DIN14 93
+#define DIO93_PORT (DIN14_PORT)
+#define DIO93_BIT (DIN14_BIT)
+#define DIN14_OUTREG (__outreg__(DIN14_PORT))
+#define DIN14_INREG (__inreg__(DIN14_PORT))
+#define DIN14_DIRREG (__dirreg__(DIN14_PORT))
+#define DIO93_OUTREG (__outreg__(DIN14_PORT))
+#define DIO93_INREG (__inreg__(DIN14_PORT))
+#define DIO93_DIRREG (__dirreg__(DIN14_PORT))
 #endif</v>
       </c>
       <c r="F96" s="6"/>
@@ -8756,10 +8753,10 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN9
-mcu_config_input(DIN9);
-#ifdef DIN9_PULLUP
-mcu_config_pullup(DIN9);
+        <v>#ifdef DIN14
+mcu_config_input(DIN14);
+#ifdef DIN14_PULLUP
+mcu_config_pullup(DIN14);
 #endif
 #endif</v>
       </c>
@@ -8792,24 +8789,24 @@
         <v>DIO94</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>#if(defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
+        <v>#if(defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
 #define DIO94 94
-#define DIN10 94
-#define DIO94_PORT (DIN10_PORT)
-#define DIO94_BIT (DIN10_BIT)
-#define DIN10_OUTREG (__outreg__(DIN10_PORT))
-#define DIN10_INREG (__inreg__(DIN10_PORT))
-#define DIN10_DIRREG (__dirreg__(DIN10_PORT))
-#define DIO94_OUTREG (__outreg__(DIN10_PORT))
-#define DIO94_INREG (__inreg__(DIN10_PORT))
-#define DIO94_DIRREG (__dirreg__(DIN10_PORT))
+#define DIN15 94
+#define DIO94_PORT (DIN15_PORT)
+#define DIO94_BIT (DIN15_BIT)
+#define DIN15_OUTREG (__outreg__(DIN15_PORT))
+#define DIN15_INREG (__inreg__(DIN15_PORT))
+#define DIN15_DIRREG (__dirreg__(DIN15_PORT))
+#define DIO94_OUTREG (__outreg__(DIN15_PORT))
+#define DIO94_INREG (__inreg__(DIN15_PORT))
+#define DIO94_DIRREG (__dirreg__(DIN15_PORT))
 #endif</v>
       </c>
       <c r="F97" s="6"/>
@@ -8817,10 +8814,10 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>#ifdef DIN10
-mcu_config_input(DIN10);
-#ifdef DIN10_PULLUP
-mcu_config_pullup(DIN10);
+        <v>#ifdef DIN15
+mcu_config_input(DIN15);
+#ifdef DIN15_PULLUP
+mcu_config_pullup(DIN15);
 #endif
 #endif</v>
       </c>
@@ -8844,310 +8841,155 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>95</v>
-      </c>
-      <c r="B98" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO95</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="7">
-        <v>11</v>
-      </c>
-      <c r="E98" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>#if(defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
-#define DIO95 95
-#define DIN11 95
-#define DIO95_PORT (DIN11_PORT)
-#define DIO95_BIT (DIN11_BIT)
-#define DIN11_OUTREG (__outreg__(DIN11_PORT))
-#define DIN11_INREG (__inreg__(DIN11_PORT))
-#define DIN11_DIRREG (__dirreg__(DIN11_PORT))
-#define DIO95_OUTREG (__outreg__(DIN11_PORT))
-#define DIO95_INREG (__inreg__(DIN11_PORT))
-#define DIO95_DIRREG (__dirreg__(DIN11_PORT))
-#endif</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>#ifdef DIN11
-mcu_config_input(DIN11);
-#ifdef DIN11_PULLUP
-mcu_config_pullup(DIN11);
-#endif
-#endif</v>
-      </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-    </row>
-    <row r="99" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>96</v>
-      </c>
-      <c r="B99" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO96</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="7">
-        <v>12</v>
-      </c>
-      <c r="E99" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>#if(defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
-#define DIO96 96
-#define DIN12 96
-#define DIO96_PORT (DIN12_PORT)
-#define DIO96_BIT (DIN12_BIT)
-#define DIN12_OUTREG (__outreg__(DIN12_PORT))
-#define DIN12_INREG (__inreg__(DIN12_PORT))
-#define DIN12_DIRREG (__dirreg__(DIN12_PORT))
-#define DIO96_OUTREG (__outreg__(DIN12_PORT))
-#define DIO96_INREG (__inreg__(DIN12_PORT))
-#define DIO96_DIRREG (__dirreg__(DIN12_PORT))
-#endif</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>#ifdef DIN12
-mcu_config_input(DIN12);
-#ifdef DIN12_PULLUP
-mcu_config_pullup(DIN12);
-#endif
-#endif</v>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-    </row>
-    <row r="100" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>97</v>
-      </c>
-      <c r="B100" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO97</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="7">
-        <v>13</v>
-      </c>
-      <c r="E100" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>#if(defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
-#define DIO97 97
-#define DIN13 97
-#define DIO97_PORT (DIN13_PORT)
-#define DIO97_BIT (DIN13_BIT)
-#define DIN13_OUTREG (__outreg__(DIN13_PORT))
-#define DIN13_INREG (__inreg__(DIN13_PORT))
-#define DIN13_DIRREG (__dirreg__(DIN13_PORT))
-#define DIO97_OUTREG (__outreg__(DIN13_PORT))
-#define DIO97_INREG (__inreg__(DIN13_PORT))
-#define DIO97_DIRREG (__dirreg__(DIN13_PORT))
-#endif</v>
-      </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>#ifdef DIN13
-mcu_config_input(DIN13);
-#ifdef DIN13_PULLUP
-mcu_config_pullup(DIN13);
-#endif
-#endif</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-    </row>
-    <row r="101" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>98</v>
-      </c>
-      <c r="B101" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO98</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="7">
-        <v>14</v>
-      </c>
-      <c r="E101" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>#if(defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
-#define DIO98 98
-#define DIN14 98
-#define DIO98_PORT (DIN14_PORT)
-#define DIO98_BIT (DIN14_BIT)
-#define DIN14_OUTREG (__outreg__(DIN14_PORT))
-#define DIN14_INREG (__inreg__(DIN14_PORT))
-#define DIN14_DIRREG (__dirreg__(DIN14_PORT))
-#define DIO98_OUTREG (__outreg__(DIN14_PORT))
-#define DIO98_INREG (__inreg__(DIN14_PORT))
-#define DIO98_DIRREG (__dirreg__(DIN14_PORT))
-#endif</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>#ifdef DIN14
-mcu_config_input(DIN14);
-#ifdef DIN14_PULLUP
-mcu_config_pullup(DIN14);
-#endif
-#endif</v>
-      </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-    </row>
-    <row r="102" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>99</v>
-      </c>
-      <c r="B102" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO99</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" s="7">
-        <v>15</v>
-      </c>
-      <c r="E102" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>#if(defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
-#define DIO99 99
-#define DIN15 99
-#define DIO99_PORT (DIN15_PORT)
-#define DIO99_BIT (DIN15_BIT)
-#define DIN15_OUTREG (__outreg__(DIN15_PORT))
-#define DIN15_INREG (__inreg__(DIN15_PORT))
-#define DIN15_DIRREG (__dirreg__(DIN15_PORT))
-#define DIO99_OUTREG (__outreg__(DIN15_PORT))
-#define DIO99_INREG (__inreg__(DIN15_PORT))
-#define DIO99_DIRREG (__dirreg__(DIN15_PORT))
-#endif</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>#ifdef DIN15
-mcu_config_input(DIN15);
-#ifdef DIN15_PULLUP
-mcu_config_pullup(DIN15);
-#endif
-#endif</v>
-      </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
+    <row r="98" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+    </row>
+    <row r="99" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+    </row>
+    <row r="100" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+    </row>
+    <row r="101" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+    </row>
+    <row r="102" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
     </row>
     <row r="103" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -36029,156 +35871,6 @@
       <c r="AA998" s="1"/>
       <c r="AB998" s="1"/>
     </row>
-    <row r="999" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-      <c r="AA999" s="1"/>
-      <c r="AB999" s="1"/>
-    </row>
-    <row r="1000" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-      <c r="AA1000" s="1"/>
-      <c r="AB1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-      <c r="AA1001" s="1"/>
-      <c r="AB1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-      <c r="AA1002" s="1"/>
-      <c r="AB1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-      <c r="AA1003" s="1"/>
-      <c r="AB1003" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>

--- a/docs/avr_mcumap_gen.xlsx
+++ b/docs/avr_mcumap_gen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2EAB0-290E-47B4-9E0D-716B6CD5B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF4242A-11BF-4BF5-9C6C-A6022812C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>Names</t>
   </si>
@@ -349,6 +349,21 @@
   </si>
   <si>
     <t>STEPPER_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER1_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER2_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER3_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER4_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER5_ENABLE</t>
   </si>
 </sst>
 </file>
@@ -750,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B97" si="0">"DIO"&amp;A3</f>
+        <f t="shared" ref="B3:B98" si="0">"DIO"&amp;A3</f>
         <v>DIO0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -6767,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="6" t="str">
-        <f t="shared" ref="E65:E97" si="11">"#if(defined("&amp;C65&amp;"_PORT) &amp;&amp; defined("&amp;C65&amp;"_BIT))
+        <f t="shared" ref="E65:E102" si="11">"#if(defined("&amp;C65&amp;"_PORT) &amp;&amp; defined("&amp;C65&amp;"_BIT))
 #define "&amp;B65&amp;" "&amp;A65&amp;"
 #define "&amp;C65&amp;" "&amp;A65&amp;"
 #define "&amp;B65&amp;"_PORT ("&amp;C65&amp;"_PORT)
@@ -8842,15 +8857,45 @@
       <c r="AB97" s="3"/>
     </row>
     <row r="98" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO95</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#if(defined(STEPPER1_ENABLE_PORT) &amp;&amp; defined(STEPPER1_ENABLE_BIT))
+#define DIO95 95
+#define STEPPER1_ENABLE 95
+#define DIO95_PORT (STEPPER1_ENABLE_PORT)
+#define DIO95_BIT (STEPPER1_ENABLE_BIT)
+#define STEPPER1_ENABLE_OUTREG (__outreg__(STEPPER1_ENABLE_PORT))
+#define STEPPER1_ENABLE_INREG (__inreg__(STEPPER1_ENABLE_PORT))
+#define STEPPER1_ENABLE_DIRREG (__dirreg__(STEPPER1_ENABLE_PORT))
+#define DIO95_OUTREG (__outreg__(STEPPER1_ENABLE_PORT))
+#define DIO95_INREG (__inreg__(STEPPER1_ENABLE_PORT))
+#define DIO95_DIRREG (__dirreg__(STEPPER1_ENABLE_PORT))
+#endif</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="3" t="str">
+        <f t="shared" ref="I98:I102" si="15">"#ifdef "&amp;C98&amp;"
+mcu_config_ouput("&amp;C98&amp;");
+#endif"</f>
+        <v>#ifdef STEPPER1_ENABLE
+mcu_config_ouput(STEPPER1_ENABLE);
+#endif</v>
+      </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -8872,15 +8917,43 @@
       <c r="AB98" s="1"/>
     </row>
     <row r="99" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <f t="shared" ref="B99:B102" si="16">"DIO"&amp;A99</f>
+        <v>DIO96</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="7">
+        <v>2</v>
+      </c>
+      <c r="E99" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#if(defined(STEPPER2_ENABLE_PORT) &amp;&amp; defined(STEPPER2_ENABLE_BIT))
+#define DIO96 96
+#define STEPPER2_ENABLE 96
+#define DIO96_PORT (STEPPER2_ENABLE_PORT)
+#define DIO96_BIT (STEPPER2_ENABLE_BIT)
+#define STEPPER2_ENABLE_OUTREG (__outreg__(STEPPER2_ENABLE_PORT))
+#define STEPPER2_ENABLE_INREG (__inreg__(STEPPER2_ENABLE_PORT))
+#define STEPPER2_ENABLE_DIRREG (__dirreg__(STEPPER2_ENABLE_PORT))
+#define DIO96_OUTREG (__outreg__(STEPPER2_ENABLE_PORT))
+#define DIO96_INREG (__inreg__(STEPPER2_ENABLE_PORT))
+#define DIO96_DIRREG (__dirreg__(STEPPER2_ENABLE_PORT))
+#endif</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>#ifdef STEPPER2_ENABLE
+mcu_config_ouput(STEPPER2_ENABLE);
+#endif</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -8902,15 +8975,43 @@
       <c r="AB99" s="1"/>
     </row>
     <row r="100" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>DIO97</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="7">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#if(defined(STEPPER3_ENABLE_PORT) &amp;&amp; defined(STEPPER3_ENABLE_BIT))
+#define DIO97 97
+#define STEPPER3_ENABLE 97
+#define DIO97_PORT (STEPPER3_ENABLE_PORT)
+#define DIO97_BIT (STEPPER3_ENABLE_BIT)
+#define STEPPER3_ENABLE_OUTREG (__outreg__(STEPPER3_ENABLE_PORT))
+#define STEPPER3_ENABLE_INREG (__inreg__(STEPPER3_ENABLE_PORT))
+#define STEPPER3_ENABLE_DIRREG (__dirreg__(STEPPER3_ENABLE_PORT))
+#define DIO97_OUTREG (__outreg__(STEPPER3_ENABLE_PORT))
+#define DIO97_INREG (__inreg__(STEPPER3_ENABLE_PORT))
+#define DIO97_DIRREG (__dirreg__(STEPPER3_ENABLE_PORT))
+#endif</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>#ifdef STEPPER3_ENABLE
+mcu_config_ouput(STEPPER3_ENABLE);
+#endif</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -8932,15 +9033,43 @@
       <c r="AB100" s="1"/>
     </row>
     <row r="101" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>DIO98</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="7">
+        <v>4</v>
+      </c>
+      <c r="E101" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#if(defined(STEPPER4_ENABLE_PORT) &amp;&amp; defined(STEPPER4_ENABLE_BIT))
+#define DIO98 98
+#define STEPPER4_ENABLE 98
+#define DIO98_PORT (STEPPER4_ENABLE_PORT)
+#define DIO98_BIT (STEPPER4_ENABLE_BIT)
+#define STEPPER4_ENABLE_OUTREG (__outreg__(STEPPER4_ENABLE_PORT))
+#define STEPPER4_ENABLE_INREG (__inreg__(STEPPER4_ENABLE_PORT))
+#define STEPPER4_ENABLE_DIRREG (__dirreg__(STEPPER4_ENABLE_PORT))
+#define DIO98_OUTREG (__outreg__(STEPPER4_ENABLE_PORT))
+#define DIO98_INREG (__inreg__(STEPPER4_ENABLE_PORT))
+#define DIO98_DIRREG (__dirreg__(STEPPER4_ENABLE_PORT))
+#endif</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>#ifdef STEPPER4_ENABLE
+mcu_config_ouput(STEPPER4_ENABLE);
+#endif</v>
+      </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -8962,15 +9091,43 @@
       <c r="AB101" s="1"/>
     </row>
     <row r="102" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>DIO99</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="7">
+        <v>5</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>#if(defined(STEPPER5_ENABLE_PORT) &amp;&amp; defined(STEPPER5_ENABLE_BIT))
+#define DIO99 99
+#define STEPPER5_ENABLE 99
+#define DIO99_PORT (STEPPER5_ENABLE_PORT)
+#define DIO99_BIT (STEPPER5_ENABLE_BIT)
+#define STEPPER5_ENABLE_OUTREG (__outreg__(STEPPER5_ENABLE_PORT))
+#define STEPPER5_ENABLE_INREG (__inreg__(STEPPER5_ENABLE_PORT))
+#define STEPPER5_ENABLE_DIRREG (__dirreg__(STEPPER5_ENABLE_PORT))
+#define DIO99_OUTREG (__outreg__(STEPPER5_ENABLE_PORT))
+#define DIO99_INREG (__inreg__(STEPPER5_ENABLE_PORT))
+#define DIO99_DIRREG (__dirreg__(STEPPER5_ENABLE_PORT))
+#endif</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>#ifdef STEPPER5_ENABLE
+mcu_config_ouput(STEPPER5_ENABLE);
+#endif</v>
+      </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
